--- a/Arquivos/Como_acessa_data.xlsx
+++ b/Arquivos/Como_acessa_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b5dde4ea31a779cd/Documentos/Mestrado/Arquivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:40009_{83565463-BC6C-4944-A005-0E04596B1C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17B238AA-06AE-4CD0-A274-E8470CF14087}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:40009_{83565463-BC6C-4944-A005-0E04596B1C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{157EF679-3765-4B31-9078-B21EDEDFEFB2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="12">
   <si>
     <t>Data</t>
   </si>
@@ -612,6 +612,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -909,10 +913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H299"/>
+  <dimension ref="A1:H337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
-      <selection activeCell="A280" sqref="A280"/>
+    <sheetView tabSelected="1" topLeftCell="A314" workbookViewId="0">
+      <selection activeCell="A321" sqref="A321:H337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9887,6 +9891,1146 @@
         <v>06/11/2023</v>
       </c>
     </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>1</v>
+      </c>
+      <c r="B300">
+        <v>20231114</v>
+      </c>
+      <c r="C300">
+        <v>62</v>
+      </c>
+      <c r="D300">
+        <v>55</v>
+      </c>
+      <c r="E300" t="str">
+        <f t="shared" ref="E300" si="44">RIGHT(B300,2)</f>
+        <v>14</v>
+      </c>
+      <c r="F300" t="str">
+        <f t="shared" ref="F300" si="45">MID(B300,5,2)</f>
+        <v>11</v>
+      </c>
+      <c r="G300" t="str">
+        <f t="shared" ref="G300" si="46">LEFT(B300,4)</f>
+        <v>2023</v>
+      </c>
+      <c r="H300" t="str">
+        <f t="shared" ref="H300" si="47">_xlfn.CONCAT(E300,"/",F300,"/",G300)</f>
+        <v>14/11/2023</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>1</v>
+      </c>
+      <c r="B301">
+        <v>20231115</v>
+      </c>
+      <c r="C301">
+        <v>58</v>
+      </c>
+      <c r="D301">
+        <v>58</v>
+      </c>
+      <c r="E301" t="str">
+        <f t="shared" ref="E301:E320" si="48">RIGHT(B301,2)</f>
+        <v>15</v>
+      </c>
+      <c r="F301" t="str">
+        <f t="shared" ref="F301:F320" si="49">MID(B301,5,2)</f>
+        <v>11</v>
+      </c>
+      <c r="G301" t="str">
+        <f t="shared" ref="G301:G320" si="50">LEFT(B301,4)</f>
+        <v>2023</v>
+      </c>
+      <c r="H301" t="str">
+        <f t="shared" ref="H301:H320" si="51">_xlfn.CONCAT(E301,"/",F301,"/",G301)</f>
+        <v>15/11/2023</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>1</v>
+      </c>
+      <c r="B302">
+        <v>20231116</v>
+      </c>
+      <c r="C302">
+        <v>44</v>
+      </c>
+      <c r="D302">
+        <v>48</v>
+      </c>
+      <c r="E302" t="str">
+        <f t="shared" si="48"/>
+        <v>16</v>
+      </c>
+      <c r="F302" t="str">
+        <f t="shared" si="49"/>
+        <v>11</v>
+      </c>
+      <c r="G302" t="str">
+        <f t="shared" si="50"/>
+        <v>2023</v>
+      </c>
+      <c r="H302" t="str">
+        <f t="shared" si="51"/>
+        <v>16/11/2023</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>1</v>
+      </c>
+      <c r="B303">
+        <v>20231119</v>
+      </c>
+      <c r="C303">
+        <v>43</v>
+      </c>
+      <c r="D303">
+        <v>50</v>
+      </c>
+      <c r="E303" t="str">
+        <f t="shared" si="48"/>
+        <v>19</v>
+      </c>
+      <c r="F303" t="str">
+        <f t="shared" si="49"/>
+        <v>11</v>
+      </c>
+      <c r="G303" t="str">
+        <f t="shared" si="50"/>
+        <v>2023</v>
+      </c>
+      <c r="H303" t="str">
+        <f t="shared" si="51"/>
+        <v>19/11/2023</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>1</v>
+      </c>
+      <c r="B304">
+        <v>20231113</v>
+      </c>
+      <c r="C304">
+        <v>40</v>
+      </c>
+      <c r="D304">
+        <v>39</v>
+      </c>
+      <c r="E304" t="str">
+        <f t="shared" si="48"/>
+        <v>13</v>
+      </c>
+      <c r="F304" t="str">
+        <f t="shared" si="49"/>
+        <v>11</v>
+      </c>
+      <c r="G304" t="str">
+        <f t="shared" si="50"/>
+        <v>2023</v>
+      </c>
+      <c r="H304" t="str">
+        <f t="shared" si="51"/>
+        <v>13/11/2023</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>1</v>
+      </c>
+      <c r="B305">
+        <v>20231117</v>
+      </c>
+      <c r="C305">
+        <v>38</v>
+      </c>
+      <c r="D305">
+        <v>37</v>
+      </c>
+      <c r="E305" t="str">
+        <f t="shared" si="48"/>
+        <v>17</v>
+      </c>
+      <c r="F305" t="str">
+        <f t="shared" si="49"/>
+        <v>11</v>
+      </c>
+      <c r="G305" t="str">
+        <f t="shared" si="50"/>
+        <v>2023</v>
+      </c>
+      <c r="H305" t="str">
+        <f t="shared" si="51"/>
+        <v>17/11/2023</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>1</v>
+      </c>
+      <c r="B306">
+        <v>20231118</v>
+      </c>
+      <c r="C306">
+        <v>29</v>
+      </c>
+      <c r="D306">
+        <v>34</v>
+      </c>
+      <c r="E306" t="str">
+        <f t="shared" si="48"/>
+        <v>18</v>
+      </c>
+      <c r="F306" t="str">
+        <f t="shared" si="49"/>
+        <v>11</v>
+      </c>
+      <c r="G306" t="str">
+        <f t="shared" si="50"/>
+        <v>2023</v>
+      </c>
+      <c r="H306" t="str">
+        <f t="shared" si="51"/>
+        <v>18/11/2023</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>2</v>
+      </c>
+      <c r="B307">
+        <v>20231114</v>
+      </c>
+      <c r="C307">
+        <v>13</v>
+      </c>
+      <c r="D307">
+        <v>40</v>
+      </c>
+      <c r="E307" t="str">
+        <f t="shared" si="48"/>
+        <v>14</v>
+      </c>
+      <c r="F307" t="str">
+        <f t="shared" si="49"/>
+        <v>11</v>
+      </c>
+      <c r="G307" t="str">
+        <f t="shared" si="50"/>
+        <v>2023</v>
+      </c>
+      <c r="H307" t="str">
+        <f t="shared" si="51"/>
+        <v>14/11/2023</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>2</v>
+      </c>
+      <c r="B308">
+        <v>20231115</v>
+      </c>
+      <c r="C308">
+        <v>13</v>
+      </c>
+      <c r="D308">
+        <v>57</v>
+      </c>
+      <c r="E308" t="str">
+        <f t="shared" si="48"/>
+        <v>15</v>
+      </c>
+      <c r="F308" t="str">
+        <f t="shared" si="49"/>
+        <v>11</v>
+      </c>
+      <c r="G308" t="str">
+        <f t="shared" si="50"/>
+        <v>2023</v>
+      </c>
+      <c r="H308" t="str">
+        <f t="shared" si="51"/>
+        <v>15/11/2023</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>2</v>
+      </c>
+      <c r="B309">
+        <v>20231113</v>
+      </c>
+      <c r="C309">
+        <v>12</v>
+      </c>
+      <c r="D309">
+        <v>43</v>
+      </c>
+      <c r="E309" t="str">
+        <f t="shared" si="48"/>
+        <v>13</v>
+      </c>
+      <c r="F309" t="str">
+        <f t="shared" si="49"/>
+        <v>11</v>
+      </c>
+      <c r="G309" t="str">
+        <f t="shared" si="50"/>
+        <v>2023</v>
+      </c>
+      <c r="H309" t="str">
+        <f t="shared" si="51"/>
+        <v>13/11/2023</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>2</v>
+      </c>
+      <c r="B310">
+        <v>20231117</v>
+      </c>
+      <c r="C310">
+        <v>12</v>
+      </c>
+      <c r="D310">
+        <v>50</v>
+      </c>
+      <c r="E310" t="str">
+        <f t="shared" si="48"/>
+        <v>17</v>
+      </c>
+      <c r="F310" t="str">
+        <f t="shared" si="49"/>
+        <v>11</v>
+      </c>
+      <c r="G310" t="str">
+        <f t="shared" si="50"/>
+        <v>2023</v>
+      </c>
+      <c r="H310" t="str">
+        <f t="shared" si="51"/>
+        <v>17/11/2023</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>2</v>
+      </c>
+      <c r="B311">
+        <v>20231116</v>
+      </c>
+      <c r="C311">
+        <v>11</v>
+      </c>
+      <c r="D311">
+        <v>44</v>
+      </c>
+      <c r="E311" t="str">
+        <f t="shared" si="48"/>
+        <v>16</v>
+      </c>
+      <c r="F311" t="str">
+        <f t="shared" si="49"/>
+        <v>11</v>
+      </c>
+      <c r="G311" t="str">
+        <f t="shared" si="50"/>
+        <v>2023</v>
+      </c>
+      <c r="H311" t="str">
+        <f t="shared" si="51"/>
+        <v>16/11/2023</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>2</v>
+      </c>
+      <c r="B312">
+        <v>20231118</v>
+      </c>
+      <c r="C312">
+        <v>11</v>
+      </c>
+      <c r="D312">
+        <v>34</v>
+      </c>
+      <c r="E312" t="str">
+        <f t="shared" si="48"/>
+        <v>18</v>
+      </c>
+      <c r="F312" t="str">
+        <f t="shared" si="49"/>
+        <v>11</v>
+      </c>
+      <c r="G312" t="str">
+        <f t="shared" si="50"/>
+        <v>2023</v>
+      </c>
+      <c r="H312" t="str">
+        <f t="shared" si="51"/>
+        <v>18/11/2023</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>2</v>
+      </c>
+      <c r="B313">
+        <v>20231119</v>
+      </c>
+      <c r="C313">
+        <v>10</v>
+      </c>
+      <c r="D313">
+        <v>37</v>
+      </c>
+      <c r="E313" t="str">
+        <f t="shared" si="48"/>
+        <v>19</v>
+      </c>
+      <c r="F313" t="str">
+        <f t="shared" si="49"/>
+        <v>11</v>
+      </c>
+      <c r="G313" t="str">
+        <f t="shared" si="50"/>
+        <v>2023</v>
+      </c>
+      <c r="H313" t="str">
+        <f t="shared" si="51"/>
+        <v>19/11/2023</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>3</v>
+      </c>
+      <c r="B314">
+        <v>20231117</v>
+      </c>
+      <c r="C314">
+        <v>4</v>
+      </c>
+      <c r="D314">
+        <v>1</v>
+      </c>
+      <c r="E314" t="str">
+        <f t="shared" si="48"/>
+        <v>17</v>
+      </c>
+      <c r="F314" t="str">
+        <f t="shared" si="49"/>
+        <v>11</v>
+      </c>
+      <c r="G314" t="str">
+        <f t="shared" si="50"/>
+        <v>2023</v>
+      </c>
+      <c r="H314" t="str">
+        <f t="shared" si="51"/>
+        <v>17/11/2023</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>4</v>
+      </c>
+      <c r="B315">
+        <v>20231118</v>
+      </c>
+      <c r="C315">
+        <v>4</v>
+      </c>
+      <c r="D315">
+        <v>3</v>
+      </c>
+      <c r="E315" t="str">
+        <f t="shared" si="48"/>
+        <v>18</v>
+      </c>
+      <c r="F315" t="str">
+        <f t="shared" si="49"/>
+        <v>11</v>
+      </c>
+      <c r="G315" t="str">
+        <f t="shared" si="50"/>
+        <v>2023</v>
+      </c>
+      <c r="H315" t="str">
+        <f t="shared" si="51"/>
+        <v>18/11/2023</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>4</v>
+      </c>
+      <c r="B316">
+        <v>20231113</v>
+      </c>
+      <c r="C316">
+        <v>3</v>
+      </c>
+      <c r="D316">
+        <v>3</v>
+      </c>
+      <c r="E316" t="str">
+        <f t="shared" si="48"/>
+        <v>13</v>
+      </c>
+      <c r="F316" t="str">
+        <f t="shared" si="49"/>
+        <v>11</v>
+      </c>
+      <c r="G316" t="str">
+        <f t="shared" si="50"/>
+        <v>2023</v>
+      </c>
+      <c r="H316" t="str">
+        <f t="shared" si="51"/>
+        <v>13/11/2023</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>3</v>
+      </c>
+      <c r="B317">
+        <v>20231116</v>
+      </c>
+      <c r="C317">
+        <v>2</v>
+      </c>
+      <c r="D317">
+        <v>2</v>
+      </c>
+      <c r="E317" t="str">
+        <f t="shared" si="48"/>
+        <v>16</v>
+      </c>
+      <c r="F317" t="str">
+        <f t="shared" si="49"/>
+        <v>11</v>
+      </c>
+      <c r="G317" t="str">
+        <f t="shared" si="50"/>
+        <v>2023</v>
+      </c>
+      <c r="H317" t="str">
+        <f t="shared" si="51"/>
+        <v>16/11/2023</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>4</v>
+      </c>
+      <c r="B318">
+        <v>20231114</v>
+      </c>
+      <c r="C318">
+        <v>2</v>
+      </c>
+      <c r="D318">
+        <v>1</v>
+      </c>
+      <c r="E318" t="str">
+        <f t="shared" si="48"/>
+        <v>14</v>
+      </c>
+      <c r="F318" t="str">
+        <f t="shared" si="49"/>
+        <v>11</v>
+      </c>
+      <c r="G318" t="str">
+        <f t="shared" si="50"/>
+        <v>2023</v>
+      </c>
+      <c r="H318" t="str">
+        <f t="shared" si="51"/>
+        <v>14/11/2023</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>4</v>
+      </c>
+      <c r="B319">
+        <v>20231115</v>
+      </c>
+      <c r="C319">
+        <v>1</v>
+      </c>
+      <c r="D319">
+        <v>1</v>
+      </c>
+      <c r="E319" t="str">
+        <f t="shared" si="48"/>
+        <v>15</v>
+      </c>
+      <c r="F319" t="str">
+        <f t="shared" si="49"/>
+        <v>11</v>
+      </c>
+      <c r="G319" t="str">
+        <f t="shared" si="50"/>
+        <v>2023</v>
+      </c>
+      <c r="H319" t="str">
+        <f t="shared" si="51"/>
+        <v>15/11/2023</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>4</v>
+      </c>
+      <c r="B320">
+        <v>20231116</v>
+      </c>
+      <c r="C320">
+        <v>0</v>
+      </c>
+      <c r="D320">
+        <v>1</v>
+      </c>
+      <c r="E320" t="str">
+        <f t="shared" si="48"/>
+        <v>16</v>
+      </c>
+      <c r="F320" t="str">
+        <f t="shared" si="49"/>
+        <v>11</v>
+      </c>
+      <c r="G320" t="str">
+        <f t="shared" si="50"/>
+        <v>2023</v>
+      </c>
+      <c r="H320" t="str">
+        <f t="shared" si="51"/>
+        <v>16/11/2023</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>1</v>
+      </c>
+      <c r="B321">
+        <v>20231123</v>
+      </c>
+      <c r="C321">
+        <v>49</v>
+      </c>
+      <c r="D321">
+        <v>67</v>
+      </c>
+      <c r="E321" t="str">
+        <f t="shared" ref="E321:E337" si="52">RIGHT(B321,2)</f>
+        <v>23</v>
+      </c>
+      <c r="F321" t="str">
+        <f t="shared" ref="F321:F337" si="53">MID(B321,5,2)</f>
+        <v>11</v>
+      </c>
+      <c r="G321" t="str">
+        <f t="shared" ref="G321:G337" si="54">LEFT(B321,4)</f>
+        <v>2023</v>
+      </c>
+      <c r="H321" t="str">
+        <f t="shared" ref="H321:H337" si="55">_xlfn.CONCAT(E321,"/",F321,"/",G321)</f>
+        <v>23/11/2023</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>1</v>
+      </c>
+      <c r="B322">
+        <v>20231122</v>
+      </c>
+      <c r="C322">
+        <v>48</v>
+      </c>
+      <c r="D322">
+        <v>51</v>
+      </c>
+      <c r="E322" t="str">
+        <f t="shared" si="52"/>
+        <v>22</v>
+      </c>
+      <c r="F322" t="str">
+        <f t="shared" si="53"/>
+        <v>11</v>
+      </c>
+      <c r="G322" t="str">
+        <f t="shared" si="54"/>
+        <v>2023</v>
+      </c>
+      <c r="H322" t="str">
+        <f t="shared" si="55"/>
+        <v>22/11/2023</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>1</v>
+      </c>
+      <c r="B323">
+        <v>20231124</v>
+      </c>
+      <c r="C323">
+        <v>44</v>
+      </c>
+      <c r="D323">
+        <v>44</v>
+      </c>
+      <c r="E323" t="str">
+        <f t="shared" si="52"/>
+        <v>24</v>
+      </c>
+      <c r="F323" t="str">
+        <f t="shared" si="53"/>
+        <v>11</v>
+      </c>
+      <c r="G323" t="str">
+        <f t="shared" si="54"/>
+        <v>2023</v>
+      </c>
+      <c r="H323" t="str">
+        <f t="shared" si="55"/>
+        <v>24/11/2023</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>1</v>
+      </c>
+      <c r="B324">
+        <v>20231125</v>
+      </c>
+      <c r="C324">
+        <v>44</v>
+      </c>
+      <c r="D324">
+        <v>50</v>
+      </c>
+      <c r="E324" t="str">
+        <f t="shared" si="52"/>
+        <v>25</v>
+      </c>
+      <c r="F324" t="str">
+        <f t="shared" si="53"/>
+        <v>11</v>
+      </c>
+      <c r="G324" t="str">
+        <f t="shared" si="54"/>
+        <v>2023</v>
+      </c>
+      <c r="H324" t="str">
+        <f t="shared" si="55"/>
+        <v>25/11/2023</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>1</v>
+      </c>
+      <c r="B325">
+        <v>20231126</v>
+      </c>
+      <c r="C325">
+        <v>37</v>
+      </c>
+      <c r="D325">
+        <v>45</v>
+      </c>
+      <c r="E325" t="str">
+        <f t="shared" si="52"/>
+        <v>26</v>
+      </c>
+      <c r="F325" t="str">
+        <f t="shared" si="53"/>
+        <v>11</v>
+      </c>
+      <c r="G325" t="str">
+        <f t="shared" si="54"/>
+        <v>2023</v>
+      </c>
+      <c r="H325" t="str">
+        <f t="shared" si="55"/>
+        <v>26/11/2023</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>1</v>
+      </c>
+      <c r="B326">
+        <v>20231121</v>
+      </c>
+      <c r="C326">
+        <v>35</v>
+      </c>
+      <c r="D326">
+        <v>41</v>
+      </c>
+      <c r="E326" t="str">
+        <f t="shared" si="52"/>
+        <v>21</v>
+      </c>
+      <c r="F326" t="str">
+        <f t="shared" si="53"/>
+        <v>11</v>
+      </c>
+      <c r="G326" t="str">
+        <f t="shared" si="54"/>
+        <v>2023</v>
+      </c>
+      <c r="H326" t="str">
+        <f t="shared" si="55"/>
+        <v>21/11/2023</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>1</v>
+      </c>
+      <c r="B327">
+        <v>20231120</v>
+      </c>
+      <c r="C327">
+        <v>31</v>
+      </c>
+      <c r="D327">
+        <v>40</v>
+      </c>
+      <c r="E327" t="str">
+        <f t="shared" si="52"/>
+        <v>20</v>
+      </c>
+      <c r="F327" t="str">
+        <f t="shared" si="53"/>
+        <v>11</v>
+      </c>
+      <c r="G327" t="str">
+        <f t="shared" si="54"/>
+        <v>2023</v>
+      </c>
+      <c r="H327" t="str">
+        <f t="shared" si="55"/>
+        <v>20/11/2023</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>2</v>
+      </c>
+      <c r="B328">
+        <v>20231123</v>
+      </c>
+      <c r="C328">
+        <v>29</v>
+      </c>
+      <c r="D328">
+        <v>79</v>
+      </c>
+      <c r="E328" t="str">
+        <f t="shared" si="52"/>
+        <v>23</v>
+      </c>
+      <c r="F328" t="str">
+        <f t="shared" si="53"/>
+        <v>11</v>
+      </c>
+      <c r="G328" t="str">
+        <f t="shared" si="54"/>
+        <v>2023</v>
+      </c>
+      <c r="H328" t="str">
+        <f t="shared" si="55"/>
+        <v>23/11/2023</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>2</v>
+      </c>
+      <c r="B329">
+        <v>20231126</v>
+      </c>
+      <c r="C329">
+        <v>22</v>
+      </c>
+      <c r="D329">
+        <v>60</v>
+      </c>
+      <c r="E329" t="str">
+        <f t="shared" si="52"/>
+        <v>26</v>
+      </c>
+      <c r="F329" t="str">
+        <f t="shared" si="53"/>
+        <v>11</v>
+      </c>
+      <c r="G329" t="str">
+        <f t="shared" si="54"/>
+        <v>2023</v>
+      </c>
+      <c r="H329" t="str">
+        <f t="shared" si="55"/>
+        <v>26/11/2023</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>2</v>
+      </c>
+      <c r="B330">
+        <v>20231125</v>
+      </c>
+      <c r="C330">
+        <v>19</v>
+      </c>
+      <c r="D330">
+        <v>72</v>
+      </c>
+      <c r="E330" t="str">
+        <f t="shared" si="52"/>
+        <v>25</v>
+      </c>
+      <c r="F330" t="str">
+        <f t="shared" si="53"/>
+        <v>11</v>
+      </c>
+      <c r="G330" t="str">
+        <f t="shared" si="54"/>
+        <v>2023</v>
+      </c>
+      <c r="H330" t="str">
+        <f t="shared" si="55"/>
+        <v>25/11/2023</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>2</v>
+      </c>
+      <c r="B331">
+        <v>20231120</v>
+      </c>
+      <c r="C331">
+        <v>18</v>
+      </c>
+      <c r="D331">
+        <v>54</v>
+      </c>
+      <c r="E331" t="str">
+        <f t="shared" si="52"/>
+        <v>20</v>
+      </c>
+      <c r="F331" t="str">
+        <f t="shared" si="53"/>
+        <v>11</v>
+      </c>
+      <c r="G331" t="str">
+        <f t="shared" si="54"/>
+        <v>2023</v>
+      </c>
+      <c r="H331" t="str">
+        <f t="shared" si="55"/>
+        <v>20/11/2023</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>2</v>
+      </c>
+      <c r="B332">
+        <v>20231121</v>
+      </c>
+      <c r="C332">
+        <v>15</v>
+      </c>
+      <c r="D332">
+        <v>39</v>
+      </c>
+      <c r="E332" t="str">
+        <f t="shared" si="52"/>
+        <v>21</v>
+      </c>
+      <c r="F332" t="str">
+        <f t="shared" si="53"/>
+        <v>11</v>
+      </c>
+      <c r="G332" t="str">
+        <f t="shared" si="54"/>
+        <v>2023</v>
+      </c>
+      <c r="H332" t="str">
+        <f t="shared" si="55"/>
+        <v>21/11/2023</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>2</v>
+      </c>
+      <c r="B333">
+        <v>20231124</v>
+      </c>
+      <c r="C333">
+        <v>14</v>
+      </c>
+      <c r="D333">
+        <v>45</v>
+      </c>
+      <c r="E333" t="str">
+        <f t="shared" si="52"/>
+        <v>24</v>
+      </c>
+      <c r="F333" t="str">
+        <f t="shared" si="53"/>
+        <v>11</v>
+      </c>
+      <c r="G333" t="str">
+        <f t="shared" si="54"/>
+        <v>2023</v>
+      </c>
+      <c r="H333" t="str">
+        <f t="shared" si="55"/>
+        <v>24/11/2023</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>2</v>
+      </c>
+      <c r="B334">
+        <v>20231122</v>
+      </c>
+      <c r="C334">
+        <v>12</v>
+      </c>
+      <c r="D334">
+        <v>66</v>
+      </c>
+      <c r="E334" t="str">
+        <f t="shared" si="52"/>
+        <v>22</v>
+      </c>
+      <c r="F334" t="str">
+        <f t="shared" si="53"/>
+        <v>11</v>
+      </c>
+      <c r="G334" t="str">
+        <f t="shared" si="54"/>
+        <v>2023</v>
+      </c>
+      <c r="H334" t="str">
+        <f t="shared" si="55"/>
+        <v>22/11/2023</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>4</v>
+      </c>
+      <c r="B335">
+        <v>20231120</v>
+      </c>
+      <c r="C335">
+        <v>2</v>
+      </c>
+      <c r="D335">
+        <v>2</v>
+      </c>
+      <c r="E335" t="str">
+        <f t="shared" si="52"/>
+        <v>20</v>
+      </c>
+      <c r="F335" t="str">
+        <f t="shared" si="53"/>
+        <v>11</v>
+      </c>
+      <c r="G335" t="str">
+        <f t="shared" si="54"/>
+        <v>2023</v>
+      </c>
+      <c r="H335" t="str">
+        <f t="shared" si="55"/>
+        <v>20/11/2023</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>4</v>
+      </c>
+      <c r="B336">
+        <v>20231124</v>
+      </c>
+      <c r="C336">
+        <v>1</v>
+      </c>
+      <c r="D336">
+        <v>1</v>
+      </c>
+      <c r="E336" t="str">
+        <f t="shared" si="52"/>
+        <v>24</v>
+      </c>
+      <c r="F336" t="str">
+        <f t="shared" si="53"/>
+        <v>11</v>
+      </c>
+      <c r="G336" t="str">
+        <f t="shared" si="54"/>
+        <v>2023</v>
+      </c>
+      <c r="H336" t="str">
+        <f t="shared" si="55"/>
+        <v>24/11/2023</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>4</v>
+      </c>
+      <c r="B337">
+        <v>20231121</v>
+      </c>
+      <c r="C337">
+        <v>0</v>
+      </c>
+      <c r="D337">
+        <v>1</v>
+      </c>
+      <c r="E337" t="str">
+        <f t="shared" si="52"/>
+        <v>21</v>
+      </c>
+      <c r="F337" t="str">
+        <f t="shared" si="53"/>
+        <v>11</v>
+      </c>
+      <c r="G337" t="str">
+        <f t="shared" si="54"/>
+        <v>2023</v>
+      </c>
+      <c r="H337" t="str">
+        <f t="shared" si="55"/>
+        <v>21/11/2023</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Arquivos/Como_acessa_data.xlsx
+++ b/Arquivos/Como_acessa_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b5dde4ea31a779cd/Documentos/Mestrado/Arquivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:40009_{83565463-BC6C-4944-A005-0E04596B1C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{157EF679-3765-4B31-9078-B21EDEDFEFB2}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:40009_{83565463-BC6C-4944-A005-0E04596B1C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C4C495C-488D-4773-B242-92D394A8F35C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="12">
   <si>
     <t>Data</t>
   </si>
@@ -913,10 +913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H337"/>
+  <dimension ref="A1:H358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A314" workbookViewId="0">
-      <selection activeCell="A321" sqref="A321:H337"/>
+    <sheetView tabSelected="1" topLeftCell="A335" workbookViewId="0">
+      <selection activeCell="A338" sqref="A338:H358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11031,6 +11031,636 @@
         <v>21/11/2023</v>
       </c>
     </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>1</v>
+      </c>
+      <c r="B338">
+        <v>20231129</v>
+      </c>
+      <c r="C338">
+        <v>59</v>
+      </c>
+      <c r="D338">
+        <v>57</v>
+      </c>
+      <c r="E338" t="str">
+        <f t="shared" ref="E338:E358" si="56">RIGHT(B338,2)</f>
+        <v>29</v>
+      </c>
+      <c r="F338" t="str">
+        <f t="shared" ref="F338:F358" si="57">MID(B338,5,2)</f>
+        <v>11</v>
+      </c>
+      <c r="G338" t="str">
+        <f t="shared" ref="G338:G358" si="58">LEFT(B338,4)</f>
+        <v>2023</v>
+      </c>
+      <c r="H338" t="str">
+        <f t="shared" ref="H338:H358" si="59">_xlfn.CONCAT(E338,"/",F338,"/",G338)</f>
+        <v>29/11/2023</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>1</v>
+      </c>
+      <c r="B339">
+        <v>20231130</v>
+      </c>
+      <c r="C339">
+        <v>51</v>
+      </c>
+      <c r="D339">
+        <v>70</v>
+      </c>
+      <c r="E339" t="str">
+        <f t="shared" si="56"/>
+        <v>30</v>
+      </c>
+      <c r="F339" t="str">
+        <f t="shared" si="57"/>
+        <v>11</v>
+      </c>
+      <c r="G339" t="str">
+        <f t="shared" si="58"/>
+        <v>2023</v>
+      </c>
+      <c r="H339" t="str">
+        <f t="shared" si="59"/>
+        <v>30/11/2023</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>1</v>
+      </c>
+      <c r="B340">
+        <v>20231203</v>
+      </c>
+      <c r="C340">
+        <v>50</v>
+      </c>
+      <c r="D340">
+        <v>58</v>
+      </c>
+      <c r="E340" t="str">
+        <f t="shared" si="56"/>
+        <v>03</v>
+      </c>
+      <c r="F340" t="str">
+        <f t="shared" si="57"/>
+        <v>12</v>
+      </c>
+      <c r="G340" t="str">
+        <f t="shared" si="58"/>
+        <v>2023</v>
+      </c>
+      <c r="H340" t="str">
+        <f t="shared" si="59"/>
+        <v>03/12/2023</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>1</v>
+      </c>
+      <c r="B341">
+        <v>20231201</v>
+      </c>
+      <c r="C341">
+        <v>47</v>
+      </c>
+      <c r="D341">
+        <v>53</v>
+      </c>
+      <c r="E341" t="str">
+        <f t="shared" si="56"/>
+        <v>01</v>
+      </c>
+      <c r="F341" t="str">
+        <f t="shared" si="57"/>
+        <v>12</v>
+      </c>
+      <c r="G341" t="str">
+        <f t="shared" si="58"/>
+        <v>2023</v>
+      </c>
+      <c r="H341" t="str">
+        <f t="shared" si="59"/>
+        <v>01/12/2023</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>1</v>
+      </c>
+      <c r="B342">
+        <v>20231128</v>
+      </c>
+      <c r="C342">
+        <v>44</v>
+      </c>
+      <c r="D342">
+        <v>56</v>
+      </c>
+      <c r="E342" t="str">
+        <f t="shared" si="56"/>
+        <v>28</v>
+      </c>
+      <c r="F342" t="str">
+        <f t="shared" si="57"/>
+        <v>11</v>
+      </c>
+      <c r="G342" t="str">
+        <f t="shared" si="58"/>
+        <v>2023</v>
+      </c>
+      <c r="H342" t="str">
+        <f t="shared" si="59"/>
+        <v>28/11/2023</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>1</v>
+      </c>
+      <c r="B343">
+        <v>20231127</v>
+      </c>
+      <c r="C343">
+        <v>43</v>
+      </c>
+      <c r="D343">
+        <v>48</v>
+      </c>
+      <c r="E343" t="str">
+        <f t="shared" si="56"/>
+        <v>27</v>
+      </c>
+      <c r="F343" t="str">
+        <f t="shared" si="57"/>
+        <v>11</v>
+      </c>
+      <c r="G343" t="str">
+        <f t="shared" si="58"/>
+        <v>2023</v>
+      </c>
+      <c r="H343" t="str">
+        <f t="shared" si="59"/>
+        <v>27/11/2023</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>1</v>
+      </c>
+      <c r="B344">
+        <v>20231202</v>
+      </c>
+      <c r="C344">
+        <v>33</v>
+      </c>
+      <c r="D344">
+        <v>38</v>
+      </c>
+      <c r="E344" t="str">
+        <f t="shared" si="56"/>
+        <v>02</v>
+      </c>
+      <c r="F344" t="str">
+        <f t="shared" si="57"/>
+        <v>12</v>
+      </c>
+      <c r="G344" t="str">
+        <f t="shared" si="58"/>
+        <v>2023</v>
+      </c>
+      <c r="H344" t="str">
+        <f t="shared" si="59"/>
+        <v>02/12/2023</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>2</v>
+      </c>
+      <c r="B345">
+        <v>20231129</v>
+      </c>
+      <c r="C345">
+        <v>19</v>
+      </c>
+      <c r="D345">
+        <v>86</v>
+      </c>
+      <c r="E345" t="str">
+        <f t="shared" si="56"/>
+        <v>29</v>
+      </c>
+      <c r="F345" t="str">
+        <f t="shared" si="57"/>
+        <v>11</v>
+      </c>
+      <c r="G345" t="str">
+        <f t="shared" si="58"/>
+        <v>2023</v>
+      </c>
+      <c r="H345" t="str">
+        <f t="shared" si="59"/>
+        <v>29/11/2023</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>2</v>
+      </c>
+      <c r="B346">
+        <v>20231201</v>
+      </c>
+      <c r="C346">
+        <v>17</v>
+      </c>
+      <c r="D346">
+        <v>41</v>
+      </c>
+      <c r="E346" t="str">
+        <f t="shared" si="56"/>
+        <v>01</v>
+      </c>
+      <c r="F346" t="str">
+        <f t="shared" si="57"/>
+        <v>12</v>
+      </c>
+      <c r="G346" t="str">
+        <f t="shared" si="58"/>
+        <v>2023</v>
+      </c>
+      <c r="H346" t="str">
+        <f t="shared" si="59"/>
+        <v>01/12/2023</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>2</v>
+      </c>
+      <c r="B347">
+        <v>20231130</v>
+      </c>
+      <c r="C347">
+        <v>15</v>
+      </c>
+      <c r="D347">
+        <v>52</v>
+      </c>
+      <c r="E347" t="str">
+        <f t="shared" si="56"/>
+        <v>30</v>
+      </c>
+      <c r="F347" t="str">
+        <f t="shared" si="57"/>
+        <v>11</v>
+      </c>
+      <c r="G347" t="str">
+        <f t="shared" si="58"/>
+        <v>2023</v>
+      </c>
+      <c r="H347" t="str">
+        <f t="shared" si="59"/>
+        <v>30/11/2023</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>2</v>
+      </c>
+      <c r="B348">
+        <v>20231127</v>
+      </c>
+      <c r="C348">
+        <v>13</v>
+      </c>
+      <c r="D348">
+        <v>67</v>
+      </c>
+      <c r="E348" t="str">
+        <f t="shared" si="56"/>
+        <v>27</v>
+      </c>
+      <c r="F348" t="str">
+        <f t="shared" si="57"/>
+        <v>11</v>
+      </c>
+      <c r="G348" t="str">
+        <f t="shared" si="58"/>
+        <v>2023</v>
+      </c>
+      <c r="H348" t="str">
+        <f t="shared" si="59"/>
+        <v>27/11/2023</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>2</v>
+      </c>
+      <c r="B349">
+        <v>20231203</v>
+      </c>
+      <c r="C349">
+        <v>13</v>
+      </c>
+      <c r="D349">
+        <v>48</v>
+      </c>
+      <c r="E349" t="str">
+        <f t="shared" si="56"/>
+        <v>03</v>
+      </c>
+      <c r="F349" t="str">
+        <f t="shared" si="57"/>
+        <v>12</v>
+      </c>
+      <c r="G349" t="str">
+        <f t="shared" si="58"/>
+        <v>2023</v>
+      </c>
+      <c r="H349" t="str">
+        <f t="shared" si="59"/>
+        <v>03/12/2023</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>2</v>
+      </c>
+      <c r="B350">
+        <v>20231202</v>
+      </c>
+      <c r="C350">
+        <v>11</v>
+      </c>
+      <c r="D350">
+        <v>35</v>
+      </c>
+      <c r="E350" t="str">
+        <f t="shared" si="56"/>
+        <v>02</v>
+      </c>
+      <c r="F350" t="str">
+        <f t="shared" si="57"/>
+        <v>12</v>
+      </c>
+      <c r="G350" t="str">
+        <f t="shared" si="58"/>
+        <v>2023</v>
+      </c>
+      <c r="H350" t="str">
+        <f t="shared" si="59"/>
+        <v>02/12/2023</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>2</v>
+      </c>
+      <c r="B351">
+        <v>20231128</v>
+      </c>
+      <c r="C351">
+        <v>8</v>
+      </c>
+      <c r="D351">
+        <v>52</v>
+      </c>
+      <c r="E351" t="str">
+        <f t="shared" si="56"/>
+        <v>28</v>
+      </c>
+      <c r="F351" t="str">
+        <f t="shared" si="57"/>
+        <v>11</v>
+      </c>
+      <c r="G351" t="str">
+        <f t="shared" si="58"/>
+        <v>2023</v>
+      </c>
+      <c r="H351" t="str">
+        <f t="shared" si="59"/>
+        <v>28/11/2023</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>4</v>
+      </c>
+      <c r="B352">
+        <v>20231127</v>
+      </c>
+      <c r="C352">
+        <v>2</v>
+      </c>
+      <c r="D352">
+        <v>2</v>
+      </c>
+      <c r="E352" t="str">
+        <f t="shared" si="56"/>
+        <v>27</v>
+      </c>
+      <c r="F352" t="str">
+        <f t="shared" si="57"/>
+        <v>11</v>
+      </c>
+      <c r="G352" t="str">
+        <f t="shared" si="58"/>
+        <v>2023</v>
+      </c>
+      <c r="H352" t="str">
+        <f t="shared" si="59"/>
+        <v>27/11/2023</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>4</v>
+      </c>
+      <c r="B353">
+        <v>20231130</v>
+      </c>
+      <c r="C353">
+        <v>2</v>
+      </c>
+      <c r="D353">
+        <v>2</v>
+      </c>
+      <c r="E353" t="str">
+        <f t="shared" si="56"/>
+        <v>30</v>
+      </c>
+      <c r="F353" t="str">
+        <f t="shared" si="57"/>
+        <v>11</v>
+      </c>
+      <c r="G353" t="str">
+        <f t="shared" si="58"/>
+        <v>2023</v>
+      </c>
+      <c r="H353" t="str">
+        <f t="shared" si="59"/>
+        <v>30/11/2023</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>4</v>
+      </c>
+      <c r="B354">
+        <v>20231128</v>
+      </c>
+      <c r="C354">
+        <v>1</v>
+      </c>
+      <c r="D354">
+        <v>1</v>
+      </c>
+      <c r="E354" t="str">
+        <f t="shared" si="56"/>
+        <v>28</v>
+      </c>
+      <c r="F354" t="str">
+        <f t="shared" si="57"/>
+        <v>11</v>
+      </c>
+      <c r="G354" t="str">
+        <f t="shared" si="58"/>
+        <v>2023</v>
+      </c>
+      <c r="H354" t="str">
+        <f t="shared" si="59"/>
+        <v>28/11/2023</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>4</v>
+      </c>
+      <c r="B355">
+        <v>20231129</v>
+      </c>
+      <c r="C355">
+        <v>1</v>
+      </c>
+      <c r="D355">
+        <v>1</v>
+      </c>
+      <c r="E355" t="str">
+        <f t="shared" si="56"/>
+        <v>29</v>
+      </c>
+      <c r="F355" t="str">
+        <f t="shared" si="57"/>
+        <v>11</v>
+      </c>
+      <c r="G355" t="str">
+        <f t="shared" si="58"/>
+        <v>2023</v>
+      </c>
+      <c r="H355" t="str">
+        <f t="shared" si="59"/>
+        <v>29/11/2023</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>4</v>
+      </c>
+      <c r="B356">
+        <v>20231201</v>
+      </c>
+      <c r="C356">
+        <v>1</v>
+      </c>
+      <c r="D356">
+        <v>1</v>
+      </c>
+      <c r="E356" t="str">
+        <f t="shared" si="56"/>
+        <v>01</v>
+      </c>
+      <c r="F356" t="str">
+        <f t="shared" si="57"/>
+        <v>12</v>
+      </c>
+      <c r="G356" t="str">
+        <f t="shared" si="58"/>
+        <v>2023</v>
+      </c>
+      <c r="H356" t="str">
+        <f t="shared" si="59"/>
+        <v>01/12/2023</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>4</v>
+      </c>
+      <c r="B357">
+        <v>20231203</v>
+      </c>
+      <c r="C357">
+        <v>1</v>
+      </c>
+      <c r="D357">
+        <v>2</v>
+      </c>
+      <c r="E357" t="str">
+        <f t="shared" si="56"/>
+        <v>03</v>
+      </c>
+      <c r="F357" t="str">
+        <f t="shared" si="57"/>
+        <v>12</v>
+      </c>
+      <c r="G357" t="str">
+        <f t="shared" si="58"/>
+        <v>2023</v>
+      </c>
+      <c r="H357" t="str">
+        <f t="shared" si="59"/>
+        <v>03/12/2023</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>4</v>
+      </c>
+      <c r="B358">
+        <v>20231202</v>
+      </c>
+      <c r="C358">
+        <v>0</v>
+      </c>
+      <c r="D358">
+        <v>1</v>
+      </c>
+      <c r="E358" t="str">
+        <f t="shared" si="56"/>
+        <v>02</v>
+      </c>
+      <c r="F358" t="str">
+        <f t="shared" si="57"/>
+        <v>12</v>
+      </c>
+      <c r="G358" t="str">
+        <f t="shared" si="58"/>
+        <v>2023</v>
+      </c>
+      <c r="H358" t="str">
+        <f t="shared" si="59"/>
+        <v>02/12/2023</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Arquivos/Como_acessa_data.xlsx
+++ b/Arquivos/Como_acessa_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b5dde4ea31a779cd/Documentos/Mestrado/Arquivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:40009_{83565463-BC6C-4944-A005-0E04596B1C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C4C495C-488D-4773-B242-92D394A8F35C}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:40009_{83565463-BC6C-4944-A005-0E04596B1C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{702196E2-CB81-417F-8B0E-B7FAA5AF01A5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="12">
   <si>
     <t>Data</t>
   </si>
@@ -617,9 +617,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -657,7 +657,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -763,7 +763,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -905,7 +905,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -913,10 +913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H358"/>
+  <dimension ref="A1:H658"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A335" workbookViewId="0">
-      <selection activeCell="A338" sqref="A338:H358"/>
+    <sheetView tabSelected="1" topLeftCell="A626" workbookViewId="0">
+      <selection activeCell="A634" sqref="A634"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11661,6 +11661,8976 @@
         <v>02/12/2023</v>
       </c>
     </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>1</v>
+      </c>
+      <c r="B359">
+        <v>20231210</v>
+      </c>
+      <c r="C359">
+        <v>116</v>
+      </c>
+      <c r="D359">
+        <v>103</v>
+      </c>
+      <c r="E359" t="str">
+        <f t="shared" ref="E359:E376" si="60">RIGHT(B359,2)</f>
+        <v>10</v>
+      </c>
+      <c r="F359" t="str">
+        <f t="shared" ref="F359:F376" si="61">MID(B359,5,2)</f>
+        <v>12</v>
+      </c>
+      <c r="G359" t="str">
+        <f t="shared" ref="G359:G376" si="62">LEFT(B359,4)</f>
+        <v>2023</v>
+      </c>
+      <c r="H359" t="str">
+        <f t="shared" ref="H359:H376" si="63">_xlfn.CONCAT(E359,"/",F359,"/",G359)</f>
+        <v>10/12/2023</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>1</v>
+      </c>
+      <c r="B360">
+        <v>20231209</v>
+      </c>
+      <c r="C360">
+        <v>84</v>
+      </c>
+      <c r="D360">
+        <v>72</v>
+      </c>
+      <c r="E360" t="str">
+        <f t="shared" si="60"/>
+        <v>09</v>
+      </c>
+      <c r="F360" t="str">
+        <f t="shared" si="61"/>
+        <v>12</v>
+      </c>
+      <c r="G360" t="str">
+        <f t="shared" si="62"/>
+        <v>2023</v>
+      </c>
+      <c r="H360" t="str">
+        <f t="shared" si="63"/>
+        <v>09/12/2023</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>1</v>
+      </c>
+      <c r="B361">
+        <v>20231207</v>
+      </c>
+      <c r="C361">
+        <v>48</v>
+      </c>
+      <c r="D361">
+        <v>46</v>
+      </c>
+      <c r="E361" t="str">
+        <f t="shared" si="60"/>
+        <v>07</v>
+      </c>
+      <c r="F361" t="str">
+        <f t="shared" si="61"/>
+        <v>12</v>
+      </c>
+      <c r="G361" t="str">
+        <f t="shared" si="62"/>
+        <v>2023</v>
+      </c>
+      <c r="H361" t="str">
+        <f t="shared" si="63"/>
+        <v>07/12/2023</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>1</v>
+      </c>
+      <c r="B362">
+        <v>20231205</v>
+      </c>
+      <c r="C362">
+        <v>46</v>
+      </c>
+      <c r="D362">
+        <v>50</v>
+      </c>
+      <c r="E362" t="str">
+        <f t="shared" si="60"/>
+        <v>05</v>
+      </c>
+      <c r="F362" t="str">
+        <f t="shared" si="61"/>
+        <v>12</v>
+      </c>
+      <c r="G362" t="str">
+        <f t="shared" si="62"/>
+        <v>2023</v>
+      </c>
+      <c r="H362" t="str">
+        <f t="shared" si="63"/>
+        <v>05/12/2023</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>1</v>
+      </c>
+      <c r="B363">
+        <v>20231206</v>
+      </c>
+      <c r="C363">
+        <v>43</v>
+      </c>
+      <c r="D363">
+        <v>41</v>
+      </c>
+      <c r="E363" t="str">
+        <f t="shared" si="60"/>
+        <v>06</v>
+      </c>
+      <c r="F363" t="str">
+        <f t="shared" si="61"/>
+        <v>12</v>
+      </c>
+      <c r="G363" t="str">
+        <f t="shared" si="62"/>
+        <v>2023</v>
+      </c>
+      <c r="H363" t="str">
+        <f t="shared" si="63"/>
+        <v>06/12/2023</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>2</v>
+      </c>
+      <c r="B364">
+        <v>20231210</v>
+      </c>
+      <c r="C364">
+        <v>40</v>
+      </c>
+      <c r="D364">
+        <v>80</v>
+      </c>
+      <c r="E364" t="str">
+        <f t="shared" si="60"/>
+        <v>10</v>
+      </c>
+      <c r="F364" t="str">
+        <f t="shared" si="61"/>
+        <v>12</v>
+      </c>
+      <c r="G364" t="str">
+        <f t="shared" si="62"/>
+        <v>2023</v>
+      </c>
+      <c r="H364" t="str">
+        <f t="shared" si="63"/>
+        <v>10/12/2023</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>1</v>
+      </c>
+      <c r="B365">
+        <v>20231204</v>
+      </c>
+      <c r="C365">
+        <v>40</v>
+      </c>
+      <c r="D365">
+        <v>39</v>
+      </c>
+      <c r="E365" t="str">
+        <f t="shared" si="60"/>
+        <v>04</v>
+      </c>
+      <c r="F365" t="str">
+        <f t="shared" si="61"/>
+        <v>12</v>
+      </c>
+      <c r="G365" t="str">
+        <f t="shared" si="62"/>
+        <v>2023</v>
+      </c>
+      <c r="H365" t="str">
+        <f t="shared" si="63"/>
+        <v>04/12/2023</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>1</v>
+      </c>
+      <c r="B366">
+        <v>20231208</v>
+      </c>
+      <c r="C366">
+        <v>39</v>
+      </c>
+      <c r="D366">
+        <v>41</v>
+      </c>
+      <c r="E366" t="str">
+        <f t="shared" si="60"/>
+        <v>08</v>
+      </c>
+      <c r="F366" t="str">
+        <f t="shared" si="61"/>
+        <v>12</v>
+      </c>
+      <c r="G366" t="str">
+        <f t="shared" si="62"/>
+        <v>2023</v>
+      </c>
+      <c r="H366" t="str">
+        <f t="shared" si="63"/>
+        <v>08/12/2023</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>2</v>
+      </c>
+      <c r="B367">
+        <v>20231209</v>
+      </c>
+      <c r="C367">
+        <v>19</v>
+      </c>
+      <c r="D367">
+        <v>37</v>
+      </c>
+      <c r="E367" t="str">
+        <f t="shared" si="60"/>
+        <v>09</v>
+      </c>
+      <c r="F367" t="str">
+        <f t="shared" si="61"/>
+        <v>12</v>
+      </c>
+      <c r="G367" t="str">
+        <f t="shared" si="62"/>
+        <v>2023</v>
+      </c>
+      <c r="H367" t="str">
+        <f t="shared" si="63"/>
+        <v>09/12/2023</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>2</v>
+      </c>
+      <c r="B368">
+        <v>20231205</v>
+      </c>
+      <c r="C368">
+        <v>16</v>
+      </c>
+      <c r="D368">
+        <v>64</v>
+      </c>
+      <c r="E368" t="str">
+        <f t="shared" si="60"/>
+        <v>05</v>
+      </c>
+      <c r="F368" t="str">
+        <f t="shared" si="61"/>
+        <v>12</v>
+      </c>
+      <c r="G368" t="str">
+        <f t="shared" si="62"/>
+        <v>2023</v>
+      </c>
+      <c r="H368" t="str">
+        <f t="shared" si="63"/>
+        <v>05/12/2023</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>2</v>
+      </c>
+      <c r="B369">
+        <v>20231204</v>
+      </c>
+      <c r="C369">
+        <v>15</v>
+      </c>
+      <c r="D369">
+        <v>39</v>
+      </c>
+      <c r="E369" t="str">
+        <f t="shared" si="60"/>
+        <v>04</v>
+      </c>
+      <c r="F369" t="str">
+        <f t="shared" si="61"/>
+        <v>12</v>
+      </c>
+      <c r="G369" t="str">
+        <f t="shared" si="62"/>
+        <v>2023</v>
+      </c>
+      <c r="H369" t="str">
+        <f t="shared" si="63"/>
+        <v>04/12/2023</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>2</v>
+      </c>
+      <c r="B370">
+        <v>20231207</v>
+      </c>
+      <c r="C370">
+        <v>14</v>
+      </c>
+      <c r="D370">
+        <v>56</v>
+      </c>
+      <c r="E370" t="str">
+        <f t="shared" si="60"/>
+        <v>07</v>
+      </c>
+      <c r="F370" t="str">
+        <f t="shared" si="61"/>
+        <v>12</v>
+      </c>
+      <c r="G370" t="str">
+        <f t="shared" si="62"/>
+        <v>2023</v>
+      </c>
+      <c r="H370" t="str">
+        <f t="shared" si="63"/>
+        <v>07/12/2023</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>2</v>
+      </c>
+      <c r="B371">
+        <v>20231208</v>
+      </c>
+      <c r="C371">
+        <v>14</v>
+      </c>
+      <c r="D371">
+        <v>42</v>
+      </c>
+      <c r="E371" t="str">
+        <f t="shared" si="60"/>
+        <v>08</v>
+      </c>
+      <c r="F371" t="str">
+        <f t="shared" si="61"/>
+        <v>12</v>
+      </c>
+      <c r="G371" t="str">
+        <f t="shared" si="62"/>
+        <v>2023</v>
+      </c>
+      <c r="H371" t="str">
+        <f t="shared" si="63"/>
+        <v>08/12/2023</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>2</v>
+      </c>
+      <c r="B372">
+        <v>20231206</v>
+      </c>
+      <c r="C372">
+        <v>13</v>
+      </c>
+      <c r="D372">
+        <v>57</v>
+      </c>
+      <c r="E372" t="str">
+        <f t="shared" si="60"/>
+        <v>06</v>
+      </c>
+      <c r="F372" t="str">
+        <f t="shared" si="61"/>
+        <v>12</v>
+      </c>
+      <c r="G372" t="str">
+        <f t="shared" si="62"/>
+        <v>2023</v>
+      </c>
+      <c r="H372" t="str">
+        <f t="shared" si="63"/>
+        <v>06/12/2023</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>4</v>
+      </c>
+      <c r="B373">
+        <v>20231205</v>
+      </c>
+      <c r="C373">
+        <v>3</v>
+      </c>
+      <c r="D373">
+        <v>3</v>
+      </c>
+      <c r="E373" t="str">
+        <f t="shared" si="60"/>
+        <v>05</v>
+      </c>
+      <c r="F373" t="str">
+        <f t="shared" si="61"/>
+        <v>12</v>
+      </c>
+      <c r="G373" t="str">
+        <f t="shared" si="62"/>
+        <v>2023</v>
+      </c>
+      <c r="H373" t="str">
+        <f t="shared" si="63"/>
+        <v>05/12/2023</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>3</v>
+      </c>
+      <c r="B374">
+        <v>20231210</v>
+      </c>
+      <c r="C374">
+        <v>2</v>
+      </c>
+      <c r="D374">
+        <v>2</v>
+      </c>
+      <c r="E374" t="str">
+        <f t="shared" si="60"/>
+        <v>10</v>
+      </c>
+      <c r="F374" t="str">
+        <f t="shared" si="61"/>
+        <v>12</v>
+      </c>
+      <c r="G374" t="str">
+        <f t="shared" si="62"/>
+        <v>2023</v>
+      </c>
+      <c r="H374" t="str">
+        <f t="shared" si="63"/>
+        <v>10/12/2023</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>4</v>
+      </c>
+      <c r="B375">
+        <v>20231208</v>
+      </c>
+      <c r="C375">
+        <v>2</v>
+      </c>
+      <c r="D375">
+        <v>3</v>
+      </c>
+      <c r="E375" t="str">
+        <f t="shared" si="60"/>
+        <v>08</v>
+      </c>
+      <c r="F375" t="str">
+        <f t="shared" si="61"/>
+        <v>12</v>
+      </c>
+      <c r="G375" t="str">
+        <f t="shared" si="62"/>
+        <v>2023</v>
+      </c>
+      <c r="H375" t="str">
+        <f t="shared" si="63"/>
+        <v>08/12/2023</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>4</v>
+      </c>
+      <c r="B376">
+        <v>20231207</v>
+      </c>
+      <c r="C376">
+        <v>1</v>
+      </c>
+      <c r="D376">
+        <v>1</v>
+      </c>
+      <c r="E376" t="str">
+        <f t="shared" si="60"/>
+        <v>07</v>
+      </c>
+      <c r="F376" t="str">
+        <f t="shared" si="61"/>
+        <v>12</v>
+      </c>
+      <c r="G376" t="str">
+        <f t="shared" si="62"/>
+        <v>2023</v>
+      </c>
+      <c r="H376" t="str">
+        <f t="shared" si="63"/>
+        <v>07/12/2023</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>1</v>
+      </c>
+      <c r="B377">
+        <v>20231222</v>
+      </c>
+      <c r="C377">
+        <v>210</v>
+      </c>
+      <c r="D377">
+        <v>128</v>
+      </c>
+      <c r="E377" t="str">
+        <f t="shared" ref="E377" si="64">RIGHT(B377,2)</f>
+        <v>22</v>
+      </c>
+      <c r="F377" t="str">
+        <f t="shared" ref="F377" si="65">MID(B377,5,2)</f>
+        <v>12</v>
+      </c>
+      <c r="G377" t="str">
+        <f t="shared" ref="G377" si="66">LEFT(B377,4)</f>
+        <v>2023</v>
+      </c>
+      <c r="H377" t="str">
+        <f t="shared" ref="H377" si="67">_xlfn.CONCAT(E377,"/",F377,"/",G377)</f>
+        <v>22/12/2023</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>1</v>
+      </c>
+      <c r="B378">
+        <v>20231218</v>
+      </c>
+      <c r="C378">
+        <v>90</v>
+      </c>
+      <c r="D378">
+        <v>79</v>
+      </c>
+      <c r="E378" t="str">
+        <f t="shared" ref="E378:E437" si="68">RIGHT(B378,2)</f>
+        <v>18</v>
+      </c>
+      <c r="F378" t="str">
+        <f t="shared" ref="F378:F437" si="69">MID(B378,5,2)</f>
+        <v>12</v>
+      </c>
+      <c r="G378" t="str">
+        <f t="shared" ref="G378:G437" si="70">LEFT(B378,4)</f>
+        <v>2023</v>
+      </c>
+      <c r="H378" t="str">
+        <f t="shared" ref="H378:H437" si="71">_xlfn.CONCAT(E378,"/",F378,"/",G378)</f>
+        <v>18/12/2023</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>1</v>
+      </c>
+      <c r="B379">
+        <v>20231221</v>
+      </c>
+      <c r="C379">
+        <v>57</v>
+      </c>
+      <c r="D379">
+        <v>56</v>
+      </c>
+      <c r="E379" t="str">
+        <f t="shared" si="68"/>
+        <v>21</v>
+      </c>
+      <c r="F379" t="str">
+        <f t="shared" si="69"/>
+        <v>12</v>
+      </c>
+      <c r="G379" t="str">
+        <f t="shared" si="70"/>
+        <v>2023</v>
+      </c>
+      <c r="H379" t="str">
+        <f t="shared" si="71"/>
+        <v>21/12/2023</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>1</v>
+      </c>
+      <c r="B380">
+        <v>20231223</v>
+      </c>
+      <c r="C380">
+        <v>51</v>
+      </c>
+      <c r="D380">
+        <v>41</v>
+      </c>
+      <c r="E380" t="str">
+        <f t="shared" si="68"/>
+        <v>23</v>
+      </c>
+      <c r="F380" t="str">
+        <f t="shared" si="69"/>
+        <v>12</v>
+      </c>
+      <c r="G380" t="str">
+        <f t="shared" si="70"/>
+        <v>2023</v>
+      </c>
+      <c r="H380" t="str">
+        <f t="shared" si="71"/>
+        <v>23/12/2023</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>1</v>
+      </c>
+      <c r="B381">
+        <v>20231219</v>
+      </c>
+      <c r="C381">
+        <v>45</v>
+      </c>
+      <c r="D381">
+        <v>43</v>
+      </c>
+      <c r="E381" t="str">
+        <f t="shared" si="68"/>
+        <v>19</v>
+      </c>
+      <c r="F381" t="str">
+        <f t="shared" si="69"/>
+        <v>12</v>
+      </c>
+      <c r="G381" t="str">
+        <f t="shared" si="70"/>
+        <v>2023</v>
+      </c>
+      <c r="H381" t="str">
+        <f t="shared" si="71"/>
+        <v>19/12/2023</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>1</v>
+      </c>
+      <c r="B382">
+        <v>20231224</v>
+      </c>
+      <c r="C382">
+        <v>42</v>
+      </c>
+      <c r="D382">
+        <v>38</v>
+      </c>
+      <c r="E382" t="str">
+        <f t="shared" si="68"/>
+        <v>24</v>
+      </c>
+      <c r="F382" t="str">
+        <f t="shared" si="69"/>
+        <v>12</v>
+      </c>
+      <c r="G382" t="str">
+        <f t="shared" si="70"/>
+        <v>2023</v>
+      </c>
+      <c r="H382" t="str">
+        <f t="shared" si="71"/>
+        <v>24/12/2023</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>1</v>
+      </c>
+      <c r="B383">
+        <v>20231228</v>
+      </c>
+      <c r="C383">
+        <v>42</v>
+      </c>
+      <c r="D383">
+        <v>43</v>
+      </c>
+      <c r="E383" t="str">
+        <f t="shared" si="68"/>
+        <v>28</v>
+      </c>
+      <c r="F383" t="str">
+        <f t="shared" si="69"/>
+        <v>12</v>
+      </c>
+      <c r="G383" t="str">
+        <f t="shared" si="70"/>
+        <v>2023</v>
+      </c>
+      <c r="H383" t="str">
+        <f t="shared" si="71"/>
+        <v>28/12/2023</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>1</v>
+      </c>
+      <c r="B384">
+        <v>20231225</v>
+      </c>
+      <c r="C384">
+        <v>41</v>
+      </c>
+      <c r="D384">
+        <v>44</v>
+      </c>
+      <c r="E384" t="str">
+        <f t="shared" si="68"/>
+        <v>25</v>
+      </c>
+      <c r="F384" t="str">
+        <f t="shared" si="69"/>
+        <v>12</v>
+      </c>
+      <c r="G384" t="str">
+        <f t="shared" si="70"/>
+        <v>2023</v>
+      </c>
+      <c r="H384" t="str">
+        <f t="shared" si="71"/>
+        <v>25/12/2023</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>2</v>
+      </c>
+      <c r="B385">
+        <v>20231219</v>
+      </c>
+      <c r="C385">
+        <v>40</v>
+      </c>
+      <c r="D385">
+        <v>79</v>
+      </c>
+      <c r="E385" t="str">
+        <f t="shared" si="68"/>
+        <v>19</v>
+      </c>
+      <c r="F385" t="str">
+        <f t="shared" si="69"/>
+        <v>12</v>
+      </c>
+      <c r="G385" t="str">
+        <f t="shared" si="70"/>
+        <v>2023</v>
+      </c>
+      <c r="H385" t="str">
+        <f t="shared" si="71"/>
+        <v>19/12/2023</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>2</v>
+      </c>
+      <c r="B386">
+        <v>20231222</v>
+      </c>
+      <c r="C386">
+        <v>40</v>
+      </c>
+      <c r="D386">
+        <v>50</v>
+      </c>
+      <c r="E386" t="str">
+        <f t="shared" si="68"/>
+        <v>22</v>
+      </c>
+      <c r="F386" t="str">
+        <f t="shared" si="69"/>
+        <v>12</v>
+      </c>
+      <c r="G386" t="str">
+        <f t="shared" si="70"/>
+        <v>2023</v>
+      </c>
+      <c r="H386" t="str">
+        <f t="shared" si="71"/>
+        <v>22/12/2023</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>1</v>
+      </c>
+      <c r="B387">
+        <v>20231231</v>
+      </c>
+      <c r="C387">
+        <v>38</v>
+      </c>
+      <c r="D387">
+        <v>31</v>
+      </c>
+      <c r="E387" t="str">
+        <f t="shared" si="68"/>
+        <v>31</v>
+      </c>
+      <c r="F387" t="str">
+        <f t="shared" si="69"/>
+        <v>12</v>
+      </c>
+      <c r="G387" t="str">
+        <f t="shared" si="70"/>
+        <v>2023</v>
+      </c>
+      <c r="H387" t="str">
+        <f t="shared" si="71"/>
+        <v>31/12/2023</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>1</v>
+      </c>
+      <c r="B388">
+        <v>20231220</v>
+      </c>
+      <c r="C388">
+        <v>37</v>
+      </c>
+      <c r="D388">
+        <v>43</v>
+      </c>
+      <c r="E388" t="str">
+        <f t="shared" si="68"/>
+        <v>20</v>
+      </c>
+      <c r="F388" t="str">
+        <f t="shared" si="69"/>
+        <v>12</v>
+      </c>
+      <c r="G388" t="str">
+        <f t="shared" si="70"/>
+        <v>2023</v>
+      </c>
+      <c r="H388" t="str">
+        <f t="shared" si="71"/>
+        <v>20/12/2023</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>1</v>
+      </c>
+      <c r="B389">
+        <v>20231229</v>
+      </c>
+      <c r="C389">
+        <v>37</v>
+      </c>
+      <c r="D389">
+        <v>35</v>
+      </c>
+      <c r="E389" t="str">
+        <f t="shared" si="68"/>
+        <v>29</v>
+      </c>
+      <c r="F389" t="str">
+        <f t="shared" si="69"/>
+        <v>12</v>
+      </c>
+      <c r="G389" t="str">
+        <f t="shared" si="70"/>
+        <v>2023</v>
+      </c>
+      <c r="H389" t="str">
+        <f t="shared" si="71"/>
+        <v>29/12/2023</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>1</v>
+      </c>
+      <c r="B390">
+        <v>20231226</v>
+      </c>
+      <c r="C390">
+        <v>35</v>
+      </c>
+      <c r="D390">
+        <v>31</v>
+      </c>
+      <c r="E390" t="str">
+        <f t="shared" si="68"/>
+        <v>26</v>
+      </c>
+      <c r="F390" t="str">
+        <f t="shared" si="69"/>
+        <v>12</v>
+      </c>
+      <c r="G390" t="str">
+        <f t="shared" si="70"/>
+        <v>2023</v>
+      </c>
+      <c r="H390" t="str">
+        <f t="shared" si="71"/>
+        <v>26/12/2023</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>1</v>
+      </c>
+      <c r="B391">
+        <v>20231227</v>
+      </c>
+      <c r="C391">
+        <v>33</v>
+      </c>
+      <c r="D391">
+        <v>43</v>
+      </c>
+      <c r="E391" t="str">
+        <f t="shared" si="68"/>
+        <v>27</v>
+      </c>
+      <c r="F391" t="str">
+        <f t="shared" si="69"/>
+        <v>12</v>
+      </c>
+      <c r="G391" t="str">
+        <f t="shared" si="70"/>
+        <v>2023</v>
+      </c>
+      <c r="H391" t="str">
+        <f t="shared" si="71"/>
+        <v>27/12/2023</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>1</v>
+      </c>
+      <c r="B392">
+        <v>20231230</v>
+      </c>
+      <c r="C392">
+        <v>31</v>
+      </c>
+      <c r="D392">
+        <v>30</v>
+      </c>
+      <c r="E392" t="str">
+        <f t="shared" si="68"/>
+        <v>30</v>
+      </c>
+      <c r="F392" t="str">
+        <f t="shared" si="69"/>
+        <v>12</v>
+      </c>
+      <c r="G392" t="str">
+        <f t="shared" si="70"/>
+        <v>2023</v>
+      </c>
+      <c r="H392" t="str">
+        <f t="shared" si="71"/>
+        <v>30/12/2023</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>2</v>
+      </c>
+      <c r="B393">
+        <v>20231218</v>
+      </c>
+      <c r="C393">
+        <v>26</v>
+      </c>
+      <c r="D393">
+        <v>47</v>
+      </c>
+      <c r="E393" t="str">
+        <f t="shared" si="68"/>
+        <v>18</v>
+      </c>
+      <c r="F393" t="str">
+        <f t="shared" si="69"/>
+        <v>12</v>
+      </c>
+      <c r="G393" t="str">
+        <f t="shared" si="70"/>
+        <v>2023</v>
+      </c>
+      <c r="H393" t="str">
+        <f t="shared" si="71"/>
+        <v>18/12/2023</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>2</v>
+      </c>
+      <c r="B394">
+        <v>20231220</v>
+      </c>
+      <c r="C394">
+        <v>18</v>
+      </c>
+      <c r="D394">
+        <v>47</v>
+      </c>
+      <c r="E394" t="str">
+        <f t="shared" si="68"/>
+        <v>20</v>
+      </c>
+      <c r="F394" t="str">
+        <f t="shared" si="69"/>
+        <v>12</v>
+      </c>
+      <c r="G394" t="str">
+        <f t="shared" si="70"/>
+        <v>2023</v>
+      </c>
+      <c r="H394" t="str">
+        <f t="shared" si="71"/>
+        <v>20/12/2023</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>2</v>
+      </c>
+      <c r="B395">
+        <v>20231226</v>
+      </c>
+      <c r="C395">
+        <v>18</v>
+      </c>
+      <c r="D395">
+        <v>40</v>
+      </c>
+      <c r="E395" t="str">
+        <f t="shared" si="68"/>
+        <v>26</v>
+      </c>
+      <c r="F395" t="str">
+        <f t="shared" si="69"/>
+        <v>12</v>
+      </c>
+      <c r="G395" t="str">
+        <f t="shared" si="70"/>
+        <v>2023</v>
+      </c>
+      <c r="H395" t="str">
+        <f t="shared" si="71"/>
+        <v>26/12/2023</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>2</v>
+      </c>
+      <c r="B396">
+        <v>20231221</v>
+      </c>
+      <c r="C396">
+        <v>17</v>
+      </c>
+      <c r="D396">
+        <v>40</v>
+      </c>
+      <c r="E396" t="str">
+        <f t="shared" si="68"/>
+        <v>21</v>
+      </c>
+      <c r="F396" t="str">
+        <f t="shared" si="69"/>
+        <v>12</v>
+      </c>
+      <c r="G396" t="str">
+        <f t="shared" si="70"/>
+        <v>2023</v>
+      </c>
+      <c r="H396" t="str">
+        <f t="shared" si="71"/>
+        <v>21/12/2023</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>2</v>
+      </c>
+      <c r="B397">
+        <v>20231227</v>
+      </c>
+      <c r="C397">
+        <v>15</v>
+      </c>
+      <c r="D397">
+        <v>36</v>
+      </c>
+      <c r="E397" t="str">
+        <f t="shared" si="68"/>
+        <v>27</v>
+      </c>
+      <c r="F397" t="str">
+        <f t="shared" si="69"/>
+        <v>12</v>
+      </c>
+      <c r="G397" t="str">
+        <f t="shared" si="70"/>
+        <v>2023</v>
+      </c>
+      <c r="H397" t="str">
+        <f t="shared" si="71"/>
+        <v>27/12/2023</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>2</v>
+      </c>
+      <c r="B398">
+        <v>20231228</v>
+      </c>
+      <c r="C398">
+        <v>14</v>
+      </c>
+      <c r="D398">
+        <v>31</v>
+      </c>
+      <c r="E398" t="str">
+        <f t="shared" si="68"/>
+        <v>28</v>
+      </c>
+      <c r="F398" t="str">
+        <f t="shared" si="69"/>
+        <v>12</v>
+      </c>
+      <c r="G398" t="str">
+        <f t="shared" si="70"/>
+        <v>2023</v>
+      </c>
+      <c r="H398" t="str">
+        <f t="shared" si="71"/>
+        <v>28/12/2023</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>2</v>
+      </c>
+      <c r="B399">
+        <v>20231225</v>
+      </c>
+      <c r="C399">
+        <v>13</v>
+      </c>
+      <c r="D399">
+        <v>23</v>
+      </c>
+      <c r="E399" t="str">
+        <f t="shared" si="68"/>
+        <v>25</v>
+      </c>
+      <c r="F399" t="str">
+        <f t="shared" si="69"/>
+        <v>12</v>
+      </c>
+      <c r="G399" t="str">
+        <f t="shared" si="70"/>
+        <v>2023</v>
+      </c>
+      <c r="H399" t="str">
+        <f t="shared" si="71"/>
+        <v>25/12/2023</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>2</v>
+      </c>
+      <c r="B400">
+        <v>20231223</v>
+      </c>
+      <c r="C400">
+        <v>12</v>
+      </c>
+      <c r="D400">
+        <v>34</v>
+      </c>
+      <c r="E400" t="str">
+        <f t="shared" si="68"/>
+        <v>23</v>
+      </c>
+      <c r="F400" t="str">
+        <f t="shared" si="69"/>
+        <v>12</v>
+      </c>
+      <c r="G400" t="str">
+        <f t="shared" si="70"/>
+        <v>2023</v>
+      </c>
+      <c r="H400" t="str">
+        <f t="shared" si="71"/>
+        <v>23/12/2023</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>2</v>
+      </c>
+      <c r="B401">
+        <v>20231229</v>
+      </c>
+      <c r="C401">
+        <v>9</v>
+      </c>
+      <c r="D401">
+        <v>24</v>
+      </c>
+      <c r="E401" t="str">
+        <f t="shared" si="68"/>
+        <v>29</v>
+      </c>
+      <c r="F401" t="str">
+        <f t="shared" si="69"/>
+        <v>12</v>
+      </c>
+      <c r="G401" t="str">
+        <f t="shared" si="70"/>
+        <v>2023</v>
+      </c>
+      <c r="H401" t="str">
+        <f t="shared" si="71"/>
+        <v>29/12/2023</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>2</v>
+      </c>
+      <c r="B402">
+        <v>20231231</v>
+      </c>
+      <c r="C402">
+        <v>8</v>
+      </c>
+      <c r="D402">
+        <v>23</v>
+      </c>
+      <c r="E402" t="str">
+        <f t="shared" si="68"/>
+        <v>31</v>
+      </c>
+      <c r="F402" t="str">
+        <f t="shared" si="69"/>
+        <v>12</v>
+      </c>
+      <c r="G402" t="str">
+        <f t="shared" si="70"/>
+        <v>2023</v>
+      </c>
+      <c r="H402" t="str">
+        <f t="shared" si="71"/>
+        <v>31/12/2023</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>2</v>
+      </c>
+      <c r="B403">
+        <v>20231230</v>
+      </c>
+      <c r="C403">
+        <v>7</v>
+      </c>
+      <c r="D403">
+        <v>31</v>
+      </c>
+      <c r="E403" t="str">
+        <f t="shared" si="68"/>
+        <v>30</v>
+      </c>
+      <c r="F403" t="str">
+        <f t="shared" si="69"/>
+        <v>12</v>
+      </c>
+      <c r="G403" t="str">
+        <f t="shared" si="70"/>
+        <v>2023</v>
+      </c>
+      <c r="H403" t="str">
+        <f t="shared" si="71"/>
+        <v>30/12/2023</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>2</v>
+      </c>
+      <c r="B404">
+        <v>20231224</v>
+      </c>
+      <c r="C404">
+        <v>5</v>
+      </c>
+      <c r="D404">
+        <v>24</v>
+      </c>
+      <c r="E404" t="str">
+        <f t="shared" si="68"/>
+        <v>24</v>
+      </c>
+      <c r="F404" t="str">
+        <f t="shared" si="69"/>
+        <v>12</v>
+      </c>
+      <c r="G404" t="str">
+        <f t="shared" si="70"/>
+        <v>2023</v>
+      </c>
+      <c r="H404" t="str">
+        <f t="shared" si="71"/>
+        <v>24/12/2023</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>4</v>
+      </c>
+      <c r="B405">
+        <v>20231219</v>
+      </c>
+      <c r="C405">
+        <v>2</v>
+      </c>
+      <c r="D405">
+        <v>2</v>
+      </c>
+      <c r="E405" t="str">
+        <f t="shared" si="68"/>
+        <v>19</v>
+      </c>
+      <c r="F405" t="str">
+        <f t="shared" si="69"/>
+        <v>12</v>
+      </c>
+      <c r="G405" t="str">
+        <f t="shared" si="70"/>
+        <v>2023</v>
+      </c>
+      <c r="H405" t="str">
+        <f t="shared" si="71"/>
+        <v>19/12/2023</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>4</v>
+      </c>
+      <c r="B406">
+        <v>20231222</v>
+      </c>
+      <c r="C406">
+        <v>1</v>
+      </c>
+      <c r="D406">
+        <v>2</v>
+      </c>
+      <c r="E406" t="str">
+        <f t="shared" si="68"/>
+        <v>22</v>
+      </c>
+      <c r="F406" t="str">
+        <f t="shared" si="69"/>
+        <v>12</v>
+      </c>
+      <c r="G406" t="str">
+        <f t="shared" si="70"/>
+        <v>2023</v>
+      </c>
+      <c r="H406" t="str">
+        <f t="shared" si="71"/>
+        <v>22/12/2023</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>4</v>
+      </c>
+      <c r="B407">
+        <v>20231224</v>
+      </c>
+      <c r="C407">
+        <v>1</v>
+      </c>
+      <c r="D407">
+        <v>5</v>
+      </c>
+      <c r="E407" t="str">
+        <f t="shared" si="68"/>
+        <v>24</v>
+      </c>
+      <c r="F407" t="str">
+        <f t="shared" si="69"/>
+        <v>12</v>
+      </c>
+      <c r="G407" t="str">
+        <f t="shared" si="70"/>
+        <v>2023</v>
+      </c>
+      <c r="H407" t="str">
+        <f t="shared" si="71"/>
+        <v>24/12/2023</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>4</v>
+      </c>
+      <c r="B408">
+        <v>20231230</v>
+      </c>
+      <c r="C408">
+        <v>1</v>
+      </c>
+      <c r="D408">
+        <v>1</v>
+      </c>
+      <c r="E408" t="str">
+        <f t="shared" si="68"/>
+        <v>30</v>
+      </c>
+      <c r="F408" t="str">
+        <f t="shared" si="69"/>
+        <v>12</v>
+      </c>
+      <c r="G408" t="str">
+        <f t="shared" si="70"/>
+        <v>2023</v>
+      </c>
+      <c r="H408" t="str">
+        <f t="shared" si="71"/>
+        <v>30/12/2023</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>4</v>
+      </c>
+      <c r="B409">
+        <v>20231231</v>
+      </c>
+      <c r="C409">
+        <v>1</v>
+      </c>
+      <c r="D409">
+        <v>1</v>
+      </c>
+      <c r="E409" t="str">
+        <f t="shared" si="68"/>
+        <v>31</v>
+      </c>
+      <c r="F409" t="str">
+        <f t="shared" si="69"/>
+        <v>12</v>
+      </c>
+      <c r="G409" t="str">
+        <f t="shared" si="70"/>
+        <v>2023</v>
+      </c>
+      <c r="H409" t="str">
+        <f t="shared" si="71"/>
+        <v>31/12/2023</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>4</v>
+      </c>
+      <c r="B410">
+        <v>20231218</v>
+      </c>
+      <c r="C410">
+        <v>0</v>
+      </c>
+      <c r="D410">
+        <v>5</v>
+      </c>
+      <c r="E410" t="str">
+        <f t="shared" si="68"/>
+        <v>18</v>
+      </c>
+      <c r="F410" t="str">
+        <f t="shared" si="69"/>
+        <v>12</v>
+      </c>
+      <c r="G410" t="str">
+        <f t="shared" si="70"/>
+        <v>2023</v>
+      </c>
+      <c r="H410" t="str">
+        <f t="shared" si="71"/>
+        <v>18/12/2023</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>4</v>
+      </c>
+      <c r="B411">
+        <v>20231221</v>
+      </c>
+      <c r="C411">
+        <v>0</v>
+      </c>
+      <c r="D411">
+        <v>1</v>
+      </c>
+      <c r="E411" t="str">
+        <f t="shared" si="68"/>
+        <v>21</v>
+      </c>
+      <c r="F411" t="str">
+        <f t="shared" si="69"/>
+        <v>12</v>
+      </c>
+      <c r="G411" t="str">
+        <f t="shared" si="70"/>
+        <v>2023</v>
+      </c>
+      <c r="H411" t="str">
+        <f t="shared" si="71"/>
+        <v>21/12/2023</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>4</v>
+      </c>
+      <c r="B412">
+        <v>20231225</v>
+      </c>
+      <c r="C412">
+        <v>0</v>
+      </c>
+      <c r="D412">
+        <v>3</v>
+      </c>
+      <c r="E412" t="str">
+        <f t="shared" si="68"/>
+        <v>25</v>
+      </c>
+      <c r="F412" t="str">
+        <f t="shared" si="69"/>
+        <v>12</v>
+      </c>
+      <c r="G412" t="str">
+        <f t="shared" si="70"/>
+        <v>2023</v>
+      </c>
+      <c r="H412" t="str">
+        <f t="shared" si="71"/>
+        <v>25/12/2023</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>4</v>
+      </c>
+      <c r="B413">
+        <v>20231226</v>
+      </c>
+      <c r="C413">
+        <v>0</v>
+      </c>
+      <c r="D413">
+        <v>4</v>
+      </c>
+      <c r="E413" t="str">
+        <f t="shared" si="68"/>
+        <v>26</v>
+      </c>
+      <c r="F413" t="str">
+        <f t="shared" si="69"/>
+        <v>12</v>
+      </c>
+      <c r="G413" t="str">
+        <f t="shared" si="70"/>
+        <v>2023</v>
+      </c>
+      <c r="H413" t="str">
+        <f t="shared" si="71"/>
+        <v>26/12/2023</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>1</v>
+      </c>
+      <c r="B414">
+        <v>20240108</v>
+      </c>
+      <c r="C414">
+        <v>148</v>
+      </c>
+      <c r="D414">
+        <v>142</v>
+      </c>
+      <c r="E414" t="str">
+        <f t="shared" si="68"/>
+        <v>08</v>
+      </c>
+      <c r="F414" t="str">
+        <f t="shared" si="69"/>
+        <v>01</v>
+      </c>
+      <c r="G414" t="str">
+        <f t="shared" si="70"/>
+        <v>2024</v>
+      </c>
+      <c r="H414" t="str">
+        <f t="shared" si="71"/>
+        <v>08/01/2024</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>1</v>
+      </c>
+      <c r="B415">
+        <v>20240104</v>
+      </c>
+      <c r="C415">
+        <v>67</v>
+      </c>
+      <c r="D415">
+        <v>61</v>
+      </c>
+      <c r="E415" t="str">
+        <f t="shared" si="68"/>
+        <v>04</v>
+      </c>
+      <c r="F415" t="str">
+        <f t="shared" si="69"/>
+        <v>01</v>
+      </c>
+      <c r="G415" t="str">
+        <f t="shared" si="70"/>
+        <v>2024</v>
+      </c>
+      <c r="H415" t="str">
+        <f t="shared" si="71"/>
+        <v>04/01/2024</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>1</v>
+      </c>
+      <c r="B416">
+        <v>20240103</v>
+      </c>
+      <c r="C416">
+        <v>59</v>
+      </c>
+      <c r="D416">
+        <v>56</v>
+      </c>
+      <c r="E416" t="str">
+        <f t="shared" si="68"/>
+        <v>03</v>
+      </c>
+      <c r="F416" t="str">
+        <f t="shared" si="69"/>
+        <v>01</v>
+      </c>
+      <c r="G416" t="str">
+        <f t="shared" si="70"/>
+        <v>2024</v>
+      </c>
+      <c r="H416" t="str">
+        <f t="shared" si="71"/>
+        <v>03/01/2024</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>1</v>
+      </c>
+      <c r="B417">
+        <v>20240106</v>
+      </c>
+      <c r="C417">
+        <v>41</v>
+      </c>
+      <c r="D417">
+        <v>40</v>
+      </c>
+      <c r="E417" t="str">
+        <f t="shared" si="68"/>
+        <v>06</v>
+      </c>
+      <c r="F417" t="str">
+        <f t="shared" si="69"/>
+        <v>01</v>
+      </c>
+      <c r="G417" t="str">
+        <f t="shared" si="70"/>
+        <v>2024</v>
+      </c>
+      <c r="H417" t="str">
+        <f t="shared" si="71"/>
+        <v>06/01/2024</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>1</v>
+      </c>
+      <c r="B418">
+        <v>20240107</v>
+      </c>
+      <c r="C418">
+        <v>37</v>
+      </c>
+      <c r="D418">
+        <v>41</v>
+      </c>
+      <c r="E418" t="str">
+        <f t="shared" si="68"/>
+        <v>07</v>
+      </c>
+      <c r="F418" t="str">
+        <f t="shared" si="69"/>
+        <v>01</v>
+      </c>
+      <c r="G418" t="str">
+        <f t="shared" si="70"/>
+        <v>2024</v>
+      </c>
+      <c r="H418" t="str">
+        <f t="shared" si="71"/>
+        <v>07/01/2024</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>1</v>
+      </c>
+      <c r="B419">
+        <v>20240102</v>
+      </c>
+      <c r="C419">
+        <v>36</v>
+      </c>
+      <c r="D419">
+        <v>41</v>
+      </c>
+      <c r="E419" t="str">
+        <f t="shared" si="68"/>
+        <v>02</v>
+      </c>
+      <c r="F419" t="str">
+        <f t="shared" si="69"/>
+        <v>01</v>
+      </c>
+      <c r="G419" t="str">
+        <f t="shared" si="70"/>
+        <v>2024</v>
+      </c>
+      <c r="H419" t="str">
+        <f t="shared" si="71"/>
+        <v>02/01/2024</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>1</v>
+      </c>
+      <c r="B420">
+        <v>20240105</v>
+      </c>
+      <c r="C420">
+        <v>36</v>
+      </c>
+      <c r="D420">
+        <v>29</v>
+      </c>
+      <c r="E420" t="str">
+        <f t="shared" si="68"/>
+        <v>05</v>
+      </c>
+      <c r="F420" t="str">
+        <f t="shared" si="69"/>
+        <v>01</v>
+      </c>
+      <c r="G420" t="str">
+        <f t="shared" si="70"/>
+        <v>2024</v>
+      </c>
+      <c r="H420" t="str">
+        <f t="shared" si="71"/>
+        <v>05/01/2024</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>1</v>
+      </c>
+      <c r="B421">
+        <v>20240101</v>
+      </c>
+      <c r="C421">
+        <v>27</v>
+      </c>
+      <c r="D421">
+        <v>32</v>
+      </c>
+      <c r="E421" t="str">
+        <f t="shared" si="68"/>
+        <v>01</v>
+      </c>
+      <c r="F421" t="str">
+        <f t="shared" si="69"/>
+        <v>01</v>
+      </c>
+      <c r="G421" t="str">
+        <f t="shared" si="70"/>
+        <v>2024</v>
+      </c>
+      <c r="H421" t="str">
+        <f t="shared" si="71"/>
+        <v>01/01/2024</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>2</v>
+      </c>
+      <c r="B422">
+        <v>20240102</v>
+      </c>
+      <c r="C422">
+        <v>14</v>
+      </c>
+      <c r="D422">
+        <v>36</v>
+      </c>
+      <c r="E422" t="str">
+        <f t="shared" si="68"/>
+        <v>02</v>
+      </c>
+      <c r="F422" t="str">
+        <f t="shared" si="69"/>
+        <v>01</v>
+      </c>
+      <c r="G422" t="str">
+        <f t="shared" si="70"/>
+        <v>2024</v>
+      </c>
+      <c r="H422" t="str">
+        <f t="shared" si="71"/>
+        <v>02/01/2024</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>2</v>
+      </c>
+      <c r="B423">
+        <v>20240107</v>
+      </c>
+      <c r="C423">
+        <v>14</v>
+      </c>
+      <c r="D423">
+        <v>33</v>
+      </c>
+      <c r="E423" t="str">
+        <f t="shared" si="68"/>
+        <v>07</v>
+      </c>
+      <c r="F423" t="str">
+        <f t="shared" si="69"/>
+        <v>01</v>
+      </c>
+      <c r="G423" t="str">
+        <f t="shared" si="70"/>
+        <v>2024</v>
+      </c>
+      <c r="H423" t="str">
+        <f t="shared" si="71"/>
+        <v>07/01/2024</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>2</v>
+      </c>
+      <c r="B424">
+        <v>20240108</v>
+      </c>
+      <c r="C424">
+        <v>14</v>
+      </c>
+      <c r="D424">
+        <v>40</v>
+      </c>
+      <c r="E424" t="str">
+        <f t="shared" si="68"/>
+        <v>08</v>
+      </c>
+      <c r="F424" t="str">
+        <f t="shared" si="69"/>
+        <v>01</v>
+      </c>
+      <c r="G424" t="str">
+        <f t="shared" si="70"/>
+        <v>2024</v>
+      </c>
+      <c r="H424" t="str">
+        <f t="shared" si="71"/>
+        <v>08/01/2024</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>2</v>
+      </c>
+      <c r="B425">
+        <v>20240101</v>
+      </c>
+      <c r="C425">
+        <v>13</v>
+      </c>
+      <c r="D425">
+        <v>33</v>
+      </c>
+      <c r="E425" t="str">
+        <f t="shared" si="68"/>
+        <v>01</v>
+      </c>
+      <c r="F425" t="str">
+        <f t="shared" si="69"/>
+        <v>01</v>
+      </c>
+      <c r="G425" t="str">
+        <f t="shared" si="70"/>
+        <v>2024</v>
+      </c>
+      <c r="H425" t="str">
+        <f t="shared" si="71"/>
+        <v>01/01/2024</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>2</v>
+      </c>
+      <c r="B426">
+        <v>20240106</v>
+      </c>
+      <c r="C426">
+        <v>13</v>
+      </c>
+      <c r="D426">
+        <v>34</v>
+      </c>
+      <c r="E426" t="str">
+        <f t="shared" si="68"/>
+        <v>06</v>
+      </c>
+      <c r="F426" t="str">
+        <f t="shared" si="69"/>
+        <v>01</v>
+      </c>
+      <c r="G426" t="str">
+        <f t="shared" si="70"/>
+        <v>2024</v>
+      </c>
+      <c r="H426" t="str">
+        <f t="shared" si="71"/>
+        <v>06/01/2024</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>2</v>
+      </c>
+      <c r="B427">
+        <v>20240104</v>
+      </c>
+      <c r="C427">
+        <v>11</v>
+      </c>
+      <c r="D427">
+        <v>39</v>
+      </c>
+      <c r="E427" t="str">
+        <f t="shared" si="68"/>
+        <v>04</v>
+      </c>
+      <c r="F427" t="str">
+        <f t="shared" si="69"/>
+        <v>01</v>
+      </c>
+      <c r="G427" t="str">
+        <f t="shared" si="70"/>
+        <v>2024</v>
+      </c>
+      <c r="H427" t="str">
+        <f t="shared" si="71"/>
+        <v>04/01/2024</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>2</v>
+      </c>
+      <c r="B428">
+        <v>20240105</v>
+      </c>
+      <c r="C428">
+        <v>10</v>
+      </c>
+      <c r="D428">
+        <v>29</v>
+      </c>
+      <c r="E428" t="str">
+        <f t="shared" si="68"/>
+        <v>05</v>
+      </c>
+      <c r="F428" t="str">
+        <f t="shared" si="69"/>
+        <v>01</v>
+      </c>
+      <c r="G428" t="str">
+        <f t="shared" si="70"/>
+        <v>2024</v>
+      </c>
+      <c r="H428" t="str">
+        <f t="shared" si="71"/>
+        <v>05/01/2024</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>2</v>
+      </c>
+      <c r="B429">
+        <v>20240103</v>
+      </c>
+      <c r="C429">
+        <v>9</v>
+      </c>
+      <c r="D429">
+        <v>30</v>
+      </c>
+      <c r="E429" t="str">
+        <f t="shared" si="68"/>
+        <v>03</v>
+      </c>
+      <c r="F429" t="str">
+        <f t="shared" si="69"/>
+        <v>01</v>
+      </c>
+      <c r="G429" t="str">
+        <f t="shared" si="70"/>
+        <v>2024</v>
+      </c>
+      <c r="H429" t="str">
+        <f t="shared" si="71"/>
+        <v>03/01/2024</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>4</v>
+      </c>
+      <c r="B430">
+        <v>20240102</v>
+      </c>
+      <c r="C430">
+        <v>4</v>
+      </c>
+      <c r="D430">
+        <v>8</v>
+      </c>
+      <c r="E430" t="str">
+        <f t="shared" si="68"/>
+        <v>02</v>
+      </c>
+      <c r="F430" t="str">
+        <f t="shared" si="69"/>
+        <v>01</v>
+      </c>
+      <c r="G430" t="str">
+        <f t="shared" si="70"/>
+        <v>2024</v>
+      </c>
+      <c r="H430" t="str">
+        <f t="shared" si="71"/>
+        <v>02/01/2024</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>4</v>
+      </c>
+      <c r="B431">
+        <v>20240105</v>
+      </c>
+      <c r="C431">
+        <v>2</v>
+      </c>
+      <c r="D431">
+        <v>6</v>
+      </c>
+      <c r="E431" t="str">
+        <f t="shared" si="68"/>
+        <v>05</v>
+      </c>
+      <c r="F431" t="str">
+        <f t="shared" si="69"/>
+        <v>01</v>
+      </c>
+      <c r="G431" t="str">
+        <f t="shared" si="70"/>
+        <v>2024</v>
+      </c>
+      <c r="H431" t="str">
+        <f t="shared" si="71"/>
+        <v>05/01/2024</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>4</v>
+      </c>
+      <c r="B432">
+        <v>20240106</v>
+      </c>
+      <c r="C432">
+        <v>2</v>
+      </c>
+      <c r="D432">
+        <v>8</v>
+      </c>
+      <c r="E432" t="str">
+        <f t="shared" si="68"/>
+        <v>06</v>
+      </c>
+      <c r="F432" t="str">
+        <f t="shared" si="69"/>
+        <v>01</v>
+      </c>
+      <c r="G432" t="str">
+        <f t="shared" si="70"/>
+        <v>2024</v>
+      </c>
+      <c r="H432" t="str">
+        <f t="shared" si="71"/>
+        <v>06/01/2024</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>3</v>
+      </c>
+      <c r="B433">
+        <v>20240108</v>
+      </c>
+      <c r="C433">
+        <v>1</v>
+      </c>
+      <c r="D433">
+        <v>0</v>
+      </c>
+      <c r="E433" t="str">
+        <f t="shared" si="68"/>
+        <v>08</v>
+      </c>
+      <c r="F433" t="str">
+        <f t="shared" si="69"/>
+        <v>01</v>
+      </c>
+      <c r="G433" t="str">
+        <f t="shared" si="70"/>
+        <v>2024</v>
+      </c>
+      <c r="H433" t="str">
+        <f t="shared" si="71"/>
+        <v>08/01/2024</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>4</v>
+      </c>
+      <c r="B434">
+        <v>20240103</v>
+      </c>
+      <c r="C434">
+        <v>1</v>
+      </c>
+      <c r="D434">
+        <v>4</v>
+      </c>
+      <c r="E434" t="str">
+        <f t="shared" si="68"/>
+        <v>03</v>
+      </c>
+      <c r="F434" t="str">
+        <f t="shared" si="69"/>
+        <v>01</v>
+      </c>
+      <c r="G434" t="str">
+        <f t="shared" si="70"/>
+        <v>2024</v>
+      </c>
+      <c r="H434" t="str">
+        <f t="shared" si="71"/>
+        <v>03/01/2024</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>4</v>
+      </c>
+      <c r="B435">
+        <v>20240104</v>
+      </c>
+      <c r="C435">
+        <v>1</v>
+      </c>
+      <c r="D435">
+        <v>8</v>
+      </c>
+      <c r="E435" t="str">
+        <f t="shared" si="68"/>
+        <v>04</v>
+      </c>
+      <c r="F435" t="str">
+        <f t="shared" si="69"/>
+        <v>01</v>
+      </c>
+      <c r="G435" t="str">
+        <f t="shared" si="70"/>
+        <v>2024</v>
+      </c>
+      <c r="H435" t="str">
+        <f t="shared" si="71"/>
+        <v>04/01/2024</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>4</v>
+      </c>
+      <c r="B436">
+        <v>20240107</v>
+      </c>
+      <c r="C436">
+        <v>1</v>
+      </c>
+      <c r="D436">
+        <v>5</v>
+      </c>
+      <c r="E436" t="str">
+        <f t="shared" si="68"/>
+        <v>07</v>
+      </c>
+      <c r="F436" t="str">
+        <f t="shared" si="69"/>
+        <v>01</v>
+      </c>
+      <c r="G436" t="str">
+        <f t="shared" si="70"/>
+        <v>2024</v>
+      </c>
+      <c r="H436" t="str">
+        <f t="shared" si="71"/>
+        <v>07/01/2024</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>4</v>
+      </c>
+      <c r="B437">
+        <v>20240108</v>
+      </c>
+      <c r="C437">
+        <v>0</v>
+      </c>
+      <c r="D437">
+        <v>3</v>
+      </c>
+      <c r="E437" t="str">
+        <f t="shared" si="68"/>
+        <v>08</v>
+      </c>
+      <c r="F437" t="str">
+        <f t="shared" si="69"/>
+        <v>01</v>
+      </c>
+      <c r="G437" t="str">
+        <f t="shared" si="70"/>
+        <v>2024</v>
+      </c>
+      <c r="H437" t="str">
+        <f t="shared" si="71"/>
+        <v>08/01/2024</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>1</v>
+      </c>
+      <c r="B438">
+        <v>20231211</v>
+      </c>
+      <c r="C438">
+        <v>82</v>
+      </c>
+      <c r="D438">
+        <v>72</v>
+      </c>
+      <c r="E438" t="str">
+        <f t="shared" ref="E438" si="72">RIGHT(B438,2)</f>
+        <v>11</v>
+      </c>
+      <c r="F438" t="str">
+        <f t="shared" ref="F438" si="73">MID(B438,5,2)</f>
+        <v>12</v>
+      </c>
+      <c r="G438" t="str">
+        <f t="shared" ref="G438" si="74">LEFT(B438,4)</f>
+        <v>2023</v>
+      </c>
+      <c r="H438" t="str">
+        <f t="shared" ref="H438" si="75">_xlfn.CONCAT(E438,"/",F438,"/",G438)</f>
+        <v>11/12/2023</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>1</v>
+      </c>
+      <c r="B439">
+        <v>20231212</v>
+      </c>
+      <c r="C439">
+        <v>54</v>
+      </c>
+      <c r="D439">
+        <v>58</v>
+      </c>
+      <c r="E439" t="str">
+        <f t="shared" ref="E439:E457" si="76">RIGHT(B439,2)</f>
+        <v>12</v>
+      </c>
+      <c r="F439" t="str">
+        <f t="shared" ref="F439:F457" si="77">MID(B439,5,2)</f>
+        <v>12</v>
+      </c>
+      <c r="G439" t="str">
+        <f t="shared" ref="G439:G457" si="78">LEFT(B439,4)</f>
+        <v>2023</v>
+      </c>
+      <c r="H439" t="str">
+        <f t="shared" ref="H439:H457" si="79">_xlfn.CONCAT(E439,"/",F439,"/",G439)</f>
+        <v>12/12/2023</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>1</v>
+      </c>
+      <c r="B440">
+        <v>20231216</v>
+      </c>
+      <c r="C440">
+        <v>44</v>
+      </c>
+      <c r="D440">
+        <v>46</v>
+      </c>
+      <c r="E440" t="str">
+        <f t="shared" si="76"/>
+        <v>16</v>
+      </c>
+      <c r="F440" t="str">
+        <f t="shared" si="77"/>
+        <v>12</v>
+      </c>
+      <c r="G440" t="str">
+        <f t="shared" si="78"/>
+        <v>2023</v>
+      </c>
+      <c r="H440" t="str">
+        <f t="shared" si="79"/>
+        <v>16/12/2023</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>1</v>
+      </c>
+      <c r="B441">
+        <v>20231217</v>
+      </c>
+      <c r="C441">
+        <v>42</v>
+      </c>
+      <c r="D441">
+        <v>48</v>
+      </c>
+      <c r="E441" t="str">
+        <f t="shared" si="76"/>
+        <v>17</v>
+      </c>
+      <c r="F441" t="str">
+        <f t="shared" si="77"/>
+        <v>12</v>
+      </c>
+      <c r="G441" t="str">
+        <f t="shared" si="78"/>
+        <v>2023</v>
+      </c>
+      <c r="H441" t="str">
+        <f t="shared" si="79"/>
+        <v>17/12/2023</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>1</v>
+      </c>
+      <c r="B442">
+        <v>20231214</v>
+      </c>
+      <c r="C442">
+        <v>37</v>
+      </c>
+      <c r="D442">
+        <v>40</v>
+      </c>
+      <c r="E442" t="str">
+        <f t="shared" si="76"/>
+        <v>14</v>
+      </c>
+      <c r="F442" t="str">
+        <f t="shared" si="77"/>
+        <v>12</v>
+      </c>
+      <c r="G442" t="str">
+        <f t="shared" si="78"/>
+        <v>2023</v>
+      </c>
+      <c r="H442" t="str">
+        <f t="shared" si="79"/>
+        <v>14/12/2023</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>1</v>
+      </c>
+      <c r="B443">
+        <v>20231215</v>
+      </c>
+      <c r="C443">
+        <v>37</v>
+      </c>
+      <c r="D443">
+        <v>46</v>
+      </c>
+      <c r="E443" t="str">
+        <f t="shared" si="76"/>
+        <v>15</v>
+      </c>
+      <c r="F443" t="str">
+        <f t="shared" si="77"/>
+        <v>12</v>
+      </c>
+      <c r="G443" t="str">
+        <f t="shared" si="78"/>
+        <v>2023</v>
+      </c>
+      <c r="H443" t="str">
+        <f t="shared" si="79"/>
+        <v>15/12/2023</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>1</v>
+      </c>
+      <c r="B444">
+        <v>20231213</v>
+      </c>
+      <c r="C444">
+        <v>34</v>
+      </c>
+      <c r="D444">
+        <v>42</v>
+      </c>
+      <c r="E444" t="str">
+        <f t="shared" si="76"/>
+        <v>13</v>
+      </c>
+      <c r="F444" t="str">
+        <f t="shared" si="77"/>
+        <v>12</v>
+      </c>
+      <c r="G444" t="str">
+        <f t="shared" si="78"/>
+        <v>2023</v>
+      </c>
+      <c r="H444" t="str">
+        <f t="shared" si="79"/>
+        <v>13/12/2023</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>2</v>
+      </c>
+      <c r="B445">
+        <v>20231215</v>
+      </c>
+      <c r="C445">
+        <v>31</v>
+      </c>
+      <c r="D445">
+        <v>60</v>
+      </c>
+      <c r="E445" t="str">
+        <f t="shared" si="76"/>
+        <v>15</v>
+      </c>
+      <c r="F445" t="str">
+        <f t="shared" si="77"/>
+        <v>12</v>
+      </c>
+      <c r="G445" t="str">
+        <f t="shared" si="78"/>
+        <v>2023</v>
+      </c>
+      <c r="H445" t="str">
+        <f t="shared" si="79"/>
+        <v>15/12/2023</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>2</v>
+      </c>
+      <c r="B446">
+        <v>20231211</v>
+      </c>
+      <c r="C446">
+        <v>15</v>
+      </c>
+      <c r="D446">
+        <v>48</v>
+      </c>
+      <c r="E446" t="str">
+        <f t="shared" si="76"/>
+        <v>11</v>
+      </c>
+      <c r="F446" t="str">
+        <f t="shared" si="77"/>
+        <v>12</v>
+      </c>
+      <c r="G446" t="str">
+        <f t="shared" si="78"/>
+        <v>2023</v>
+      </c>
+      <c r="H446" t="str">
+        <f t="shared" si="79"/>
+        <v>11/12/2023</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>2</v>
+      </c>
+      <c r="B447">
+        <v>20231212</v>
+      </c>
+      <c r="C447">
+        <v>14</v>
+      </c>
+      <c r="D447">
+        <v>39</v>
+      </c>
+      <c r="E447" t="str">
+        <f t="shared" si="76"/>
+        <v>12</v>
+      </c>
+      <c r="F447" t="str">
+        <f t="shared" si="77"/>
+        <v>12</v>
+      </c>
+      <c r="G447" t="str">
+        <f t="shared" si="78"/>
+        <v>2023</v>
+      </c>
+      <c r="H447" t="str">
+        <f t="shared" si="79"/>
+        <v>12/12/2023</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>2</v>
+      </c>
+      <c r="B448">
+        <v>20231214</v>
+      </c>
+      <c r="C448">
+        <v>13</v>
+      </c>
+      <c r="D448">
+        <v>43</v>
+      </c>
+      <c r="E448" t="str">
+        <f t="shared" si="76"/>
+        <v>14</v>
+      </c>
+      <c r="F448" t="str">
+        <f t="shared" si="77"/>
+        <v>12</v>
+      </c>
+      <c r="G448" t="str">
+        <f t="shared" si="78"/>
+        <v>2023</v>
+      </c>
+      <c r="H448" t="str">
+        <f t="shared" si="79"/>
+        <v>14/12/2023</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>2</v>
+      </c>
+      <c r="B449">
+        <v>20231216</v>
+      </c>
+      <c r="C449">
+        <v>12</v>
+      </c>
+      <c r="D449">
+        <v>20</v>
+      </c>
+      <c r="E449" t="str">
+        <f t="shared" si="76"/>
+        <v>16</v>
+      </c>
+      <c r="F449" t="str">
+        <f t="shared" si="77"/>
+        <v>12</v>
+      </c>
+      <c r="G449" t="str">
+        <f t="shared" si="78"/>
+        <v>2023</v>
+      </c>
+      <c r="H449" t="str">
+        <f t="shared" si="79"/>
+        <v>16/12/2023</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>2</v>
+      </c>
+      <c r="B450">
+        <v>20231217</v>
+      </c>
+      <c r="C450">
+        <v>11</v>
+      </c>
+      <c r="D450">
+        <v>39</v>
+      </c>
+      <c r="E450" t="str">
+        <f t="shared" si="76"/>
+        <v>17</v>
+      </c>
+      <c r="F450" t="str">
+        <f t="shared" si="77"/>
+        <v>12</v>
+      </c>
+      <c r="G450" t="str">
+        <f t="shared" si="78"/>
+        <v>2023</v>
+      </c>
+      <c r="H450" t="str">
+        <f t="shared" si="79"/>
+        <v>17/12/2023</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>2</v>
+      </c>
+      <c r="B451">
+        <v>20231213</v>
+      </c>
+      <c r="C451">
+        <v>5</v>
+      </c>
+      <c r="D451">
+        <v>49</v>
+      </c>
+      <c r="E451" t="str">
+        <f t="shared" si="76"/>
+        <v>13</v>
+      </c>
+      <c r="F451" t="str">
+        <f t="shared" si="77"/>
+        <v>12</v>
+      </c>
+      <c r="G451" t="str">
+        <f t="shared" si="78"/>
+        <v>2023</v>
+      </c>
+      <c r="H451" t="str">
+        <f t="shared" si="79"/>
+        <v>13/12/2023</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>4</v>
+      </c>
+      <c r="B452">
+        <v>20231213</v>
+      </c>
+      <c r="C452">
+        <v>5</v>
+      </c>
+      <c r="D452">
+        <v>5</v>
+      </c>
+      <c r="E452" t="str">
+        <f t="shared" si="76"/>
+        <v>13</v>
+      </c>
+      <c r="F452" t="str">
+        <f t="shared" si="77"/>
+        <v>12</v>
+      </c>
+      <c r="G452" t="str">
+        <f t="shared" si="78"/>
+        <v>2023</v>
+      </c>
+      <c r="H452" t="str">
+        <f t="shared" si="79"/>
+        <v>13/12/2023</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>4</v>
+      </c>
+      <c r="B453">
+        <v>20231214</v>
+      </c>
+      <c r="C453">
+        <v>1</v>
+      </c>
+      <c r="D453">
+        <v>0</v>
+      </c>
+      <c r="E453" t="str">
+        <f t="shared" si="76"/>
+        <v>14</v>
+      </c>
+      <c r="F453" t="str">
+        <f t="shared" si="77"/>
+        <v>12</v>
+      </c>
+      <c r="G453" t="str">
+        <f t="shared" si="78"/>
+        <v>2023</v>
+      </c>
+      <c r="H453" t="str">
+        <f t="shared" si="79"/>
+        <v>14/12/2023</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>4</v>
+      </c>
+      <c r="B454">
+        <v>20231215</v>
+      </c>
+      <c r="C454">
+        <v>1</v>
+      </c>
+      <c r="D454">
+        <v>1</v>
+      </c>
+      <c r="E454" t="str">
+        <f t="shared" si="76"/>
+        <v>15</v>
+      </c>
+      <c r="F454" t="str">
+        <f t="shared" si="77"/>
+        <v>12</v>
+      </c>
+      <c r="G454" t="str">
+        <f t="shared" si="78"/>
+        <v>2023</v>
+      </c>
+      <c r="H454" t="str">
+        <f t="shared" si="79"/>
+        <v>15/12/2023</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>4</v>
+      </c>
+      <c r="B455">
+        <v>20231216</v>
+      </c>
+      <c r="C455">
+        <v>1</v>
+      </c>
+      <c r="D455">
+        <v>1</v>
+      </c>
+      <c r="E455" t="str">
+        <f t="shared" si="76"/>
+        <v>16</v>
+      </c>
+      <c r="F455" t="str">
+        <f t="shared" si="77"/>
+        <v>12</v>
+      </c>
+      <c r="G455" t="str">
+        <f t="shared" si="78"/>
+        <v>2023</v>
+      </c>
+      <c r="H455" t="str">
+        <f t="shared" si="79"/>
+        <v>16/12/2023</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>4</v>
+      </c>
+      <c r="B456">
+        <v>20231217</v>
+      </c>
+      <c r="C456">
+        <v>1</v>
+      </c>
+      <c r="D456">
+        <v>5</v>
+      </c>
+      <c r="E456" t="str">
+        <f t="shared" si="76"/>
+        <v>17</v>
+      </c>
+      <c r="F456" t="str">
+        <f t="shared" si="77"/>
+        <v>12</v>
+      </c>
+      <c r="G456" t="str">
+        <f t="shared" si="78"/>
+        <v>2023</v>
+      </c>
+      <c r="H456" t="str">
+        <f t="shared" si="79"/>
+        <v>17/12/2023</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>4</v>
+      </c>
+      <c r="B457">
+        <v>20231212</v>
+      </c>
+      <c r="C457">
+        <v>0</v>
+      </c>
+      <c r="D457">
+        <v>1</v>
+      </c>
+      <c r="E457" t="str">
+        <f t="shared" si="76"/>
+        <v>12</v>
+      </c>
+      <c r="F457" t="str">
+        <f t="shared" si="77"/>
+        <v>12</v>
+      </c>
+      <c r="G457" t="str">
+        <f t="shared" si="78"/>
+        <v>2023</v>
+      </c>
+      <c r="H457" t="str">
+        <f t="shared" si="79"/>
+        <v>12/12/2023</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>1</v>
+      </c>
+      <c r="B458">
+        <v>20240109</v>
+      </c>
+      <c r="C458">
+        <v>84</v>
+      </c>
+      <c r="D458">
+        <v>75</v>
+      </c>
+      <c r="E458" t="str">
+        <f t="shared" ref="E458" si="80">RIGHT(B458,2)</f>
+        <v>09</v>
+      </c>
+      <c r="F458" t="str">
+        <f t="shared" ref="F458" si="81">MID(B458,5,2)</f>
+        <v>01</v>
+      </c>
+      <c r="G458" t="str">
+        <f t="shared" ref="G458" si="82">LEFT(B458,4)</f>
+        <v>2024</v>
+      </c>
+      <c r="H458" t="str">
+        <f t="shared" ref="H458" si="83">_xlfn.CONCAT(E458,"/",F458,"/",G458)</f>
+        <v>09/01/2024</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>1</v>
+      </c>
+      <c r="B459">
+        <v>20240121</v>
+      </c>
+      <c r="C459">
+        <v>58</v>
+      </c>
+      <c r="D459">
+        <v>64</v>
+      </c>
+      <c r="E459" t="str">
+        <f t="shared" ref="E459:E502" si="84">RIGHT(B459,2)</f>
+        <v>21</v>
+      </c>
+      <c r="F459" t="str">
+        <f t="shared" ref="F459:F502" si="85">MID(B459,5,2)</f>
+        <v>01</v>
+      </c>
+      <c r="G459" t="str">
+        <f t="shared" ref="G459:G502" si="86">LEFT(B459,4)</f>
+        <v>2024</v>
+      </c>
+      <c r="H459" t="str">
+        <f t="shared" ref="H459:H502" si="87">_xlfn.CONCAT(E459,"/",F459,"/",G459)</f>
+        <v>21/01/2024</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>1</v>
+      </c>
+      <c r="B460">
+        <v>20240111</v>
+      </c>
+      <c r="C460">
+        <v>52</v>
+      </c>
+      <c r="D460">
+        <v>57</v>
+      </c>
+      <c r="E460" t="str">
+        <f t="shared" si="84"/>
+        <v>11</v>
+      </c>
+      <c r="F460" t="str">
+        <f t="shared" si="85"/>
+        <v>01</v>
+      </c>
+      <c r="G460" t="str">
+        <f t="shared" si="86"/>
+        <v>2024</v>
+      </c>
+      <c r="H460" t="str">
+        <f t="shared" si="87"/>
+        <v>11/01/2024</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>1</v>
+      </c>
+      <c r="B461">
+        <v>20240118</v>
+      </c>
+      <c r="C461">
+        <v>51</v>
+      </c>
+      <c r="D461">
+        <v>49</v>
+      </c>
+      <c r="E461" t="str">
+        <f t="shared" si="84"/>
+        <v>18</v>
+      </c>
+      <c r="F461" t="str">
+        <f t="shared" si="85"/>
+        <v>01</v>
+      </c>
+      <c r="G461" t="str">
+        <f t="shared" si="86"/>
+        <v>2024</v>
+      </c>
+      <c r="H461" t="str">
+        <f t="shared" si="87"/>
+        <v>18/01/2024</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>1</v>
+      </c>
+      <c r="B462">
+        <v>20240110</v>
+      </c>
+      <c r="C462">
+        <v>46</v>
+      </c>
+      <c r="D462">
+        <v>55</v>
+      </c>
+      <c r="E462" t="str">
+        <f t="shared" si="84"/>
+        <v>10</v>
+      </c>
+      <c r="F462" t="str">
+        <f t="shared" si="85"/>
+        <v>01</v>
+      </c>
+      <c r="G462" t="str">
+        <f t="shared" si="86"/>
+        <v>2024</v>
+      </c>
+      <c r="H462" t="str">
+        <f t="shared" si="87"/>
+        <v>10/01/2024</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>1</v>
+      </c>
+      <c r="B463">
+        <v>20240113</v>
+      </c>
+      <c r="C463">
+        <v>40</v>
+      </c>
+      <c r="D463">
+        <v>41</v>
+      </c>
+      <c r="E463" t="str">
+        <f t="shared" si="84"/>
+        <v>13</v>
+      </c>
+      <c r="F463" t="str">
+        <f t="shared" si="85"/>
+        <v>01</v>
+      </c>
+      <c r="G463" t="str">
+        <f t="shared" si="86"/>
+        <v>2024</v>
+      </c>
+      <c r="H463" t="str">
+        <f t="shared" si="87"/>
+        <v>13/01/2024</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>2</v>
+      </c>
+      <c r="B464">
+        <v>20240121</v>
+      </c>
+      <c r="C464">
+        <v>39</v>
+      </c>
+      <c r="D464">
+        <v>81</v>
+      </c>
+      <c r="E464" t="str">
+        <f t="shared" si="84"/>
+        <v>21</v>
+      </c>
+      <c r="F464" t="str">
+        <f t="shared" si="85"/>
+        <v>01</v>
+      </c>
+      <c r="G464" t="str">
+        <f t="shared" si="86"/>
+        <v>2024</v>
+      </c>
+      <c r="H464" t="str">
+        <f t="shared" si="87"/>
+        <v>21/01/2024</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>1</v>
+      </c>
+      <c r="B465">
+        <v>20240112</v>
+      </c>
+      <c r="C465">
+        <v>39</v>
+      </c>
+      <c r="D465">
+        <v>37</v>
+      </c>
+      <c r="E465" t="str">
+        <f t="shared" si="84"/>
+        <v>12</v>
+      </c>
+      <c r="F465" t="str">
+        <f t="shared" si="85"/>
+        <v>01</v>
+      </c>
+      <c r="G465" t="str">
+        <f t="shared" si="86"/>
+        <v>2024</v>
+      </c>
+      <c r="H465" t="str">
+        <f t="shared" si="87"/>
+        <v>12/01/2024</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>1</v>
+      </c>
+      <c r="B466">
+        <v>20240116</v>
+      </c>
+      <c r="C466">
+        <v>39</v>
+      </c>
+      <c r="D466">
+        <v>45</v>
+      </c>
+      <c r="E466" t="str">
+        <f t="shared" si="84"/>
+        <v>16</v>
+      </c>
+      <c r="F466" t="str">
+        <f t="shared" si="85"/>
+        <v>01</v>
+      </c>
+      <c r="G466" t="str">
+        <f t="shared" si="86"/>
+        <v>2024</v>
+      </c>
+      <c r="H466" t="str">
+        <f t="shared" si="87"/>
+        <v>16/01/2024</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>1</v>
+      </c>
+      <c r="B467">
+        <v>20240117</v>
+      </c>
+      <c r="C467">
+        <v>39</v>
+      </c>
+      <c r="D467">
+        <v>37</v>
+      </c>
+      <c r="E467" t="str">
+        <f t="shared" si="84"/>
+        <v>17</v>
+      </c>
+      <c r="F467" t="str">
+        <f t="shared" si="85"/>
+        <v>01</v>
+      </c>
+      <c r="G467" t="str">
+        <f t="shared" si="86"/>
+        <v>2024</v>
+      </c>
+      <c r="H467" t="str">
+        <f t="shared" si="87"/>
+        <v>17/01/2024</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>1</v>
+      </c>
+      <c r="B468">
+        <v>20240120</v>
+      </c>
+      <c r="C468">
+        <v>37</v>
+      </c>
+      <c r="D468">
+        <v>41</v>
+      </c>
+      <c r="E468" t="str">
+        <f t="shared" si="84"/>
+        <v>20</v>
+      </c>
+      <c r="F468" t="str">
+        <f t="shared" si="85"/>
+        <v>01</v>
+      </c>
+      <c r="G468" t="str">
+        <f t="shared" si="86"/>
+        <v>2024</v>
+      </c>
+      <c r="H468" t="str">
+        <f t="shared" si="87"/>
+        <v>20/01/2024</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>3</v>
+      </c>
+      <c r="B469">
+        <v>20240121</v>
+      </c>
+      <c r="C469">
+        <v>35</v>
+      </c>
+      <c r="D469">
+        <v>16</v>
+      </c>
+      <c r="E469" t="str">
+        <f t="shared" si="84"/>
+        <v>21</v>
+      </c>
+      <c r="F469" t="str">
+        <f t="shared" si="85"/>
+        <v>01</v>
+      </c>
+      <c r="G469" t="str">
+        <f t="shared" si="86"/>
+        <v>2024</v>
+      </c>
+      <c r="H469" t="str">
+        <f t="shared" si="87"/>
+        <v>21/01/2024</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>1</v>
+      </c>
+      <c r="B470">
+        <v>20240119</v>
+      </c>
+      <c r="C470">
+        <v>34</v>
+      </c>
+      <c r="D470">
+        <v>34</v>
+      </c>
+      <c r="E470" t="str">
+        <f t="shared" si="84"/>
+        <v>19</v>
+      </c>
+      <c r="F470" t="str">
+        <f t="shared" si="85"/>
+        <v>01</v>
+      </c>
+      <c r="G470" t="str">
+        <f t="shared" si="86"/>
+        <v>2024</v>
+      </c>
+      <c r="H470" t="str">
+        <f t="shared" si="87"/>
+        <v>19/01/2024</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>1</v>
+      </c>
+      <c r="B471">
+        <v>20240114</v>
+      </c>
+      <c r="C471">
+        <v>32</v>
+      </c>
+      <c r="D471">
+        <v>31</v>
+      </c>
+      <c r="E471" t="str">
+        <f t="shared" si="84"/>
+        <v>14</v>
+      </c>
+      <c r="F471" t="str">
+        <f t="shared" si="85"/>
+        <v>01</v>
+      </c>
+      <c r="G471" t="str">
+        <f t="shared" si="86"/>
+        <v>2024</v>
+      </c>
+      <c r="H471" t="str">
+        <f t="shared" si="87"/>
+        <v>14/01/2024</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>1</v>
+      </c>
+      <c r="B472">
+        <v>20240115</v>
+      </c>
+      <c r="C472">
+        <v>32</v>
+      </c>
+      <c r="D472">
+        <v>34</v>
+      </c>
+      <c r="E472" t="str">
+        <f t="shared" si="84"/>
+        <v>15</v>
+      </c>
+      <c r="F472" t="str">
+        <f t="shared" si="85"/>
+        <v>01</v>
+      </c>
+      <c r="G472" t="str">
+        <f t="shared" si="86"/>
+        <v>2024</v>
+      </c>
+      <c r="H472" t="str">
+        <f t="shared" si="87"/>
+        <v>15/01/2024</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>3</v>
+      </c>
+      <c r="B473">
+        <v>20240120</v>
+      </c>
+      <c r="C473">
+        <v>21</v>
+      </c>
+      <c r="D473">
+        <v>12</v>
+      </c>
+      <c r="E473" t="str">
+        <f t="shared" si="84"/>
+        <v>20</v>
+      </c>
+      <c r="F473" t="str">
+        <f t="shared" si="85"/>
+        <v>01</v>
+      </c>
+      <c r="G473" t="str">
+        <f t="shared" si="86"/>
+        <v>2024</v>
+      </c>
+      <c r="H473" t="str">
+        <f t="shared" si="87"/>
+        <v>20/01/2024</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>2</v>
+      </c>
+      <c r="B474">
+        <v>20240118</v>
+      </c>
+      <c r="C474">
+        <v>20</v>
+      </c>
+      <c r="D474">
+        <v>61</v>
+      </c>
+      <c r="E474" t="str">
+        <f t="shared" si="84"/>
+        <v>18</v>
+      </c>
+      <c r="F474" t="str">
+        <f t="shared" si="85"/>
+        <v>01</v>
+      </c>
+      <c r="G474" t="str">
+        <f t="shared" si="86"/>
+        <v>2024</v>
+      </c>
+      <c r="H474" t="str">
+        <f t="shared" si="87"/>
+        <v>18/01/2024</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>2</v>
+      </c>
+      <c r="B475">
+        <v>20240113</v>
+      </c>
+      <c r="C475">
+        <v>16</v>
+      </c>
+      <c r="D475">
+        <v>53</v>
+      </c>
+      <c r="E475" t="str">
+        <f t="shared" si="84"/>
+        <v>13</v>
+      </c>
+      <c r="F475" t="str">
+        <f t="shared" si="85"/>
+        <v>01</v>
+      </c>
+      <c r="G475" t="str">
+        <f t="shared" si="86"/>
+        <v>2024</v>
+      </c>
+      <c r="H475" t="str">
+        <f t="shared" si="87"/>
+        <v>13/01/2024</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>2</v>
+      </c>
+      <c r="B476">
+        <v>20240117</v>
+      </c>
+      <c r="C476">
+        <v>15</v>
+      </c>
+      <c r="D476">
+        <v>46</v>
+      </c>
+      <c r="E476" t="str">
+        <f t="shared" si="84"/>
+        <v>17</v>
+      </c>
+      <c r="F476" t="str">
+        <f t="shared" si="85"/>
+        <v>01</v>
+      </c>
+      <c r="G476" t="str">
+        <f t="shared" si="86"/>
+        <v>2024</v>
+      </c>
+      <c r="H476" t="str">
+        <f t="shared" si="87"/>
+        <v>17/01/2024</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>2</v>
+      </c>
+      <c r="B477">
+        <v>20240116</v>
+      </c>
+      <c r="C477">
+        <v>14</v>
+      </c>
+      <c r="D477">
+        <v>45</v>
+      </c>
+      <c r="E477" t="str">
+        <f t="shared" si="84"/>
+        <v>16</v>
+      </c>
+      <c r="F477" t="str">
+        <f t="shared" si="85"/>
+        <v>01</v>
+      </c>
+      <c r="G477" t="str">
+        <f t="shared" si="86"/>
+        <v>2024</v>
+      </c>
+      <c r="H477" t="str">
+        <f t="shared" si="87"/>
+        <v>16/01/2024</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>2</v>
+      </c>
+      <c r="B478">
+        <v>20240111</v>
+      </c>
+      <c r="C478">
+        <v>13</v>
+      </c>
+      <c r="D478">
+        <v>52</v>
+      </c>
+      <c r="E478" t="str">
+        <f t="shared" si="84"/>
+        <v>11</v>
+      </c>
+      <c r="F478" t="str">
+        <f t="shared" si="85"/>
+        <v>01</v>
+      </c>
+      <c r="G478" t="str">
+        <f t="shared" si="86"/>
+        <v>2024</v>
+      </c>
+      <c r="H478" t="str">
+        <f t="shared" si="87"/>
+        <v>11/01/2024</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>2</v>
+      </c>
+      <c r="B479">
+        <v>20240109</v>
+      </c>
+      <c r="C479">
+        <v>12</v>
+      </c>
+      <c r="D479">
+        <v>37</v>
+      </c>
+      <c r="E479" t="str">
+        <f t="shared" si="84"/>
+        <v>09</v>
+      </c>
+      <c r="F479" t="str">
+        <f t="shared" si="85"/>
+        <v>01</v>
+      </c>
+      <c r="G479" t="str">
+        <f t="shared" si="86"/>
+        <v>2024</v>
+      </c>
+      <c r="H479" t="str">
+        <f t="shared" si="87"/>
+        <v>09/01/2024</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>2</v>
+      </c>
+      <c r="B480">
+        <v>20240110</v>
+      </c>
+      <c r="C480">
+        <v>12</v>
+      </c>
+      <c r="D480">
+        <v>39</v>
+      </c>
+      <c r="E480" t="str">
+        <f t="shared" si="84"/>
+        <v>10</v>
+      </c>
+      <c r="F480" t="str">
+        <f t="shared" si="85"/>
+        <v>01</v>
+      </c>
+      <c r="G480" t="str">
+        <f t="shared" si="86"/>
+        <v>2024</v>
+      </c>
+      <c r="H480" t="str">
+        <f t="shared" si="87"/>
+        <v>10/01/2024</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>2</v>
+      </c>
+      <c r="B481">
+        <v>20240119</v>
+      </c>
+      <c r="C481">
+        <v>12</v>
+      </c>
+      <c r="D481">
+        <v>53</v>
+      </c>
+      <c r="E481" t="str">
+        <f t="shared" si="84"/>
+        <v>19</v>
+      </c>
+      <c r="F481" t="str">
+        <f t="shared" si="85"/>
+        <v>01</v>
+      </c>
+      <c r="G481" t="str">
+        <f t="shared" si="86"/>
+        <v>2024</v>
+      </c>
+      <c r="H481" t="str">
+        <f t="shared" si="87"/>
+        <v>19/01/2024</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>2</v>
+      </c>
+      <c r="B482">
+        <v>20240120</v>
+      </c>
+      <c r="C482">
+        <v>12</v>
+      </c>
+      <c r="D482">
+        <v>52</v>
+      </c>
+      <c r="E482" t="str">
+        <f t="shared" si="84"/>
+        <v>20</v>
+      </c>
+      <c r="F482" t="str">
+        <f t="shared" si="85"/>
+        <v>01</v>
+      </c>
+      <c r="G482" t="str">
+        <f t="shared" si="86"/>
+        <v>2024</v>
+      </c>
+      <c r="H482" t="str">
+        <f t="shared" si="87"/>
+        <v>20/01/2024</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>2</v>
+      </c>
+      <c r="B483">
+        <v>20240114</v>
+      </c>
+      <c r="C483">
+        <v>9</v>
+      </c>
+      <c r="D483">
+        <v>46</v>
+      </c>
+      <c r="E483" t="str">
+        <f t="shared" si="84"/>
+        <v>14</v>
+      </c>
+      <c r="F483" t="str">
+        <f t="shared" si="85"/>
+        <v>01</v>
+      </c>
+      <c r="G483" t="str">
+        <f t="shared" si="86"/>
+        <v>2024</v>
+      </c>
+      <c r="H483" t="str">
+        <f t="shared" si="87"/>
+        <v>14/01/2024</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>2</v>
+      </c>
+      <c r="B484">
+        <v>20240115</v>
+      </c>
+      <c r="C484">
+        <v>9</v>
+      </c>
+      <c r="D484">
+        <v>30</v>
+      </c>
+      <c r="E484" t="str">
+        <f t="shared" si="84"/>
+        <v>15</v>
+      </c>
+      <c r="F484" t="str">
+        <f t="shared" si="85"/>
+        <v>01</v>
+      </c>
+      <c r="G484" t="str">
+        <f t="shared" si="86"/>
+        <v>2024</v>
+      </c>
+      <c r="H484" t="str">
+        <f t="shared" si="87"/>
+        <v>15/01/2024</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>2</v>
+      </c>
+      <c r="B485">
+        <v>20240112</v>
+      </c>
+      <c r="C485">
+        <v>8</v>
+      </c>
+      <c r="D485">
+        <v>39</v>
+      </c>
+      <c r="E485" t="str">
+        <f t="shared" si="84"/>
+        <v>12</v>
+      </c>
+      <c r="F485" t="str">
+        <f t="shared" si="85"/>
+        <v>01</v>
+      </c>
+      <c r="G485" t="str">
+        <f t="shared" si="86"/>
+        <v>2024</v>
+      </c>
+      <c r="H485" t="str">
+        <f t="shared" si="87"/>
+        <v>12/01/2024</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>3</v>
+      </c>
+      <c r="B486">
+        <v>20240118</v>
+      </c>
+      <c r="C486">
+        <v>4</v>
+      </c>
+      <c r="D486">
+        <v>0</v>
+      </c>
+      <c r="E486" t="str">
+        <f t="shared" si="84"/>
+        <v>18</v>
+      </c>
+      <c r="F486" t="str">
+        <f t="shared" si="85"/>
+        <v>01</v>
+      </c>
+      <c r="G486" t="str">
+        <f t="shared" si="86"/>
+        <v>2024</v>
+      </c>
+      <c r="H486" t="str">
+        <f t="shared" si="87"/>
+        <v>18/01/2024</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>4</v>
+      </c>
+      <c r="B487">
+        <v>20240110</v>
+      </c>
+      <c r="C487">
+        <v>2</v>
+      </c>
+      <c r="D487">
+        <v>6</v>
+      </c>
+      <c r="E487" t="str">
+        <f t="shared" si="84"/>
+        <v>10</v>
+      </c>
+      <c r="F487" t="str">
+        <f t="shared" si="85"/>
+        <v>01</v>
+      </c>
+      <c r="G487" t="str">
+        <f t="shared" si="86"/>
+        <v>2024</v>
+      </c>
+      <c r="H487" t="str">
+        <f t="shared" si="87"/>
+        <v>10/01/2024</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>4</v>
+      </c>
+      <c r="B488">
+        <v>20240115</v>
+      </c>
+      <c r="C488">
+        <v>2</v>
+      </c>
+      <c r="D488">
+        <v>4</v>
+      </c>
+      <c r="E488" t="str">
+        <f t="shared" si="84"/>
+        <v>15</v>
+      </c>
+      <c r="F488" t="str">
+        <f t="shared" si="85"/>
+        <v>01</v>
+      </c>
+      <c r="G488" t="str">
+        <f t="shared" si="86"/>
+        <v>2024</v>
+      </c>
+      <c r="H488" t="str">
+        <f t="shared" si="87"/>
+        <v>15/01/2024</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>4</v>
+      </c>
+      <c r="B489">
+        <v>20240117</v>
+      </c>
+      <c r="C489">
+        <v>2</v>
+      </c>
+      <c r="D489">
+        <v>4</v>
+      </c>
+      <c r="E489" t="str">
+        <f t="shared" si="84"/>
+        <v>17</v>
+      </c>
+      <c r="F489" t="str">
+        <f t="shared" si="85"/>
+        <v>01</v>
+      </c>
+      <c r="G489" t="str">
+        <f t="shared" si="86"/>
+        <v>2024</v>
+      </c>
+      <c r="H489" t="str">
+        <f t="shared" si="87"/>
+        <v>17/01/2024</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>4</v>
+      </c>
+      <c r="B490">
+        <v>20240118</v>
+      </c>
+      <c r="C490">
+        <v>2</v>
+      </c>
+      <c r="D490">
+        <v>2</v>
+      </c>
+      <c r="E490" t="str">
+        <f t="shared" si="84"/>
+        <v>18</v>
+      </c>
+      <c r="F490" t="str">
+        <f t="shared" si="85"/>
+        <v>01</v>
+      </c>
+      <c r="G490" t="str">
+        <f t="shared" si="86"/>
+        <v>2024</v>
+      </c>
+      <c r="H490" t="str">
+        <f t="shared" si="87"/>
+        <v>18/01/2024</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>4</v>
+      </c>
+      <c r="B491">
+        <v>20240120</v>
+      </c>
+      <c r="C491">
+        <v>2</v>
+      </c>
+      <c r="D491">
+        <v>3</v>
+      </c>
+      <c r="E491" t="str">
+        <f t="shared" si="84"/>
+        <v>20</v>
+      </c>
+      <c r="F491" t="str">
+        <f t="shared" si="85"/>
+        <v>01</v>
+      </c>
+      <c r="G491" t="str">
+        <f t="shared" si="86"/>
+        <v>2024</v>
+      </c>
+      <c r="H491" t="str">
+        <f t="shared" si="87"/>
+        <v>20/01/2024</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>3</v>
+      </c>
+      <c r="B492">
+        <v>20240110</v>
+      </c>
+      <c r="C492">
+        <v>1</v>
+      </c>
+      <c r="D492">
+        <v>1</v>
+      </c>
+      <c r="E492" t="str">
+        <f t="shared" si="84"/>
+        <v>10</v>
+      </c>
+      <c r="F492" t="str">
+        <f t="shared" si="85"/>
+        <v>01</v>
+      </c>
+      <c r="G492" t="str">
+        <f t="shared" si="86"/>
+        <v>2024</v>
+      </c>
+      <c r="H492" t="str">
+        <f t="shared" si="87"/>
+        <v>10/01/2024</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>3</v>
+      </c>
+      <c r="B493">
+        <v>20240116</v>
+      </c>
+      <c r="C493">
+        <v>1</v>
+      </c>
+      <c r="D493">
+        <v>0</v>
+      </c>
+      <c r="E493" t="str">
+        <f t="shared" si="84"/>
+        <v>16</v>
+      </c>
+      <c r="F493" t="str">
+        <f t="shared" si="85"/>
+        <v>01</v>
+      </c>
+      <c r="G493" t="str">
+        <f t="shared" si="86"/>
+        <v>2024</v>
+      </c>
+      <c r="H493" t="str">
+        <f t="shared" si="87"/>
+        <v>16/01/2024</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>4</v>
+      </c>
+      <c r="B494">
+        <v>20240109</v>
+      </c>
+      <c r="C494">
+        <v>1</v>
+      </c>
+      <c r="D494">
+        <v>5</v>
+      </c>
+      <c r="E494" t="str">
+        <f t="shared" si="84"/>
+        <v>09</v>
+      </c>
+      <c r="F494" t="str">
+        <f t="shared" si="85"/>
+        <v>01</v>
+      </c>
+      <c r="G494" t="str">
+        <f t="shared" si="86"/>
+        <v>2024</v>
+      </c>
+      <c r="H494" t="str">
+        <f t="shared" si="87"/>
+        <v>09/01/2024</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>4</v>
+      </c>
+      <c r="B495">
+        <v>20240114</v>
+      </c>
+      <c r="C495">
+        <v>1</v>
+      </c>
+      <c r="D495">
+        <v>4</v>
+      </c>
+      <c r="E495" t="str">
+        <f t="shared" si="84"/>
+        <v>14</v>
+      </c>
+      <c r="F495" t="str">
+        <f t="shared" si="85"/>
+        <v>01</v>
+      </c>
+      <c r="G495" t="str">
+        <f t="shared" si="86"/>
+        <v>2024</v>
+      </c>
+      <c r="H495" t="str">
+        <f t="shared" si="87"/>
+        <v>14/01/2024</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>4</v>
+      </c>
+      <c r="B496">
+        <v>20240119</v>
+      </c>
+      <c r="C496">
+        <v>1</v>
+      </c>
+      <c r="D496">
+        <v>2</v>
+      </c>
+      <c r="E496" t="str">
+        <f t="shared" si="84"/>
+        <v>19</v>
+      </c>
+      <c r="F496" t="str">
+        <f t="shared" si="85"/>
+        <v>01</v>
+      </c>
+      <c r="G496" t="str">
+        <f t="shared" si="86"/>
+        <v>2024</v>
+      </c>
+      <c r="H496" t="str">
+        <f t="shared" si="87"/>
+        <v>19/01/2024</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>4</v>
+      </c>
+      <c r="B497">
+        <v>20240121</v>
+      </c>
+      <c r="C497">
+        <v>1</v>
+      </c>
+      <c r="D497">
+        <v>7</v>
+      </c>
+      <c r="E497" t="str">
+        <f t="shared" si="84"/>
+        <v>21</v>
+      </c>
+      <c r="F497" t="str">
+        <f t="shared" si="85"/>
+        <v>01</v>
+      </c>
+      <c r="G497" t="str">
+        <f t="shared" si="86"/>
+        <v>2024</v>
+      </c>
+      <c r="H497" t="str">
+        <f t="shared" si="87"/>
+        <v>21/01/2024</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>3</v>
+      </c>
+      <c r="B498">
+        <v>20240111</v>
+      </c>
+      <c r="C498">
+        <v>0</v>
+      </c>
+      <c r="D498">
+        <v>0</v>
+      </c>
+      <c r="E498" t="str">
+        <f t="shared" si="84"/>
+        <v>11</v>
+      </c>
+      <c r="F498" t="str">
+        <f t="shared" si="85"/>
+        <v>01</v>
+      </c>
+      <c r="G498" t="str">
+        <f t="shared" si="86"/>
+        <v>2024</v>
+      </c>
+      <c r="H498" t="str">
+        <f t="shared" si="87"/>
+        <v>11/01/2024</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>4</v>
+      </c>
+      <c r="B499">
+        <v>20240111</v>
+      </c>
+      <c r="C499">
+        <v>0</v>
+      </c>
+      <c r="D499">
+        <v>5</v>
+      </c>
+      <c r="E499" t="str">
+        <f t="shared" si="84"/>
+        <v>11</v>
+      </c>
+      <c r="F499" t="str">
+        <f t="shared" si="85"/>
+        <v>01</v>
+      </c>
+      <c r="G499" t="str">
+        <f t="shared" si="86"/>
+        <v>2024</v>
+      </c>
+      <c r="H499" t="str">
+        <f t="shared" si="87"/>
+        <v>11/01/2024</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>4</v>
+      </c>
+      <c r="B500">
+        <v>20240112</v>
+      </c>
+      <c r="C500">
+        <v>0</v>
+      </c>
+      <c r="D500">
+        <v>2</v>
+      </c>
+      <c r="E500" t="str">
+        <f t="shared" si="84"/>
+        <v>12</v>
+      </c>
+      <c r="F500" t="str">
+        <f t="shared" si="85"/>
+        <v>01</v>
+      </c>
+      <c r="G500" t="str">
+        <f t="shared" si="86"/>
+        <v>2024</v>
+      </c>
+      <c r="H500" t="str">
+        <f t="shared" si="87"/>
+        <v>12/01/2024</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>4</v>
+      </c>
+      <c r="B501">
+        <v>20240113</v>
+      </c>
+      <c r="C501">
+        <v>0</v>
+      </c>
+      <c r="D501">
+        <v>3</v>
+      </c>
+      <c r="E501" t="str">
+        <f t="shared" si="84"/>
+        <v>13</v>
+      </c>
+      <c r="F501" t="str">
+        <f t="shared" si="85"/>
+        <v>01</v>
+      </c>
+      <c r="G501" t="str">
+        <f t="shared" si="86"/>
+        <v>2024</v>
+      </c>
+      <c r="H501" t="str">
+        <f t="shared" si="87"/>
+        <v>13/01/2024</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>4</v>
+      </c>
+      <c r="B502">
+        <v>20240116</v>
+      </c>
+      <c r="C502">
+        <v>0</v>
+      </c>
+      <c r="D502">
+        <v>4</v>
+      </c>
+      <c r="E502" t="str">
+        <f t="shared" si="84"/>
+        <v>16</v>
+      </c>
+      <c r="F502" t="str">
+        <f t="shared" si="85"/>
+        <v>01</v>
+      </c>
+      <c r="G502" t="str">
+        <f t="shared" si="86"/>
+        <v>2024</v>
+      </c>
+      <c r="H502" t="str">
+        <f t="shared" si="87"/>
+        <v>16/01/2024</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>1</v>
+      </c>
+      <c r="B504">
+        <v>20240124</v>
+      </c>
+      <c r="C504">
+        <v>45</v>
+      </c>
+      <c r="D504">
+        <v>41</v>
+      </c>
+      <c r="E504" t="str">
+        <f t="shared" ref="E504" si="88">RIGHT(B504,2)</f>
+        <v>24</v>
+      </c>
+      <c r="F504" t="str">
+        <f t="shared" ref="F504" si="89">MID(B504,5,2)</f>
+        <v>01</v>
+      </c>
+      <c r="G504" t="str">
+        <f t="shared" ref="G504" si="90">LEFT(B504,4)</f>
+        <v>2024</v>
+      </c>
+      <c r="H504" t="str">
+        <f t="shared" ref="H504" si="91">_xlfn.CONCAT(E504,"/",F504,"/",G504)</f>
+        <v>24/01/2024</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>1</v>
+      </c>
+      <c r="B505">
+        <v>20240125</v>
+      </c>
+      <c r="C505">
+        <v>44</v>
+      </c>
+      <c r="D505">
+        <v>41</v>
+      </c>
+      <c r="E505" t="str">
+        <f t="shared" ref="E505:E544" si="92">RIGHT(B505,2)</f>
+        <v>25</v>
+      </c>
+      <c r="F505" t="str">
+        <f t="shared" ref="F505:F544" si="93">MID(B505,5,2)</f>
+        <v>01</v>
+      </c>
+      <c r="G505" t="str">
+        <f t="shared" ref="G505:G544" si="94">LEFT(B505,4)</f>
+        <v>2024</v>
+      </c>
+      <c r="H505" t="str">
+        <f t="shared" ref="H505:H544" si="95">_xlfn.CONCAT(E505,"/",F505,"/",G505)</f>
+        <v>25/01/2024</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>1</v>
+      </c>
+      <c r="B506">
+        <v>20240127</v>
+      </c>
+      <c r="C506">
+        <v>35</v>
+      </c>
+      <c r="D506">
+        <v>35</v>
+      </c>
+      <c r="E506" t="str">
+        <f t="shared" si="92"/>
+        <v>27</v>
+      </c>
+      <c r="F506" t="str">
+        <f t="shared" si="93"/>
+        <v>01</v>
+      </c>
+      <c r="G506" t="str">
+        <f t="shared" si="94"/>
+        <v>2024</v>
+      </c>
+      <c r="H506" t="str">
+        <f t="shared" si="95"/>
+        <v>27/01/2024</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>1</v>
+      </c>
+      <c r="B507">
+        <v>20240122</v>
+      </c>
+      <c r="C507">
+        <v>28</v>
+      </c>
+      <c r="D507">
+        <v>36</v>
+      </c>
+      <c r="E507" t="str">
+        <f t="shared" si="92"/>
+        <v>22</v>
+      </c>
+      <c r="F507" t="str">
+        <f t="shared" si="93"/>
+        <v>01</v>
+      </c>
+      <c r="G507" t="str">
+        <f t="shared" si="94"/>
+        <v>2024</v>
+      </c>
+      <c r="H507" t="str">
+        <f t="shared" si="95"/>
+        <v>22/01/2024</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>1</v>
+      </c>
+      <c r="B508">
+        <v>20240123</v>
+      </c>
+      <c r="C508">
+        <v>28</v>
+      </c>
+      <c r="D508">
+        <v>30</v>
+      </c>
+      <c r="E508" t="str">
+        <f t="shared" si="92"/>
+        <v>23</v>
+      </c>
+      <c r="F508" t="str">
+        <f t="shared" si="93"/>
+        <v>01</v>
+      </c>
+      <c r="G508" t="str">
+        <f t="shared" si="94"/>
+        <v>2024</v>
+      </c>
+      <c r="H508" t="str">
+        <f t="shared" si="95"/>
+        <v>23/01/2024</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>1</v>
+      </c>
+      <c r="B509">
+        <v>20240126</v>
+      </c>
+      <c r="C509">
+        <v>25</v>
+      </c>
+      <c r="D509">
+        <v>41</v>
+      </c>
+      <c r="E509" t="str">
+        <f t="shared" si="92"/>
+        <v>26</v>
+      </c>
+      <c r="F509" t="str">
+        <f t="shared" si="93"/>
+        <v>01</v>
+      </c>
+      <c r="G509" t="str">
+        <f t="shared" si="94"/>
+        <v>2024</v>
+      </c>
+      <c r="H509" t="str">
+        <f t="shared" si="95"/>
+        <v>26/01/2024</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>1</v>
+      </c>
+      <c r="B510">
+        <v>20240128</v>
+      </c>
+      <c r="C510">
+        <v>16</v>
+      </c>
+      <c r="D510">
+        <v>17</v>
+      </c>
+      <c r="E510" t="str">
+        <f t="shared" si="92"/>
+        <v>28</v>
+      </c>
+      <c r="F510" t="str">
+        <f t="shared" si="93"/>
+        <v>01</v>
+      </c>
+      <c r="G510" t="str">
+        <f t="shared" si="94"/>
+        <v>2024</v>
+      </c>
+      <c r="H510" t="str">
+        <f t="shared" si="95"/>
+        <v>28/01/2024</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>2</v>
+      </c>
+      <c r="B511">
+        <v>20240124</v>
+      </c>
+      <c r="C511">
+        <v>14</v>
+      </c>
+      <c r="D511">
+        <v>43</v>
+      </c>
+      <c r="E511" t="str">
+        <f t="shared" si="92"/>
+        <v>24</v>
+      </c>
+      <c r="F511" t="str">
+        <f t="shared" si="93"/>
+        <v>01</v>
+      </c>
+      <c r="G511" t="str">
+        <f t="shared" si="94"/>
+        <v>2024</v>
+      </c>
+      <c r="H511" t="str">
+        <f t="shared" si="95"/>
+        <v>24/01/2024</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>2</v>
+      </c>
+      <c r="B512">
+        <v>20240122</v>
+      </c>
+      <c r="C512">
+        <v>11</v>
+      </c>
+      <c r="D512">
+        <v>43</v>
+      </c>
+      <c r="E512" t="str">
+        <f t="shared" si="92"/>
+        <v>22</v>
+      </c>
+      <c r="F512" t="str">
+        <f t="shared" si="93"/>
+        <v>01</v>
+      </c>
+      <c r="G512" t="str">
+        <f t="shared" si="94"/>
+        <v>2024</v>
+      </c>
+      <c r="H512" t="str">
+        <f t="shared" si="95"/>
+        <v>22/01/2024</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>2</v>
+      </c>
+      <c r="B513">
+        <v>20240127</v>
+      </c>
+      <c r="C513">
+        <v>11</v>
+      </c>
+      <c r="D513">
+        <v>32</v>
+      </c>
+      <c r="E513" t="str">
+        <f t="shared" si="92"/>
+        <v>27</v>
+      </c>
+      <c r="F513" t="str">
+        <f t="shared" si="93"/>
+        <v>01</v>
+      </c>
+      <c r="G513" t="str">
+        <f t="shared" si="94"/>
+        <v>2024</v>
+      </c>
+      <c r="H513" t="str">
+        <f t="shared" si="95"/>
+        <v>27/01/2024</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>2</v>
+      </c>
+      <c r="B514">
+        <v>20240125</v>
+      </c>
+      <c r="C514">
+        <v>10</v>
+      </c>
+      <c r="D514">
+        <v>60</v>
+      </c>
+      <c r="E514" t="str">
+        <f t="shared" si="92"/>
+        <v>25</v>
+      </c>
+      <c r="F514" t="str">
+        <f t="shared" si="93"/>
+        <v>01</v>
+      </c>
+      <c r="G514" t="str">
+        <f t="shared" si="94"/>
+        <v>2024</v>
+      </c>
+      <c r="H514" t="str">
+        <f t="shared" si="95"/>
+        <v>25/01/2024</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>2</v>
+      </c>
+      <c r="B515">
+        <v>20240123</v>
+      </c>
+      <c r="C515">
+        <v>9</v>
+      </c>
+      <c r="D515">
+        <v>31</v>
+      </c>
+      <c r="E515" t="str">
+        <f t="shared" si="92"/>
+        <v>23</v>
+      </c>
+      <c r="F515" t="str">
+        <f t="shared" si="93"/>
+        <v>01</v>
+      </c>
+      <c r="G515" t="str">
+        <f t="shared" si="94"/>
+        <v>2024</v>
+      </c>
+      <c r="H515" t="str">
+        <f t="shared" si="95"/>
+        <v>23/01/2024</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>2</v>
+      </c>
+      <c r="B516">
+        <v>20240126</v>
+      </c>
+      <c r="C516">
+        <v>9</v>
+      </c>
+      <c r="D516">
+        <v>45</v>
+      </c>
+      <c r="E516" t="str">
+        <f t="shared" si="92"/>
+        <v>26</v>
+      </c>
+      <c r="F516" t="str">
+        <f t="shared" si="93"/>
+        <v>01</v>
+      </c>
+      <c r="G516" t="str">
+        <f t="shared" si="94"/>
+        <v>2024</v>
+      </c>
+      <c r="H516" t="str">
+        <f t="shared" si="95"/>
+        <v>26/01/2024</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>3</v>
+      </c>
+      <c r="B517">
+        <v>20240123</v>
+      </c>
+      <c r="C517">
+        <v>9</v>
+      </c>
+      <c r="D517">
+        <v>6</v>
+      </c>
+      <c r="E517" t="str">
+        <f t="shared" si="92"/>
+        <v>23</v>
+      </c>
+      <c r="F517" t="str">
+        <f t="shared" si="93"/>
+        <v>01</v>
+      </c>
+      <c r="G517" t="str">
+        <f t="shared" si="94"/>
+        <v>2024</v>
+      </c>
+      <c r="H517" t="str">
+        <f t="shared" si="95"/>
+        <v>23/01/2024</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>3</v>
+      </c>
+      <c r="B518">
+        <v>20240122</v>
+      </c>
+      <c r="C518">
+        <v>2</v>
+      </c>
+      <c r="D518">
+        <v>1</v>
+      </c>
+      <c r="E518" t="str">
+        <f t="shared" si="92"/>
+        <v>22</v>
+      </c>
+      <c r="F518" t="str">
+        <f t="shared" si="93"/>
+        <v>01</v>
+      </c>
+      <c r="G518" t="str">
+        <f t="shared" si="94"/>
+        <v>2024</v>
+      </c>
+      <c r="H518" t="str">
+        <f t="shared" si="95"/>
+        <v>22/01/2024</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>2</v>
+      </c>
+      <c r="B519">
+        <v>20240128</v>
+      </c>
+      <c r="C519">
+        <v>1</v>
+      </c>
+      <c r="D519">
+        <v>17</v>
+      </c>
+      <c r="E519" t="str">
+        <f t="shared" si="92"/>
+        <v>28</v>
+      </c>
+      <c r="F519" t="str">
+        <f t="shared" si="93"/>
+        <v>01</v>
+      </c>
+      <c r="G519" t="str">
+        <f t="shared" si="94"/>
+        <v>2024</v>
+      </c>
+      <c r="H519" t="str">
+        <f t="shared" si="95"/>
+        <v>28/01/2024</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>3</v>
+      </c>
+      <c r="B520">
+        <v>20240125</v>
+      </c>
+      <c r="C520">
+        <v>1</v>
+      </c>
+      <c r="D520">
+        <v>1</v>
+      </c>
+      <c r="E520" t="str">
+        <f t="shared" si="92"/>
+        <v>25</v>
+      </c>
+      <c r="F520" t="str">
+        <f t="shared" si="93"/>
+        <v>01</v>
+      </c>
+      <c r="G520" t="str">
+        <f t="shared" si="94"/>
+        <v>2024</v>
+      </c>
+      <c r="H520" t="str">
+        <f t="shared" si="95"/>
+        <v>25/01/2024</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>4</v>
+      </c>
+      <c r="B521">
+        <v>20240123</v>
+      </c>
+      <c r="C521">
+        <v>1</v>
+      </c>
+      <c r="D521">
+        <v>6</v>
+      </c>
+      <c r="E521" t="str">
+        <f t="shared" si="92"/>
+        <v>23</v>
+      </c>
+      <c r="F521" t="str">
+        <f t="shared" si="93"/>
+        <v>01</v>
+      </c>
+      <c r="G521" t="str">
+        <f t="shared" si="94"/>
+        <v>2024</v>
+      </c>
+      <c r="H521" t="str">
+        <f t="shared" si="95"/>
+        <v>23/01/2024</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>4</v>
+      </c>
+      <c r="B522">
+        <v>20240124</v>
+      </c>
+      <c r="C522">
+        <v>1</v>
+      </c>
+      <c r="D522">
+        <v>6</v>
+      </c>
+      <c r="E522" t="str">
+        <f t="shared" si="92"/>
+        <v>24</v>
+      </c>
+      <c r="F522" t="str">
+        <f t="shared" si="93"/>
+        <v>01</v>
+      </c>
+      <c r="G522" t="str">
+        <f t="shared" si="94"/>
+        <v>2024</v>
+      </c>
+      <c r="H522" t="str">
+        <f t="shared" si="95"/>
+        <v>24/01/2024</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
+        <v>4</v>
+      </c>
+      <c r="B523">
+        <v>20240126</v>
+      </c>
+      <c r="C523">
+        <v>1</v>
+      </c>
+      <c r="D523">
+        <v>3</v>
+      </c>
+      <c r="E523" t="str">
+        <f t="shared" si="92"/>
+        <v>26</v>
+      </c>
+      <c r="F523" t="str">
+        <f t="shared" si="93"/>
+        <v>01</v>
+      </c>
+      <c r="G523" t="str">
+        <f t="shared" si="94"/>
+        <v>2024</v>
+      </c>
+      <c r="H523" t="str">
+        <f t="shared" si="95"/>
+        <v>26/01/2024</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
+        <v>3</v>
+      </c>
+      <c r="B524">
+        <v>20240126</v>
+      </c>
+      <c r="C524">
+        <v>0</v>
+      </c>
+      <c r="D524">
+        <v>1</v>
+      </c>
+      <c r="E524" t="str">
+        <f t="shared" si="92"/>
+        <v>26</v>
+      </c>
+      <c r="F524" t="str">
+        <f t="shared" si="93"/>
+        <v>01</v>
+      </c>
+      <c r="G524" t="str">
+        <f t="shared" si="94"/>
+        <v>2024</v>
+      </c>
+      <c r="H524" t="str">
+        <f t="shared" si="95"/>
+        <v>26/01/2024</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
+        <v>4</v>
+      </c>
+      <c r="B525">
+        <v>20240122</v>
+      </c>
+      <c r="C525">
+        <v>0</v>
+      </c>
+      <c r="D525">
+        <v>4</v>
+      </c>
+      <c r="E525" t="str">
+        <f t="shared" si="92"/>
+        <v>22</v>
+      </c>
+      <c r="F525" t="str">
+        <f t="shared" si="93"/>
+        <v>01</v>
+      </c>
+      <c r="G525" t="str">
+        <f t="shared" si="94"/>
+        <v>2024</v>
+      </c>
+      <c r="H525" t="str">
+        <f t="shared" si="95"/>
+        <v>22/01/2024</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
+        <v>4</v>
+      </c>
+      <c r="B526">
+        <v>20240125</v>
+      </c>
+      <c r="C526">
+        <v>0</v>
+      </c>
+      <c r="D526">
+        <v>6</v>
+      </c>
+      <c r="E526" t="str">
+        <f t="shared" si="92"/>
+        <v>25</v>
+      </c>
+      <c r="F526" t="str">
+        <f t="shared" si="93"/>
+        <v>01</v>
+      </c>
+      <c r="G526" t="str">
+        <f t="shared" si="94"/>
+        <v>2024</v>
+      </c>
+      <c r="H526" t="str">
+        <f t="shared" si="95"/>
+        <v>25/01/2024</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A527" t="s">
+        <v>1</v>
+      </c>
+      <c r="B527">
+        <v>20240201</v>
+      </c>
+      <c r="C527">
+        <v>55</v>
+      </c>
+      <c r="D527">
+        <v>57</v>
+      </c>
+      <c r="E527" t="str">
+        <f t="shared" si="92"/>
+        <v>01</v>
+      </c>
+      <c r="F527" t="str">
+        <f t="shared" si="93"/>
+        <v>02</v>
+      </c>
+      <c r="G527" t="str">
+        <f t="shared" si="94"/>
+        <v>2024</v>
+      </c>
+      <c r="H527" t="str">
+        <f t="shared" si="95"/>
+        <v>01/02/2024</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
+        <v>1</v>
+      </c>
+      <c r="B528">
+        <v>20240202</v>
+      </c>
+      <c r="C528">
+        <v>43</v>
+      </c>
+      <c r="D528">
+        <v>64</v>
+      </c>
+      <c r="E528" t="str">
+        <f t="shared" si="92"/>
+        <v>02</v>
+      </c>
+      <c r="F528" t="str">
+        <f t="shared" si="93"/>
+        <v>02</v>
+      </c>
+      <c r="G528" t="str">
+        <f t="shared" si="94"/>
+        <v>2024</v>
+      </c>
+      <c r="H528" t="str">
+        <f t="shared" si="95"/>
+        <v>02/02/2024</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
+        <v>1</v>
+      </c>
+      <c r="B529">
+        <v>20240130</v>
+      </c>
+      <c r="C529">
+        <v>39</v>
+      </c>
+      <c r="D529">
+        <v>43</v>
+      </c>
+      <c r="E529" t="str">
+        <f t="shared" si="92"/>
+        <v>30</v>
+      </c>
+      <c r="F529" t="str">
+        <f t="shared" si="93"/>
+        <v>01</v>
+      </c>
+      <c r="G529" t="str">
+        <f t="shared" si="94"/>
+        <v>2024</v>
+      </c>
+      <c r="H529" t="str">
+        <f t="shared" si="95"/>
+        <v>30/01/2024</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
+        <v>1</v>
+      </c>
+      <c r="B530">
+        <v>20240204</v>
+      </c>
+      <c r="C530">
+        <v>37</v>
+      </c>
+      <c r="D530">
+        <v>40</v>
+      </c>
+      <c r="E530" t="str">
+        <f t="shared" si="92"/>
+        <v>04</v>
+      </c>
+      <c r="F530" t="str">
+        <f t="shared" si="93"/>
+        <v>02</v>
+      </c>
+      <c r="G530" t="str">
+        <f t="shared" si="94"/>
+        <v>2024</v>
+      </c>
+      <c r="H530" t="str">
+        <f t="shared" si="95"/>
+        <v>04/02/2024</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A531" t="s">
+        <v>1</v>
+      </c>
+      <c r="B531">
+        <v>20240131</v>
+      </c>
+      <c r="C531">
+        <v>29</v>
+      </c>
+      <c r="D531">
+        <v>37</v>
+      </c>
+      <c r="E531" t="str">
+        <f t="shared" si="92"/>
+        <v>31</v>
+      </c>
+      <c r="F531" t="str">
+        <f t="shared" si="93"/>
+        <v>01</v>
+      </c>
+      <c r="G531" t="str">
+        <f t="shared" si="94"/>
+        <v>2024</v>
+      </c>
+      <c r="H531" t="str">
+        <f t="shared" si="95"/>
+        <v>31/01/2024</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
+        <v>1</v>
+      </c>
+      <c r="B532">
+        <v>20240203</v>
+      </c>
+      <c r="C532">
+        <v>27</v>
+      </c>
+      <c r="D532">
+        <v>32</v>
+      </c>
+      <c r="E532" t="str">
+        <f t="shared" si="92"/>
+        <v>03</v>
+      </c>
+      <c r="F532" t="str">
+        <f t="shared" si="93"/>
+        <v>02</v>
+      </c>
+      <c r="G532" t="str">
+        <f t="shared" si="94"/>
+        <v>2024</v>
+      </c>
+      <c r="H532" t="str">
+        <f t="shared" si="95"/>
+        <v>03/02/2024</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A533" t="s">
+        <v>2</v>
+      </c>
+      <c r="B533">
+        <v>20240204</v>
+      </c>
+      <c r="C533">
+        <v>25</v>
+      </c>
+      <c r="D533">
+        <v>75</v>
+      </c>
+      <c r="E533" t="str">
+        <f t="shared" si="92"/>
+        <v>04</v>
+      </c>
+      <c r="F533" t="str">
+        <f t="shared" si="93"/>
+        <v>02</v>
+      </c>
+      <c r="G533" t="str">
+        <f t="shared" si="94"/>
+        <v>2024</v>
+      </c>
+      <c r="H533" t="str">
+        <f t="shared" si="95"/>
+        <v>04/02/2024</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A534" t="s">
+        <v>2</v>
+      </c>
+      <c r="B534">
+        <v>20240201</v>
+      </c>
+      <c r="C534">
+        <v>23</v>
+      </c>
+      <c r="D534">
+        <v>64</v>
+      </c>
+      <c r="E534" t="str">
+        <f t="shared" si="92"/>
+        <v>01</v>
+      </c>
+      <c r="F534" t="str">
+        <f t="shared" si="93"/>
+        <v>02</v>
+      </c>
+      <c r="G534" t="str">
+        <f t="shared" si="94"/>
+        <v>2024</v>
+      </c>
+      <c r="H534" t="str">
+        <f t="shared" si="95"/>
+        <v>01/02/2024</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
+        <v>2</v>
+      </c>
+      <c r="B535">
+        <v>20240202</v>
+      </c>
+      <c r="C535">
+        <v>17</v>
+      </c>
+      <c r="D535">
+        <v>68</v>
+      </c>
+      <c r="E535" t="str">
+        <f t="shared" si="92"/>
+        <v>02</v>
+      </c>
+      <c r="F535" t="str">
+        <f t="shared" si="93"/>
+        <v>02</v>
+      </c>
+      <c r="G535" t="str">
+        <f t="shared" si="94"/>
+        <v>2024</v>
+      </c>
+      <c r="H535" t="str">
+        <f t="shared" si="95"/>
+        <v>02/02/2024</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A536" t="s">
+        <v>1</v>
+      </c>
+      <c r="B536">
+        <v>20240129</v>
+      </c>
+      <c r="C536">
+        <v>13</v>
+      </c>
+      <c r="D536">
+        <v>13</v>
+      </c>
+      <c r="E536" t="str">
+        <f t="shared" si="92"/>
+        <v>29</v>
+      </c>
+      <c r="F536" t="str">
+        <f t="shared" si="93"/>
+        <v>01</v>
+      </c>
+      <c r="G536" t="str">
+        <f t="shared" si="94"/>
+        <v>2024</v>
+      </c>
+      <c r="H536" t="str">
+        <f t="shared" si="95"/>
+        <v>29/01/2024</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A537" t="s">
+        <v>2</v>
+      </c>
+      <c r="B537">
+        <v>20240130</v>
+      </c>
+      <c r="C537">
+        <v>11</v>
+      </c>
+      <c r="D537">
+        <v>39</v>
+      </c>
+      <c r="E537" t="str">
+        <f t="shared" si="92"/>
+        <v>30</v>
+      </c>
+      <c r="F537" t="str">
+        <f t="shared" si="93"/>
+        <v>01</v>
+      </c>
+      <c r="G537" t="str">
+        <f t="shared" si="94"/>
+        <v>2024</v>
+      </c>
+      <c r="H537" t="str">
+        <f t="shared" si="95"/>
+        <v>30/01/2024</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A538" t="s">
+        <v>2</v>
+      </c>
+      <c r="B538">
+        <v>20240203</v>
+      </c>
+      <c r="C538">
+        <v>10</v>
+      </c>
+      <c r="D538">
+        <v>51</v>
+      </c>
+      <c r="E538" t="str">
+        <f t="shared" si="92"/>
+        <v>03</v>
+      </c>
+      <c r="F538" t="str">
+        <f t="shared" si="93"/>
+        <v>02</v>
+      </c>
+      <c r="G538" t="str">
+        <f t="shared" si="94"/>
+        <v>2024</v>
+      </c>
+      <c r="H538" t="str">
+        <f t="shared" si="95"/>
+        <v>03/02/2024</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A539" t="s">
+        <v>2</v>
+      </c>
+      <c r="B539">
+        <v>20240131</v>
+      </c>
+      <c r="C539">
+        <v>9</v>
+      </c>
+      <c r="D539">
+        <v>52</v>
+      </c>
+      <c r="E539" t="str">
+        <f t="shared" si="92"/>
+        <v>31</v>
+      </c>
+      <c r="F539" t="str">
+        <f t="shared" si="93"/>
+        <v>01</v>
+      </c>
+      <c r="G539" t="str">
+        <f t="shared" si="94"/>
+        <v>2024</v>
+      </c>
+      <c r="H539" t="str">
+        <f t="shared" si="95"/>
+        <v>31/01/2024</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A540" t="s">
+        <v>2</v>
+      </c>
+      <c r="B540">
+        <v>20240129</v>
+      </c>
+      <c r="C540">
+        <v>3</v>
+      </c>
+      <c r="D540">
+        <v>11</v>
+      </c>
+      <c r="E540" t="str">
+        <f t="shared" si="92"/>
+        <v>29</v>
+      </c>
+      <c r="F540" t="str">
+        <f t="shared" si="93"/>
+        <v>01</v>
+      </c>
+      <c r="G540" t="str">
+        <f t="shared" si="94"/>
+        <v>2024</v>
+      </c>
+      <c r="H540" t="str">
+        <f t="shared" si="95"/>
+        <v>29/01/2024</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A541" t="s">
+        <v>4</v>
+      </c>
+      <c r="B541">
+        <v>20240201</v>
+      </c>
+      <c r="C541">
+        <v>2</v>
+      </c>
+      <c r="D541">
+        <v>6</v>
+      </c>
+      <c r="E541" t="str">
+        <f t="shared" si="92"/>
+        <v>01</v>
+      </c>
+      <c r="F541" t="str">
+        <f t="shared" si="93"/>
+        <v>02</v>
+      </c>
+      <c r="G541" t="str">
+        <f t="shared" si="94"/>
+        <v>2024</v>
+      </c>
+      <c r="H541" t="str">
+        <f t="shared" si="95"/>
+        <v>01/02/2024</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A542" t="s">
+        <v>3</v>
+      </c>
+      <c r="B542">
+        <v>20240204</v>
+      </c>
+      <c r="C542">
+        <v>0</v>
+      </c>
+      <c r="D542">
+        <v>1</v>
+      </c>
+      <c r="E542" t="str">
+        <f t="shared" si="92"/>
+        <v>04</v>
+      </c>
+      <c r="F542" t="str">
+        <f t="shared" si="93"/>
+        <v>02</v>
+      </c>
+      <c r="G542" t="str">
+        <f t="shared" si="94"/>
+        <v>2024</v>
+      </c>
+      <c r="H542" t="str">
+        <f t="shared" si="95"/>
+        <v>04/02/2024</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A543" t="s">
+        <v>4</v>
+      </c>
+      <c r="B543">
+        <v>20240202</v>
+      </c>
+      <c r="C543">
+        <v>0</v>
+      </c>
+      <c r="D543">
+        <v>0</v>
+      </c>
+      <c r="E543" t="str">
+        <f t="shared" si="92"/>
+        <v>02</v>
+      </c>
+      <c r="F543" t="str">
+        <f t="shared" si="93"/>
+        <v>02</v>
+      </c>
+      <c r="G543" t="str">
+        <f t="shared" si="94"/>
+        <v>2024</v>
+      </c>
+      <c r="H543" t="str">
+        <f t="shared" si="95"/>
+        <v>02/02/2024</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A544" t="s">
+        <v>4</v>
+      </c>
+      <c r="B544">
+        <v>20240203</v>
+      </c>
+      <c r="C544">
+        <v>0</v>
+      </c>
+      <c r="D544">
+        <v>1</v>
+      </c>
+      <c r="E544" t="str">
+        <f t="shared" si="92"/>
+        <v>03</v>
+      </c>
+      <c r="F544" t="str">
+        <f t="shared" si="93"/>
+        <v>02</v>
+      </c>
+      <c r="G544" t="str">
+        <f t="shared" si="94"/>
+        <v>2024</v>
+      </c>
+      <c r="H544" t="str">
+        <f t="shared" si="95"/>
+        <v>03/02/2024</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A545" t="s">
+        <v>1</v>
+      </c>
+      <c r="B545">
+        <v>20240208</v>
+      </c>
+      <c r="C545">
+        <v>31</v>
+      </c>
+      <c r="D545">
+        <v>38</v>
+      </c>
+      <c r="E545" t="str">
+        <f t="shared" ref="E545" si="96">RIGHT(B545,2)</f>
+        <v>08</v>
+      </c>
+      <c r="F545" t="str">
+        <f t="shared" ref="F545" si="97">MID(B545,5,2)</f>
+        <v>02</v>
+      </c>
+      <c r="G545" t="str">
+        <f t="shared" ref="G545" si="98">LEFT(B545,4)</f>
+        <v>2024</v>
+      </c>
+      <c r="H545" t="str">
+        <f t="shared" ref="H545" si="99">_xlfn.CONCAT(E545,"/",F545,"/",G545)</f>
+        <v>08/02/2024</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A546" t="s">
+        <v>1</v>
+      </c>
+      <c r="B546">
+        <v>20240207</v>
+      </c>
+      <c r="C546">
+        <v>30</v>
+      </c>
+      <c r="D546">
+        <v>42</v>
+      </c>
+      <c r="E546" t="str">
+        <f t="shared" ref="E546:E568" si="100">RIGHT(B546,2)</f>
+        <v>07</v>
+      </c>
+      <c r="F546" t="str">
+        <f t="shared" ref="F546:F568" si="101">MID(B546,5,2)</f>
+        <v>02</v>
+      </c>
+      <c r="G546" t="str">
+        <f t="shared" ref="G546:G568" si="102">LEFT(B546,4)</f>
+        <v>2024</v>
+      </c>
+      <c r="H546" t="str">
+        <f t="shared" ref="H546:H568" si="103">_xlfn.CONCAT(E546,"/",F546,"/",G546)</f>
+        <v>07/02/2024</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A547" t="s">
+        <v>1</v>
+      </c>
+      <c r="B547">
+        <v>20240209</v>
+      </c>
+      <c r="C547">
+        <v>28</v>
+      </c>
+      <c r="D547">
+        <v>41</v>
+      </c>
+      <c r="E547" t="str">
+        <f t="shared" si="100"/>
+        <v>09</v>
+      </c>
+      <c r="F547" t="str">
+        <f t="shared" si="101"/>
+        <v>02</v>
+      </c>
+      <c r="G547" t="str">
+        <f t="shared" si="102"/>
+        <v>2024</v>
+      </c>
+      <c r="H547" t="str">
+        <f t="shared" si="103"/>
+        <v>09/02/2024</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
+        <v>1</v>
+      </c>
+      <c r="B548">
+        <v>20240205</v>
+      </c>
+      <c r="C548">
+        <v>24</v>
+      </c>
+      <c r="D548">
+        <v>30</v>
+      </c>
+      <c r="E548" t="str">
+        <f t="shared" si="100"/>
+        <v>05</v>
+      </c>
+      <c r="F548" t="str">
+        <f t="shared" si="101"/>
+        <v>02</v>
+      </c>
+      <c r="G548" t="str">
+        <f t="shared" si="102"/>
+        <v>2024</v>
+      </c>
+      <c r="H548" t="str">
+        <f t="shared" si="103"/>
+        <v>05/02/2024</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A549" t="s">
+        <v>1</v>
+      </c>
+      <c r="B549">
+        <v>20240206</v>
+      </c>
+      <c r="C549">
+        <v>24</v>
+      </c>
+      <c r="D549">
+        <v>34</v>
+      </c>
+      <c r="E549" t="str">
+        <f t="shared" si="100"/>
+        <v>06</v>
+      </c>
+      <c r="F549" t="str">
+        <f t="shared" si="101"/>
+        <v>02</v>
+      </c>
+      <c r="G549" t="str">
+        <f t="shared" si="102"/>
+        <v>2024</v>
+      </c>
+      <c r="H549" t="str">
+        <f t="shared" si="103"/>
+        <v>06/02/2024</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A550" t="s">
+        <v>2</v>
+      </c>
+      <c r="B550">
+        <v>20240208</v>
+      </c>
+      <c r="C550">
+        <v>16</v>
+      </c>
+      <c r="D550">
+        <v>57</v>
+      </c>
+      <c r="E550" t="str">
+        <f t="shared" si="100"/>
+        <v>08</v>
+      </c>
+      <c r="F550" t="str">
+        <f t="shared" si="101"/>
+        <v>02</v>
+      </c>
+      <c r="G550" t="str">
+        <f t="shared" si="102"/>
+        <v>2024</v>
+      </c>
+      <c r="H550" t="str">
+        <f t="shared" si="103"/>
+        <v>08/02/2024</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A551" t="s">
+        <v>2</v>
+      </c>
+      <c r="B551">
+        <v>20240207</v>
+      </c>
+      <c r="C551">
+        <v>15</v>
+      </c>
+      <c r="D551">
+        <v>51</v>
+      </c>
+      <c r="E551" t="str">
+        <f t="shared" si="100"/>
+        <v>07</v>
+      </c>
+      <c r="F551" t="str">
+        <f t="shared" si="101"/>
+        <v>02</v>
+      </c>
+      <c r="G551" t="str">
+        <f t="shared" si="102"/>
+        <v>2024</v>
+      </c>
+      <c r="H551" t="str">
+        <f t="shared" si="103"/>
+        <v>07/02/2024</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A552" t="s">
+        <v>1</v>
+      </c>
+      <c r="B552">
+        <v>20240210</v>
+      </c>
+      <c r="C552">
+        <v>15</v>
+      </c>
+      <c r="D552">
+        <v>24</v>
+      </c>
+      <c r="E552" t="str">
+        <f t="shared" si="100"/>
+        <v>10</v>
+      </c>
+      <c r="F552" t="str">
+        <f t="shared" si="101"/>
+        <v>02</v>
+      </c>
+      <c r="G552" t="str">
+        <f t="shared" si="102"/>
+        <v>2024</v>
+      </c>
+      <c r="H552" t="str">
+        <f t="shared" si="103"/>
+        <v>10/02/2024</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A553" t="s">
+        <v>1</v>
+      </c>
+      <c r="B553">
+        <v>20240211</v>
+      </c>
+      <c r="C553">
+        <v>15</v>
+      </c>
+      <c r="D553">
+        <v>18</v>
+      </c>
+      <c r="E553" t="str">
+        <f t="shared" si="100"/>
+        <v>11</v>
+      </c>
+      <c r="F553" t="str">
+        <f t="shared" si="101"/>
+        <v>02</v>
+      </c>
+      <c r="G553" t="str">
+        <f t="shared" si="102"/>
+        <v>2024</v>
+      </c>
+      <c r="H553" t="str">
+        <f t="shared" si="103"/>
+        <v>11/02/2024</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A554" t="s">
+        <v>2</v>
+      </c>
+      <c r="B554">
+        <v>20240205</v>
+      </c>
+      <c r="C554">
+        <v>14</v>
+      </c>
+      <c r="D554">
+        <v>43</v>
+      </c>
+      <c r="E554" t="str">
+        <f t="shared" si="100"/>
+        <v>05</v>
+      </c>
+      <c r="F554" t="str">
+        <f t="shared" si="101"/>
+        <v>02</v>
+      </c>
+      <c r="G554" t="str">
+        <f t="shared" si="102"/>
+        <v>2024</v>
+      </c>
+      <c r="H554" t="str">
+        <f t="shared" si="103"/>
+        <v>05/02/2024</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A555" t="s">
+        <v>2</v>
+      </c>
+      <c r="B555">
+        <v>20240210</v>
+      </c>
+      <c r="C555">
+        <v>12</v>
+      </c>
+      <c r="D555">
+        <v>47</v>
+      </c>
+      <c r="E555" t="str">
+        <f t="shared" si="100"/>
+        <v>10</v>
+      </c>
+      <c r="F555" t="str">
+        <f t="shared" si="101"/>
+        <v>02</v>
+      </c>
+      <c r="G555" t="str">
+        <f t="shared" si="102"/>
+        <v>2024</v>
+      </c>
+      <c r="H555" t="str">
+        <f t="shared" si="103"/>
+        <v>10/02/2024</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A556" t="s">
+        <v>2</v>
+      </c>
+      <c r="B556">
+        <v>20240206</v>
+      </c>
+      <c r="C556">
+        <v>10</v>
+      </c>
+      <c r="D556">
+        <v>52</v>
+      </c>
+      <c r="E556" t="str">
+        <f t="shared" si="100"/>
+        <v>06</v>
+      </c>
+      <c r="F556" t="str">
+        <f t="shared" si="101"/>
+        <v>02</v>
+      </c>
+      <c r="G556" t="str">
+        <f t="shared" si="102"/>
+        <v>2024</v>
+      </c>
+      <c r="H556" t="str">
+        <f t="shared" si="103"/>
+        <v>06/02/2024</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A557" t="s">
+        <v>2</v>
+      </c>
+      <c r="B557">
+        <v>20240209</v>
+      </c>
+      <c r="C557">
+        <v>10</v>
+      </c>
+      <c r="D557">
+        <v>64</v>
+      </c>
+      <c r="E557" t="str">
+        <f t="shared" si="100"/>
+        <v>09</v>
+      </c>
+      <c r="F557" t="str">
+        <f t="shared" si="101"/>
+        <v>02</v>
+      </c>
+      <c r="G557" t="str">
+        <f t="shared" si="102"/>
+        <v>2024</v>
+      </c>
+      <c r="H557" t="str">
+        <f t="shared" si="103"/>
+        <v>09/02/2024</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A558" t="s">
+        <v>2</v>
+      </c>
+      <c r="B558">
+        <v>20240211</v>
+      </c>
+      <c r="C558">
+        <v>4</v>
+      </c>
+      <c r="D558">
+        <v>31</v>
+      </c>
+      <c r="E558" t="str">
+        <f t="shared" si="100"/>
+        <v>11</v>
+      </c>
+      <c r="F558" t="str">
+        <f t="shared" si="101"/>
+        <v>02</v>
+      </c>
+      <c r="G558" t="str">
+        <f t="shared" si="102"/>
+        <v>2024</v>
+      </c>
+      <c r="H558" t="str">
+        <f t="shared" si="103"/>
+        <v>11/02/2024</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A559" t="s">
+        <v>3</v>
+      </c>
+      <c r="B559">
+        <v>20240205</v>
+      </c>
+      <c r="C559">
+        <v>3</v>
+      </c>
+      <c r="D559">
+        <v>3</v>
+      </c>
+      <c r="E559" t="str">
+        <f t="shared" si="100"/>
+        <v>05</v>
+      </c>
+      <c r="F559" t="str">
+        <f t="shared" si="101"/>
+        <v>02</v>
+      </c>
+      <c r="G559" t="str">
+        <f t="shared" si="102"/>
+        <v>2024</v>
+      </c>
+      <c r="H559" t="str">
+        <f t="shared" si="103"/>
+        <v>05/02/2024</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A560" t="s">
+        <v>4</v>
+      </c>
+      <c r="B560">
+        <v>20240210</v>
+      </c>
+      <c r="C560">
+        <v>3</v>
+      </c>
+      <c r="D560">
+        <v>3</v>
+      </c>
+      <c r="E560" t="str">
+        <f t="shared" si="100"/>
+        <v>10</v>
+      </c>
+      <c r="F560" t="str">
+        <f t="shared" si="101"/>
+        <v>02</v>
+      </c>
+      <c r="G560" t="str">
+        <f t="shared" si="102"/>
+        <v>2024</v>
+      </c>
+      <c r="H560" t="str">
+        <f t="shared" si="103"/>
+        <v>10/02/2024</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A561" t="s">
+        <v>3</v>
+      </c>
+      <c r="B561">
+        <v>20240207</v>
+      </c>
+      <c r="C561">
+        <v>2</v>
+      </c>
+      <c r="D561">
+        <v>2</v>
+      </c>
+      <c r="E561" t="str">
+        <f t="shared" si="100"/>
+        <v>07</v>
+      </c>
+      <c r="F561" t="str">
+        <f t="shared" si="101"/>
+        <v>02</v>
+      </c>
+      <c r="G561" t="str">
+        <f t="shared" si="102"/>
+        <v>2024</v>
+      </c>
+      <c r="H561" t="str">
+        <f t="shared" si="103"/>
+        <v>07/02/2024</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A562" t="s">
+        <v>3</v>
+      </c>
+      <c r="B562">
+        <v>20240208</v>
+      </c>
+      <c r="C562">
+        <v>1</v>
+      </c>
+      <c r="D562">
+        <v>1</v>
+      </c>
+      <c r="E562" t="str">
+        <f t="shared" si="100"/>
+        <v>08</v>
+      </c>
+      <c r="F562" t="str">
+        <f t="shared" si="101"/>
+        <v>02</v>
+      </c>
+      <c r="G562" t="str">
+        <f t="shared" si="102"/>
+        <v>2024</v>
+      </c>
+      <c r="H562" t="str">
+        <f t="shared" si="103"/>
+        <v>08/02/2024</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A563" t="s">
+        <v>3</v>
+      </c>
+      <c r="B563">
+        <v>20240211</v>
+      </c>
+      <c r="C563">
+        <v>1</v>
+      </c>
+      <c r="D563">
+        <v>1</v>
+      </c>
+      <c r="E563" t="str">
+        <f t="shared" si="100"/>
+        <v>11</v>
+      </c>
+      <c r="F563" t="str">
+        <f t="shared" si="101"/>
+        <v>02</v>
+      </c>
+      <c r="G563" t="str">
+        <f t="shared" si="102"/>
+        <v>2024</v>
+      </c>
+      <c r="H563" t="str">
+        <f t="shared" si="103"/>
+        <v>11/02/2024</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A564" t="s">
+        <v>4</v>
+      </c>
+      <c r="B564">
+        <v>20240206</v>
+      </c>
+      <c r="C564">
+        <v>1</v>
+      </c>
+      <c r="D564">
+        <v>1</v>
+      </c>
+      <c r="E564" t="str">
+        <f t="shared" si="100"/>
+        <v>06</v>
+      </c>
+      <c r="F564" t="str">
+        <f t="shared" si="101"/>
+        <v>02</v>
+      </c>
+      <c r="G564" t="str">
+        <f t="shared" si="102"/>
+        <v>2024</v>
+      </c>
+      <c r="H564" t="str">
+        <f t="shared" si="103"/>
+        <v>06/02/2024</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A565" t="s">
+        <v>4</v>
+      </c>
+      <c r="B565">
+        <v>20240207</v>
+      </c>
+      <c r="C565">
+        <v>1</v>
+      </c>
+      <c r="D565">
+        <v>0</v>
+      </c>
+      <c r="E565" t="str">
+        <f t="shared" si="100"/>
+        <v>07</v>
+      </c>
+      <c r="F565" t="str">
+        <f t="shared" si="101"/>
+        <v>02</v>
+      </c>
+      <c r="G565" t="str">
+        <f t="shared" si="102"/>
+        <v>2024</v>
+      </c>
+      <c r="H565" t="str">
+        <f t="shared" si="103"/>
+        <v>07/02/2024</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A566" t="s">
+        <v>3</v>
+      </c>
+      <c r="B566">
+        <v>20240209</v>
+      </c>
+      <c r="C566">
+        <v>0</v>
+      </c>
+      <c r="D566">
+        <v>1</v>
+      </c>
+      <c r="E566" t="str">
+        <f t="shared" si="100"/>
+        <v>09</v>
+      </c>
+      <c r="F566" t="str">
+        <f t="shared" si="101"/>
+        <v>02</v>
+      </c>
+      <c r="G566" t="str">
+        <f t="shared" si="102"/>
+        <v>2024</v>
+      </c>
+      <c r="H566" t="str">
+        <f t="shared" si="103"/>
+        <v>09/02/2024</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A567" t="s">
+        <v>4</v>
+      </c>
+      <c r="B567">
+        <v>20240208</v>
+      </c>
+      <c r="C567">
+        <v>0</v>
+      </c>
+      <c r="D567">
+        <v>2</v>
+      </c>
+      <c r="E567" t="str">
+        <f t="shared" si="100"/>
+        <v>08</v>
+      </c>
+      <c r="F567" t="str">
+        <f t="shared" si="101"/>
+        <v>02</v>
+      </c>
+      <c r="G567" t="str">
+        <f t="shared" si="102"/>
+        <v>2024</v>
+      </c>
+      <c r="H567" t="str">
+        <f t="shared" si="103"/>
+        <v>08/02/2024</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A568" t="s">
+        <v>4</v>
+      </c>
+      <c r="B568">
+        <v>20240209</v>
+      </c>
+      <c r="C568">
+        <v>0</v>
+      </c>
+      <c r="D568">
+        <v>2</v>
+      </c>
+      <c r="E568" t="str">
+        <f t="shared" si="100"/>
+        <v>09</v>
+      </c>
+      <c r="F568" t="str">
+        <f t="shared" si="101"/>
+        <v>02</v>
+      </c>
+      <c r="G568" t="str">
+        <f t="shared" si="102"/>
+        <v>2024</v>
+      </c>
+      <c r="H568" t="str">
+        <f t="shared" si="103"/>
+        <v>09/02/2024</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A569" t="s">
+        <v>1</v>
+      </c>
+      <c r="B569">
+        <v>20240217</v>
+      </c>
+      <c r="C569">
+        <v>50</v>
+      </c>
+      <c r="D569">
+        <v>53</v>
+      </c>
+      <c r="E569" t="str">
+        <f t="shared" ref="E569:E589" si="104">RIGHT(B569,2)</f>
+        <v>17</v>
+      </c>
+      <c r="F569" t="str">
+        <f t="shared" ref="F569:F589" si="105">MID(B569,5,2)</f>
+        <v>02</v>
+      </c>
+      <c r="G569" t="str">
+        <f t="shared" ref="G569:G589" si="106">LEFT(B569,4)</f>
+        <v>2024</v>
+      </c>
+      <c r="H569" t="str">
+        <f t="shared" ref="H569:H589" si="107">_xlfn.CONCAT(E569,"/",F569,"/",G569)</f>
+        <v>17/02/2024</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A570" t="s">
+        <v>1</v>
+      </c>
+      <c r="B570">
+        <v>20240214</v>
+      </c>
+      <c r="C570">
+        <v>47</v>
+      </c>
+      <c r="D570">
+        <v>52</v>
+      </c>
+      <c r="E570" t="str">
+        <f t="shared" si="104"/>
+        <v>14</v>
+      </c>
+      <c r="F570" t="str">
+        <f t="shared" si="105"/>
+        <v>02</v>
+      </c>
+      <c r="G570" t="str">
+        <f t="shared" si="106"/>
+        <v>2024</v>
+      </c>
+      <c r="H570" t="str">
+        <f t="shared" si="107"/>
+        <v>14/02/2024</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A571" t="s">
+        <v>1</v>
+      </c>
+      <c r="B571">
+        <v>20240215</v>
+      </c>
+      <c r="C571">
+        <v>33</v>
+      </c>
+      <c r="D571">
+        <v>38</v>
+      </c>
+      <c r="E571" t="str">
+        <f t="shared" si="104"/>
+        <v>15</v>
+      </c>
+      <c r="F571" t="str">
+        <f t="shared" si="105"/>
+        <v>02</v>
+      </c>
+      <c r="G571" t="str">
+        <f t="shared" si="106"/>
+        <v>2024</v>
+      </c>
+      <c r="H571" t="str">
+        <f t="shared" si="107"/>
+        <v>15/02/2024</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A572" t="s">
+        <v>1</v>
+      </c>
+      <c r="B572">
+        <v>20240216</v>
+      </c>
+      <c r="C572">
+        <v>29</v>
+      </c>
+      <c r="D572">
+        <v>35</v>
+      </c>
+      <c r="E572" t="str">
+        <f t="shared" si="104"/>
+        <v>16</v>
+      </c>
+      <c r="F572" t="str">
+        <f t="shared" si="105"/>
+        <v>02</v>
+      </c>
+      <c r="G572" t="str">
+        <f t="shared" si="106"/>
+        <v>2024</v>
+      </c>
+      <c r="H572" t="str">
+        <f t="shared" si="107"/>
+        <v>16/02/2024</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A573" t="s">
+        <v>1</v>
+      </c>
+      <c r="B573">
+        <v>20240218</v>
+      </c>
+      <c r="C573">
+        <v>28</v>
+      </c>
+      <c r="D573">
+        <v>40</v>
+      </c>
+      <c r="E573" t="str">
+        <f t="shared" si="104"/>
+        <v>18</v>
+      </c>
+      <c r="F573" t="str">
+        <f t="shared" si="105"/>
+        <v>02</v>
+      </c>
+      <c r="G573" t="str">
+        <f t="shared" si="106"/>
+        <v>2024</v>
+      </c>
+      <c r="H573" t="str">
+        <f t="shared" si="107"/>
+        <v>18/02/2024</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A574" t="s">
+        <v>1</v>
+      </c>
+      <c r="B574">
+        <v>20240213</v>
+      </c>
+      <c r="C574">
+        <v>24</v>
+      </c>
+      <c r="D574">
+        <v>37</v>
+      </c>
+      <c r="E574" t="str">
+        <f t="shared" si="104"/>
+        <v>13</v>
+      </c>
+      <c r="F574" t="str">
+        <f t="shared" si="105"/>
+        <v>02</v>
+      </c>
+      <c r="G574" t="str">
+        <f t="shared" si="106"/>
+        <v>2024</v>
+      </c>
+      <c r="H574" t="str">
+        <f t="shared" si="107"/>
+        <v>13/02/2024</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A575" t="s">
+        <v>2</v>
+      </c>
+      <c r="B575">
+        <v>20240218</v>
+      </c>
+      <c r="C575">
+        <v>16</v>
+      </c>
+      <c r="D575">
+        <v>35</v>
+      </c>
+      <c r="E575" t="str">
+        <f t="shared" si="104"/>
+        <v>18</v>
+      </c>
+      <c r="F575" t="str">
+        <f t="shared" si="105"/>
+        <v>02</v>
+      </c>
+      <c r="G575" t="str">
+        <f t="shared" si="106"/>
+        <v>2024</v>
+      </c>
+      <c r="H575" t="str">
+        <f t="shared" si="107"/>
+        <v>18/02/2024</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A576" t="s">
+        <v>2</v>
+      </c>
+      <c r="B576">
+        <v>20240214</v>
+      </c>
+      <c r="C576">
+        <v>15</v>
+      </c>
+      <c r="D576">
+        <v>39</v>
+      </c>
+      <c r="E576" t="str">
+        <f t="shared" si="104"/>
+        <v>14</v>
+      </c>
+      <c r="F576" t="str">
+        <f t="shared" si="105"/>
+        <v>02</v>
+      </c>
+      <c r="G576" t="str">
+        <f t="shared" si="106"/>
+        <v>2024</v>
+      </c>
+      <c r="H576" t="str">
+        <f t="shared" si="107"/>
+        <v>14/02/2024</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A577" t="s">
+        <v>2</v>
+      </c>
+      <c r="B577">
+        <v>20240215</v>
+      </c>
+      <c r="C577">
+        <v>13</v>
+      </c>
+      <c r="D577">
+        <v>44</v>
+      </c>
+      <c r="E577" t="str">
+        <f t="shared" si="104"/>
+        <v>15</v>
+      </c>
+      <c r="F577" t="str">
+        <f t="shared" si="105"/>
+        <v>02</v>
+      </c>
+      <c r="G577" t="str">
+        <f t="shared" si="106"/>
+        <v>2024</v>
+      </c>
+      <c r="H577" t="str">
+        <f t="shared" si="107"/>
+        <v>15/02/2024</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A578" t="s">
+        <v>2</v>
+      </c>
+      <c r="B578">
+        <v>20240217</v>
+      </c>
+      <c r="C578">
+        <v>12</v>
+      </c>
+      <c r="D578">
+        <v>44</v>
+      </c>
+      <c r="E578" t="str">
+        <f t="shared" si="104"/>
+        <v>17</v>
+      </c>
+      <c r="F578" t="str">
+        <f t="shared" si="105"/>
+        <v>02</v>
+      </c>
+      <c r="G578" t="str">
+        <f t="shared" si="106"/>
+        <v>2024</v>
+      </c>
+      <c r="H578" t="str">
+        <f t="shared" si="107"/>
+        <v>17/02/2024</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A579" t="s">
+        <v>1</v>
+      </c>
+      <c r="B579">
+        <v>20240212</v>
+      </c>
+      <c r="C579">
+        <v>12</v>
+      </c>
+      <c r="D579">
+        <v>17</v>
+      </c>
+      <c r="E579" t="str">
+        <f t="shared" si="104"/>
+        <v>12</v>
+      </c>
+      <c r="F579" t="str">
+        <f t="shared" si="105"/>
+        <v>02</v>
+      </c>
+      <c r="G579" t="str">
+        <f t="shared" si="106"/>
+        <v>2024</v>
+      </c>
+      <c r="H579" t="str">
+        <f t="shared" si="107"/>
+        <v>12/02/2024</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A580" t="s">
+        <v>2</v>
+      </c>
+      <c r="B580">
+        <v>20240216</v>
+      </c>
+      <c r="C580">
+        <v>10</v>
+      </c>
+      <c r="D580">
+        <v>41</v>
+      </c>
+      <c r="E580" t="str">
+        <f t="shared" si="104"/>
+        <v>16</v>
+      </c>
+      <c r="F580" t="str">
+        <f t="shared" si="105"/>
+        <v>02</v>
+      </c>
+      <c r="G580" t="str">
+        <f t="shared" si="106"/>
+        <v>2024</v>
+      </c>
+      <c r="H580" t="str">
+        <f t="shared" si="107"/>
+        <v>16/02/2024</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A581" t="s">
+        <v>3</v>
+      </c>
+      <c r="B581">
+        <v>20240216</v>
+      </c>
+      <c r="C581">
+        <v>9</v>
+      </c>
+      <c r="D581">
+        <v>6</v>
+      </c>
+      <c r="E581" t="str">
+        <f t="shared" si="104"/>
+        <v>16</v>
+      </c>
+      <c r="F581" t="str">
+        <f t="shared" si="105"/>
+        <v>02</v>
+      </c>
+      <c r="G581" t="str">
+        <f t="shared" si="106"/>
+        <v>2024</v>
+      </c>
+      <c r="H581" t="str">
+        <f t="shared" si="107"/>
+        <v>16/02/2024</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A582" t="s">
+        <v>2</v>
+      </c>
+      <c r="B582">
+        <v>20240212</v>
+      </c>
+      <c r="C582">
+        <v>7</v>
+      </c>
+      <c r="D582">
+        <v>29</v>
+      </c>
+      <c r="E582" t="str">
+        <f t="shared" si="104"/>
+        <v>12</v>
+      </c>
+      <c r="F582" t="str">
+        <f t="shared" si="105"/>
+        <v>02</v>
+      </c>
+      <c r="G582" t="str">
+        <f t="shared" si="106"/>
+        <v>2024</v>
+      </c>
+      <c r="H582" t="str">
+        <f t="shared" si="107"/>
+        <v>12/02/2024</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A583" t="s">
+        <v>2</v>
+      </c>
+      <c r="B583">
+        <v>20240213</v>
+      </c>
+      <c r="C583">
+        <v>6</v>
+      </c>
+      <c r="D583">
+        <v>32</v>
+      </c>
+      <c r="E583" t="str">
+        <f t="shared" si="104"/>
+        <v>13</v>
+      </c>
+      <c r="F583" t="str">
+        <f t="shared" si="105"/>
+        <v>02</v>
+      </c>
+      <c r="G583" t="str">
+        <f t="shared" si="106"/>
+        <v>2024</v>
+      </c>
+      <c r="H583" t="str">
+        <f t="shared" si="107"/>
+        <v>13/02/2024</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A584" t="s">
+        <v>3</v>
+      </c>
+      <c r="B584">
+        <v>20240217</v>
+      </c>
+      <c r="C584">
+        <v>1</v>
+      </c>
+      <c r="D584">
+        <v>1</v>
+      </c>
+      <c r="E584" t="str">
+        <f t="shared" si="104"/>
+        <v>17</v>
+      </c>
+      <c r="F584" t="str">
+        <f t="shared" si="105"/>
+        <v>02</v>
+      </c>
+      <c r="G584" t="str">
+        <f t="shared" si="106"/>
+        <v>2024</v>
+      </c>
+      <c r="H584" t="str">
+        <f t="shared" si="107"/>
+        <v>17/02/2024</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A585" t="s">
+        <v>3</v>
+      </c>
+      <c r="B585">
+        <v>20240218</v>
+      </c>
+      <c r="C585">
+        <v>1</v>
+      </c>
+      <c r="D585">
+        <v>2</v>
+      </c>
+      <c r="E585" t="str">
+        <f t="shared" si="104"/>
+        <v>18</v>
+      </c>
+      <c r="F585" t="str">
+        <f t="shared" si="105"/>
+        <v>02</v>
+      </c>
+      <c r="G585" t="str">
+        <f t="shared" si="106"/>
+        <v>2024</v>
+      </c>
+      <c r="H585" t="str">
+        <f t="shared" si="107"/>
+        <v>18/02/2024</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A586" t="s">
+        <v>4</v>
+      </c>
+      <c r="B586">
+        <v>20240214</v>
+      </c>
+      <c r="C586">
+        <v>1</v>
+      </c>
+      <c r="D586">
+        <v>4</v>
+      </c>
+      <c r="E586" t="str">
+        <f t="shared" si="104"/>
+        <v>14</v>
+      </c>
+      <c r="F586" t="str">
+        <f t="shared" si="105"/>
+        <v>02</v>
+      </c>
+      <c r="G586" t="str">
+        <f t="shared" si="106"/>
+        <v>2024</v>
+      </c>
+      <c r="H586" t="str">
+        <f t="shared" si="107"/>
+        <v>14/02/2024</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A587" t="s">
+        <v>4</v>
+      </c>
+      <c r="B587">
+        <v>20240215</v>
+      </c>
+      <c r="C587">
+        <v>1</v>
+      </c>
+      <c r="D587">
+        <v>4</v>
+      </c>
+      <c r="E587" t="str">
+        <f t="shared" si="104"/>
+        <v>15</v>
+      </c>
+      <c r="F587" t="str">
+        <f t="shared" si="105"/>
+        <v>02</v>
+      </c>
+      <c r="G587" t="str">
+        <f t="shared" si="106"/>
+        <v>2024</v>
+      </c>
+      <c r="H587" t="str">
+        <f t="shared" si="107"/>
+        <v>15/02/2024</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A588" t="s">
+        <v>4</v>
+      </c>
+      <c r="B588">
+        <v>20240216</v>
+      </c>
+      <c r="C588">
+        <v>1</v>
+      </c>
+      <c r="D588">
+        <v>2</v>
+      </c>
+      <c r="E588" t="str">
+        <f t="shared" si="104"/>
+        <v>16</v>
+      </c>
+      <c r="F588" t="str">
+        <f t="shared" si="105"/>
+        <v>02</v>
+      </c>
+      <c r="G588" t="str">
+        <f t="shared" si="106"/>
+        <v>2024</v>
+      </c>
+      <c r="H588" t="str">
+        <f t="shared" si="107"/>
+        <v>16/02/2024</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A589" t="s">
+        <v>4</v>
+      </c>
+      <c r="B589">
+        <v>20240213</v>
+      </c>
+      <c r="C589">
+        <v>0</v>
+      </c>
+      <c r="D589">
+        <v>1</v>
+      </c>
+      <c r="E589" t="str">
+        <f t="shared" si="104"/>
+        <v>13</v>
+      </c>
+      <c r="F589" t="str">
+        <f t="shared" si="105"/>
+        <v>02</v>
+      </c>
+      <c r="G589" t="str">
+        <f t="shared" si="106"/>
+        <v>2024</v>
+      </c>
+      <c r="H589" t="str">
+        <f t="shared" si="107"/>
+        <v>13/02/2024</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A590" t="s">
+        <v>1</v>
+      </c>
+      <c r="B590">
+        <v>20240223</v>
+      </c>
+      <c r="C590">
+        <v>319</v>
+      </c>
+      <c r="D590">
+        <v>223</v>
+      </c>
+      <c r="E590" t="str">
+        <f t="shared" ref="E590" si="108">RIGHT(B590,2)</f>
+        <v>23</v>
+      </c>
+      <c r="F590" t="str">
+        <f t="shared" ref="F590" si="109">MID(B590,5,2)</f>
+        <v>02</v>
+      </c>
+      <c r="G590" t="str">
+        <f t="shared" ref="G590" si="110">LEFT(B590,4)</f>
+        <v>2024</v>
+      </c>
+      <c r="H590" t="str">
+        <f t="shared" ref="H590" si="111">_xlfn.CONCAT(E590,"/",F590,"/",G590)</f>
+        <v>23/02/2024</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A591" t="s">
+        <v>1</v>
+      </c>
+      <c r="B591">
+        <v>20240222</v>
+      </c>
+      <c r="C591">
+        <v>69</v>
+      </c>
+      <c r="D591">
+        <v>66</v>
+      </c>
+      <c r="E591" t="str">
+        <f t="shared" ref="E591:E614" si="112">RIGHT(B591,2)</f>
+        <v>22</v>
+      </c>
+      <c r="F591" t="str">
+        <f t="shared" ref="F591:F614" si="113">MID(B591,5,2)</f>
+        <v>02</v>
+      </c>
+      <c r="G591" t="str">
+        <f t="shared" ref="G591:G614" si="114">LEFT(B591,4)</f>
+        <v>2024</v>
+      </c>
+      <c r="H591" t="str">
+        <f t="shared" ref="H591:H614" si="115">_xlfn.CONCAT(E591,"/",F591,"/",G591)</f>
+        <v>22/02/2024</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A592" t="s">
+        <v>1</v>
+      </c>
+      <c r="B592">
+        <v>20240220</v>
+      </c>
+      <c r="C592">
+        <v>47</v>
+      </c>
+      <c r="D592">
+        <v>48</v>
+      </c>
+      <c r="E592" t="str">
+        <f t="shared" si="112"/>
+        <v>20</v>
+      </c>
+      <c r="F592" t="str">
+        <f t="shared" si="113"/>
+        <v>02</v>
+      </c>
+      <c r="G592" t="str">
+        <f t="shared" si="114"/>
+        <v>2024</v>
+      </c>
+      <c r="H592" t="str">
+        <f t="shared" si="115"/>
+        <v>20/02/2024</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A593" t="s">
+        <v>1</v>
+      </c>
+      <c r="B593">
+        <v>20240221</v>
+      </c>
+      <c r="C593">
+        <v>45</v>
+      </c>
+      <c r="D593">
+        <v>50</v>
+      </c>
+      <c r="E593" t="str">
+        <f t="shared" si="112"/>
+        <v>21</v>
+      </c>
+      <c r="F593" t="str">
+        <f t="shared" si="113"/>
+        <v>02</v>
+      </c>
+      <c r="G593" t="str">
+        <f t="shared" si="114"/>
+        <v>2024</v>
+      </c>
+      <c r="H593" t="str">
+        <f t="shared" si="115"/>
+        <v>21/02/2024</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A594" t="s">
+        <v>1</v>
+      </c>
+      <c r="B594">
+        <v>20240224</v>
+      </c>
+      <c r="C594">
+        <v>41</v>
+      </c>
+      <c r="D594">
+        <v>44</v>
+      </c>
+      <c r="E594" t="str">
+        <f t="shared" si="112"/>
+        <v>24</v>
+      </c>
+      <c r="F594" t="str">
+        <f t="shared" si="113"/>
+        <v>02</v>
+      </c>
+      <c r="G594" t="str">
+        <f t="shared" si="114"/>
+        <v>2024</v>
+      </c>
+      <c r="H594" t="str">
+        <f t="shared" si="115"/>
+        <v>24/02/2024</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A595" t="s">
+        <v>1</v>
+      </c>
+      <c r="B595">
+        <v>20240225</v>
+      </c>
+      <c r="C595">
+        <v>39</v>
+      </c>
+      <c r="D595">
+        <v>34</v>
+      </c>
+      <c r="E595" t="str">
+        <f t="shared" si="112"/>
+        <v>25</v>
+      </c>
+      <c r="F595" t="str">
+        <f t="shared" si="113"/>
+        <v>02</v>
+      </c>
+      <c r="G595" t="str">
+        <f t="shared" si="114"/>
+        <v>2024</v>
+      </c>
+      <c r="H595" t="str">
+        <f t="shared" si="115"/>
+        <v>25/02/2024</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A596" t="s">
+        <v>2</v>
+      </c>
+      <c r="B596">
+        <v>20240223</v>
+      </c>
+      <c r="C596">
+        <v>38</v>
+      </c>
+      <c r="D596">
+        <v>57</v>
+      </c>
+      <c r="E596" t="str">
+        <f t="shared" si="112"/>
+        <v>23</v>
+      </c>
+      <c r="F596" t="str">
+        <f t="shared" si="113"/>
+        <v>02</v>
+      </c>
+      <c r="G596" t="str">
+        <f t="shared" si="114"/>
+        <v>2024</v>
+      </c>
+      <c r="H596" t="str">
+        <f t="shared" si="115"/>
+        <v>23/02/2024</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A597" t="s">
+        <v>1</v>
+      </c>
+      <c r="B597">
+        <v>20240219</v>
+      </c>
+      <c r="C597">
+        <v>25</v>
+      </c>
+      <c r="D597">
+        <v>41</v>
+      </c>
+      <c r="E597" t="str">
+        <f t="shared" si="112"/>
+        <v>19</v>
+      </c>
+      <c r="F597" t="str">
+        <f t="shared" si="113"/>
+        <v>02</v>
+      </c>
+      <c r="G597" t="str">
+        <f t="shared" si="114"/>
+        <v>2024</v>
+      </c>
+      <c r="H597" t="str">
+        <f t="shared" si="115"/>
+        <v>19/02/2024</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A598" t="s">
+        <v>2</v>
+      </c>
+      <c r="B598">
+        <v>20240225</v>
+      </c>
+      <c r="C598">
+        <v>18</v>
+      </c>
+      <c r="D598">
+        <v>51</v>
+      </c>
+      <c r="E598" t="str">
+        <f t="shared" si="112"/>
+        <v>25</v>
+      </c>
+      <c r="F598" t="str">
+        <f t="shared" si="113"/>
+        <v>02</v>
+      </c>
+      <c r="G598" t="str">
+        <f t="shared" si="114"/>
+        <v>2024</v>
+      </c>
+      <c r="H598" t="str">
+        <f t="shared" si="115"/>
+        <v>25/02/2024</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A599" t="s">
+        <v>2</v>
+      </c>
+      <c r="B599">
+        <v>20240220</v>
+      </c>
+      <c r="C599">
+        <v>17</v>
+      </c>
+      <c r="D599">
+        <v>45</v>
+      </c>
+      <c r="E599" t="str">
+        <f t="shared" si="112"/>
+        <v>20</v>
+      </c>
+      <c r="F599" t="str">
+        <f t="shared" si="113"/>
+        <v>02</v>
+      </c>
+      <c r="G599" t="str">
+        <f t="shared" si="114"/>
+        <v>2024</v>
+      </c>
+      <c r="H599" t="str">
+        <f t="shared" si="115"/>
+        <v>20/02/2024</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A600" t="s">
+        <v>2</v>
+      </c>
+      <c r="B600">
+        <v>20240222</v>
+      </c>
+      <c r="C600">
+        <v>17</v>
+      </c>
+      <c r="D600">
+        <v>53</v>
+      </c>
+      <c r="E600" t="str">
+        <f t="shared" si="112"/>
+        <v>22</v>
+      </c>
+      <c r="F600" t="str">
+        <f t="shared" si="113"/>
+        <v>02</v>
+      </c>
+      <c r="G600" t="str">
+        <f t="shared" si="114"/>
+        <v>2024</v>
+      </c>
+      <c r="H600" t="str">
+        <f t="shared" si="115"/>
+        <v>22/02/2024</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A601" t="s">
+        <v>2</v>
+      </c>
+      <c r="B601">
+        <v>20240221</v>
+      </c>
+      <c r="C601">
+        <v>16</v>
+      </c>
+      <c r="D601">
+        <v>46</v>
+      </c>
+      <c r="E601" t="str">
+        <f t="shared" si="112"/>
+        <v>21</v>
+      </c>
+      <c r="F601" t="str">
+        <f t="shared" si="113"/>
+        <v>02</v>
+      </c>
+      <c r="G601" t="str">
+        <f t="shared" si="114"/>
+        <v>2024</v>
+      </c>
+      <c r="H601" t="str">
+        <f t="shared" si="115"/>
+        <v>21/02/2024</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A602" t="s">
+        <v>2</v>
+      </c>
+      <c r="B602">
+        <v>20240219</v>
+      </c>
+      <c r="C602">
+        <v>12</v>
+      </c>
+      <c r="D602">
+        <v>40</v>
+      </c>
+      <c r="E602" t="str">
+        <f t="shared" si="112"/>
+        <v>19</v>
+      </c>
+      <c r="F602" t="str">
+        <f t="shared" si="113"/>
+        <v>02</v>
+      </c>
+      <c r="G602" t="str">
+        <f t="shared" si="114"/>
+        <v>2024</v>
+      </c>
+      <c r="H602" t="str">
+        <f t="shared" si="115"/>
+        <v>19/02/2024</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A603" t="s">
+        <v>2</v>
+      </c>
+      <c r="B603">
+        <v>20240224</v>
+      </c>
+      <c r="C603">
+        <v>8</v>
+      </c>
+      <c r="D603">
+        <v>41</v>
+      </c>
+      <c r="E603" t="str">
+        <f t="shared" si="112"/>
+        <v>24</v>
+      </c>
+      <c r="F603" t="str">
+        <f t="shared" si="113"/>
+        <v>02</v>
+      </c>
+      <c r="G603" t="str">
+        <f t="shared" si="114"/>
+        <v>2024</v>
+      </c>
+      <c r="H603" t="str">
+        <f t="shared" si="115"/>
+        <v>24/02/2024</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A604" t="s">
+        <v>3</v>
+      </c>
+      <c r="B604">
+        <v>20240221</v>
+      </c>
+      <c r="C604">
+        <v>3</v>
+      </c>
+      <c r="D604">
+        <v>2</v>
+      </c>
+      <c r="E604" t="str">
+        <f t="shared" si="112"/>
+        <v>21</v>
+      </c>
+      <c r="F604" t="str">
+        <f t="shared" si="113"/>
+        <v>02</v>
+      </c>
+      <c r="G604" t="str">
+        <f t="shared" si="114"/>
+        <v>2024</v>
+      </c>
+      <c r="H604" t="str">
+        <f t="shared" si="115"/>
+        <v>21/02/2024</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A605" t="s">
+        <v>4</v>
+      </c>
+      <c r="B605">
+        <v>20240219</v>
+      </c>
+      <c r="C605">
+        <v>2</v>
+      </c>
+      <c r="D605">
+        <v>2</v>
+      </c>
+      <c r="E605" t="str">
+        <f t="shared" si="112"/>
+        <v>19</v>
+      </c>
+      <c r="F605" t="str">
+        <f t="shared" si="113"/>
+        <v>02</v>
+      </c>
+      <c r="G605" t="str">
+        <f t="shared" si="114"/>
+        <v>2024</v>
+      </c>
+      <c r="H605" t="str">
+        <f t="shared" si="115"/>
+        <v>19/02/2024</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A606" t="s">
+        <v>4</v>
+      </c>
+      <c r="B606">
+        <v>20240221</v>
+      </c>
+      <c r="C606">
+        <v>2</v>
+      </c>
+      <c r="D606">
+        <v>3</v>
+      </c>
+      <c r="E606" t="str">
+        <f t="shared" si="112"/>
+        <v>21</v>
+      </c>
+      <c r="F606" t="str">
+        <f t="shared" si="113"/>
+        <v>02</v>
+      </c>
+      <c r="G606" t="str">
+        <f t="shared" si="114"/>
+        <v>2024</v>
+      </c>
+      <c r="H606" t="str">
+        <f t="shared" si="115"/>
+        <v>21/02/2024</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A607" t="s">
+        <v>4</v>
+      </c>
+      <c r="B607">
+        <v>20240222</v>
+      </c>
+      <c r="C607">
+        <v>2</v>
+      </c>
+      <c r="D607">
+        <v>2</v>
+      </c>
+      <c r="E607" t="str">
+        <f t="shared" si="112"/>
+        <v>22</v>
+      </c>
+      <c r="F607" t="str">
+        <f t="shared" si="113"/>
+        <v>02</v>
+      </c>
+      <c r="G607" t="str">
+        <f t="shared" si="114"/>
+        <v>2024</v>
+      </c>
+      <c r="H607" t="str">
+        <f t="shared" si="115"/>
+        <v>22/02/2024</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A608" t="s">
+        <v>3</v>
+      </c>
+      <c r="B608">
+        <v>20240223</v>
+      </c>
+      <c r="C608">
+        <v>1</v>
+      </c>
+      <c r="D608">
+        <v>1</v>
+      </c>
+      <c r="E608" t="str">
+        <f t="shared" si="112"/>
+        <v>23</v>
+      </c>
+      <c r="F608" t="str">
+        <f t="shared" si="113"/>
+        <v>02</v>
+      </c>
+      <c r="G608" t="str">
+        <f t="shared" si="114"/>
+        <v>2024</v>
+      </c>
+      <c r="H608" t="str">
+        <f t="shared" si="115"/>
+        <v>23/02/2024</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A609" t="s">
+        <v>4</v>
+      </c>
+      <c r="B609">
+        <v>20240220</v>
+      </c>
+      <c r="C609">
+        <v>1</v>
+      </c>
+      <c r="D609">
+        <v>2</v>
+      </c>
+      <c r="E609" t="str">
+        <f t="shared" si="112"/>
+        <v>20</v>
+      </c>
+      <c r="F609" t="str">
+        <f t="shared" si="113"/>
+        <v>02</v>
+      </c>
+      <c r="G609" t="str">
+        <f t="shared" si="114"/>
+        <v>2024</v>
+      </c>
+      <c r="H609" t="str">
+        <f t="shared" si="115"/>
+        <v>20/02/2024</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A610" t="s">
+        <v>3</v>
+      </c>
+      <c r="B610">
+        <v>20240219</v>
+      </c>
+      <c r="C610">
+        <v>0</v>
+      </c>
+      <c r="D610">
+        <v>1</v>
+      </c>
+      <c r="E610" t="str">
+        <f t="shared" si="112"/>
+        <v>19</v>
+      </c>
+      <c r="F610" t="str">
+        <f t="shared" si="113"/>
+        <v>02</v>
+      </c>
+      <c r="G610" t="str">
+        <f t="shared" si="114"/>
+        <v>2024</v>
+      </c>
+      <c r="H610" t="str">
+        <f t="shared" si="115"/>
+        <v>19/02/2024</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A611" t="s">
+        <v>3</v>
+      </c>
+      <c r="B611">
+        <v>20240220</v>
+      </c>
+      <c r="C611">
+        <v>0</v>
+      </c>
+      <c r="D611">
+        <v>1</v>
+      </c>
+      <c r="E611" t="str">
+        <f t="shared" si="112"/>
+        <v>20</v>
+      </c>
+      <c r="F611" t="str">
+        <f t="shared" si="113"/>
+        <v>02</v>
+      </c>
+      <c r="G611" t="str">
+        <f t="shared" si="114"/>
+        <v>2024</v>
+      </c>
+      <c r="H611" t="str">
+        <f t="shared" si="115"/>
+        <v>20/02/2024</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A612" t="s">
+        <v>3</v>
+      </c>
+      <c r="B612">
+        <v>20240222</v>
+      </c>
+      <c r="C612">
+        <v>0</v>
+      </c>
+      <c r="D612">
+        <v>1</v>
+      </c>
+      <c r="E612" t="str">
+        <f t="shared" si="112"/>
+        <v>22</v>
+      </c>
+      <c r="F612" t="str">
+        <f t="shared" si="113"/>
+        <v>02</v>
+      </c>
+      <c r="G612" t="str">
+        <f t="shared" si="114"/>
+        <v>2024</v>
+      </c>
+      <c r="H612" t="str">
+        <f t="shared" si="115"/>
+        <v>22/02/2024</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A613" t="s">
+        <v>4</v>
+      </c>
+      <c r="B613">
+        <v>20240223</v>
+      </c>
+      <c r="C613">
+        <v>0</v>
+      </c>
+      <c r="D613">
+        <v>1</v>
+      </c>
+      <c r="E613" t="str">
+        <f t="shared" si="112"/>
+        <v>23</v>
+      </c>
+      <c r="F613" t="str">
+        <f t="shared" si="113"/>
+        <v>02</v>
+      </c>
+      <c r="G613" t="str">
+        <f t="shared" si="114"/>
+        <v>2024</v>
+      </c>
+      <c r="H613" t="str">
+        <f t="shared" si="115"/>
+        <v>23/02/2024</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A614" t="s">
+        <v>4</v>
+      </c>
+      <c r="B614">
+        <v>20240225</v>
+      </c>
+      <c r="C614">
+        <v>0</v>
+      </c>
+      <c r="D614">
+        <v>1</v>
+      </c>
+      <c r="E614" t="str">
+        <f t="shared" si="112"/>
+        <v>25</v>
+      </c>
+      <c r="F614" t="str">
+        <f t="shared" si="113"/>
+        <v>02</v>
+      </c>
+      <c r="G614" t="str">
+        <f t="shared" si="114"/>
+        <v>2024</v>
+      </c>
+      <c r="H614" t="str">
+        <f t="shared" si="115"/>
+        <v>25/02/2024</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A615" t="s">
+        <v>1</v>
+      </c>
+      <c r="B615">
+        <v>20240229</v>
+      </c>
+      <c r="C615">
+        <v>99</v>
+      </c>
+      <c r="D615">
+        <v>78</v>
+      </c>
+      <c r="E615" t="str">
+        <f t="shared" ref="E615:E634" si="116">RIGHT(B615,2)</f>
+        <v>29</v>
+      </c>
+      <c r="F615" t="str">
+        <f t="shared" ref="F615:F634" si="117">MID(B615,5,2)</f>
+        <v>02</v>
+      </c>
+      <c r="G615" t="str">
+        <f t="shared" ref="G615:G634" si="118">LEFT(B615,4)</f>
+        <v>2024</v>
+      </c>
+      <c r="H615" t="str">
+        <f t="shared" ref="H615:H634" si="119">_xlfn.CONCAT(E615,"/",F615,"/",G615)</f>
+        <v>29/02/2024</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A616" t="s">
+        <v>1</v>
+      </c>
+      <c r="B616">
+        <v>20240303</v>
+      </c>
+      <c r="C616">
+        <v>59</v>
+      </c>
+      <c r="D616">
+        <v>60</v>
+      </c>
+      <c r="E616" t="str">
+        <f t="shared" si="116"/>
+        <v>03</v>
+      </c>
+      <c r="F616" t="str">
+        <f t="shared" si="117"/>
+        <v>03</v>
+      </c>
+      <c r="G616" t="str">
+        <f t="shared" si="118"/>
+        <v>2024</v>
+      </c>
+      <c r="H616" t="str">
+        <f t="shared" si="119"/>
+        <v>03/03/2024</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A617" t="s">
+        <v>4</v>
+      </c>
+      <c r="B617">
+        <v>20240302</v>
+      </c>
+      <c r="C617">
+        <v>53</v>
+      </c>
+      <c r="D617">
+        <v>3</v>
+      </c>
+      <c r="E617" t="str">
+        <f t="shared" si="116"/>
+        <v>02</v>
+      </c>
+      <c r="F617" t="str">
+        <f t="shared" si="117"/>
+        <v>03</v>
+      </c>
+      <c r="G617" t="str">
+        <f t="shared" si="118"/>
+        <v>2024</v>
+      </c>
+      <c r="H617" t="str">
+        <f t="shared" si="119"/>
+        <v>02/03/2024</v>
+      </c>
+    </row>
+    <row r="618" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A618" t="s">
+        <v>1</v>
+      </c>
+      <c r="B618">
+        <v>20240228</v>
+      </c>
+      <c r="C618">
+        <v>52</v>
+      </c>
+      <c r="D618">
+        <v>45</v>
+      </c>
+      <c r="E618" t="str">
+        <f t="shared" si="116"/>
+        <v>28</v>
+      </c>
+      <c r="F618" t="str">
+        <f t="shared" si="117"/>
+        <v>02</v>
+      </c>
+      <c r="G618" t="str">
+        <f t="shared" si="118"/>
+        <v>2024</v>
+      </c>
+      <c r="H618" t="str">
+        <f t="shared" si="119"/>
+        <v>28/02/2024</v>
+      </c>
+    </row>
+    <row r="619" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A619" t="s">
+        <v>1</v>
+      </c>
+      <c r="B619">
+        <v>20240301</v>
+      </c>
+      <c r="C619">
+        <v>50</v>
+      </c>
+      <c r="D619">
+        <v>59</v>
+      </c>
+      <c r="E619" t="str">
+        <f t="shared" si="116"/>
+        <v>01</v>
+      </c>
+      <c r="F619" t="str">
+        <f t="shared" si="117"/>
+        <v>03</v>
+      </c>
+      <c r="G619" t="str">
+        <f t="shared" si="118"/>
+        <v>2024</v>
+      </c>
+      <c r="H619" t="str">
+        <f t="shared" si="119"/>
+        <v>01/03/2024</v>
+      </c>
+    </row>
+    <row r="620" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A620" t="s">
+        <v>1</v>
+      </c>
+      <c r="B620">
+        <v>20240302</v>
+      </c>
+      <c r="C620">
+        <v>43</v>
+      </c>
+      <c r="D620">
+        <v>50</v>
+      </c>
+      <c r="E620" t="str">
+        <f t="shared" si="116"/>
+        <v>02</v>
+      </c>
+      <c r="F620" t="str">
+        <f t="shared" si="117"/>
+        <v>03</v>
+      </c>
+      <c r="G620" t="str">
+        <f t="shared" si="118"/>
+        <v>2024</v>
+      </c>
+      <c r="H620" t="str">
+        <f t="shared" si="119"/>
+        <v>02/03/2024</v>
+      </c>
+    </row>
+    <row r="621" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A621" t="s">
+        <v>1</v>
+      </c>
+      <c r="B621">
+        <v>20240226</v>
+      </c>
+      <c r="C621">
+        <v>27</v>
+      </c>
+      <c r="D621">
+        <v>28</v>
+      </c>
+      <c r="E621" t="str">
+        <f t="shared" si="116"/>
+        <v>26</v>
+      </c>
+      <c r="F621" t="str">
+        <f t="shared" si="117"/>
+        <v>02</v>
+      </c>
+      <c r="G621" t="str">
+        <f t="shared" si="118"/>
+        <v>2024</v>
+      </c>
+      <c r="H621" t="str">
+        <f t="shared" si="119"/>
+        <v>26/02/2024</v>
+      </c>
+    </row>
+    <row r="622" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A622" t="s">
+        <v>1</v>
+      </c>
+      <c r="B622">
+        <v>20240227</v>
+      </c>
+      <c r="C622">
+        <v>26</v>
+      </c>
+      <c r="D622">
+        <v>28</v>
+      </c>
+      <c r="E622" t="str">
+        <f t="shared" si="116"/>
+        <v>27</v>
+      </c>
+      <c r="F622" t="str">
+        <f t="shared" si="117"/>
+        <v>02</v>
+      </c>
+      <c r="G622" t="str">
+        <f t="shared" si="118"/>
+        <v>2024</v>
+      </c>
+      <c r="H622" t="str">
+        <f t="shared" si="119"/>
+        <v>27/02/2024</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A623" t="s">
+        <v>4</v>
+      </c>
+      <c r="B623">
+        <v>20240303</v>
+      </c>
+      <c r="C623">
+        <v>24</v>
+      </c>
+      <c r="D623">
+        <v>2</v>
+      </c>
+      <c r="E623" t="str">
+        <f t="shared" si="116"/>
+        <v>03</v>
+      </c>
+      <c r="F623" t="str">
+        <f t="shared" si="117"/>
+        <v>03</v>
+      </c>
+      <c r="G623" t="str">
+        <f t="shared" si="118"/>
+        <v>2024</v>
+      </c>
+      <c r="H623" t="str">
+        <f t="shared" si="119"/>
+        <v>03/03/2024</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A624" t="s">
+        <v>2</v>
+      </c>
+      <c r="B624">
+        <v>20240301</v>
+      </c>
+      <c r="C624">
+        <v>22</v>
+      </c>
+      <c r="D624">
+        <v>79</v>
+      </c>
+      <c r="E624" t="str">
+        <f t="shared" si="116"/>
+        <v>01</v>
+      </c>
+      <c r="F624" t="str">
+        <f t="shared" si="117"/>
+        <v>03</v>
+      </c>
+      <c r="G624" t="str">
+        <f t="shared" si="118"/>
+        <v>2024</v>
+      </c>
+      <c r="H624" t="str">
+        <f t="shared" si="119"/>
+        <v>01/03/2024</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A625" t="s">
+        <v>2</v>
+      </c>
+      <c r="B625">
+        <v>20240229</v>
+      </c>
+      <c r="C625">
+        <v>20</v>
+      </c>
+      <c r="D625">
+        <v>64</v>
+      </c>
+      <c r="E625" t="str">
+        <f t="shared" si="116"/>
+        <v>29</v>
+      </c>
+      <c r="F625" t="str">
+        <f t="shared" si="117"/>
+        <v>02</v>
+      </c>
+      <c r="G625" t="str">
+        <f t="shared" si="118"/>
+        <v>2024</v>
+      </c>
+      <c r="H625" t="str">
+        <f t="shared" si="119"/>
+        <v>29/02/2024</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A626" t="s">
+        <v>2</v>
+      </c>
+      <c r="B626">
+        <v>20240303</v>
+      </c>
+      <c r="C626">
+        <v>20</v>
+      </c>
+      <c r="D626">
+        <v>58</v>
+      </c>
+      <c r="E626" t="str">
+        <f t="shared" si="116"/>
+        <v>03</v>
+      </c>
+      <c r="F626" t="str">
+        <f t="shared" si="117"/>
+        <v>03</v>
+      </c>
+      <c r="G626" t="str">
+        <f t="shared" si="118"/>
+        <v>2024</v>
+      </c>
+      <c r="H626" t="str">
+        <f t="shared" si="119"/>
+        <v>03/03/2024</v>
+      </c>
+    </row>
+    <row r="627" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A627" t="s">
+        <v>2</v>
+      </c>
+      <c r="B627">
+        <v>20240227</v>
+      </c>
+      <c r="C627">
+        <v>18</v>
+      </c>
+      <c r="D627">
+        <v>49</v>
+      </c>
+      <c r="E627" t="str">
+        <f t="shared" si="116"/>
+        <v>27</v>
+      </c>
+      <c r="F627" t="str">
+        <f t="shared" si="117"/>
+        <v>02</v>
+      </c>
+      <c r="G627" t="str">
+        <f t="shared" si="118"/>
+        <v>2024</v>
+      </c>
+      <c r="H627" t="str">
+        <f t="shared" si="119"/>
+        <v>27/02/2024</v>
+      </c>
+    </row>
+    <row r="628" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A628" t="s">
+        <v>2</v>
+      </c>
+      <c r="B628">
+        <v>20240228</v>
+      </c>
+      <c r="C628">
+        <v>18</v>
+      </c>
+      <c r="D628">
+        <v>49</v>
+      </c>
+      <c r="E628" t="str">
+        <f t="shared" si="116"/>
+        <v>28</v>
+      </c>
+      <c r="F628" t="str">
+        <f t="shared" si="117"/>
+        <v>02</v>
+      </c>
+      <c r="G628" t="str">
+        <f t="shared" si="118"/>
+        <v>2024</v>
+      </c>
+      <c r="H628" t="str">
+        <f t="shared" si="119"/>
+        <v>28/02/2024</v>
+      </c>
+    </row>
+    <row r="629" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A629" t="s">
+        <v>2</v>
+      </c>
+      <c r="B629">
+        <v>20240302</v>
+      </c>
+      <c r="C629">
+        <v>13</v>
+      </c>
+      <c r="D629">
+        <v>54</v>
+      </c>
+      <c r="E629" t="str">
+        <f t="shared" si="116"/>
+        <v>02</v>
+      </c>
+      <c r="F629" t="str">
+        <f t="shared" si="117"/>
+        <v>03</v>
+      </c>
+      <c r="G629" t="str">
+        <f t="shared" si="118"/>
+        <v>2024</v>
+      </c>
+      <c r="H629" t="str">
+        <f t="shared" si="119"/>
+        <v>02/03/2024</v>
+      </c>
+    </row>
+    <row r="630" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A630" t="s">
+        <v>2</v>
+      </c>
+      <c r="B630">
+        <v>20240226</v>
+      </c>
+      <c r="C630">
+        <v>8</v>
+      </c>
+      <c r="D630">
+        <v>38</v>
+      </c>
+      <c r="E630" t="str">
+        <f t="shared" si="116"/>
+        <v>26</v>
+      </c>
+      <c r="F630" t="str">
+        <f t="shared" si="117"/>
+        <v>02</v>
+      </c>
+      <c r="G630" t="str">
+        <f t="shared" si="118"/>
+        <v>2024</v>
+      </c>
+      <c r="H630" t="str">
+        <f t="shared" si="119"/>
+        <v>26/02/2024</v>
+      </c>
+    </row>
+    <row r="631" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A631" t="s">
+        <v>4</v>
+      </c>
+      <c r="B631">
+        <v>20240301</v>
+      </c>
+      <c r="C631">
+        <v>3</v>
+      </c>
+      <c r="D631">
+        <v>4</v>
+      </c>
+      <c r="E631" t="str">
+        <f t="shared" si="116"/>
+        <v>01</v>
+      </c>
+      <c r="F631" t="str">
+        <f t="shared" si="117"/>
+        <v>03</v>
+      </c>
+      <c r="G631" t="str">
+        <f t="shared" si="118"/>
+        <v>2024</v>
+      </c>
+      <c r="H631" t="str">
+        <f t="shared" si="119"/>
+        <v>01/03/2024</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A632" t="s">
+        <v>3</v>
+      </c>
+      <c r="B632">
+        <v>20240229</v>
+      </c>
+      <c r="C632">
+        <v>2</v>
+      </c>
+      <c r="D632">
+        <v>1</v>
+      </c>
+      <c r="E632" t="str">
+        <f t="shared" si="116"/>
+        <v>29</v>
+      </c>
+      <c r="F632" t="str">
+        <f t="shared" si="117"/>
+        <v>02</v>
+      </c>
+      <c r="G632" t="str">
+        <f t="shared" si="118"/>
+        <v>2024</v>
+      </c>
+      <c r="H632" t="str">
+        <f t="shared" si="119"/>
+        <v>29/02/2024</v>
+      </c>
+    </row>
+    <row r="633" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A633" t="s">
+        <v>3</v>
+      </c>
+      <c r="B633">
+        <v>20240226</v>
+      </c>
+      <c r="C633">
+        <v>1</v>
+      </c>
+      <c r="D633">
+        <v>0</v>
+      </c>
+      <c r="E633" t="str">
+        <f t="shared" si="116"/>
+        <v>26</v>
+      </c>
+      <c r="F633" t="str">
+        <f t="shared" si="117"/>
+        <v>02</v>
+      </c>
+      <c r="G633" t="str">
+        <f t="shared" si="118"/>
+        <v>2024</v>
+      </c>
+      <c r="H633" t="str">
+        <f t="shared" si="119"/>
+        <v>26/02/2024</v>
+      </c>
+    </row>
+    <row r="634" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A634" t="s">
+        <v>4</v>
+      </c>
+      <c r="B634">
+        <v>20240229</v>
+      </c>
+      <c r="C634">
+        <v>1</v>
+      </c>
+      <c r="D634">
+        <v>1</v>
+      </c>
+      <c r="E634" t="str">
+        <f t="shared" si="116"/>
+        <v>29</v>
+      </c>
+      <c r="F634" t="str">
+        <f t="shared" si="117"/>
+        <v>02</v>
+      </c>
+      <c r="G634" t="str">
+        <f t="shared" si="118"/>
+        <v>2024</v>
+      </c>
+      <c r="H634" t="str">
+        <f t="shared" si="119"/>
+        <v>29/02/2024</v>
+      </c>
+    </row>
+    <row r="635" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A635" t="s">
+        <v>1</v>
+      </c>
+      <c r="B635">
+        <v>20240309</v>
+      </c>
+      <c r="C635">
+        <v>60</v>
+      </c>
+      <c r="D635">
+        <v>52</v>
+      </c>
+      <c r="E635" t="str">
+        <f t="shared" ref="E635" si="120">RIGHT(B635,2)</f>
+        <v>09</v>
+      </c>
+      <c r="F635" t="str">
+        <f t="shared" ref="F635" si="121">MID(B635,5,2)</f>
+        <v>03</v>
+      </c>
+      <c r="G635" t="str">
+        <f t="shared" ref="G635" si="122">LEFT(B635,4)</f>
+        <v>2024</v>
+      </c>
+      <c r="H635" t="str">
+        <f t="shared" ref="H635" si="123">_xlfn.CONCAT(E635,"/",F635,"/",G635)</f>
+        <v>09/03/2024</v>
+      </c>
+    </row>
+    <row r="636" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A636" t="s">
+        <v>1</v>
+      </c>
+      <c r="B636">
+        <v>20240307</v>
+      </c>
+      <c r="C636">
+        <v>41</v>
+      </c>
+      <c r="D636">
+        <v>40</v>
+      </c>
+      <c r="E636" t="str">
+        <f t="shared" ref="E636:E658" si="124">RIGHT(B636,2)</f>
+        <v>07</v>
+      </c>
+      <c r="F636" t="str">
+        <f t="shared" ref="F636:F658" si="125">MID(B636,5,2)</f>
+        <v>03</v>
+      </c>
+      <c r="G636" t="str">
+        <f t="shared" ref="G636:G658" si="126">LEFT(B636,4)</f>
+        <v>2024</v>
+      </c>
+      <c r="H636" t="str">
+        <f t="shared" ref="H636:H658" si="127">_xlfn.CONCAT(E636,"/",F636,"/",G636)</f>
+        <v>07/03/2024</v>
+      </c>
+    </row>
+    <row r="637" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A637" t="s">
+        <v>1</v>
+      </c>
+      <c r="B637">
+        <v>20240304</v>
+      </c>
+      <c r="C637">
+        <v>40</v>
+      </c>
+      <c r="D637">
+        <v>55</v>
+      </c>
+      <c r="E637" t="str">
+        <f t="shared" si="124"/>
+        <v>04</v>
+      </c>
+      <c r="F637" t="str">
+        <f t="shared" si="125"/>
+        <v>03</v>
+      </c>
+      <c r="G637" t="str">
+        <f t="shared" si="126"/>
+        <v>2024</v>
+      </c>
+      <c r="H637" t="str">
+        <f t="shared" si="127"/>
+        <v>04/03/2024</v>
+      </c>
+    </row>
+    <row r="638" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A638" t="s">
+        <v>1</v>
+      </c>
+      <c r="B638">
+        <v>20240306</v>
+      </c>
+      <c r="C638">
+        <v>33</v>
+      </c>
+      <c r="D638">
+        <v>42</v>
+      </c>
+      <c r="E638" t="str">
+        <f t="shared" si="124"/>
+        <v>06</v>
+      </c>
+      <c r="F638" t="str">
+        <f t="shared" si="125"/>
+        <v>03</v>
+      </c>
+      <c r="G638" t="str">
+        <f t="shared" si="126"/>
+        <v>2024</v>
+      </c>
+      <c r="H638" t="str">
+        <f t="shared" si="127"/>
+        <v>06/03/2024</v>
+      </c>
+    </row>
+    <row r="639" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A639" t="s">
+        <v>1</v>
+      </c>
+      <c r="B639">
+        <v>20240305</v>
+      </c>
+      <c r="C639">
+        <v>29</v>
+      </c>
+      <c r="D639">
+        <v>33</v>
+      </c>
+      <c r="E639" t="str">
+        <f t="shared" si="124"/>
+        <v>05</v>
+      </c>
+      <c r="F639" t="str">
+        <f t="shared" si="125"/>
+        <v>03</v>
+      </c>
+      <c r="G639" t="str">
+        <f t="shared" si="126"/>
+        <v>2024</v>
+      </c>
+      <c r="H639" t="str">
+        <f t="shared" si="127"/>
+        <v>05/03/2024</v>
+      </c>
+    </row>
+    <row r="640" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A640" t="s">
+        <v>1</v>
+      </c>
+      <c r="B640">
+        <v>20240310</v>
+      </c>
+      <c r="C640">
+        <v>28</v>
+      </c>
+      <c r="D640">
+        <v>32</v>
+      </c>
+      <c r="E640" t="str">
+        <f t="shared" si="124"/>
+        <v>10</v>
+      </c>
+      <c r="F640" t="str">
+        <f t="shared" si="125"/>
+        <v>03</v>
+      </c>
+      <c r="G640" t="str">
+        <f t="shared" si="126"/>
+        <v>2024</v>
+      </c>
+      <c r="H640" t="str">
+        <f t="shared" si="127"/>
+        <v>10/03/2024</v>
+      </c>
+    </row>
+    <row r="641" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A641" t="s">
+        <v>2</v>
+      </c>
+      <c r="B641">
+        <v>20240309</v>
+      </c>
+      <c r="C641">
+        <v>25</v>
+      </c>
+      <c r="D641">
+        <v>55</v>
+      </c>
+      <c r="E641" t="str">
+        <f t="shared" si="124"/>
+        <v>09</v>
+      </c>
+      <c r="F641" t="str">
+        <f t="shared" si="125"/>
+        <v>03</v>
+      </c>
+      <c r="G641" t="str">
+        <f t="shared" si="126"/>
+        <v>2024</v>
+      </c>
+      <c r="H641" t="str">
+        <f t="shared" si="127"/>
+        <v>09/03/2024</v>
+      </c>
+    </row>
+    <row r="642" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A642" t="s">
+        <v>1</v>
+      </c>
+      <c r="B642">
+        <v>20240308</v>
+      </c>
+      <c r="C642">
+        <v>25</v>
+      </c>
+      <c r="D642">
+        <v>31</v>
+      </c>
+      <c r="E642" t="str">
+        <f t="shared" si="124"/>
+        <v>08</v>
+      </c>
+      <c r="F642" t="str">
+        <f t="shared" si="125"/>
+        <v>03</v>
+      </c>
+      <c r="G642" t="str">
+        <f t="shared" si="126"/>
+        <v>2024</v>
+      </c>
+      <c r="H642" t="str">
+        <f t="shared" si="127"/>
+        <v>08/03/2024</v>
+      </c>
+    </row>
+    <row r="643" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A643" t="s">
+        <v>2</v>
+      </c>
+      <c r="B643">
+        <v>20240306</v>
+      </c>
+      <c r="C643">
+        <v>16</v>
+      </c>
+      <c r="D643">
+        <v>46</v>
+      </c>
+      <c r="E643" t="str">
+        <f t="shared" si="124"/>
+        <v>06</v>
+      </c>
+      <c r="F643" t="str">
+        <f t="shared" si="125"/>
+        <v>03</v>
+      </c>
+      <c r="G643" t="str">
+        <f t="shared" si="126"/>
+        <v>2024</v>
+      </c>
+      <c r="H643" t="str">
+        <f t="shared" si="127"/>
+        <v>06/03/2024</v>
+      </c>
+    </row>
+    <row r="644" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A644" t="s">
+        <v>2</v>
+      </c>
+      <c r="B644">
+        <v>20240305</v>
+      </c>
+      <c r="C644">
+        <v>13</v>
+      </c>
+      <c r="D644">
+        <v>30</v>
+      </c>
+      <c r="E644" t="str">
+        <f t="shared" si="124"/>
+        <v>05</v>
+      </c>
+      <c r="F644" t="str">
+        <f t="shared" si="125"/>
+        <v>03</v>
+      </c>
+      <c r="G644" t="str">
+        <f t="shared" si="126"/>
+        <v>2024</v>
+      </c>
+      <c r="H644" t="str">
+        <f t="shared" si="127"/>
+        <v>05/03/2024</v>
+      </c>
+    </row>
+    <row r="645" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A645" t="s">
+        <v>2</v>
+      </c>
+      <c r="B645">
+        <v>20240304</v>
+      </c>
+      <c r="C645">
+        <v>12</v>
+      </c>
+      <c r="D645">
+        <v>59</v>
+      </c>
+      <c r="E645" t="str">
+        <f t="shared" si="124"/>
+        <v>04</v>
+      </c>
+      <c r="F645" t="str">
+        <f t="shared" si="125"/>
+        <v>03</v>
+      </c>
+      <c r="G645" t="str">
+        <f t="shared" si="126"/>
+        <v>2024</v>
+      </c>
+      <c r="H645" t="str">
+        <f t="shared" si="127"/>
+        <v>04/03/2024</v>
+      </c>
+    </row>
+    <row r="646" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A646" t="s">
+        <v>2</v>
+      </c>
+      <c r="B646">
+        <v>20240307</v>
+      </c>
+      <c r="C646">
+        <v>12</v>
+      </c>
+      <c r="D646">
+        <v>43</v>
+      </c>
+      <c r="E646" t="str">
+        <f t="shared" si="124"/>
+        <v>07</v>
+      </c>
+      <c r="F646" t="str">
+        <f t="shared" si="125"/>
+        <v>03</v>
+      </c>
+      <c r="G646" t="str">
+        <f t="shared" si="126"/>
+        <v>2024</v>
+      </c>
+      <c r="H646" t="str">
+        <f t="shared" si="127"/>
+        <v>07/03/2024</v>
+      </c>
+    </row>
+    <row r="647" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A647" t="s">
+        <v>2</v>
+      </c>
+      <c r="B647">
+        <v>20240308</v>
+      </c>
+      <c r="C647">
+        <v>12</v>
+      </c>
+      <c r="D647">
+        <v>37</v>
+      </c>
+      <c r="E647" t="str">
+        <f t="shared" si="124"/>
+        <v>08</v>
+      </c>
+      <c r="F647" t="str">
+        <f t="shared" si="125"/>
+        <v>03</v>
+      </c>
+      <c r="G647" t="str">
+        <f t="shared" si="126"/>
+        <v>2024</v>
+      </c>
+      <c r="H647" t="str">
+        <f t="shared" si="127"/>
+        <v>08/03/2024</v>
+      </c>
+    </row>
+    <row r="648" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A648" t="s">
+        <v>2</v>
+      </c>
+      <c r="B648">
+        <v>20240310</v>
+      </c>
+      <c r="C648">
+        <v>10</v>
+      </c>
+      <c r="D648">
+        <v>41</v>
+      </c>
+      <c r="E648" t="str">
+        <f t="shared" si="124"/>
+        <v>10</v>
+      </c>
+      <c r="F648" t="str">
+        <f t="shared" si="125"/>
+        <v>03</v>
+      </c>
+      <c r="G648" t="str">
+        <f t="shared" si="126"/>
+        <v>2024</v>
+      </c>
+      <c r="H648" t="str">
+        <f t="shared" si="127"/>
+        <v>10/03/2024</v>
+      </c>
+    </row>
+    <row r="649" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A649" t="s">
+        <v>3</v>
+      </c>
+      <c r="B649">
+        <v>20240305</v>
+      </c>
+      <c r="C649">
+        <v>3</v>
+      </c>
+      <c r="D649">
+        <v>1</v>
+      </c>
+      <c r="E649" t="str">
+        <f t="shared" si="124"/>
+        <v>05</v>
+      </c>
+      <c r="F649" t="str">
+        <f t="shared" si="125"/>
+        <v>03</v>
+      </c>
+      <c r="G649" t="str">
+        <f t="shared" si="126"/>
+        <v>2024</v>
+      </c>
+      <c r="H649" t="str">
+        <f t="shared" si="127"/>
+        <v>05/03/2024</v>
+      </c>
+    </row>
+    <row r="650" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A650" t="s">
+        <v>3</v>
+      </c>
+      <c r="B650">
+        <v>20240307</v>
+      </c>
+      <c r="C650">
+        <v>2</v>
+      </c>
+      <c r="D650">
+        <v>1</v>
+      </c>
+      <c r="E650" t="str">
+        <f t="shared" si="124"/>
+        <v>07</v>
+      </c>
+      <c r="F650" t="str">
+        <f t="shared" si="125"/>
+        <v>03</v>
+      </c>
+      <c r="G650" t="str">
+        <f t="shared" si="126"/>
+        <v>2024</v>
+      </c>
+      <c r="H650" t="str">
+        <f t="shared" si="127"/>
+        <v>07/03/2024</v>
+      </c>
+    </row>
+    <row r="651" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A651" t="s">
+        <v>3</v>
+      </c>
+      <c r="B651">
+        <v>20240309</v>
+      </c>
+      <c r="C651">
+        <v>2</v>
+      </c>
+      <c r="D651">
+        <v>1</v>
+      </c>
+      <c r="E651" t="str">
+        <f t="shared" si="124"/>
+        <v>09</v>
+      </c>
+      <c r="F651" t="str">
+        <f t="shared" si="125"/>
+        <v>03</v>
+      </c>
+      <c r="G651" t="str">
+        <f t="shared" si="126"/>
+        <v>2024</v>
+      </c>
+      <c r="H651" t="str">
+        <f t="shared" si="127"/>
+        <v>09/03/2024</v>
+      </c>
+    </row>
+    <row r="652" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A652" t="s">
+        <v>4</v>
+      </c>
+      <c r="B652">
+        <v>20240309</v>
+      </c>
+      <c r="C652">
+        <v>2</v>
+      </c>
+      <c r="D652">
+        <v>3</v>
+      </c>
+      <c r="E652" t="str">
+        <f t="shared" si="124"/>
+        <v>09</v>
+      </c>
+      <c r="F652" t="str">
+        <f t="shared" si="125"/>
+        <v>03</v>
+      </c>
+      <c r="G652" t="str">
+        <f t="shared" si="126"/>
+        <v>2024</v>
+      </c>
+      <c r="H652" t="str">
+        <f t="shared" si="127"/>
+        <v>09/03/2024</v>
+      </c>
+    </row>
+    <row r="653" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A653" t="s">
+        <v>3</v>
+      </c>
+      <c r="B653">
+        <v>20240304</v>
+      </c>
+      <c r="C653">
+        <v>1</v>
+      </c>
+      <c r="D653">
+        <v>1</v>
+      </c>
+      <c r="E653" t="str">
+        <f t="shared" si="124"/>
+        <v>04</v>
+      </c>
+      <c r="F653" t="str">
+        <f t="shared" si="125"/>
+        <v>03</v>
+      </c>
+      <c r="G653" t="str">
+        <f t="shared" si="126"/>
+        <v>2024</v>
+      </c>
+      <c r="H653" t="str">
+        <f t="shared" si="127"/>
+        <v>04/03/2024</v>
+      </c>
+    </row>
+    <row r="654" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A654" t="s">
+        <v>3</v>
+      </c>
+      <c r="B654">
+        <v>20240306</v>
+      </c>
+      <c r="C654">
+        <v>1</v>
+      </c>
+      <c r="D654">
+        <v>1</v>
+      </c>
+      <c r="E654" t="str">
+        <f t="shared" si="124"/>
+        <v>06</v>
+      </c>
+      <c r="F654" t="str">
+        <f t="shared" si="125"/>
+        <v>03</v>
+      </c>
+      <c r="G654" t="str">
+        <f t="shared" si="126"/>
+        <v>2024</v>
+      </c>
+      <c r="H654" t="str">
+        <f t="shared" si="127"/>
+        <v>06/03/2024</v>
+      </c>
+    </row>
+    <row r="655" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A655" t="s">
+        <v>4</v>
+      </c>
+      <c r="B655">
+        <v>20240304</v>
+      </c>
+      <c r="C655">
+        <v>1</v>
+      </c>
+      <c r="D655">
+        <v>1</v>
+      </c>
+      <c r="E655" t="str">
+        <f t="shared" si="124"/>
+        <v>04</v>
+      </c>
+      <c r="F655" t="str">
+        <f t="shared" si="125"/>
+        <v>03</v>
+      </c>
+      <c r="G655" t="str">
+        <f t="shared" si="126"/>
+        <v>2024</v>
+      </c>
+      <c r="H655" t="str">
+        <f t="shared" si="127"/>
+        <v>04/03/2024</v>
+      </c>
+    </row>
+    <row r="656" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A656" t="s">
+        <v>4</v>
+      </c>
+      <c r="B656">
+        <v>20240305</v>
+      </c>
+      <c r="C656">
+        <v>1</v>
+      </c>
+      <c r="D656">
+        <v>1</v>
+      </c>
+      <c r="E656" t="str">
+        <f t="shared" si="124"/>
+        <v>05</v>
+      </c>
+      <c r="F656" t="str">
+        <f t="shared" si="125"/>
+        <v>03</v>
+      </c>
+      <c r="G656" t="str">
+        <f t="shared" si="126"/>
+        <v>2024</v>
+      </c>
+      <c r="H656" t="str">
+        <f t="shared" si="127"/>
+        <v>05/03/2024</v>
+      </c>
+    </row>
+    <row r="657" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A657" t="s">
+        <v>4</v>
+      </c>
+      <c r="B657">
+        <v>20240306</v>
+      </c>
+      <c r="C657">
+        <v>1</v>
+      </c>
+      <c r="D657">
+        <v>1</v>
+      </c>
+      <c r="E657" t="str">
+        <f t="shared" si="124"/>
+        <v>06</v>
+      </c>
+      <c r="F657" t="str">
+        <f t="shared" si="125"/>
+        <v>03</v>
+      </c>
+      <c r="G657" t="str">
+        <f t="shared" si="126"/>
+        <v>2024</v>
+      </c>
+      <c r="H657" t="str">
+        <f t="shared" si="127"/>
+        <v>06/03/2024</v>
+      </c>
+    </row>
+    <row r="658" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A658" t="s">
+        <v>4</v>
+      </c>
+      <c r="B658">
+        <v>20240307</v>
+      </c>
+      <c r="C658">
+        <v>1</v>
+      </c>
+      <c r="D658">
+        <v>1</v>
+      </c>
+      <c r="E658" t="str">
+        <f t="shared" si="124"/>
+        <v>07</v>
+      </c>
+      <c r="F658" t="str">
+        <f t="shared" si="125"/>
+        <v>03</v>
+      </c>
+      <c r="G658" t="str">
+        <f t="shared" si="126"/>
+        <v>2024</v>
+      </c>
+      <c r="H658" t="str">
+        <f t="shared" si="127"/>
+        <v>07/03/2024</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Arquivos/Como_acessa_data.xlsx
+++ b/Arquivos/Como_acessa_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b5dde4ea31a779cd/Documentos/Mestrado/Arquivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:40009_{83565463-BC6C-4944-A005-0E04596B1C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{702196E2-CB81-417F-8B0E-B7FAA5AF01A5}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:40009_{83565463-BC6C-4944-A005-0E04596B1C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41B988DB-DA22-47CB-BCF2-EE23AB49AB65}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="12">
   <si>
     <t>Data</t>
   </si>
@@ -913,10 +913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H658"/>
+  <dimension ref="A1:H784"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A626" workbookViewId="0">
-      <selection activeCell="A634" sqref="A634"/>
+    <sheetView tabSelected="1" topLeftCell="A766" workbookViewId="0">
+      <selection activeCell="A763" sqref="A763:H784"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20631,6 +20631,3786 @@
         <v>07/03/2024</v>
       </c>
     </row>
+    <row r="659" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A659" t="s">
+        <v>1</v>
+      </c>
+      <c r="B659">
+        <v>20240317</v>
+      </c>
+      <c r="C659">
+        <v>52</v>
+      </c>
+      <c r="D659">
+        <v>45</v>
+      </c>
+      <c r="E659" t="str">
+        <f t="shared" ref="E659:E679" si="128">RIGHT(B659,2)</f>
+        <v>17</v>
+      </c>
+      <c r="F659" t="str">
+        <f t="shared" ref="F659:F679" si="129">MID(B659,5,2)</f>
+        <v>03</v>
+      </c>
+      <c r="G659" t="str">
+        <f t="shared" ref="G659:G679" si="130">LEFT(B659,4)</f>
+        <v>2024</v>
+      </c>
+      <c r="H659" t="str">
+        <f t="shared" ref="H659:H679" si="131">_xlfn.CONCAT(E659,"/",F659,"/",G659)</f>
+        <v>17/03/2024</v>
+      </c>
+    </row>
+    <row r="660" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A660" t="s">
+        <v>1</v>
+      </c>
+      <c r="B660">
+        <v>20240316</v>
+      </c>
+      <c r="C660">
+        <v>40</v>
+      </c>
+      <c r="D660">
+        <v>35</v>
+      </c>
+      <c r="E660" t="str">
+        <f t="shared" si="128"/>
+        <v>16</v>
+      </c>
+      <c r="F660" t="str">
+        <f t="shared" si="129"/>
+        <v>03</v>
+      </c>
+      <c r="G660" t="str">
+        <f t="shared" si="130"/>
+        <v>2024</v>
+      </c>
+      <c r="H660" t="str">
+        <f t="shared" si="131"/>
+        <v>16/03/2024</v>
+      </c>
+    </row>
+    <row r="661" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A661" t="s">
+        <v>1</v>
+      </c>
+      <c r="B661">
+        <v>20240314</v>
+      </c>
+      <c r="C661">
+        <v>37</v>
+      </c>
+      <c r="D661">
+        <v>41</v>
+      </c>
+      <c r="E661" t="str">
+        <f t="shared" si="128"/>
+        <v>14</v>
+      </c>
+      <c r="F661" t="str">
+        <f t="shared" si="129"/>
+        <v>03</v>
+      </c>
+      <c r="G661" t="str">
+        <f t="shared" si="130"/>
+        <v>2024</v>
+      </c>
+      <c r="H661" t="str">
+        <f t="shared" si="131"/>
+        <v>14/03/2024</v>
+      </c>
+    </row>
+    <row r="662" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A662" t="s">
+        <v>1</v>
+      </c>
+      <c r="B662">
+        <v>20240313</v>
+      </c>
+      <c r="C662">
+        <v>32</v>
+      </c>
+      <c r="D662">
+        <v>42</v>
+      </c>
+      <c r="E662" t="str">
+        <f t="shared" si="128"/>
+        <v>13</v>
+      </c>
+      <c r="F662" t="str">
+        <f t="shared" si="129"/>
+        <v>03</v>
+      </c>
+      <c r="G662" t="str">
+        <f t="shared" si="130"/>
+        <v>2024</v>
+      </c>
+      <c r="H662" t="str">
+        <f t="shared" si="131"/>
+        <v>13/03/2024</v>
+      </c>
+    </row>
+    <row r="663" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A663" t="s">
+        <v>1</v>
+      </c>
+      <c r="B663">
+        <v>20240311</v>
+      </c>
+      <c r="C663">
+        <v>31</v>
+      </c>
+      <c r="D663">
+        <v>31</v>
+      </c>
+      <c r="E663" t="str">
+        <f t="shared" si="128"/>
+        <v>11</v>
+      </c>
+      <c r="F663" t="str">
+        <f t="shared" si="129"/>
+        <v>03</v>
+      </c>
+      <c r="G663" t="str">
+        <f t="shared" si="130"/>
+        <v>2024</v>
+      </c>
+      <c r="H663" t="str">
+        <f t="shared" si="131"/>
+        <v>11/03/2024</v>
+      </c>
+    </row>
+    <row r="664" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A664" t="s">
+        <v>1</v>
+      </c>
+      <c r="B664">
+        <v>20240315</v>
+      </c>
+      <c r="C664">
+        <v>30</v>
+      </c>
+      <c r="D664">
+        <v>30</v>
+      </c>
+      <c r="E664" t="str">
+        <f t="shared" si="128"/>
+        <v>15</v>
+      </c>
+      <c r="F664" t="str">
+        <f t="shared" si="129"/>
+        <v>03</v>
+      </c>
+      <c r="G664" t="str">
+        <f t="shared" si="130"/>
+        <v>2024</v>
+      </c>
+      <c r="H664" t="str">
+        <f t="shared" si="131"/>
+        <v>15/03/2024</v>
+      </c>
+    </row>
+    <row r="665" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A665" t="s">
+        <v>1</v>
+      </c>
+      <c r="B665">
+        <v>20240312</v>
+      </c>
+      <c r="C665">
+        <v>22</v>
+      </c>
+      <c r="D665">
+        <v>29</v>
+      </c>
+      <c r="E665" t="str">
+        <f t="shared" si="128"/>
+        <v>12</v>
+      </c>
+      <c r="F665" t="str">
+        <f t="shared" si="129"/>
+        <v>03</v>
+      </c>
+      <c r="G665" t="str">
+        <f t="shared" si="130"/>
+        <v>2024</v>
+      </c>
+      <c r="H665" t="str">
+        <f t="shared" si="131"/>
+        <v>12/03/2024</v>
+      </c>
+    </row>
+    <row r="666" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A666" t="s">
+        <v>2</v>
+      </c>
+      <c r="B666">
+        <v>20240314</v>
+      </c>
+      <c r="C666">
+        <v>13</v>
+      </c>
+      <c r="D666">
+        <v>38</v>
+      </c>
+      <c r="E666" t="str">
+        <f t="shared" si="128"/>
+        <v>14</v>
+      </c>
+      <c r="F666" t="str">
+        <f t="shared" si="129"/>
+        <v>03</v>
+      </c>
+      <c r="G666" t="str">
+        <f t="shared" si="130"/>
+        <v>2024</v>
+      </c>
+      <c r="H666" t="str">
+        <f t="shared" si="131"/>
+        <v>14/03/2024</v>
+      </c>
+    </row>
+    <row r="667" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A667" t="s">
+        <v>2</v>
+      </c>
+      <c r="B667">
+        <v>20240312</v>
+      </c>
+      <c r="C667">
+        <v>12</v>
+      </c>
+      <c r="D667">
+        <v>34</v>
+      </c>
+      <c r="E667" t="str">
+        <f t="shared" si="128"/>
+        <v>12</v>
+      </c>
+      <c r="F667" t="str">
+        <f t="shared" si="129"/>
+        <v>03</v>
+      </c>
+      <c r="G667" t="str">
+        <f t="shared" si="130"/>
+        <v>2024</v>
+      </c>
+      <c r="H667" t="str">
+        <f t="shared" si="131"/>
+        <v>12/03/2024</v>
+      </c>
+    </row>
+    <row r="668" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A668" t="s">
+        <v>2</v>
+      </c>
+      <c r="B668">
+        <v>20240316</v>
+      </c>
+      <c r="C668">
+        <v>11</v>
+      </c>
+      <c r="D668">
+        <v>27</v>
+      </c>
+      <c r="E668" t="str">
+        <f t="shared" si="128"/>
+        <v>16</v>
+      </c>
+      <c r="F668" t="str">
+        <f t="shared" si="129"/>
+        <v>03</v>
+      </c>
+      <c r="G668" t="str">
+        <f t="shared" si="130"/>
+        <v>2024</v>
+      </c>
+      <c r="H668" t="str">
+        <f t="shared" si="131"/>
+        <v>16/03/2024</v>
+      </c>
+    </row>
+    <row r="669" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A669" t="s">
+        <v>2</v>
+      </c>
+      <c r="B669">
+        <v>20240317</v>
+      </c>
+      <c r="C669">
+        <v>11</v>
+      </c>
+      <c r="D669">
+        <v>30</v>
+      </c>
+      <c r="E669" t="str">
+        <f t="shared" si="128"/>
+        <v>17</v>
+      </c>
+      <c r="F669" t="str">
+        <f t="shared" si="129"/>
+        <v>03</v>
+      </c>
+      <c r="G669" t="str">
+        <f t="shared" si="130"/>
+        <v>2024</v>
+      </c>
+      <c r="H669" t="str">
+        <f t="shared" si="131"/>
+        <v>17/03/2024</v>
+      </c>
+    </row>
+    <row r="670" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A670" t="s">
+        <v>2</v>
+      </c>
+      <c r="B670">
+        <v>20240311</v>
+      </c>
+      <c r="C670">
+        <v>10</v>
+      </c>
+      <c r="D670">
+        <v>34</v>
+      </c>
+      <c r="E670" t="str">
+        <f t="shared" si="128"/>
+        <v>11</v>
+      </c>
+      <c r="F670" t="str">
+        <f t="shared" si="129"/>
+        <v>03</v>
+      </c>
+      <c r="G670" t="str">
+        <f t="shared" si="130"/>
+        <v>2024</v>
+      </c>
+      <c r="H670" t="str">
+        <f t="shared" si="131"/>
+        <v>11/03/2024</v>
+      </c>
+    </row>
+    <row r="671" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A671" t="s">
+        <v>2</v>
+      </c>
+      <c r="B671">
+        <v>20240313</v>
+      </c>
+      <c r="C671">
+        <v>8</v>
+      </c>
+      <c r="D671">
+        <v>26</v>
+      </c>
+      <c r="E671" t="str">
+        <f t="shared" si="128"/>
+        <v>13</v>
+      </c>
+      <c r="F671" t="str">
+        <f t="shared" si="129"/>
+        <v>03</v>
+      </c>
+      <c r="G671" t="str">
+        <f t="shared" si="130"/>
+        <v>2024</v>
+      </c>
+      <c r="H671" t="str">
+        <f t="shared" si="131"/>
+        <v>13/03/2024</v>
+      </c>
+    </row>
+    <row r="672" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A672" t="s">
+        <v>2</v>
+      </c>
+      <c r="B672">
+        <v>20240315</v>
+      </c>
+      <c r="C672">
+        <v>8</v>
+      </c>
+      <c r="D672">
+        <v>34</v>
+      </c>
+      <c r="E672" t="str">
+        <f t="shared" si="128"/>
+        <v>15</v>
+      </c>
+      <c r="F672" t="str">
+        <f t="shared" si="129"/>
+        <v>03</v>
+      </c>
+      <c r="G672" t="str">
+        <f t="shared" si="130"/>
+        <v>2024</v>
+      </c>
+      <c r="H672" t="str">
+        <f t="shared" si="131"/>
+        <v>15/03/2024</v>
+      </c>
+    </row>
+    <row r="673" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A673" t="s">
+        <v>3</v>
+      </c>
+      <c r="B673">
+        <v>20240314</v>
+      </c>
+      <c r="C673">
+        <v>2</v>
+      </c>
+      <c r="D673">
+        <v>3</v>
+      </c>
+      <c r="E673" t="str">
+        <f t="shared" si="128"/>
+        <v>14</v>
+      </c>
+      <c r="F673" t="str">
+        <f t="shared" si="129"/>
+        <v>03</v>
+      </c>
+      <c r="G673" t="str">
+        <f t="shared" si="130"/>
+        <v>2024</v>
+      </c>
+      <c r="H673" t="str">
+        <f t="shared" si="131"/>
+        <v>14/03/2024</v>
+      </c>
+    </row>
+    <row r="674" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A674" t="s">
+        <v>3</v>
+      </c>
+      <c r="B674">
+        <v>20240311</v>
+      </c>
+      <c r="C674">
+        <v>1</v>
+      </c>
+      <c r="D674">
+        <v>0</v>
+      </c>
+      <c r="E674" t="str">
+        <f t="shared" si="128"/>
+        <v>11</v>
+      </c>
+      <c r="F674" t="str">
+        <f t="shared" si="129"/>
+        <v>03</v>
+      </c>
+      <c r="G674" t="str">
+        <f t="shared" si="130"/>
+        <v>2024</v>
+      </c>
+      <c r="H674" t="str">
+        <f t="shared" si="131"/>
+        <v>11/03/2024</v>
+      </c>
+    </row>
+    <row r="675" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A675" t="s">
+        <v>3</v>
+      </c>
+      <c r="B675">
+        <v>20240313</v>
+      </c>
+      <c r="C675">
+        <v>1</v>
+      </c>
+      <c r="D675">
+        <v>0</v>
+      </c>
+      <c r="E675" t="str">
+        <f t="shared" si="128"/>
+        <v>13</v>
+      </c>
+      <c r="F675" t="str">
+        <f t="shared" si="129"/>
+        <v>03</v>
+      </c>
+      <c r="G675" t="str">
+        <f t="shared" si="130"/>
+        <v>2024</v>
+      </c>
+      <c r="H675" t="str">
+        <f t="shared" si="131"/>
+        <v>13/03/2024</v>
+      </c>
+    </row>
+    <row r="676" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A676" t="s">
+        <v>4</v>
+      </c>
+      <c r="B676">
+        <v>20240315</v>
+      </c>
+      <c r="C676">
+        <v>1</v>
+      </c>
+      <c r="D676">
+        <v>1</v>
+      </c>
+      <c r="E676" t="str">
+        <f t="shared" si="128"/>
+        <v>15</v>
+      </c>
+      <c r="F676" t="str">
+        <f t="shared" si="129"/>
+        <v>03</v>
+      </c>
+      <c r="G676" t="str">
+        <f t="shared" si="130"/>
+        <v>2024</v>
+      </c>
+      <c r="H676" t="str">
+        <f t="shared" si="131"/>
+        <v>15/03/2024</v>
+      </c>
+    </row>
+    <row r="677" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A677" t="s">
+        <v>4</v>
+      </c>
+      <c r="B677">
+        <v>20240317</v>
+      </c>
+      <c r="C677">
+        <v>1</v>
+      </c>
+      <c r="D677">
+        <v>1</v>
+      </c>
+      <c r="E677" t="str">
+        <f t="shared" si="128"/>
+        <v>17</v>
+      </c>
+      <c r="F677" t="str">
+        <f t="shared" si="129"/>
+        <v>03</v>
+      </c>
+      <c r="G677" t="str">
+        <f t="shared" si="130"/>
+        <v>2024</v>
+      </c>
+      <c r="H677" t="str">
+        <f t="shared" si="131"/>
+        <v>17/03/2024</v>
+      </c>
+    </row>
+    <row r="678" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A678" t="s">
+        <v>4</v>
+      </c>
+      <c r="B678">
+        <v>20240313</v>
+      </c>
+      <c r="C678">
+        <v>0</v>
+      </c>
+      <c r="D678">
+        <v>1</v>
+      </c>
+      <c r="E678" t="str">
+        <f t="shared" si="128"/>
+        <v>13</v>
+      </c>
+      <c r="F678" t="str">
+        <f t="shared" si="129"/>
+        <v>03</v>
+      </c>
+      <c r="G678" t="str">
+        <f t="shared" si="130"/>
+        <v>2024</v>
+      </c>
+      <c r="H678" t="str">
+        <f t="shared" si="131"/>
+        <v>13/03/2024</v>
+      </c>
+    </row>
+    <row r="679" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A679" t="s">
+        <v>4</v>
+      </c>
+      <c r="B679">
+        <v>20240316</v>
+      </c>
+      <c r="C679">
+        <v>0</v>
+      </c>
+      <c r="D679">
+        <v>1</v>
+      </c>
+      <c r="E679" t="str">
+        <f t="shared" si="128"/>
+        <v>16</v>
+      </c>
+      <c r="F679" t="str">
+        <f t="shared" si="129"/>
+        <v>03</v>
+      </c>
+      <c r="G679" t="str">
+        <f t="shared" si="130"/>
+        <v>2024</v>
+      </c>
+      <c r="H679" t="str">
+        <f t="shared" si="131"/>
+        <v>16/03/2024</v>
+      </c>
+    </row>
+    <row r="680" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A680" t="s">
+        <v>1</v>
+      </c>
+      <c r="B680">
+        <v>20240318</v>
+      </c>
+      <c r="C680">
+        <v>49</v>
+      </c>
+      <c r="D680">
+        <v>54</v>
+      </c>
+      <c r="E680" t="str">
+        <f t="shared" ref="E680" si="132">RIGHT(B680,2)</f>
+        <v>18</v>
+      </c>
+      <c r="F680" t="str">
+        <f t="shared" ref="F680" si="133">MID(B680,5,2)</f>
+        <v>03</v>
+      </c>
+      <c r="G680" t="str">
+        <f t="shared" ref="G680" si="134">LEFT(B680,4)</f>
+        <v>2024</v>
+      </c>
+      <c r="H680" t="str">
+        <f t="shared" ref="H680" si="135">_xlfn.CONCAT(E680,"/",F680,"/",G680)</f>
+        <v>18/03/2024</v>
+      </c>
+    </row>
+    <row r="681" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A681" t="s">
+        <v>1</v>
+      </c>
+      <c r="B681">
+        <v>20240319</v>
+      </c>
+      <c r="C681">
+        <v>46</v>
+      </c>
+      <c r="D681">
+        <v>61</v>
+      </c>
+      <c r="E681" t="str">
+        <f t="shared" ref="E681:E698" si="136">RIGHT(B681,2)</f>
+        <v>19</v>
+      </c>
+      <c r="F681" t="str">
+        <f t="shared" ref="F681:F698" si="137">MID(B681,5,2)</f>
+        <v>03</v>
+      </c>
+      <c r="G681" t="str">
+        <f t="shared" ref="G681:G698" si="138">LEFT(B681,4)</f>
+        <v>2024</v>
+      </c>
+      <c r="H681" t="str">
+        <f t="shared" ref="H681:H698" si="139">_xlfn.CONCAT(E681,"/",F681,"/",G681)</f>
+        <v>19/03/2024</v>
+      </c>
+    </row>
+    <row r="682" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A682" t="s">
+        <v>1</v>
+      </c>
+      <c r="B682">
+        <v>20240320</v>
+      </c>
+      <c r="C682">
+        <v>40</v>
+      </c>
+      <c r="D682">
+        <v>53</v>
+      </c>
+      <c r="E682" t="str">
+        <f t="shared" si="136"/>
+        <v>20</v>
+      </c>
+      <c r="F682" t="str">
+        <f t="shared" si="137"/>
+        <v>03</v>
+      </c>
+      <c r="G682" t="str">
+        <f t="shared" si="138"/>
+        <v>2024</v>
+      </c>
+      <c r="H682" t="str">
+        <f t="shared" si="139"/>
+        <v>20/03/2024</v>
+      </c>
+    </row>
+    <row r="683" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A683" t="s">
+        <v>1</v>
+      </c>
+      <c r="B683">
+        <v>20240324</v>
+      </c>
+      <c r="C683">
+        <v>38</v>
+      </c>
+      <c r="D683">
+        <v>39</v>
+      </c>
+      <c r="E683" t="str">
+        <f t="shared" si="136"/>
+        <v>24</v>
+      </c>
+      <c r="F683" t="str">
+        <f t="shared" si="137"/>
+        <v>03</v>
+      </c>
+      <c r="G683" t="str">
+        <f t="shared" si="138"/>
+        <v>2024</v>
+      </c>
+      <c r="H683" t="str">
+        <f t="shared" si="139"/>
+        <v>24/03/2024</v>
+      </c>
+    </row>
+    <row r="684" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A684" t="s">
+        <v>1</v>
+      </c>
+      <c r="B684">
+        <v>20240323</v>
+      </c>
+      <c r="C684">
+        <v>34</v>
+      </c>
+      <c r="D684">
+        <v>30</v>
+      </c>
+      <c r="E684" t="str">
+        <f t="shared" si="136"/>
+        <v>23</v>
+      </c>
+      <c r="F684" t="str">
+        <f t="shared" si="137"/>
+        <v>03</v>
+      </c>
+      <c r="G684" t="str">
+        <f t="shared" si="138"/>
+        <v>2024</v>
+      </c>
+      <c r="H684" t="str">
+        <f t="shared" si="139"/>
+        <v>23/03/2024</v>
+      </c>
+    </row>
+    <row r="685" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A685" t="s">
+        <v>1</v>
+      </c>
+      <c r="B685">
+        <v>20240322</v>
+      </c>
+      <c r="C685">
+        <v>31</v>
+      </c>
+      <c r="D685">
+        <v>33</v>
+      </c>
+      <c r="E685" t="str">
+        <f t="shared" si="136"/>
+        <v>22</v>
+      </c>
+      <c r="F685" t="str">
+        <f t="shared" si="137"/>
+        <v>03</v>
+      </c>
+      <c r="G685" t="str">
+        <f t="shared" si="138"/>
+        <v>2024</v>
+      </c>
+      <c r="H685" t="str">
+        <f t="shared" si="139"/>
+        <v>22/03/2024</v>
+      </c>
+    </row>
+    <row r="686" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A686" t="s">
+        <v>1</v>
+      </c>
+      <c r="B686">
+        <v>20240321</v>
+      </c>
+      <c r="C686">
+        <v>24</v>
+      </c>
+      <c r="D686">
+        <v>32</v>
+      </c>
+      <c r="E686" t="str">
+        <f t="shared" si="136"/>
+        <v>21</v>
+      </c>
+      <c r="F686" t="str">
+        <f t="shared" si="137"/>
+        <v>03</v>
+      </c>
+      <c r="G686" t="str">
+        <f t="shared" si="138"/>
+        <v>2024</v>
+      </c>
+      <c r="H686" t="str">
+        <f t="shared" si="139"/>
+        <v>21/03/2024</v>
+      </c>
+    </row>
+    <row r="687" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A687" t="s">
+        <v>2</v>
+      </c>
+      <c r="B687">
+        <v>20240318</v>
+      </c>
+      <c r="C687">
+        <v>22</v>
+      </c>
+      <c r="D687">
+        <v>64</v>
+      </c>
+      <c r="E687" t="str">
+        <f t="shared" si="136"/>
+        <v>18</v>
+      </c>
+      <c r="F687" t="str">
+        <f t="shared" si="137"/>
+        <v>03</v>
+      </c>
+      <c r="G687" t="str">
+        <f t="shared" si="138"/>
+        <v>2024</v>
+      </c>
+      <c r="H687" t="str">
+        <f t="shared" si="139"/>
+        <v>18/03/2024</v>
+      </c>
+    </row>
+    <row r="688" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A688" t="s">
+        <v>2</v>
+      </c>
+      <c r="B688">
+        <v>20240319</v>
+      </c>
+      <c r="C688">
+        <v>15</v>
+      </c>
+      <c r="D688">
+        <v>68</v>
+      </c>
+      <c r="E688" t="str">
+        <f t="shared" si="136"/>
+        <v>19</v>
+      </c>
+      <c r="F688" t="str">
+        <f t="shared" si="137"/>
+        <v>03</v>
+      </c>
+      <c r="G688" t="str">
+        <f t="shared" si="138"/>
+        <v>2024</v>
+      </c>
+      <c r="H688" t="str">
+        <f t="shared" si="139"/>
+        <v>19/03/2024</v>
+      </c>
+    </row>
+    <row r="689" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A689" t="s">
+        <v>2</v>
+      </c>
+      <c r="B689">
+        <v>20240320</v>
+      </c>
+      <c r="C689">
+        <v>11</v>
+      </c>
+      <c r="D689">
+        <v>36</v>
+      </c>
+      <c r="E689" t="str">
+        <f t="shared" si="136"/>
+        <v>20</v>
+      </c>
+      <c r="F689" t="str">
+        <f t="shared" si="137"/>
+        <v>03</v>
+      </c>
+      <c r="G689" t="str">
+        <f t="shared" si="138"/>
+        <v>2024</v>
+      </c>
+      <c r="H689" t="str">
+        <f t="shared" si="139"/>
+        <v>20/03/2024</v>
+      </c>
+    </row>
+    <row r="690" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A690" t="s">
+        <v>2</v>
+      </c>
+      <c r="B690">
+        <v>20240322</v>
+      </c>
+      <c r="C690">
+        <v>10</v>
+      </c>
+      <c r="D690">
+        <v>34</v>
+      </c>
+      <c r="E690" t="str">
+        <f t="shared" si="136"/>
+        <v>22</v>
+      </c>
+      <c r="F690" t="str">
+        <f t="shared" si="137"/>
+        <v>03</v>
+      </c>
+      <c r="G690" t="str">
+        <f t="shared" si="138"/>
+        <v>2024</v>
+      </c>
+      <c r="H690" t="str">
+        <f t="shared" si="139"/>
+        <v>22/03/2024</v>
+      </c>
+    </row>
+    <row r="691" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A691" t="s">
+        <v>2</v>
+      </c>
+      <c r="B691">
+        <v>20240324</v>
+      </c>
+      <c r="C691">
+        <v>6</v>
+      </c>
+      <c r="D691">
+        <v>19</v>
+      </c>
+      <c r="E691" t="str">
+        <f t="shared" si="136"/>
+        <v>24</v>
+      </c>
+      <c r="F691" t="str">
+        <f t="shared" si="137"/>
+        <v>03</v>
+      </c>
+      <c r="G691" t="str">
+        <f t="shared" si="138"/>
+        <v>2024</v>
+      </c>
+      <c r="H691" t="str">
+        <f t="shared" si="139"/>
+        <v>24/03/2024</v>
+      </c>
+    </row>
+    <row r="692" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A692" t="s">
+        <v>2</v>
+      </c>
+      <c r="B692">
+        <v>20240321</v>
+      </c>
+      <c r="C692">
+        <v>4</v>
+      </c>
+      <c r="D692">
+        <v>23</v>
+      </c>
+      <c r="E692" t="str">
+        <f t="shared" si="136"/>
+        <v>21</v>
+      </c>
+      <c r="F692" t="str">
+        <f t="shared" si="137"/>
+        <v>03</v>
+      </c>
+      <c r="G692" t="str">
+        <f t="shared" si="138"/>
+        <v>2024</v>
+      </c>
+      <c r="H692" t="str">
+        <f t="shared" si="139"/>
+        <v>21/03/2024</v>
+      </c>
+    </row>
+    <row r="693" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A693" t="s">
+        <v>2</v>
+      </c>
+      <c r="B693">
+        <v>20240323</v>
+      </c>
+      <c r="C693">
+        <v>4</v>
+      </c>
+      <c r="D693">
+        <v>26</v>
+      </c>
+      <c r="E693" t="str">
+        <f t="shared" si="136"/>
+        <v>23</v>
+      </c>
+      <c r="F693" t="str">
+        <f t="shared" si="137"/>
+        <v>03</v>
+      </c>
+      <c r="G693" t="str">
+        <f t="shared" si="138"/>
+        <v>2024</v>
+      </c>
+      <c r="H693" t="str">
+        <f t="shared" si="139"/>
+        <v>23/03/2024</v>
+      </c>
+    </row>
+    <row r="694" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A694" t="s">
+        <v>4</v>
+      </c>
+      <c r="B694">
+        <v>20240320</v>
+      </c>
+      <c r="C694">
+        <v>2</v>
+      </c>
+      <c r="D694">
+        <v>2</v>
+      </c>
+      <c r="E694" t="str">
+        <f t="shared" si="136"/>
+        <v>20</v>
+      </c>
+      <c r="F694" t="str">
+        <f t="shared" si="137"/>
+        <v>03</v>
+      </c>
+      <c r="G694" t="str">
+        <f t="shared" si="138"/>
+        <v>2024</v>
+      </c>
+      <c r="H694" t="str">
+        <f t="shared" si="139"/>
+        <v>20/03/2024</v>
+      </c>
+    </row>
+    <row r="695" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A695" t="s">
+        <v>4</v>
+      </c>
+      <c r="B695">
+        <v>20240318</v>
+      </c>
+      <c r="C695">
+        <v>1</v>
+      </c>
+      <c r="D695">
+        <v>2</v>
+      </c>
+      <c r="E695" t="str">
+        <f t="shared" si="136"/>
+        <v>18</v>
+      </c>
+      <c r="F695" t="str">
+        <f t="shared" si="137"/>
+        <v>03</v>
+      </c>
+      <c r="G695" t="str">
+        <f t="shared" si="138"/>
+        <v>2024</v>
+      </c>
+      <c r="H695" t="str">
+        <f t="shared" si="139"/>
+        <v>18/03/2024</v>
+      </c>
+    </row>
+    <row r="696" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A696" t="s">
+        <v>4</v>
+      </c>
+      <c r="B696">
+        <v>20240321</v>
+      </c>
+      <c r="C696">
+        <v>1</v>
+      </c>
+      <c r="D696">
+        <v>0</v>
+      </c>
+      <c r="E696" t="str">
+        <f t="shared" si="136"/>
+        <v>21</v>
+      </c>
+      <c r="F696" t="str">
+        <f t="shared" si="137"/>
+        <v>03</v>
+      </c>
+      <c r="G696" t="str">
+        <f t="shared" si="138"/>
+        <v>2024</v>
+      </c>
+      <c r="H696" t="str">
+        <f t="shared" si="139"/>
+        <v>21/03/2024</v>
+      </c>
+    </row>
+    <row r="697" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A697" t="s">
+        <v>4</v>
+      </c>
+      <c r="B697">
+        <v>20240323</v>
+      </c>
+      <c r="C697">
+        <v>1</v>
+      </c>
+      <c r="D697">
+        <v>2</v>
+      </c>
+      <c r="E697" t="str">
+        <f t="shared" si="136"/>
+        <v>23</v>
+      </c>
+      <c r="F697" t="str">
+        <f t="shared" si="137"/>
+        <v>03</v>
+      </c>
+      <c r="G697" t="str">
+        <f t="shared" si="138"/>
+        <v>2024</v>
+      </c>
+      <c r="H697" t="str">
+        <f t="shared" si="139"/>
+        <v>23/03/2024</v>
+      </c>
+    </row>
+    <row r="698" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A698" t="s">
+        <v>3</v>
+      </c>
+      <c r="B698">
+        <v>20240324</v>
+      </c>
+      <c r="C698">
+        <v>0</v>
+      </c>
+      <c r="D698">
+        <v>1</v>
+      </c>
+      <c r="E698" t="str">
+        <f t="shared" si="136"/>
+        <v>24</v>
+      </c>
+      <c r="F698" t="str">
+        <f t="shared" si="137"/>
+        <v>03</v>
+      </c>
+      <c r="G698" t="str">
+        <f t="shared" si="138"/>
+        <v>2024</v>
+      </c>
+      <c r="H698" t="str">
+        <f t="shared" si="139"/>
+        <v>24/03/2024</v>
+      </c>
+    </row>
+    <row r="699" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A699" t="s">
+        <v>1</v>
+      </c>
+      <c r="B699">
+        <v>20240327</v>
+      </c>
+      <c r="C699">
+        <v>40</v>
+      </c>
+      <c r="D699">
+        <v>57</v>
+      </c>
+      <c r="E699" t="str">
+        <f t="shared" ref="E699:E718" si="140">RIGHT(B699,2)</f>
+        <v>27</v>
+      </c>
+      <c r="F699" t="str">
+        <f t="shared" ref="F699:F718" si="141">MID(B699,5,2)</f>
+        <v>03</v>
+      </c>
+      <c r="G699" t="str">
+        <f t="shared" ref="G699:G718" si="142">LEFT(B699,4)</f>
+        <v>2024</v>
+      </c>
+      <c r="H699" t="str">
+        <f t="shared" ref="H699:H718" si="143">_xlfn.CONCAT(E699,"/",F699,"/",G699)</f>
+        <v>27/03/2024</v>
+      </c>
+    </row>
+    <row r="700" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A700" t="s">
+        <v>1</v>
+      </c>
+      <c r="B700">
+        <v>20240329</v>
+      </c>
+      <c r="C700">
+        <v>40</v>
+      </c>
+      <c r="D700">
+        <v>51</v>
+      </c>
+      <c r="E700" t="str">
+        <f t="shared" si="140"/>
+        <v>29</v>
+      </c>
+      <c r="F700" t="str">
+        <f t="shared" si="141"/>
+        <v>03</v>
+      </c>
+      <c r="G700" t="str">
+        <f t="shared" si="142"/>
+        <v>2024</v>
+      </c>
+      <c r="H700" t="str">
+        <f t="shared" si="143"/>
+        <v>29/03/2024</v>
+      </c>
+    </row>
+    <row r="701" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A701" t="s">
+        <v>1</v>
+      </c>
+      <c r="B701">
+        <v>20240328</v>
+      </c>
+      <c r="C701">
+        <v>33</v>
+      </c>
+      <c r="D701">
+        <v>46</v>
+      </c>
+      <c r="E701" t="str">
+        <f t="shared" si="140"/>
+        <v>28</v>
+      </c>
+      <c r="F701" t="str">
+        <f t="shared" si="141"/>
+        <v>03</v>
+      </c>
+      <c r="G701" t="str">
+        <f t="shared" si="142"/>
+        <v>2024</v>
+      </c>
+      <c r="H701" t="str">
+        <f t="shared" si="143"/>
+        <v>28/03/2024</v>
+      </c>
+    </row>
+    <row r="702" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A702" t="s">
+        <v>1</v>
+      </c>
+      <c r="B702">
+        <v>20240331</v>
+      </c>
+      <c r="C702">
+        <v>31</v>
+      </c>
+      <c r="D702">
+        <v>39</v>
+      </c>
+      <c r="E702" t="str">
+        <f t="shared" si="140"/>
+        <v>31</v>
+      </c>
+      <c r="F702" t="str">
+        <f t="shared" si="141"/>
+        <v>03</v>
+      </c>
+      <c r="G702" t="str">
+        <f t="shared" si="142"/>
+        <v>2024</v>
+      </c>
+      <c r="H702" t="str">
+        <f t="shared" si="143"/>
+        <v>31/03/2024</v>
+      </c>
+    </row>
+    <row r="703" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A703" t="s">
+        <v>1</v>
+      </c>
+      <c r="B703">
+        <v>20240330</v>
+      </c>
+      <c r="C703">
+        <v>30</v>
+      </c>
+      <c r="D703">
+        <v>38</v>
+      </c>
+      <c r="E703" t="str">
+        <f t="shared" si="140"/>
+        <v>30</v>
+      </c>
+      <c r="F703" t="str">
+        <f t="shared" si="141"/>
+        <v>03</v>
+      </c>
+      <c r="G703" t="str">
+        <f t="shared" si="142"/>
+        <v>2024</v>
+      </c>
+      <c r="H703" t="str">
+        <f t="shared" si="143"/>
+        <v>30/03/2024</v>
+      </c>
+    </row>
+    <row r="704" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A704" t="s">
+        <v>1</v>
+      </c>
+      <c r="B704">
+        <v>20240325</v>
+      </c>
+      <c r="C704">
+        <v>25</v>
+      </c>
+      <c r="D704">
+        <v>34</v>
+      </c>
+      <c r="E704" t="str">
+        <f t="shared" si="140"/>
+        <v>25</v>
+      </c>
+      <c r="F704" t="str">
+        <f t="shared" si="141"/>
+        <v>03</v>
+      </c>
+      <c r="G704" t="str">
+        <f t="shared" si="142"/>
+        <v>2024</v>
+      </c>
+      <c r="H704" t="str">
+        <f t="shared" si="143"/>
+        <v>25/03/2024</v>
+      </c>
+    </row>
+    <row r="705" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A705" t="s">
+        <v>1</v>
+      </c>
+      <c r="B705">
+        <v>20240326</v>
+      </c>
+      <c r="C705">
+        <v>21</v>
+      </c>
+      <c r="D705">
+        <v>24</v>
+      </c>
+      <c r="E705" t="str">
+        <f t="shared" si="140"/>
+        <v>26</v>
+      </c>
+      <c r="F705" t="str">
+        <f t="shared" si="141"/>
+        <v>03</v>
+      </c>
+      <c r="G705" t="str">
+        <f t="shared" si="142"/>
+        <v>2024</v>
+      </c>
+      <c r="H705" t="str">
+        <f t="shared" si="143"/>
+        <v>26/03/2024</v>
+      </c>
+    </row>
+    <row r="706" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A706" t="s">
+        <v>2</v>
+      </c>
+      <c r="B706">
+        <v>20240328</v>
+      </c>
+      <c r="C706">
+        <v>15</v>
+      </c>
+      <c r="D706">
+        <v>48</v>
+      </c>
+      <c r="E706" t="str">
+        <f t="shared" si="140"/>
+        <v>28</v>
+      </c>
+      <c r="F706" t="str">
+        <f t="shared" si="141"/>
+        <v>03</v>
+      </c>
+      <c r="G706" t="str">
+        <f t="shared" si="142"/>
+        <v>2024</v>
+      </c>
+      <c r="H706" t="str">
+        <f t="shared" si="143"/>
+        <v>28/03/2024</v>
+      </c>
+    </row>
+    <row r="707" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A707" t="s">
+        <v>2</v>
+      </c>
+      <c r="B707">
+        <v>20240330</v>
+      </c>
+      <c r="C707">
+        <v>12</v>
+      </c>
+      <c r="D707">
+        <v>26</v>
+      </c>
+      <c r="E707" t="str">
+        <f t="shared" si="140"/>
+        <v>30</v>
+      </c>
+      <c r="F707" t="str">
+        <f t="shared" si="141"/>
+        <v>03</v>
+      </c>
+      <c r="G707" t="str">
+        <f t="shared" si="142"/>
+        <v>2024</v>
+      </c>
+      <c r="H707" t="str">
+        <f t="shared" si="143"/>
+        <v>30/03/2024</v>
+      </c>
+    </row>
+    <row r="708" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A708" t="s">
+        <v>2</v>
+      </c>
+      <c r="B708">
+        <v>20240327</v>
+      </c>
+      <c r="C708">
+        <v>11</v>
+      </c>
+      <c r="D708">
+        <v>35</v>
+      </c>
+      <c r="E708" t="str">
+        <f t="shared" si="140"/>
+        <v>27</v>
+      </c>
+      <c r="F708" t="str">
+        <f t="shared" si="141"/>
+        <v>03</v>
+      </c>
+      <c r="G708" t="str">
+        <f t="shared" si="142"/>
+        <v>2024</v>
+      </c>
+      <c r="H708" t="str">
+        <f t="shared" si="143"/>
+        <v>27/03/2024</v>
+      </c>
+    </row>
+    <row r="709" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A709" t="s">
+        <v>2</v>
+      </c>
+      <c r="B709">
+        <v>20240331</v>
+      </c>
+      <c r="C709">
+        <v>10</v>
+      </c>
+      <c r="D709">
+        <v>37</v>
+      </c>
+      <c r="E709" t="str">
+        <f t="shared" si="140"/>
+        <v>31</v>
+      </c>
+      <c r="F709" t="str">
+        <f t="shared" si="141"/>
+        <v>03</v>
+      </c>
+      <c r="G709" t="str">
+        <f t="shared" si="142"/>
+        <v>2024</v>
+      </c>
+      <c r="H709" t="str">
+        <f t="shared" si="143"/>
+        <v>31/03/2024</v>
+      </c>
+    </row>
+    <row r="710" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A710" t="s">
+        <v>2</v>
+      </c>
+      <c r="B710">
+        <v>20240329</v>
+      </c>
+      <c r="C710">
+        <v>9</v>
+      </c>
+      <c r="D710">
+        <v>35</v>
+      </c>
+      <c r="E710" t="str">
+        <f t="shared" si="140"/>
+        <v>29</v>
+      </c>
+      <c r="F710" t="str">
+        <f t="shared" si="141"/>
+        <v>03</v>
+      </c>
+      <c r="G710" t="str">
+        <f t="shared" si="142"/>
+        <v>2024</v>
+      </c>
+      <c r="H710" t="str">
+        <f t="shared" si="143"/>
+        <v>29/03/2024</v>
+      </c>
+    </row>
+    <row r="711" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A711" t="s">
+        <v>2</v>
+      </c>
+      <c r="B711">
+        <v>20240325</v>
+      </c>
+      <c r="C711">
+        <v>8</v>
+      </c>
+      <c r="D711">
+        <v>26</v>
+      </c>
+      <c r="E711" t="str">
+        <f t="shared" si="140"/>
+        <v>25</v>
+      </c>
+      <c r="F711" t="str">
+        <f t="shared" si="141"/>
+        <v>03</v>
+      </c>
+      <c r="G711" t="str">
+        <f t="shared" si="142"/>
+        <v>2024</v>
+      </c>
+      <c r="H711" t="str">
+        <f t="shared" si="143"/>
+        <v>25/03/2024</v>
+      </c>
+    </row>
+    <row r="712" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A712" t="s">
+        <v>2</v>
+      </c>
+      <c r="B712">
+        <v>20240326</v>
+      </c>
+      <c r="C712">
+        <v>6</v>
+      </c>
+      <c r="D712">
+        <v>25</v>
+      </c>
+      <c r="E712" t="str">
+        <f t="shared" si="140"/>
+        <v>26</v>
+      </c>
+      <c r="F712" t="str">
+        <f t="shared" si="141"/>
+        <v>03</v>
+      </c>
+      <c r="G712" t="str">
+        <f t="shared" si="142"/>
+        <v>2024</v>
+      </c>
+      <c r="H712" t="str">
+        <f t="shared" si="143"/>
+        <v>26/03/2024</v>
+      </c>
+    </row>
+    <row r="713" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A713" t="s">
+        <v>4</v>
+      </c>
+      <c r="B713">
+        <v>20240331</v>
+      </c>
+      <c r="C713">
+        <v>5</v>
+      </c>
+      <c r="D713">
+        <v>3</v>
+      </c>
+      <c r="E713" t="str">
+        <f t="shared" si="140"/>
+        <v>31</v>
+      </c>
+      <c r="F713" t="str">
+        <f t="shared" si="141"/>
+        <v>03</v>
+      </c>
+      <c r="G713" t="str">
+        <f t="shared" si="142"/>
+        <v>2024</v>
+      </c>
+      <c r="H713" t="str">
+        <f t="shared" si="143"/>
+        <v>31/03/2024</v>
+      </c>
+    </row>
+    <row r="714" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A714" t="s">
+        <v>4</v>
+      </c>
+      <c r="B714">
+        <v>20240329</v>
+      </c>
+      <c r="C714">
+        <v>2</v>
+      </c>
+      <c r="D714">
+        <v>1</v>
+      </c>
+      <c r="E714" t="str">
+        <f t="shared" si="140"/>
+        <v>29</v>
+      </c>
+      <c r="F714" t="str">
+        <f t="shared" si="141"/>
+        <v>03</v>
+      </c>
+      <c r="G714" t="str">
+        <f t="shared" si="142"/>
+        <v>2024</v>
+      </c>
+      <c r="H714" t="str">
+        <f t="shared" si="143"/>
+        <v>29/03/2024</v>
+      </c>
+    </row>
+    <row r="715" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A715" t="s">
+        <v>4</v>
+      </c>
+      <c r="B715">
+        <v>20240330</v>
+      </c>
+      <c r="C715">
+        <v>2</v>
+      </c>
+      <c r="D715">
+        <v>2</v>
+      </c>
+      <c r="E715" t="str">
+        <f t="shared" si="140"/>
+        <v>30</v>
+      </c>
+      <c r="F715" t="str">
+        <f t="shared" si="141"/>
+        <v>03</v>
+      </c>
+      <c r="G715" t="str">
+        <f t="shared" si="142"/>
+        <v>2024</v>
+      </c>
+      <c r="H715" t="str">
+        <f t="shared" si="143"/>
+        <v>30/03/2024</v>
+      </c>
+    </row>
+    <row r="716" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A716" t="s">
+        <v>3</v>
+      </c>
+      <c r="B716">
+        <v>20240329</v>
+      </c>
+      <c r="C716">
+        <v>1</v>
+      </c>
+      <c r="D716">
+        <v>0</v>
+      </c>
+      <c r="E716" t="str">
+        <f t="shared" si="140"/>
+        <v>29</v>
+      </c>
+      <c r="F716" t="str">
+        <f t="shared" si="141"/>
+        <v>03</v>
+      </c>
+      <c r="G716" t="str">
+        <f t="shared" si="142"/>
+        <v>2024</v>
+      </c>
+      <c r="H716" t="str">
+        <f t="shared" si="143"/>
+        <v>29/03/2024</v>
+      </c>
+    </row>
+    <row r="717" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A717" t="s">
+        <v>4</v>
+      </c>
+      <c r="B717">
+        <v>20240328</v>
+      </c>
+      <c r="C717">
+        <v>1</v>
+      </c>
+      <c r="D717">
+        <v>1</v>
+      </c>
+      <c r="E717" t="str">
+        <f t="shared" si="140"/>
+        <v>28</v>
+      </c>
+      <c r="F717" t="str">
+        <f t="shared" si="141"/>
+        <v>03</v>
+      </c>
+      <c r="G717" t="str">
+        <f t="shared" si="142"/>
+        <v>2024</v>
+      </c>
+      <c r="H717" t="str">
+        <f t="shared" si="143"/>
+        <v>28/03/2024</v>
+      </c>
+    </row>
+    <row r="718" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A718" t="s">
+        <v>4</v>
+      </c>
+      <c r="B718">
+        <v>20240325</v>
+      </c>
+      <c r="C718">
+        <v>0</v>
+      </c>
+      <c r="D718">
+        <v>1</v>
+      </c>
+      <c r="E718" t="str">
+        <f t="shared" si="140"/>
+        <v>25</v>
+      </c>
+      <c r="F718" t="str">
+        <f t="shared" si="141"/>
+        <v>03</v>
+      </c>
+      <c r="G718" t="str">
+        <f t="shared" si="142"/>
+        <v>2024</v>
+      </c>
+      <c r="H718" t="str">
+        <f t="shared" si="143"/>
+        <v>25/03/2024</v>
+      </c>
+    </row>
+    <row r="719" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A719" t="s">
+        <v>1</v>
+      </c>
+      <c r="B719">
+        <v>20240403</v>
+      </c>
+      <c r="C719">
+        <v>62</v>
+      </c>
+      <c r="D719">
+        <v>69</v>
+      </c>
+      <c r="E719" t="str">
+        <f t="shared" ref="E719:E740" si="144">RIGHT(B719,2)</f>
+        <v>03</v>
+      </c>
+      <c r="F719" t="str">
+        <f t="shared" ref="F719:F740" si="145">MID(B719,5,2)</f>
+        <v>04</v>
+      </c>
+      <c r="G719" t="str">
+        <f t="shared" ref="G719:G740" si="146">LEFT(B719,4)</f>
+        <v>2024</v>
+      </c>
+      <c r="H719" t="str">
+        <f t="shared" ref="H719:H740" si="147">_xlfn.CONCAT(E719,"/",F719,"/",G719)</f>
+        <v>03/04/2024</v>
+      </c>
+    </row>
+    <row r="720" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A720" t="s">
+        <v>1</v>
+      </c>
+      <c r="B720">
+        <v>20240402</v>
+      </c>
+      <c r="C720">
+        <v>36</v>
+      </c>
+      <c r="D720">
+        <v>32</v>
+      </c>
+      <c r="E720" t="str">
+        <f t="shared" si="144"/>
+        <v>02</v>
+      </c>
+      <c r="F720" t="str">
+        <f t="shared" si="145"/>
+        <v>04</v>
+      </c>
+      <c r="G720" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+      <c r="H720" t="str">
+        <f t="shared" si="147"/>
+        <v>02/04/2024</v>
+      </c>
+    </row>
+    <row r="721" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A721" t="s">
+        <v>1</v>
+      </c>
+      <c r="B721">
+        <v>20240404</v>
+      </c>
+      <c r="C721">
+        <v>34</v>
+      </c>
+      <c r="D721">
+        <v>31</v>
+      </c>
+      <c r="E721" t="str">
+        <f t="shared" si="144"/>
+        <v>04</v>
+      </c>
+      <c r="F721" t="str">
+        <f t="shared" si="145"/>
+        <v>04</v>
+      </c>
+      <c r="G721" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+      <c r="H721" t="str">
+        <f t="shared" si="147"/>
+        <v>04/04/2024</v>
+      </c>
+    </row>
+    <row r="722" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A722" t="s">
+        <v>1</v>
+      </c>
+      <c r="B722">
+        <v>20240405</v>
+      </c>
+      <c r="C722">
+        <v>28</v>
+      </c>
+      <c r="D722">
+        <v>33</v>
+      </c>
+      <c r="E722" t="str">
+        <f t="shared" si="144"/>
+        <v>05</v>
+      </c>
+      <c r="F722" t="str">
+        <f t="shared" si="145"/>
+        <v>04</v>
+      </c>
+      <c r="G722" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+      <c r="H722" t="str">
+        <f t="shared" si="147"/>
+        <v>05/04/2024</v>
+      </c>
+    </row>
+    <row r="723" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A723" t="s">
+        <v>1</v>
+      </c>
+      <c r="B723">
+        <v>20240407</v>
+      </c>
+      <c r="C723">
+        <v>28</v>
+      </c>
+      <c r="D723">
+        <v>34</v>
+      </c>
+      <c r="E723" t="str">
+        <f t="shared" si="144"/>
+        <v>07</v>
+      </c>
+      <c r="F723" t="str">
+        <f t="shared" si="145"/>
+        <v>04</v>
+      </c>
+      <c r="G723" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+      <c r="H723" t="str">
+        <f t="shared" si="147"/>
+        <v>07/04/2024</v>
+      </c>
+    </row>
+    <row r="724" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A724" t="s">
+        <v>1</v>
+      </c>
+      <c r="B724">
+        <v>20240401</v>
+      </c>
+      <c r="C724">
+        <v>24</v>
+      </c>
+      <c r="D724">
+        <v>26</v>
+      </c>
+      <c r="E724" t="str">
+        <f t="shared" si="144"/>
+        <v>01</v>
+      </c>
+      <c r="F724" t="str">
+        <f t="shared" si="145"/>
+        <v>04</v>
+      </c>
+      <c r="G724" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+      <c r="H724" t="str">
+        <f t="shared" si="147"/>
+        <v>01/04/2024</v>
+      </c>
+    </row>
+    <row r="725" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A725" t="s">
+        <v>1</v>
+      </c>
+      <c r="B725">
+        <v>20240406</v>
+      </c>
+      <c r="C725">
+        <v>22</v>
+      </c>
+      <c r="D725">
+        <v>31</v>
+      </c>
+      <c r="E725" t="str">
+        <f t="shared" si="144"/>
+        <v>06</v>
+      </c>
+      <c r="F725" t="str">
+        <f t="shared" si="145"/>
+        <v>04</v>
+      </c>
+      <c r="G725" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+      <c r="H725" t="str">
+        <f t="shared" si="147"/>
+        <v>06/04/2024</v>
+      </c>
+    </row>
+    <row r="726" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A726" t="s">
+        <v>2</v>
+      </c>
+      <c r="B726">
+        <v>20240402</v>
+      </c>
+      <c r="C726">
+        <v>20</v>
+      </c>
+      <c r="D726">
+        <v>39</v>
+      </c>
+      <c r="E726" t="str">
+        <f t="shared" si="144"/>
+        <v>02</v>
+      </c>
+      <c r="F726" t="str">
+        <f t="shared" si="145"/>
+        <v>04</v>
+      </c>
+      <c r="G726" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+      <c r="H726" t="str">
+        <f t="shared" si="147"/>
+        <v>02/04/2024</v>
+      </c>
+    </row>
+    <row r="727" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A727" t="s">
+        <v>2</v>
+      </c>
+      <c r="B727">
+        <v>20240403</v>
+      </c>
+      <c r="C727">
+        <v>17</v>
+      </c>
+      <c r="D727">
+        <v>52</v>
+      </c>
+      <c r="E727" t="str">
+        <f t="shared" si="144"/>
+        <v>03</v>
+      </c>
+      <c r="F727" t="str">
+        <f t="shared" si="145"/>
+        <v>04</v>
+      </c>
+      <c r="G727" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+      <c r="H727" t="str">
+        <f t="shared" si="147"/>
+        <v>03/04/2024</v>
+      </c>
+    </row>
+    <row r="728" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A728" t="s">
+        <v>2</v>
+      </c>
+      <c r="B728">
+        <v>20240407</v>
+      </c>
+      <c r="C728">
+        <v>11</v>
+      </c>
+      <c r="D728">
+        <v>31</v>
+      </c>
+      <c r="E728" t="str">
+        <f t="shared" si="144"/>
+        <v>07</v>
+      </c>
+      <c r="F728" t="str">
+        <f t="shared" si="145"/>
+        <v>04</v>
+      </c>
+      <c r="G728" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+      <c r="H728" t="str">
+        <f t="shared" si="147"/>
+        <v>07/04/2024</v>
+      </c>
+    </row>
+    <row r="729" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A729" t="s">
+        <v>2</v>
+      </c>
+      <c r="B729">
+        <v>20240404</v>
+      </c>
+      <c r="C729">
+        <v>10</v>
+      </c>
+      <c r="D729">
+        <v>27</v>
+      </c>
+      <c r="E729" t="str">
+        <f t="shared" si="144"/>
+        <v>04</v>
+      </c>
+      <c r="F729" t="str">
+        <f t="shared" si="145"/>
+        <v>04</v>
+      </c>
+      <c r="G729" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+      <c r="H729" t="str">
+        <f t="shared" si="147"/>
+        <v>04/04/2024</v>
+      </c>
+    </row>
+    <row r="730" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A730" t="s">
+        <v>2</v>
+      </c>
+      <c r="B730">
+        <v>20240401</v>
+      </c>
+      <c r="C730">
+        <v>6</v>
+      </c>
+      <c r="D730">
+        <v>20</v>
+      </c>
+      <c r="E730" t="str">
+        <f t="shared" si="144"/>
+        <v>01</v>
+      </c>
+      <c r="F730" t="str">
+        <f t="shared" si="145"/>
+        <v>04</v>
+      </c>
+      <c r="G730" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+      <c r="H730" t="str">
+        <f t="shared" si="147"/>
+        <v>01/04/2024</v>
+      </c>
+    </row>
+    <row r="731" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A731" t="s">
+        <v>2</v>
+      </c>
+      <c r="B731">
+        <v>20240405</v>
+      </c>
+      <c r="C731">
+        <v>5</v>
+      </c>
+      <c r="D731">
+        <v>42</v>
+      </c>
+      <c r="E731" t="str">
+        <f t="shared" si="144"/>
+        <v>05</v>
+      </c>
+      <c r="F731" t="str">
+        <f t="shared" si="145"/>
+        <v>04</v>
+      </c>
+      <c r="G731" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+      <c r="H731" t="str">
+        <f t="shared" si="147"/>
+        <v>05/04/2024</v>
+      </c>
+    </row>
+    <row r="732" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A732" t="s">
+        <v>2</v>
+      </c>
+      <c r="B732">
+        <v>20240406</v>
+      </c>
+      <c r="C732">
+        <v>5</v>
+      </c>
+      <c r="D732">
+        <v>28</v>
+      </c>
+      <c r="E732" t="str">
+        <f t="shared" si="144"/>
+        <v>06</v>
+      </c>
+      <c r="F732" t="str">
+        <f t="shared" si="145"/>
+        <v>04</v>
+      </c>
+      <c r="G732" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+      <c r="H732" t="str">
+        <f t="shared" si="147"/>
+        <v>06/04/2024</v>
+      </c>
+    </row>
+    <row r="733" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A733" t="s">
+        <v>4</v>
+      </c>
+      <c r="B733">
+        <v>20240407</v>
+      </c>
+      <c r="C733">
+        <v>2</v>
+      </c>
+      <c r="D733">
+        <v>0</v>
+      </c>
+      <c r="E733" t="str">
+        <f t="shared" si="144"/>
+        <v>07</v>
+      </c>
+      <c r="F733" t="str">
+        <f t="shared" si="145"/>
+        <v>04</v>
+      </c>
+      <c r="G733" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+      <c r="H733" t="str">
+        <f t="shared" si="147"/>
+        <v>07/04/2024</v>
+      </c>
+    </row>
+    <row r="734" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A734" t="s">
+        <v>3</v>
+      </c>
+      <c r="B734">
+        <v>20240403</v>
+      </c>
+      <c r="C734">
+        <v>1</v>
+      </c>
+      <c r="D734">
+        <v>1</v>
+      </c>
+      <c r="E734" t="str">
+        <f t="shared" si="144"/>
+        <v>03</v>
+      </c>
+      <c r="F734" t="str">
+        <f t="shared" si="145"/>
+        <v>04</v>
+      </c>
+      <c r="G734" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+      <c r="H734" t="str">
+        <f t="shared" si="147"/>
+        <v>03/04/2024</v>
+      </c>
+    </row>
+    <row r="735" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A735" t="s">
+        <v>4</v>
+      </c>
+      <c r="B735">
+        <v>20240401</v>
+      </c>
+      <c r="C735">
+        <v>1</v>
+      </c>
+      <c r="D735">
+        <v>1</v>
+      </c>
+      <c r="E735" t="str">
+        <f t="shared" si="144"/>
+        <v>01</v>
+      </c>
+      <c r="F735" t="str">
+        <f t="shared" si="145"/>
+        <v>04</v>
+      </c>
+      <c r="G735" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+      <c r="H735" t="str">
+        <f t="shared" si="147"/>
+        <v>01/04/2024</v>
+      </c>
+    </row>
+    <row r="736" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A736" t="s">
+        <v>3</v>
+      </c>
+      <c r="B736">
+        <v>20240407</v>
+      </c>
+      <c r="C736">
+        <v>0</v>
+      </c>
+      <c r="D736">
+        <v>4</v>
+      </c>
+      <c r="E736" t="str">
+        <f t="shared" si="144"/>
+        <v>07</v>
+      </c>
+      <c r="F736" t="str">
+        <f t="shared" si="145"/>
+        <v>04</v>
+      </c>
+      <c r="G736" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+      <c r="H736" t="str">
+        <f t="shared" si="147"/>
+        <v>07/04/2024</v>
+      </c>
+    </row>
+    <row r="737" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A737" t="s">
+        <v>4</v>
+      </c>
+      <c r="B737">
+        <v>20240402</v>
+      </c>
+      <c r="C737">
+        <v>0</v>
+      </c>
+      <c r="D737">
+        <v>1</v>
+      </c>
+      <c r="E737" t="str">
+        <f t="shared" si="144"/>
+        <v>02</v>
+      </c>
+      <c r="F737" t="str">
+        <f t="shared" si="145"/>
+        <v>04</v>
+      </c>
+      <c r="G737" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+      <c r="H737" t="str">
+        <f t="shared" si="147"/>
+        <v>02/04/2024</v>
+      </c>
+    </row>
+    <row r="738" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A738" t="s">
+        <v>4</v>
+      </c>
+      <c r="B738">
+        <v>20240403</v>
+      </c>
+      <c r="C738">
+        <v>0</v>
+      </c>
+      <c r="D738">
+        <v>1</v>
+      </c>
+      <c r="E738" t="str">
+        <f t="shared" si="144"/>
+        <v>03</v>
+      </c>
+      <c r="F738" t="str">
+        <f t="shared" si="145"/>
+        <v>04</v>
+      </c>
+      <c r="G738" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+      <c r="H738" t="str">
+        <f t="shared" si="147"/>
+        <v>03/04/2024</v>
+      </c>
+    </row>
+    <row r="739" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A739" t="s">
+        <v>4</v>
+      </c>
+      <c r="B739">
+        <v>20240404</v>
+      </c>
+      <c r="C739">
+        <v>0</v>
+      </c>
+      <c r="D739">
+        <v>1</v>
+      </c>
+      <c r="E739" t="str">
+        <f t="shared" si="144"/>
+        <v>04</v>
+      </c>
+      <c r="F739" t="str">
+        <f t="shared" si="145"/>
+        <v>04</v>
+      </c>
+      <c r="G739" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+      <c r="H739" t="str">
+        <f t="shared" si="147"/>
+        <v>04/04/2024</v>
+      </c>
+    </row>
+    <row r="740" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A740" t="s">
+        <v>4</v>
+      </c>
+      <c r="B740">
+        <v>20240405</v>
+      </c>
+      <c r="C740">
+        <v>0</v>
+      </c>
+      <c r="D740">
+        <v>1</v>
+      </c>
+      <c r="E740" t="str">
+        <f t="shared" si="144"/>
+        <v>05</v>
+      </c>
+      <c r="F740" t="str">
+        <f t="shared" si="145"/>
+        <v>04</v>
+      </c>
+      <c r="G740" t="str">
+        <f t="shared" si="146"/>
+        <v>2024</v>
+      </c>
+      <c r="H740" t="str">
+        <f t="shared" si="147"/>
+        <v>05/04/2024</v>
+      </c>
+    </row>
+    <row r="741" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A741" t="s">
+        <v>1</v>
+      </c>
+      <c r="B741">
+        <v>20240409</v>
+      </c>
+      <c r="C741">
+        <v>75</v>
+      </c>
+      <c r="D741">
+        <v>68</v>
+      </c>
+      <c r="E741" t="str">
+        <f t="shared" ref="E741:E762" si="148">RIGHT(B741,2)</f>
+        <v>09</v>
+      </c>
+      <c r="F741" t="str">
+        <f t="shared" ref="F741:F762" si="149">MID(B741,5,2)</f>
+        <v>04</v>
+      </c>
+      <c r="G741" t="str">
+        <f t="shared" ref="G741:G762" si="150">LEFT(B741,4)</f>
+        <v>2024</v>
+      </c>
+      <c r="H741" t="str">
+        <f t="shared" ref="H741:H762" si="151">_xlfn.CONCAT(E741,"/",F741,"/",G741)</f>
+        <v>09/04/2024</v>
+      </c>
+    </row>
+    <row r="742" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A742" t="s">
+        <v>1</v>
+      </c>
+      <c r="B742">
+        <v>20240413</v>
+      </c>
+      <c r="C742">
+        <v>73</v>
+      </c>
+      <c r="D742">
+        <v>84</v>
+      </c>
+      <c r="E742" t="str">
+        <f t="shared" si="148"/>
+        <v>13</v>
+      </c>
+      <c r="F742" t="str">
+        <f t="shared" si="149"/>
+        <v>04</v>
+      </c>
+      <c r="G742" t="str">
+        <f t="shared" si="150"/>
+        <v>2024</v>
+      </c>
+      <c r="H742" t="str">
+        <f t="shared" si="151"/>
+        <v>13/04/2024</v>
+      </c>
+    </row>
+    <row r="743" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A743" t="s">
+        <v>1</v>
+      </c>
+      <c r="B743">
+        <v>20240410</v>
+      </c>
+      <c r="C743">
+        <v>57</v>
+      </c>
+      <c r="D743">
+        <v>71</v>
+      </c>
+      <c r="E743" t="str">
+        <f t="shared" si="148"/>
+        <v>10</v>
+      </c>
+      <c r="F743" t="str">
+        <f t="shared" si="149"/>
+        <v>04</v>
+      </c>
+      <c r="G743" t="str">
+        <f t="shared" si="150"/>
+        <v>2024</v>
+      </c>
+      <c r="H743" t="str">
+        <f t="shared" si="151"/>
+        <v>10/04/2024</v>
+      </c>
+    </row>
+    <row r="744" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A744" t="s">
+        <v>1</v>
+      </c>
+      <c r="B744">
+        <v>20240412</v>
+      </c>
+      <c r="C744">
+        <v>50</v>
+      </c>
+      <c r="D744">
+        <v>55</v>
+      </c>
+      <c r="E744" t="str">
+        <f t="shared" si="148"/>
+        <v>12</v>
+      </c>
+      <c r="F744" t="str">
+        <f t="shared" si="149"/>
+        <v>04</v>
+      </c>
+      <c r="G744" t="str">
+        <f t="shared" si="150"/>
+        <v>2024</v>
+      </c>
+      <c r="H744" t="str">
+        <f t="shared" si="151"/>
+        <v>12/04/2024</v>
+      </c>
+    </row>
+    <row r="745" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A745" t="s">
+        <v>1</v>
+      </c>
+      <c r="B745">
+        <v>20240414</v>
+      </c>
+      <c r="C745">
+        <v>37</v>
+      </c>
+      <c r="D745">
+        <v>42</v>
+      </c>
+      <c r="E745" t="str">
+        <f t="shared" si="148"/>
+        <v>14</v>
+      </c>
+      <c r="F745" t="str">
+        <f t="shared" si="149"/>
+        <v>04</v>
+      </c>
+      <c r="G745" t="str">
+        <f t="shared" si="150"/>
+        <v>2024</v>
+      </c>
+      <c r="H745" t="str">
+        <f t="shared" si="151"/>
+        <v>14/04/2024</v>
+      </c>
+    </row>
+    <row r="746" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A746" t="s">
+        <v>1</v>
+      </c>
+      <c r="B746">
+        <v>20240411</v>
+      </c>
+      <c r="C746">
+        <v>30</v>
+      </c>
+      <c r="D746">
+        <v>43</v>
+      </c>
+      <c r="E746" t="str">
+        <f t="shared" si="148"/>
+        <v>11</v>
+      </c>
+      <c r="F746" t="str">
+        <f t="shared" si="149"/>
+        <v>04</v>
+      </c>
+      <c r="G746" t="str">
+        <f t="shared" si="150"/>
+        <v>2024</v>
+      </c>
+      <c r="H746" t="str">
+        <f t="shared" si="151"/>
+        <v>11/04/2024</v>
+      </c>
+    </row>
+    <row r="747" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A747" t="s">
+        <v>1</v>
+      </c>
+      <c r="B747">
+        <v>20240408</v>
+      </c>
+      <c r="C747">
+        <v>26</v>
+      </c>
+      <c r="D747">
+        <v>44</v>
+      </c>
+      <c r="E747" t="str">
+        <f t="shared" si="148"/>
+        <v>08</v>
+      </c>
+      <c r="F747" t="str">
+        <f t="shared" si="149"/>
+        <v>04</v>
+      </c>
+      <c r="G747" t="str">
+        <f t="shared" si="150"/>
+        <v>2024</v>
+      </c>
+      <c r="H747" t="str">
+        <f t="shared" si="151"/>
+        <v>08/04/2024</v>
+      </c>
+    </row>
+    <row r="748" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A748" t="s">
+        <v>2</v>
+      </c>
+      <c r="B748">
+        <v>20240409</v>
+      </c>
+      <c r="C748">
+        <v>23</v>
+      </c>
+      <c r="D748">
+        <v>65</v>
+      </c>
+      <c r="E748" t="str">
+        <f t="shared" si="148"/>
+        <v>09</v>
+      </c>
+      <c r="F748" t="str">
+        <f t="shared" si="149"/>
+        <v>04</v>
+      </c>
+      <c r="G748" t="str">
+        <f t="shared" si="150"/>
+        <v>2024</v>
+      </c>
+      <c r="H748" t="str">
+        <f t="shared" si="151"/>
+        <v>09/04/2024</v>
+      </c>
+    </row>
+    <row r="749" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A749" t="s">
+        <v>2</v>
+      </c>
+      <c r="B749">
+        <v>20240410</v>
+      </c>
+      <c r="C749">
+        <v>14</v>
+      </c>
+      <c r="D749">
+        <v>61</v>
+      </c>
+      <c r="E749" t="str">
+        <f t="shared" si="148"/>
+        <v>10</v>
+      </c>
+      <c r="F749" t="str">
+        <f t="shared" si="149"/>
+        <v>04</v>
+      </c>
+      <c r="G749" t="str">
+        <f t="shared" si="150"/>
+        <v>2024</v>
+      </c>
+      <c r="H749" t="str">
+        <f t="shared" si="151"/>
+        <v>10/04/2024</v>
+      </c>
+    </row>
+    <row r="750" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A750" t="s">
+        <v>2</v>
+      </c>
+      <c r="B750">
+        <v>20240414</v>
+      </c>
+      <c r="C750">
+        <v>14</v>
+      </c>
+      <c r="D750">
+        <v>39</v>
+      </c>
+      <c r="E750" t="str">
+        <f t="shared" si="148"/>
+        <v>14</v>
+      </c>
+      <c r="F750" t="str">
+        <f t="shared" si="149"/>
+        <v>04</v>
+      </c>
+      <c r="G750" t="str">
+        <f t="shared" si="150"/>
+        <v>2024</v>
+      </c>
+      <c r="H750" t="str">
+        <f t="shared" si="151"/>
+        <v>14/04/2024</v>
+      </c>
+    </row>
+    <row r="751" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A751" t="s">
+        <v>2</v>
+      </c>
+      <c r="B751">
+        <v>20240413</v>
+      </c>
+      <c r="C751">
+        <v>12</v>
+      </c>
+      <c r="D751">
+        <v>42</v>
+      </c>
+      <c r="E751" t="str">
+        <f t="shared" si="148"/>
+        <v>13</v>
+      </c>
+      <c r="F751" t="str">
+        <f t="shared" si="149"/>
+        <v>04</v>
+      </c>
+      <c r="G751" t="str">
+        <f t="shared" si="150"/>
+        <v>2024</v>
+      </c>
+      <c r="H751" t="str">
+        <f t="shared" si="151"/>
+        <v>13/04/2024</v>
+      </c>
+    </row>
+    <row r="752" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A752" t="s">
+        <v>2</v>
+      </c>
+      <c r="B752">
+        <v>20240408</v>
+      </c>
+      <c r="C752">
+        <v>11</v>
+      </c>
+      <c r="D752">
+        <v>53</v>
+      </c>
+      <c r="E752" t="str">
+        <f t="shared" si="148"/>
+        <v>08</v>
+      </c>
+      <c r="F752" t="str">
+        <f t="shared" si="149"/>
+        <v>04</v>
+      </c>
+      <c r="G752" t="str">
+        <f t="shared" si="150"/>
+        <v>2024</v>
+      </c>
+      <c r="H752" t="str">
+        <f t="shared" si="151"/>
+        <v>08/04/2024</v>
+      </c>
+    </row>
+    <row r="753" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A753" t="s">
+        <v>2</v>
+      </c>
+      <c r="B753">
+        <v>20240411</v>
+      </c>
+      <c r="C753">
+        <v>9</v>
+      </c>
+      <c r="D753">
+        <v>36</v>
+      </c>
+      <c r="E753" t="str">
+        <f t="shared" si="148"/>
+        <v>11</v>
+      </c>
+      <c r="F753" t="str">
+        <f t="shared" si="149"/>
+        <v>04</v>
+      </c>
+      <c r="G753" t="str">
+        <f t="shared" si="150"/>
+        <v>2024</v>
+      </c>
+      <c r="H753" t="str">
+        <f t="shared" si="151"/>
+        <v>11/04/2024</v>
+      </c>
+    </row>
+    <row r="754" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A754" t="s">
+        <v>2</v>
+      </c>
+      <c r="B754">
+        <v>20240412</v>
+      </c>
+      <c r="C754">
+        <v>8</v>
+      </c>
+      <c r="D754">
+        <v>32</v>
+      </c>
+      <c r="E754" t="str">
+        <f t="shared" si="148"/>
+        <v>12</v>
+      </c>
+      <c r="F754" t="str">
+        <f t="shared" si="149"/>
+        <v>04</v>
+      </c>
+      <c r="G754" t="str">
+        <f t="shared" si="150"/>
+        <v>2024</v>
+      </c>
+      <c r="H754" t="str">
+        <f t="shared" si="151"/>
+        <v>12/04/2024</v>
+      </c>
+    </row>
+    <row r="755" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A755" t="s">
+        <v>3</v>
+      </c>
+      <c r="B755">
+        <v>20240408</v>
+      </c>
+      <c r="C755">
+        <v>1</v>
+      </c>
+      <c r="D755">
+        <v>1</v>
+      </c>
+      <c r="E755" t="str">
+        <f t="shared" si="148"/>
+        <v>08</v>
+      </c>
+      <c r="F755" t="str">
+        <f t="shared" si="149"/>
+        <v>04</v>
+      </c>
+      <c r="G755" t="str">
+        <f t="shared" si="150"/>
+        <v>2024</v>
+      </c>
+      <c r="H755" t="str">
+        <f t="shared" si="151"/>
+        <v>08/04/2024</v>
+      </c>
+    </row>
+    <row r="756" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A756" t="s">
+        <v>3</v>
+      </c>
+      <c r="B756">
+        <v>20240409</v>
+      </c>
+      <c r="C756">
+        <v>1</v>
+      </c>
+      <c r="D756">
+        <v>0</v>
+      </c>
+      <c r="E756" t="str">
+        <f t="shared" si="148"/>
+        <v>09</v>
+      </c>
+      <c r="F756" t="str">
+        <f t="shared" si="149"/>
+        <v>04</v>
+      </c>
+      <c r="G756" t="str">
+        <f t="shared" si="150"/>
+        <v>2024</v>
+      </c>
+      <c r="H756" t="str">
+        <f t="shared" si="151"/>
+        <v>09/04/2024</v>
+      </c>
+    </row>
+    <row r="757" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A757" t="s">
+        <v>4</v>
+      </c>
+      <c r="B757">
+        <v>20240409</v>
+      </c>
+      <c r="C757">
+        <v>1</v>
+      </c>
+      <c r="D757">
+        <v>3</v>
+      </c>
+      <c r="E757" t="str">
+        <f t="shared" si="148"/>
+        <v>09</v>
+      </c>
+      <c r="F757" t="str">
+        <f t="shared" si="149"/>
+        <v>04</v>
+      </c>
+      <c r="G757" t="str">
+        <f t="shared" si="150"/>
+        <v>2024</v>
+      </c>
+      <c r="H757" t="str">
+        <f t="shared" si="151"/>
+        <v>09/04/2024</v>
+      </c>
+    </row>
+    <row r="758" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A758" t="s">
+        <v>4</v>
+      </c>
+      <c r="B758">
+        <v>20240411</v>
+      </c>
+      <c r="C758">
+        <v>1</v>
+      </c>
+      <c r="D758">
+        <v>2</v>
+      </c>
+      <c r="E758" t="str">
+        <f t="shared" si="148"/>
+        <v>11</v>
+      </c>
+      <c r="F758" t="str">
+        <f t="shared" si="149"/>
+        <v>04</v>
+      </c>
+      <c r="G758" t="str">
+        <f t="shared" si="150"/>
+        <v>2024</v>
+      </c>
+      <c r="H758" t="str">
+        <f t="shared" si="151"/>
+        <v>11/04/2024</v>
+      </c>
+    </row>
+    <row r="759" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A759" t="s">
+        <v>4</v>
+      </c>
+      <c r="B759">
+        <v>20240413</v>
+      </c>
+      <c r="C759">
+        <v>1</v>
+      </c>
+      <c r="D759">
+        <v>1</v>
+      </c>
+      <c r="E759" t="str">
+        <f t="shared" si="148"/>
+        <v>13</v>
+      </c>
+      <c r="F759" t="str">
+        <f t="shared" si="149"/>
+        <v>04</v>
+      </c>
+      <c r="G759" t="str">
+        <f t="shared" si="150"/>
+        <v>2024</v>
+      </c>
+      <c r="H759" t="str">
+        <f t="shared" si="151"/>
+        <v>13/04/2024</v>
+      </c>
+    </row>
+    <row r="760" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A760" t="s">
+        <v>3</v>
+      </c>
+      <c r="B760">
+        <v>20240410</v>
+      </c>
+      <c r="C760">
+        <v>0</v>
+      </c>
+      <c r="D760">
+        <v>0</v>
+      </c>
+      <c r="E760" t="str">
+        <f t="shared" si="148"/>
+        <v>10</v>
+      </c>
+      <c r="F760" t="str">
+        <f t="shared" si="149"/>
+        <v>04</v>
+      </c>
+      <c r="G760" t="str">
+        <f t="shared" si="150"/>
+        <v>2024</v>
+      </c>
+      <c r="H760" t="str">
+        <f t="shared" si="151"/>
+        <v>10/04/2024</v>
+      </c>
+    </row>
+    <row r="761" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A761" t="s">
+        <v>4</v>
+      </c>
+      <c r="B761">
+        <v>20240408</v>
+      </c>
+      <c r="C761">
+        <v>0</v>
+      </c>
+      <c r="D761">
+        <v>1</v>
+      </c>
+      <c r="E761" t="str">
+        <f t="shared" si="148"/>
+        <v>08</v>
+      </c>
+      <c r="F761" t="str">
+        <f t="shared" si="149"/>
+        <v>04</v>
+      </c>
+      <c r="G761" t="str">
+        <f t="shared" si="150"/>
+        <v>2024</v>
+      </c>
+      <c r="H761" t="str">
+        <f t="shared" si="151"/>
+        <v>08/04/2024</v>
+      </c>
+    </row>
+    <row r="762" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A762" t="s">
+        <v>4</v>
+      </c>
+      <c r="B762">
+        <v>20240410</v>
+      </c>
+      <c r="C762">
+        <v>0</v>
+      </c>
+      <c r="D762">
+        <v>1</v>
+      </c>
+      <c r="E762" t="str">
+        <f t="shared" si="148"/>
+        <v>10</v>
+      </c>
+      <c r="F762" t="str">
+        <f t="shared" si="149"/>
+        <v>04</v>
+      </c>
+      <c r="G762" t="str">
+        <f t="shared" si="150"/>
+        <v>2024</v>
+      </c>
+      <c r="H762" t="str">
+        <f t="shared" si="151"/>
+        <v>10/04/2024</v>
+      </c>
+    </row>
+    <row r="763" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A763" t="s">
+        <v>1</v>
+      </c>
+      <c r="B763">
+        <v>20240420</v>
+      </c>
+      <c r="C763">
+        <v>70</v>
+      </c>
+      <c r="D763">
+        <v>72</v>
+      </c>
+      <c r="E763" t="str">
+        <f t="shared" ref="E763:E784" si="152">RIGHT(B763,2)</f>
+        <v>20</v>
+      </c>
+      <c r="F763" t="str">
+        <f t="shared" ref="F763:F784" si="153">MID(B763,5,2)</f>
+        <v>04</v>
+      </c>
+      <c r="G763" t="str">
+        <f t="shared" ref="G763:G784" si="154">LEFT(B763,4)</f>
+        <v>2024</v>
+      </c>
+      <c r="H763" t="str">
+        <f t="shared" ref="H763:H784" si="155">_xlfn.CONCAT(E763,"/",F763,"/",G763)</f>
+        <v>20/04/2024</v>
+      </c>
+    </row>
+    <row r="764" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A764" t="s">
+        <v>1</v>
+      </c>
+      <c r="B764">
+        <v>20240416</v>
+      </c>
+      <c r="C764">
+        <v>62</v>
+      </c>
+      <c r="D764">
+        <v>73</v>
+      </c>
+      <c r="E764" t="str">
+        <f t="shared" si="152"/>
+        <v>16</v>
+      </c>
+      <c r="F764" t="str">
+        <f t="shared" si="153"/>
+        <v>04</v>
+      </c>
+      <c r="G764" t="str">
+        <f t="shared" si="154"/>
+        <v>2024</v>
+      </c>
+      <c r="H764" t="str">
+        <f t="shared" si="155"/>
+        <v>16/04/2024</v>
+      </c>
+    </row>
+    <row r="765" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A765" t="s">
+        <v>1</v>
+      </c>
+      <c r="B765">
+        <v>20240419</v>
+      </c>
+      <c r="C765">
+        <v>46</v>
+      </c>
+      <c r="D765">
+        <v>54</v>
+      </c>
+      <c r="E765" t="str">
+        <f t="shared" si="152"/>
+        <v>19</v>
+      </c>
+      <c r="F765" t="str">
+        <f t="shared" si="153"/>
+        <v>04</v>
+      </c>
+      <c r="G765" t="str">
+        <f t="shared" si="154"/>
+        <v>2024</v>
+      </c>
+      <c r="H765" t="str">
+        <f t="shared" si="155"/>
+        <v>19/04/2024</v>
+      </c>
+    </row>
+    <row r="766" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A766" t="s">
+        <v>1</v>
+      </c>
+      <c r="B766">
+        <v>20240421</v>
+      </c>
+      <c r="C766">
+        <v>43</v>
+      </c>
+      <c r="D766">
+        <v>57</v>
+      </c>
+      <c r="E766" t="str">
+        <f t="shared" si="152"/>
+        <v>21</v>
+      </c>
+      <c r="F766" t="str">
+        <f t="shared" si="153"/>
+        <v>04</v>
+      </c>
+      <c r="G766" t="str">
+        <f t="shared" si="154"/>
+        <v>2024</v>
+      </c>
+      <c r="H766" t="str">
+        <f t="shared" si="155"/>
+        <v>21/04/2024</v>
+      </c>
+    </row>
+    <row r="767" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A767" t="s">
+        <v>1</v>
+      </c>
+      <c r="B767">
+        <v>20240417</v>
+      </c>
+      <c r="C767">
+        <v>42</v>
+      </c>
+      <c r="D767">
+        <v>51</v>
+      </c>
+      <c r="E767" t="str">
+        <f t="shared" si="152"/>
+        <v>17</v>
+      </c>
+      <c r="F767" t="str">
+        <f t="shared" si="153"/>
+        <v>04</v>
+      </c>
+      <c r="G767" t="str">
+        <f t="shared" si="154"/>
+        <v>2024</v>
+      </c>
+      <c r="H767" t="str">
+        <f t="shared" si="155"/>
+        <v>17/04/2024</v>
+      </c>
+    </row>
+    <row r="768" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A768" t="s">
+        <v>1</v>
+      </c>
+      <c r="B768">
+        <v>20240418</v>
+      </c>
+      <c r="C768">
+        <v>38</v>
+      </c>
+      <c r="D768">
+        <v>46</v>
+      </c>
+      <c r="E768" t="str">
+        <f t="shared" si="152"/>
+        <v>18</v>
+      </c>
+      <c r="F768" t="str">
+        <f t="shared" si="153"/>
+        <v>04</v>
+      </c>
+      <c r="G768" t="str">
+        <f t="shared" si="154"/>
+        <v>2024</v>
+      </c>
+      <c r="H768" t="str">
+        <f t="shared" si="155"/>
+        <v>18/04/2024</v>
+      </c>
+    </row>
+    <row r="769" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A769" t="s">
+        <v>1</v>
+      </c>
+      <c r="B769">
+        <v>20240415</v>
+      </c>
+      <c r="C769">
+        <v>33</v>
+      </c>
+      <c r="D769">
+        <v>38</v>
+      </c>
+      <c r="E769" t="str">
+        <f t="shared" si="152"/>
+        <v>15</v>
+      </c>
+      <c r="F769" t="str">
+        <f t="shared" si="153"/>
+        <v>04</v>
+      </c>
+      <c r="G769" t="str">
+        <f t="shared" si="154"/>
+        <v>2024</v>
+      </c>
+      <c r="H769" t="str">
+        <f t="shared" si="155"/>
+        <v>15/04/2024</v>
+      </c>
+    </row>
+    <row r="770" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A770" t="s">
+        <v>2</v>
+      </c>
+      <c r="B770">
+        <v>20240417</v>
+      </c>
+      <c r="C770">
+        <v>21</v>
+      </c>
+      <c r="D770">
+        <v>51</v>
+      </c>
+      <c r="E770" t="str">
+        <f t="shared" si="152"/>
+        <v>17</v>
+      </c>
+      <c r="F770" t="str">
+        <f t="shared" si="153"/>
+        <v>04</v>
+      </c>
+      <c r="G770" t="str">
+        <f t="shared" si="154"/>
+        <v>2024</v>
+      </c>
+      <c r="H770" t="str">
+        <f t="shared" si="155"/>
+        <v>17/04/2024</v>
+      </c>
+    </row>
+    <row r="771" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A771" t="s">
+        <v>2</v>
+      </c>
+      <c r="B771">
+        <v>20240416</v>
+      </c>
+      <c r="C771">
+        <v>19</v>
+      </c>
+      <c r="D771">
+        <v>41</v>
+      </c>
+      <c r="E771" t="str">
+        <f t="shared" si="152"/>
+        <v>16</v>
+      </c>
+      <c r="F771" t="str">
+        <f t="shared" si="153"/>
+        <v>04</v>
+      </c>
+      <c r="G771" t="str">
+        <f t="shared" si="154"/>
+        <v>2024</v>
+      </c>
+      <c r="H771" t="str">
+        <f t="shared" si="155"/>
+        <v>16/04/2024</v>
+      </c>
+    </row>
+    <row r="772" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A772" t="s">
+        <v>2</v>
+      </c>
+      <c r="B772">
+        <v>20240419</v>
+      </c>
+      <c r="C772">
+        <v>19</v>
+      </c>
+      <c r="D772">
+        <v>57</v>
+      </c>
+      <c r="E772" t="str">
+        <f t="shared" si="152"/>
+        <v>19</v>
+      </c>
+      <c r="F772" t="str">
+        <f t="shared" si="153"/>
+        <v>04</v>
+      </c>
+      <c r="G772" t="str">
+        <f t="shared" si="154"/>
+        <v>2024</v>
+      </c>
+      <c r="H772" t="str">
+        <f t="shared" si="155"/>
+        <v>19/04/2024</v>
+      </c>
+    </row>
+    <row r="773" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A773" t="s">
+        <v>2</v>
+      </c>
+      <c r="B773">
+        <v>20240420</v>
+      </c>
+      <c r="C773">
+        <v>14</v>
+      </c>
+      <c r="D773">
+        <v>56</v>
+      </c>
+      <c r="E773" t="str">
+        <f t="shared" si="152"/>
+        <v>20</v>
+      </c>
+      <c r="F773" t="str">
+        <f t="shared" si="153"/>
+        <v>04</v>
+      </c>
+      <c r="G773" t="str">
+        <f t="shared" si="154"/>
+        <v>2024</v>
+      </c>
+      <c r="H773" t="str">
+        <f t="shared" si="155"/>
+        <v>20/04/2024</v>
+      </c>
+    </row>
+    <row r="774" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A774" t="s">
+        <v>2</v>
+      </c>
+      <c r="B774">
+        <v>20240421</v>
+      </c>
+      <c r="C774">
+        <v>14</v>
+      </c>
+      <c r="D774">
+        <v>52</v>
+      </c>
+      <c r="E774" t="str">
+        <f t="shared" si="152"/>
+        <v>21</v>
+      </c>
+      <c r="F774" t="str">
+        <f t="shared" si="153"/>
+        <v>04</v>
+      </c>
+      <c r="G774" t="str">
+        <f t="shared" si="154"/>
+        <v>2024</v>
+      </c>
+      <c r="H774" t="str">
+        <f t="shared" si="155"/>
+        <v>21/04/2024</v>
+      </c>
+    </row>
+    <row r="775" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A775" t="s">
+        <v>2</v>
+      </c>
+      <c r="B775">
+        <v>20240415</v>
+      </c>
+      <c r="C775">
+        <v>12</v>
+      </c>
+      <c r="D775">
+        <v>43</v>
+      </c>
+      <c r="E775" t="str">
+        <f t="shared" si="152"/>
+        <v>15</v>
+      </c>
+      <c r="F775" t="str">
+        <f t="shared" si="153"/>
+        <v>04</v>
+      </c>
+      <c r="G775" t="str">
+        <f t="shared" si="154"/>
+        <v>2024</v>
+      </c>
+      <c r="H775" t="str">
+        <f t="shared" si="155"/>
+        <v>15/04/2024</v>
+      </c>
+    </row>
+    <row r="776" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A776" t="s">
+        <v>2</v>
+      </c>
+      <c r="B776">
+        <v>20240418</v>
+      </c>
+      <c r="C776">
+        <v>12</v>
+      </c>
+      <c r="D776">
+        <v>37</v>
+      </c>
+      <c r="E776" t="str">
+        <f t="shared" si="152"/>
+        <v>18</v>
+      </c>
+      <c r="F776" t="str">
+        <f t="shared" si="153"/>
+        <v>04</v>
+      </c>
+      <c r="G776" t="str">
+        <f t="shared" si="154"/>
+        <v>2024</v>
+      </c>
+      <c r="H776" t="str">
+        <f t="shared" si="155"/>
+        <v>18/04/2024</v>
+      </c>
+    </row>
+    <row r="777" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A777" t="s">
+        <v>4</v>
+      </c>
+      <c r="B777">
+        <v>20240416</v>
+      </c>
+      <c r="C777">
+        <v>2</v>
+      </c>
+      <c r="D777">
+        <v>3</v>
+      </c>
+      <c r="E777" t="str">
+        <f t="shared" si="152"/>
+        <v>16</v>
+      </c>
+      <c r="F777" t="str">
+        <f t="shared" si="153"/>
+        <v>04</v>
+      </c>
+      <c r="G777" t="str">
+        <f t="shared" si="154"/>
+        <v>2024</v>
+      </c>
+      <c r="H777" t="str">
+        <f t="shared" si="155"/>
+        <v>16/04/2024</v>
+      </c>
+    </row>
+    <row r="778" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A778" t="s">
+        <v>3</v>
+      </c>
+      <c r="B778">
+        <v>20240415</v>
+      </c>
+      <c r="C778">
+        <v>1</v>
+      </c>
+      <c r="D778">
+        <v>1</v>
+      </c>
+      <c r="E778" t="str">
+        <f t="shared" si="152"/>
+        <v>15</v>
+      </c>
+      <c r="F778" t="str">
+        <f t="shared" si="153"/>
+        <v>04</v>
+      </c>
+      <c r="G778" t="str">
+        <f t="shared" si="154"/>
+        <v>2024</v>
+      </c>
+      <c r="H778" t="str">
+        <f t="shared" si="155"/>
+        <v>15/04/2024</v>
+      </c>
+    </row>
+    <row r="779" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A779" t="s">
+        <v>3</v>
+      </c>
+      <c r="B779">
+        <v>20240416</v>
+      </c>
+      <c r="C779">
+        <v>1</v>
+      </c>
+      <c r="D779">
+        <v>1</v>
+      </c>
+      <c r="E779" t="str">
+        <f t="shared" si="152"/>
+        <v>16</v>
+      </c>
+      <c r="F779" t="str">
+        <f t="shared" si="153"/>
+        <v>04</v>
+      </c>
+      <c r="G779" t="str">
+        <f t="shared" si="154"/>
+        <v>2024</v>
+      </c>
+      <c r="H779" t="str">
+        <f t="shared" si="155"/>
+        <v>16/04/2024</v>
+      </c>
+    </row>
+    <row r="780" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A780" t="s">
+        <v>4</v>
+      </c>
+      <c r="B780">
+        <v>20240421</v>
+      </c>
+      <c r="C780">
+        <v>1</v>
+      </c>
+      <c r="D780">
+        <v>0</v>
+      </c>
+      <c r="E780" t="str">
+        <f t="shared" si="152"/>
+        <v>21</v>
+      </c>
+      <c r="F780" t="str">
+        <f t="shared" si="153"/>
+        <v>04</v>
+      </c>
+      <c r="G780" t="str">
+        <f t="shared" si="154"/>
+        <v>2024</v>
+      </c>
+      <c r="H780" t="str">
+        <f t="shared" si="155"/>
+        <v>21/04/2024</v>
+      </c>
+    </row>
+    <row r="781" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A781" t="s">
+        <v>3</v>
+      </c>
+      <c r="B781">
+        <v>20240418</v>
+      </c>
+      <c r="C781">
+        <v>0</v>
+      </c>
+      <c r="D781">
+        <v>2</v>
+      </c>
+      <c r="E781" t="str">
+        <f t="shared" si="152"/>
+        <v>18</v>
+      </c>
+      <c r="F781" t="str">
+        <f t="shared" si="153"/>
+        <v>04</v>
+      </c>
+      <c r="G781" t="str">
+        <f t="shared" si="154"/>
+        <v>2024</v>
+      </c>
+      <c r="H781" t="str">
+        <f t="shared" si="155"/>
+        <v>18/04/2024</v>
+      </c>
+    </row>
+    <row r="782" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A782" t="s">
+        <v>3</v>
+      </c>
+      <c r="B782">
+        <v>20240421</v>
+      </c>
+      <c r="C782">
+        <v>0</v>
+      </c>
+      <c r="D782">
+        <v>2</v>
+      </c>
+      <c r="E782" t="str">
+        <f t="shared" si="152"/>
+        <v>21</v>
+      </c>
+      <c r="F782" t="str">
+        <f t="shared" si="153"/>
+        <v>04</v>
+      </c>
+      <c r="G782" t="str">
+        <f t="shared" si="154"/>
+        <v>2024</v>
+      </c>
+      <c r="H782" t="str">
+        <f t="shared" si="155"/>
+        <v>21/04/2024</v>
+      </c>
+    </row>
+    <row r="783" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A783" t="s">
+        <v>4</v>
+      </c>
+      <c r="B783">
+        <v>20240418</v>
+      </c>
+      <c r="C783">
+        <v>0</v>
+      </c>
+      <c r="D783">
+        <v>1</v>
+      </c>
+      <c r="E783" t="str">
+        <f t="shared" si="152"/>
+        <v>18</v>
+      </c>
+      <c r="F783" t="str">
+        <f t="shared" si="153"/>
+        <v>04</v>
+      </c>
+      <c r="G783" t="str">
+        <f t="shared" si="154"/>
+        <v>2024</v>
+      </c>
+      <c r="H783" t="str">
+        <f t="shared" si="155"/>
+        <v>18/04/2024</v>
+      </c>
+    </row>
+    <row r="784" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A784" t="s">
+        <v>4</v>
+      </c>
+      <c r="B784">
+        <v>20240419</v>
+      </c>
+      <c r="C784">
+        <v>0</v>
+      </c>
+      <c r="D784">
+        <v>1</v>
+      </c>
+      <c r="E784" t="str">
+        <f t="shared" si="152"/>
+        <v>19</v>
+      </c>
+      <c r="F784" t="str">
+        <f t="shared" si="153"/>
+        <v>04</v>
+      </c>
+      <c r="G784" t="str">
+        <f t="shared" si="154"/>
+        <v>2024</v>
+      </c>
+      <c r="H784" t="str">
+        <f t="shared" si="155"/>
+        <v>19/04/2024</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Arquivos/Como_acessa_data.xlsx
+++ b/Arquivos/Como_acessa_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b5dde4ea31a779cd/Documentos/Mestrado/Arquivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:40009_{83565463-BC6C-4944-A005-0E04596B1C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41B988DB-DA22-47CB-BCF2-EE23AB49AB65}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="13_ncr:40009_{83565463-BC6C-4944-A005-0E04596B1C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B84B1AF2-F2A9-4A22-8187-3225E4C926B7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="13">
   <si>
     <t>Data</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>ano</t>
+  </si>
+  <si>
+    <t>Unassigned</t>
   </si>
 </sst>
 </file>
@@ -913,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H784"/>
+  <dimension ref="A1:H910"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A766" workbookViewId="0">
-      <selection activeCell="A763" sqref="A763:H784"/>
+    <sheetView tabSelected="1" topLeftCell="A888" workbookViewId="0">
+      <selection activeCell="A892" sqref="A892:H910"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24411,6 +24414,3786 @@
         <v>19/04/2024</v>
       </c>
     </row>
+    <row r="785" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A785" t="s">
+        <v>1</v>
+      </c>
+      <c r="B785">
+        <v>20240425</v>
+      </c>
+      <c r="C785">
+        <v>105</v>
+      </c>
+      <c r="D785">
+        <v>92</v>
+      </c>
+      <c r="E785" t="str">
+        <f t="shared" ref="E785:E804" si="156">RIGHT(B785,2)</f>
+        <v>25</v>
+      </c>
+      <c r="F785" t="str">
+        <f t="shared" ref="F785:F804" si="157">MID(B785,5,2)</f>
+        <v>04</v>
+      </c>
+      <c r="G785" t="str">
+        <f t="shared" ref="G785:G804" si="158">LEFT(B785,4)</f>
+        <v>2024</v>
+      </c>
+      <c r="H785" t="str">
+        <f t="shared" ref="H785:H804" si="159">_xlfn.CONCAT(E785,"/",F785,"/",G785)</f>
+        <v>25/04/2024</v>
+      </c>
+    </row>
+    <row r="786" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A786" t="s">
+        <v>1</v>
+      </c>
+      <c r="B786">
+        <v>20240428</v>
+      </c>
+      <c r="C786">
+        <v>62</v>
+      </c>
+      <c r="D786">
+        <v>52</v>
+      </c>
+      <c r="E786" t="str">
+        <f t="shared" si="156"/>
+        <v>28</v>
+      </c>
+      <c r="F786" t="str">
+        <f t="shared" si="157"/>
+        <v>04</v>
+      </c>
+      <c r="G786" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+      <c r="H786" t="str">
+        <f t="shared" si="159"/>
+        <v>28/04/2024</v>
+      </c>
+    </row>
+    <row r="787" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A787" t="s">
+        <v>1</v>
+      </c>
+      <c r="B787">
+        <v>20240426</v>
+      </c>
+      <c r="C787">
+        <v>48</v>
+      </c>
+      <c r="D787">
+        <v>62</v>
+      </c>
+      <c r="E787" t="str">
+        <f t="shared" si="156"/>
+        <v>26</v>
+      </c>
+      <c r="F787" t="str">
+        <f t="shared" si="157"/>
+        <v>04</v>
+      </c>
+      <c r="G787" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+      <c r="H787" t="str">
+        <f t="shared" si="159"/>
+        <v>26/04/2024</v>
+      </c>
+    </row>
+    <row r="788" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A788" t="s">
+        <v>1</v>
+      </c>
+      <c r="B788">
+        <v>20240422</v>
+      </c>
+      <c r="C788">
+        <v>46</v>
+      </c>
+      <c r="D788">
+        <v>68</v>
+      </c>
+      <c r="E788" t="str">
+        <f t="shared" si="156"/>
+        <v>22</v>
+      </c>
+      <c r="F788" t="str">
+        <f t="shared" si="157"/>
+        <v>04</v>
+      </c>
+      <c r="G788" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+      <c r="H788" t="str">
+        <f t="shared" si="159"/>
+        <v>22/04/2024</v>
+      </c>
+    </row>
+    <row r="789" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A789" t="s">
+        <v>1</v>
+      </c>
+      <c r="B789">
+        <v>20240424</v>
+      </c>
+      <c r="C789">
+        <v>46</v>
+      </c>
+      <c r="D789">
+        <v>60</v>
+      </c>
+      <c r="E789" t="str">
+        <f t="shared" si="156"/>
+        <v>24</v>
+      </c>
+      <c r="F789" t="str">
+        <f t="shared" si="157"/>
+        <v>04</v>
+      </c>
+      <c r="G789" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+      <c r="H789" t="str">
+        <f t="shared" si="159"/>
+        <v>24/04/2024</v>
+      </c>
+    </row>
+    <row r="790" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A790" t="s">
+        <v>2</v>
+      </c>
+      <c r="B790">
+        <v>20240428</v>
+      </c>
+      <c r="C790">
+        <v>44</v>
+      </c>
+      <c r="D790">
+        <v>72</v>
+      </c>
+      <c r="E790" t="str">
+        <f t="shared" si="156"/>
+        <v>28</v>
+      </c>
+      <c r="F790" t="str">
+        <f t="shared" si="157"/>
+        <v>04</v>
+      </c>
+      <c r="G790" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+      <c r="H790" t="str">
+        <f t="shared" si="159"/>
+        <v>28/04/2024</v>
+      </c>
+    </row>
+    <row r="791" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A791" t="s">
+        <v>1</v>
+      </c>
+      <c r="B791">
+        <v>20240423</v>
+      </c>
+      <c r="C791">
+        <v>39</v>
+      </c>
+      <c r="D791">
+        <v>47</v>
+      </c>
+      <c r="E791" t="str">
+        <f t="shared" si="156"/>
+        <v>23</v>
+      </c>
+      <c r="F791" t="str">
+        <f t="shared" si="157"/>
+        <v>04</v>
+      </c>
+      <c r="G791" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+      <c r="H791" t="str">
+        <f t="shared" si="159"/>
+        <v>23/04/2024</v>
+      </c>
+    </row>
+    <row r="792" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A792" t="s">
+        <v>1</v>
+      </c>
+      <c r="B792">
+        <v>20240427</v>
+      </c>
+      <c r="C792">
+        <v>35</v>
+      </c>
+      <c r="D792">
+        <v>57</v>
+      </c>
+      <c r="E792" t="str">
+        <f t="shared" si="156"/>
+        <v>27</v>
+      </c>
+      <c r="F792" t="str">
+        <f t="shared" si="157"/>
+        <v>04</v>
+      </c>
+      <c r="G792" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+      <c r="H792" t="str">
+        <f t="shared" si="159"/>
+        <v>27/04/2024</v>
+      </c>
+    </row>
+    <row r="793" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A793" t="s">
+        <v>2</v>
+      </c>
+      <c r="B793">
+        <v>20240425</v>
+      </c>
+      <c r="C793">
+        <v>27</v>
+      </c>
+      <c r="D793">
+        <v>66</v>
+      </c>
+      <c r="E793" t="str">
+        <f t="shared" si="156"/>
+        <v>25</v>
+      </c>
+      <c r="F793" t="str">
+        <f t="shared" si="157"/>
+        <v>04</v>
+      </c>
+      <c r="G793" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+      <c r="H793" t="str">
+        <f t="shared" si="159"/>
+        <v>25/04/2024</v>
+      </c>
+    </row>
+    <row r="794" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A794" t="s">
+        <v>2</v>
+      </c>
+      <c r="B794">
+        <v>20240427</v>
+      </c>
+      <c r="C794">
+        <v>18</v>
+      </c>
+      <c r="D794">
+        <v>40</v>
+      </c>
+      <c r="E794" t="str">
+        <f t="shared" si="156"/>
+        <v>27</v>
+      </c>
+      <c r="F794" t="str">
+        <f t="shared" si="157"/>
+        <v>04</v>
+      </c>
+      <c r="G794" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+      <c r="H794" t="str">
+        <f t="shared" si="159"/>
+        <v>27/04/2024</v>
+      </c>
+    </row>
+    <row r="795" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A795" t="s">
+        <v>2</v>
+      </c>
+      <c r="B795">
+        <v>20240422</v>
+      </c>
+      <c r="C795">
+        <v>16</v>
+      </c>
+      <c r="D795">
+        <v>50</v>
+      </c>
+      <c r="E795" t="str">
+        <f t="shared" si="156"/>
+        <v>22</v>
+      </c>
+      <c r="F795" t="str">
+        <f t="shared" si="157"/>
+        <v>04</v>
+      </c>
+      <c r="G795" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+      <c r="H795" t="str">
+        <f t="shared" si="159"/>
+        <v>22/04/2024</v>
+      </c>
+    </row>
+    <row r="796" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A796" t="s">
+        <v>2</v>
+      </c>
+      <c r="B796">
+        <v>20240424</v>
+      </c>
+      <c r="C796">
+        <v>16</v>
+      </c>
+      <c r="D796">
+        <v>46</v>
+      </c>
+      <c r="E796" t="str">
+        <f t="shared" si="156"/>
+        <v>24</v>
+      </c>
+      <c r="F796" t="str">
+        <f t="shared" si="157"/>
+        <v>04</v>
+      </c>
+      <c r="G796" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+      <c r="H796" t="str">
+        <f t="shared" si="159"/>
+        <v>24/04/2024</v>
+      </c>
+    </row>
+    <row r="797" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A797" t="s">
+        <v>2</v>
+      </c>
+      <c r="B797">
+        <v>20240426</v>
+      </c>
+      <c r="C797">
+        <v>15</v>
+      </c>
+      <c r="D797">
+        <v>55</v>
+      </c>
+      <c r="E797" t="str">
+        <f t="shared" si="156"/>
+        <v>26</v>
+      </c>
+      <c r="F797" t="str">
+        <f t="shared" si="157"/>
+        <v>04</v>
+      </c>
+      <c r="G797" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+      <c r="H797" t="str">
+        <f t="shared" si="159"/>
+        <v>26/04/2024</v>
+      </c>
+    </row>
+    <row r="798" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A798" t="s">
+        <v>2</v>
+      </c>
+      <c r="B798">
+        <v>20240423</v>
+      </c>
+      <c r="C798">
+        <v>12</v>
+      </c>
+      <c r="D798">
+        <v>47</v>
+      </c>
+      <c r="E798" t="str">
+        <f t="shared" si="156"/>
+        <v>23</v>
+      </c>
+      <c r="F798" t="str">
+        <f t="shared" si="157"/>
+        <v>04</v>
+      </c>
+      <c r="G798" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+      <c r="H798" t="str">
+        <f t="shared" si="159"/>
+        <v>23/04/2024</v>
+      </c>
+    </row>
+    <row r="799" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A799" t="s">
+        <v>3</v>
+      </c>
+      <c r="B799">
+        <v>20240423</v>
+      </c>
+      <c r="C799">
+        <v>1</v>
+      </c>
+      <c r="D799">
+        <v>2</v>
+      </c>
+      <c r="E799" t="str">
+        <f t="shared" si="156"/>
+        <v>23</v>
+      </c>
+      <c r="F799" t="str">
+        <f t="shared" si="157"/>
+        <v>04</v>
+      </c>
+      <c r="G799" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+      <c r="H799" t="str">
+        <f t="shared" si="159"/>
+        <v>23/04/2024</v>
+      </c>
+    </row>
+    <row r="800" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A800" t="s">
+        <v>4</v>
+      </c>
+      <c r="B800">
+        <v>20240423</v>
+      </c>
+      <c r="C800">
+        <v>1</v>
+      </c>
+      <c r="D800">
+        <v>1</v>
+      </c>
+      <c r="E800" t="str">
+        <f t="shared" si="156"/>
+        <v>23</v>
+      </c>
+      <c r="F800" t="str">
+        <f t="shared" si="157"/>
+        <v>04</v>
+      </c>
+      <c r="G800" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+      <c r="H800" t="str">
+        <f t="shared" si="159"/>
+        <v>23/04/2024</v>
+      </c>
+    </row>
+    <row r="801" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A801" t="s">
+        <v>4</v>
+      </c>
+      <c r="B801">
+        <v>20240425</v>
+      </c>
+      <c r="C801">
+        <v>1</v>
+      </c>
+      <c r="D801">
+        <v>1</v>
+      </c>
+      <c r="E801" t="str">
+        <f t="shared" si="156"/>
+        <v>25</v>
+      </c>
+      <c r="F801" t="str">
+        <f t="shared" si="157"/>
+        <v>04</v>
+      </c>
+      <c r="G801" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+      <c r="H801" t="str">
+        <f t="shared" si="159"/>
+        <v>25/04/2024</v>
+      </c>
+    </row>
+    <row r="802" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A802" t="s">
+        <v>3</v>
+      </c>
+      <c r="B802">
+        <v>20240422</v>
+      </c>
+      <c r="C802">
+        <v>0</v>
+      </c>
+      <c r="D802">
+        <v>1</v>
+      </c>
+      <c r="E802" t="str">
+        <f t="shared" si="156"/>
+        <v>22</v>
+      </c>
+      <c r="F802" t="str">
+        <f t="shared" si="157"/>
+        <v>04</v>
+      </c>
+      <c r="G802" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+      <c r="H802" t="str">
+        <f t="shared" si="159"/>
+        <v>22/04/2024</v>
+      </c>
+    </row>
+    <row r="803" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A803" t="s">
+        <v>3</v>
+      </c>
+      <c r="B803">
+        <v>20240427</v>
+      </c>
+      <c r="C803">
+        <v>0</v>
+      </c>
+      <c r="D803">
+        <v>1</v>
+      </c>
+      <c r="E803" t="str">
+        <f t="shared" si="156"/>
+        <v>27</v>
+      </c>
+      <c r="F803" t="str">
+        <f t="shared" si="157"/>
+        <v>04</v>
+      </c>
+      <c r="G803" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+      <c r="H803" t="str">
+        <f t="shared" si="159"/>
+        <v>27/04/2024</v>
+      </c>
+    </row>
+    <row r="804" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A804" t="s">
+        <v>4</v>
+      </c>
+      <c r="B804">
+        <v>20240422</v>
+      </c>
+      <c r="C804">
+        <v>0</v>
+      </c>
+      <c r="D804">
+        <v>1</v>
+      </c>
+      <c r="E804" t="str">
+        <f t="shared" si="156"/>
+        <v>22</v>
+      </c>
+      <c r="F804" t="str">
+        <f t="shared" si="157"/>
+        <v>04</v>
+      </c>
+      <c r="G804" t="str">
+        <f t="shared" si="158"/>
+        <v>2024</v>
+      </c>
+      <c r="H804" t="str">
+        <f t="shared" si="159"/>
+        <v>22/04/2024</v>
+      </c>
+    </row>
+    <row r="805" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A805" t="s">
+        <v>1</v>
+      </c>
+      <c r="B805">
+        <v>20240501</v>
+      </c>
+      <c r="C805">
+        <v>76</v>
+      </c>
+      <c r="D805">
+        <v>80</v>
+      </c>
+      <c r="E805" t="str">
+        <f t="shared" ref="E805:E825" si="160">RIGHT(B805,2)</f>
+        <v>01</v>
+      </c>
+      <c r="F805" t="str">
+        <f t="shared" ref="F805:F825" si="161">MID(B805,5,2)</f>
+        <v>05</v>
+      </c>
+      <c r="G805" t="str">
+        <f t="shared" ref="G805:G825" si="162">LEFT(B805,4)</f>
+        <v>2024</v>
+      </c>
+      <c r="H805" t="str">
+        <f t="shared" ref="H805:H825" si="163">_xlfn.CONCAT(E805,"/",F805,"/",G805)</f>
+        <v>01/05/2024</v>
+      </c>
+    </row>
+    <row r="806" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A806" t="s">
+        <v>1</v>
+      </c>
+      <c r="B806">
+        <v>20240504</v>
+      </c>
+      <c r="C806">
+        <v>72</v>
+      </c>
+      <c r="D806">
+        <v>79</v>
+      </c>
+      <c r="E806" t="str">
+        <f t="shared" si="160"/>
+        <v>04</v>
+      </c>
+      <c r="F806" t="str">
+        <f t="shared" si="161"/>
+        <v>05</v>
+      </c>
+      <c r="G806" t="str">
+        <f t="shared" si="162"/>
+        <v>2024</v>
+      </c>
+      <c r="H806" t="str">
+        <f t="shared" si="163"/>
+        <v>04/05/2024</v>
+      </c>
+    </row>
+    <row r="807" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A807" t="s">
+        <v>1</v>
+      </c>
+      <c r="B807">
+        <v>20240430</v>
+      </c>
+      <c r="C807">
+        <v>44</v>
+      </c>
+      <c r="D807">
+        <v>52</v>
+      </c>
+      <c r="E807" t="str">
+        <f t="shared" si="160"/>
+        <v>30</v>
+      </c>
+      <c r="F807" t="str">
+        <f t="shared" si="161"/>
+        <v>04</v>
+      </c>
+      <c r="G807" t="str">
+        <f t="shared" si="162"/>
+        <v>2024</v>
+      </c>
+      <c r="H807" t="str">
+        <f t="shared" si="163"/>
+        <v>30/04/2024</v>
+      </c>
+    </row>
+    <row r="808" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A808" t="s">
+        <v>1</v>
+      </c>
+      <c r="B808">
+        <v>20240502</v>
+      </c>
+      <c r="C808">
+        <v>41</v>
+      </c>
+      <c r="D808">
+        <v>58</v>
+      </c>
+      <c r="E808" t="str">
+        <f t="shared" si="160"/>
+        <v>02</v>
+      </c>
+      <c r="F808" t="str">
+        <f t="shared" si="161"/>
+        <v>05</v>
+      </c>
+      <c r="G808" t="str">
+        <f t="shared" si="162"/>
+        <v>2024</v>
+      </c>
+      <c r="H808" t="str">
+        <f t="shared" si="163"/>
+        <v>02/05/2024</v>
+      </c>
+    </row>
+    <row r="809" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A809" t="s">
+        <v>2</v>
+      </c>
+      <c r="B809">
+        <v>20240501</v>
+      </c>
+      <c r="C809">
+        <v>39</v>
+      </c>
+      <c r="D809">
+        <v>69</v>
+      </c>
+      <c r="E809" t="str">
+        <f t="shared" si="160"/>
+        <v>01</v>
+      </c>
+      <c r="F809" t="str">
+        <f t="shared" si="161"/>
+        <v>05</v>
+      </c>
+      <c r="G809" t="str">
+        <f t="shared" si="162"/>
+        <v>2024</v>
+      </c>
+      <c r="H809" t="str">
+        <f t="shared" si="163"/>
+        <v>01/05/2024</v>
+      </c>
+    </row>
+    <row r="810" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A810" t="s">
+        <v>1</v>
+      </c>
+      <c r="B810">
+        <v>20240429</v>
+      </c>
+      <c r="C810">
+        <v>37</v>
+      </c>
+      <c r="D810">
+        <v>47</v>
+      </c>
+      <c r="E810" t="str">
+        <f t="shared" si="160"/>
+        <v>29</v>
+      </c>
+      <c r="F810" t="str">
+        <f t="shared" si="161"/>
+        <v>04</v>
+      </c>
+      <c r="G810" t="str">
+        <f t="shared" si="162"/>
+        <v>2024</v>
+      </c>
+      <c r="H810" t="str">
+        <f t="shared" si="163"/>
+        <v>29/04/2024</v>
+      </c>
+    </row>
+    <row r="811" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A811" t="s">
+        <v>1</v>
+      </c>
+      <c r="B811">
+        <v>20240505</v>
+      </c>
+      <c r="C811">
+        <v>36</v>
+      </c>
+      <c r="D811">
+        <v>36</v>
+      </c>
+      <c r="E811" t="str">
+        <f t="shared" si="160"/>
+        <v>05</v>
+      </c>
+      <c r="F811" t="str">
+        <f t="shared" si="161"/>
+        <v>05</v>
+      </c>
+      <c r="G811" t="str">
+        <f t="shared" si="162"/>
+        <v>2024</v>
+      </c>
+      <c r="H811" t="str">
+        <f t="shared" si="163"/>
+        <v>05/05/2024</v>
+      </c>
+    </row>
+    <row r="812" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A812" t="s">
+        <v>1</v>
+      </c>
+      <c r="B812">
+        <v>20240503</v>
+      </c>
+      <c r="C812">
+        <v>34</v>
+      </c>
+      <c r="D812">
+        <v>38</v>
+      </c>
+      <c r="E812" t="str">
+        <f t="shared" si="160"/>
+        <v>03</v>
+      </c>
+      <c r="F812" t="str">
+        <f t="shared" si="161"/>
+        <v>05</v>
+      </c>
+      <c r="G812" t="str">
+        <f t="shared" si="162"/>
+        <v>2024</v>
+      </c>
+      <c r="H812" t="str">
+        <f t="shared" si="163"/>
+        <v>03/05/2024</v>
+      </c>
+    </row>
+    <row r="813" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A813" t="s">
+        <v>2</v>
+      </c>
+      <c r="B813">
+        <v>20240504</v>
+      </c>
+      <c r="C813">
+        <v>31</v>
+      </c>
+      <c r="D813">
+        <v>70</v>
+      </c>
+      <c r="E813" t="str">
+        <f t="shared" si="160"/>
+        <v>04</v>
+      </c>
+      <c r="F813" t="str">
+        <f t="shared" si="161"/>
+        <v>05</v>
+      </c>
+      <c r="G813" t="str">
+        <f t="shared" si="162"/>
+        <v>2024</v>
+      </c>
+      <c r="H813" t="str">
+        <f t="shared" si="163"/>
+        <v>04/05/2024</v>
+      </c>
+    </row>
+    <row r="814" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A814" t="s">
+        <v>2</v>
+      </c>
+      <c r="B814">
+        <v>20240429</v>
+      </c>
+      <c r="C814">
+        <v>23</v>
+      </c>
+      <c r="D814">
+        <v>49</v>
+      </c>
+      <c r="E814" t="str">
+        <f t="shared" si="160"/>
+        <v>29</v>
+      </c>
+      <c r="F814" t="str">
+        <f t="shared" si="161"/>
+        <v>04</v>
+      </c>
+      <c r="G814" t="str">
+        <f t="shared" si="162"/>
+        <v>2024</v>
+      </c>
+      <c r="H814" t="str">
+        <f t="shared" si="163"/>
+        <v>29/04/2024</v>
+      </c>
+    </row>
+    <row r="815" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A815" t="s">
+        <v>2</v>
+      </c>
+      <c r="B815">
+        <v>20240430</v>
+      </c>
+      <c r="C815">
+        <v>16</v>
+      </c>
+      <c r="D815">
+        <v>54</v>
+      </c>
+      <c r="E815" t="str">
+        <f t="shared" si="160"/>
+        <v>30</v>
+      </c>
+      <c r="F815" t="str">
+        <f t="shared" si="161"/>
+        <v>04</v>
+      </c>
+      <c r="G815" t="str">
+        <f t="shared" si="162"/>
+        <v>2024</v>
+      </c>
+      <c r="H815" t="str">
+        <f t="shared" si="163"/>
+        <v>30/04/2024</v>
+      </c>
+    </row>
+    <row r="816" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A816" t="s">
+        <v>2</v>
+      </c>
+      <c r="B816">
+        <v>20240503</v>
+      </c>
+      <c r="C816">
+        <v>14</v>
+      </c>
+      <c r="D816">
+        <v>66</v>
+      </c>
+      <c r="E816" t="str">
+        <f t="shared" si="160"/>
+        <v>03</v>
+      </c>
+      <c r="F816" t="str">
+        <f t="shared" si="161"/>
+        <v>05</v>
+      </c>
+      <c r="G816" t="str">
+        <f t="shared" si="162"/>
+        <v>2024</v>
+      </c>
+      <c r="H816" t="str">
+        <f t="shared" si="163"/>
+        <v>03/05/2024</v>
+      </c>
+    </row>
+    <row r="817" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A817" t="s">
+        <v>2</v>
+      </c>
+      <c r="B817">
+        <v>20240502</v>
+      </c>
+      <c r="C817">
+        <v>8</v>
+      </c>
+      <c r="D817">
+        <v>64</v>
+      </c>
+      <c r="E817" t="str">
+        <f t="shared" si="160"/>
+        <v>02</v>
+      </c>
+      <c r="F817" t="str">
+        <f t="shared" si="161"/>
+        <v>05</v>
+      </c>
+      <c r="G817" t="str">
+        <f t="shared" si="162"/>
+        <v>2024</v>
+      </c>
+      <c r="H817" t="str">
+        <f t="shared" si="163"/>
+        <v>02/05/2024</v>
+      </c>
+    </row>
+    <row r="818" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A818" t="s">
+        <v>2</v>
+      </c>
+      <c r="B818">
+        <v>20240505</v>
+      </c>
+      <c r="C818">
+        <v>6</v>
+      </c>
+      <c r="D818">
+        <v>32</v>
+      </c>
+      <c r="E818" t="str">
+        <f t="shared" si="160"/>
+        <v>05</v>
+      </c>
+      <c r="F818" t="str">
+        <f t="shared" si="161"/>
+        <v>05</v>
+      </c>
+      <c r="G818" t="str">
+        <f t="shared" si="162"/>
+        <v>2024</v>
+      </c>
+      <c r="H818" t="str">
+        <f t="shared" si="163"/>
+        <v>05/05/2024</v>
+      </c>
+    </row>
+    <row r="819" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A819" t="s">
+        <v>4</v>
+      </c>
+      <c r="B819">
+        <v>20240505</v>
+      </c>
+      <c r="C819">
+        <v>2</v>
+      </c>
+      <c r="D819">
+        <v>0</v>
+      </c>
+      <c r="E819" t="str">
+        <f t="shared" si="160"/>
+        <v>05</v>
+      </c>
+      <c r="F819" t="str">
+        <f t="shared" si="161"/>
+        <v>05</v>
+      </c>
+      <c r="G819" t="str">
+        <f t="shared" si="162"/>
+        <v>2024</v>
+      </c>
+      <c r="H819" t="str">
+        <f t="shared" si="163"/>
+        <v>05/05/2024</v>
+      </c>
+    </row>
+    <row r="820" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A820" t="s">
+        <v>3</v>
+      </c>
+      <c r="B820">
+        <v>20240501</v>
+      </c>
+      <c r="C820">
+        <v>1</v>
+      </c>
+      <c r="D820">
+        <v>0</v>
+      </c>
+      <c r="E820" t="str">
+        <f t="shared" si="160"/>
+        <v>01</v>
+      </c>
+      <c r="F820" t="str">
+        <f t="shared" si="161"/>
+        <v>05</v>
+      </c>
+      <c r="G820" t="str">
+        <f t="shared" si="162"/>
+        <v>2024</v>
+      </c>
+      <c r="H820" t="str">
+        <f t="shared" si="163"/>
+        <v>01/05/2024</v>
+      </c>
+    </row>
+    <row r="821" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A821" t="s">
+        <v>4</v>
+      </c>
+      <c r="B821">
+        <v>20240501</v>
+      </c>
+      <c r="C821">
+        <v>1</v>
+      </c>
+      <c r="D821">
+        <v>3</v>
+      </c>
+      <c r="E821" t="str">
+        <f t="shared" si="160"/>
+        <v>01</v>
+      </c>
+      <c r="F821" t="str">
+        <f t="shared" si="161"/>
+        <v>05</v>
+      </c>
+      <c r="G821" t="str">
+        <f t="shared" si="162"/>
+        <v>2024</v>
+      </c>
+      <c r="H821" t="str">
+        <f t="shared" si="163"/>
+        <v>01/05/2024</v>
+      </c>
+    </row>
+    <row r="822" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A822" t="s">
+        <v>4</v>
+      </c>
+      <c r="B822">
+        <v>20240502</v>
+      </c>
+      <c r="C822">
+        <v>1</v>
+      </c>
+      <c r="D822">
+        <v>1</v>
+      </c>
+      <c r="E822" t="str">
+        <f t="shared" si="160"/>
+        <v>02</v>
+      </c>
+      <c r="F822" t="str">
+        <f t="shared" si="161"/>
+        <v>05</v>
+      </c>
+      <c r="G822" t="str">
+        <f t="shared" si="162"/>
+        <v>2024</v>
+      </c>
+      <c r="H822" t="str">
+        <f t="shared" si="163"/>
+        <v>02/05/2024</v>
+      </c>
+    </row>
+    <row r="823" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A823" t="s">
+        <v>3</v>
+      </c>
+      <c r="B823">
+        <v>20240504</v>
+      </c>
+      <c r="C823">
+        <v>0</v>
+      </c>
+      <c r="D823">
+        <v>1</v>
+      </c>
+      <c r="E823" t="str">
+        <f t="shared" si="160"/>
+        <v>04</v>
+      </c>
+      <c r="F823" t="str">
+        <f t="shared" si="161"/>
+        <v>05</v>
+      </c>
+      <c r="G823" t="str">
+        <f t="shared" si="162"/>
+        <v>2024</v>
+      </c>
+      <c r="H823" t="str">
+        <f t="shared" si="163"/>
+        <v>04/05/2024</v>
+      </c>
+    </row>
+    <row r="824" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A824" t="s">
+        <v>4</v>
+      </c>
+      <c r="B824">
+        <v>20240430</v>
+      </c>
+      <c r="C824">
+        <v>0</v>
+      </c>
+      <c r="D824">
+        <v>2</v>
+      </c>
+      <c r="E824" t="str">
+        <f t="shared" si="160"/>
+        <v>30</v>
+      </c>
+      <c r="F824" t="str">
+        <f t="shared" si="161"/>
+        <v>04</v>
+      </c>
+      <c r="G824" t="str">
+        <f t="shared" si="162"/>
+        <v>2024</v>
+      </c>
+      <c r="H824" t="str">
+        <f t="shared" si="163"/>
+        <v>30/04/2024</v>
+      </c>
+    </row>
+    <row r="825" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A825" t="s">
+        <v>4</v>
+      </c>
+      <c r="B825">
+        <v>20240504</v>
+      </c>
+      <c r="C825">
+        <v>0</v>
+      </c>
+      <c r="D825">
+        <v>1</v>
+      </c>
+      <c r="E825" t="str">
+        <f t="shared" si="160"/>
+        <v>04</v>
+      </c>
+      <c r="F825" t="str">
+        <f t="shared" si="161"/>
+        <v>05</v>
+      </c>
+      <c r="G825" t="str">
+        <f t="shared" si="162"/>
+        <v>2024</v>
+      </c>
+      <c r="H825" t="str">
+        <f t="shared" si="163"/>
+        <v>04/05/2024</v>
+      </c>
+    </row>
+    <row r="826" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A826" t="s">
+        <v>1</v>
+      </c>
+      <c r="B826">
+        <v>20240509</v>
+      </c>
+      <c r="C826">
+        <v>78</v>
+      </c>
+      <c r="D826">
+        <v>85</v>
+      </c>
+      <c r="E826" t="str">
+        <f t="shared" ref="E826" si="164">RIGHT(B826,2)</f>
+        <v>09</v>
+      </c>
+      <c r="F826" t="str">
+        <f t="shared" ref="F826" si="165">MID(B826,5,2)</f>
+        <v>05</v>
+      </c>
+      <c r="G826" t="str">
+        <f t="shared" ref="G826" si="166">LEFT(B826,4)</f>
+        <v>2024</v>
+      </c>
+      <c r="H826" t="str">
+        <f t="shared" ref="H826" si="167">_xlfn.CONCAT(E826,"/",F826,"/",G826)</f>
+        <v>09/05/2024</v>
+      </c>
+    </row>
+    <row r="827" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A827" t="s">
+        <v>1</v>
+      </c>
+      <c r="B827">
+        <v>20240512</v>
+      </c>
+      <c r="C827">
+        <v>47</v>
+      </c>
+      <c r="D827">
+        <v>49</v>
+      </c>
+      <c r="E827" t="str">
+        <f t="shared" ref="E827:E843" si="168">RIGHT(B827,2)</f>
+        <v>12</v>
+      </c>
+      <c r="F827" t="str">
+        <f t="shared" ref="F827:F843" si="169">MID(B827,5,2)</f>
+        <v>05</v>
+      </c>
+      <c r="G827" t="str">
+        <f t="shared" ref="G827:G843" si="170">LEFT(B827,4)</f>
+        <v>2024</v>
+      </c>
+      <c r="H827" t="str">
+        <f t="shared" ref="H827:H843" si="171">_xlfn.CONCAT(E827,"/",F827,"/",G827)</f>
+        <v>12/05/2024</v>
+      </c>
+    </row>
+    <row r="828" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A828" t="s">
+        <v>1</v>
+      </c>
+      <c r="B828">
+        <v>20240506</v>
+      </c>
+      <c r="C828">
+        <v>34</v>
+      </c>
+      <c r="D828">
+        <v>44</v>
+      </c>
+      <c r="E828" t="str">
+        <f t="shared" si="168"/>
+        <v>06</v>
+      </c>
+      <c r="F828" t="str">
+        <f t="shared" si="169"/>
+        <v>05</v>
+      </c>
+      <c r="G828" t="str">
+        <f t="shared" si="170"/>
+        <v>2024</v>
+      </c>
+      <c r="H828" t="str">
+        <f t="shared" si="171"/>
+        <v>06/05/2024</v>
+      </c>
+    </row>
+    <row r="829" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A829" t="s">
+        <v>1</v>
+      </c>
+      <c r="B829">
+        <v>20240508</v>
+      </c>
+      <c r="C829">
+        <v>34</v>
+      </c>
+      <c r="D829">
+        <v>37</v>
+      </c>
+      <c r="E829" t="str">
+        <f t="shared" si="168"/>
+        <v>08</v>
+      </c>
+      <c r="F829" t="str">
+        <f t="shared" si="169"/>
+        <v>05</v>
+      </c>
+      <c r="G829" t="str">
+        <f t="shared" si="170"/>
+        <v>2024</v>
+      </c>
+      <c r="H829" t="str">
+        <f t="shared" si="171"/>
+        <v>08/05/2024</v>
+      </c>
+    </row>
+    <row r="830" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A830" t="s">
+        <v>1</v>
+      </c>
+      <c r="B830">
+        <v>20240511</v>
+      </c>
+      <c r="C830">
+        <v>34</v>
+      </c>
+      <c r="D830">
+        <v>33</v>
+      </c>
+      <c r="E830" t="str">
+        <f t="shared" si="168"/>
+        <v>11</v>
+      </c>
+      <c r="F830" t="str">
+        <f t="shared" si="169"/>
+        <v>05</v>
+      </c>
+      <c r="G830" t="str">
+        <f t="shared" si="170"/>
+        <v>2024</v>
+      </c>
+      <c r="H830" t="str">
+        <f t="shared" si="171"/>
+        <v>11/05/2024</v>
+      </c>
+    </row>
+    <row r="831" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A831" t="s">
+        <v>1</v>
+      </c>
+      <c r="B831">
+        <v>20240507</v>
+      </c>
+      <c r="C831">
+        <v>30</v>
+      </c>
+      <c r="D831">
+        <v>37</v>
+      </c>
+      <c r="E831" t="str">
+        <f t="shared" si="168"/>
+        <v>07</v>
+      </c>
+      <c r="F831" t="str">
+        <f t="shared" si="169"/>
+        <v>05</v>
+      </c>
+      <c r="G831" t="str">
+        <f t="shared" si="170"/>
+        <v>2024</v>
+      </c>
+      <c r="H831" t="str">
+        <f t="shared" si="171"/>
+        <v>07/05/2024</v>
+      </c>
+    </row>
+    <row r="832" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A832" t="s">
+        <v>1</v>
+      </c>
+      <c r="B832">
+        <v>20240510</v>
+      </c>
+      <c r="C832">
+        <v>30</v>
+      </c>
+      <c r="D832">
+        <v>58</v>
+      </c>
+      <c r="E832" t="str">
+        <f t="shared" si="168"/>
+        <v>10</v>
+      </c>
+      <c r="F832" t="str">
+        <f t="shared" si="169"/>
+        <v>05</v>
+      </c>
+      <c r="G832" t="str">
+        <f t="shared" si="170"/>
+        <v>2024</v>
+      </c>
+      <c r="H832" t="str">
+        <f t="shared" si="171"/>
+        <v>10/05/2024</v>
+      </c>
+    </row>
+    <row r="833" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A833" t="s">
+        <v>2</v>
+      </c>
+      <c r="B833">
+        <v>20240510</v>
+      </c>
+      <c r="C833">
+        <v>18</v>
+      </c>
+      <c r="D833">
+        <v>71</v>
+      </c>
+      <c r="E833" t="str">
+        <f t="shared" si="168"/>
+        <v>10</v>
+      </c>
+      <c r="F833" t="str">
+        <f t="shared" si="169"/>
+        <v>05</v>
+      </c>
+      <c r="G833" t="str">
+        <f t="shared" si="170"/>
+        <v>2024</v>
+      </c>
+      <c r="H833" t="str">
+        <f t="shared" si="171"/>
+        <v>10/05/2024</v>
+      </c>
+    </row>
+    <row r="834" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A834" t="s">
+        <v>2</v>
+      </c>
+      <c r="B834">
+        <v>20240506</v>
+      </c>
+      <c r="C834">
+        <v>15</v>
+      </c>
+      <c r="D834">
+        <v>36</v>
+      </c>
+      <c r="E834" t="str">
+        <f t="shared" si="168"/>
+        <v>06</v>
+      </c>
+      <c r="F834" t="str">
+        <f t="shared" si="169"/>
+        <v>05</v>
+      </c>
+      <c r="G834" t="str">
+        <f t="shared" si="170"/>
+        <v>2024</v>
+      </c>
+      <c r="H834" t="str">
+        <f t="shared" si="171"/>
+        <v>06/05/2024</v>
+      </c>
+    </row>
+    <row r="835" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A835" t="s">
+        <v>2</v>
+      </c>
+      <c r="B835">
+        <v>20240512</v>
+      </c>
+      <c r="C835">
+        <v>15</v>
+      </c>
+      <c r="D835">
+        <v>45</v>
+      </c>
+      <c r="E835" t="str">
+        <f t="shared" si="168"/>
+        <v>12</v>
+      </c>
+      <c r="F835" t="str">
+        <f t="shared" si="169"/>
+        <v>05</v>
+      </c>
+      <c r="G835" t="str">
+        <f t="shared" si="170"/>
+        <v>2024</v>
+      </c>
+      <c r="H835" t="str">
+        <f t="shared" si="171"/>
+        <v>12/05/2024</v>
+      </c>
+    </row>
+    <row r="836" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A836" t="s">
+        <v>2</v>
+      </c>
+      <c r="B836">
+        <v>20240509</v>
+      </c>
+      <c r="C836">
+        <v>12</v>
+      </c>
+      <c r="D836">
+        <v>50</v>
+      </c>
+      <c r="E836" t="str">
+        <f t="shared" si="168"/>
+        <v>09</v>
+      </c>
+      <c r="F836" t="str">
+        <f t="shared" si="169"/>
+        <v>05</v>
+      </c>
+      <c r="G836" t="str">
+        <f t="shared" si="170"/>
+        <v>2024</v>
+      </c>
+      <c r="H836" t="str">
+        <f t="shared" si="171"/>
+        <v>09/05/2024</v>
+      </c>
+    </row>
+    <row r="837" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A837" t="s">
+        <v>2</v>
+      </c>
+      <c r="B837">
+        <v>20240511</v>
+      </c>
+      <c r="C837">
+        <v>11</v>
+      </c>
+      <c r="D837">
+        <v>48</v>
+      </c>
+      <c r="E837" t="str">
+        <f t="shared" si="168"/>
+        <v>11</v>
+      </c>
+      <c r="F837" t="str">
+        <f t="shared" si="169"/>
+        <v>05</v>
+      </c>
+      <c r="G837" t="str">
+        <f t="shared" si="170"/>
+        <v>2024</v>
+      </c>
+      <c r="H837" t="str">
+        <f t="shared" si="171"/>
+        <v>11/05/2024</v>
+      </c>
+    </row>
+    <row r="838" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A838" t="s">
+        <v>2</v>
+      </c>
+      <c r="B838">
+        <v>20240507</v>
+      </c>
+      <c r="C838">
+        <v>10</v>
+      </c>
+      <c r="D838">
+        <v>38</v>
+      </c>
+      <c r="E838" t="str">
+        <f t="shared" si="168"/>
+        <v>07</v>
+      </c>
+      <c r="F838" t="str">
+        <f t="shared" si="169"/>
+        <v>05</v>
+      </c>
+      <c r="G838" t="str">
+        <f t="shared" si="170"/>
+        <v>2024</v>
+      </c>
+      <c r="H838" t="str">
+        <f t="shared" si="171"/>
+        <v>07/05/2024</v>
+      </c>
+    </row>
+    <row r="839" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A839" t="s">
+        <v>2</v>
+      </c>
+      <c r="B839">
+        <v>20240508</v>
+      </c>
+      <c r="C839">
+        <v>10</v>
+      </c>
+      <c r="D839">
+        <v>51</v>
+      </c>
+      <c r="E839" t="str">
+        <f t="shared" si="168"/>
+        <v>08</v>
+      </c>
+      <c r="F839" t="str">
+        <f t="shared" si="169"/>
+        <v>05</v>
+      </c>
+      <c r="G839" t="str">
+        <f t="shared" si="170"/>
+        <v>2024</v>
+      </c>
+      <c r="H839" t="str">
+        <f t="shared" si="171"/>
+        <v>08/05/2024</v>
+      </c>
+    </row>
+    <row r="840" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A840" t="s">
+        <v>3</v>
+      </c>
+      <c r="B840">
+        <v>20240512</v>
+      </c>
+      <c r="C840">
+        <v>1</v>
+      </c>
+      <c r="D840">
+        <v>0</v>
+      </c>
+      <c r="E840" t="str">
+        <f t="shared" si="168"/>
+        <v>12</v>
+      </c>
+      <c r="F840" t="str">
+        <f t="shared" si="169"/>
+        <v>05</v>
+      </c>
+      <c r="G840" t="str">
+        <f t="shared" si="170"/>
+        <v>2024</v>
+      </c>
+      <c r="H840" t="str">
+        <f t="shared" si="171"/>
+        <v>12/05/2024</v>
+      </c>
+    </row>
+    <row r="841" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A841" t="s">
+        <v>4</v>
+      </c>
+      <c r="B841">
+        <v>20240510</v>
+      </c>
+      <c r="C841">
+        <v>1</v>
+      </c>
+      <c r="D841">
+        <v>3</v>
+      </c>
+      <c r="E841" t="str">
+        <f t="shared" si="168"/>
+        <v>10</v>
+      </c>
+      <c r="F841" t="str">
+        <f t="shared" si="169"/>
+        <v>05</v>
+      </c>
+      <c r="G841" t="str">
+        <f t="shared" si="170"/>
+        <v>2024</v>
+      </c>
+      <c r="H841" t="str">
+        <f t="shared" si="171"/>
+        <v>10/05/2024</v>
+      </c>
+    </row>
+    <row r="842" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A842" t="s">
+        <v>4</v>
+      </c>
+      <c r="B842">
+        <v>20240508</v>
+      </c>
+      <c r="C842">
+        <v>0</v>
+      </c>
+      <c r="D842">
+        <v>1</v>
+      </c>
+      <c r="E842" t="str">
+        <f t="shared" si="168"/>
+        <v>08</v>
+      </c>
+      <c r="F842" t="str">
+        <f t="shared" si="169"/>
+        <v>05</v>
+      </c>
+      <c r="G842" t="str">
+        <f t="shared" si="170"/>
+        <v>2024</v>
+      </c>
+      <c r="H842" t="str">
+        <f t="shared" si="171"/>
+        <v>08/05/2024</v>
+      </c>
+    </row>
+    <row r="843" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A843" t="s">
+        <v>4</v>
+      </c>
+      <c r="B843">
+        <v>20240509</v>
+      </c>
+      <c r="C843">
+        <v>0</v>
+      </c>
+      <c r="D843">
+        <v>1</v>
+      </c>
+      <c r="E843" t="str">
+        <f t="shared" si="168"/>
+        <v>09</v>
+      </c>
+      <c r="F843" t="str">
+        <f t="shared" si="169"/>
+        <v>05</v>
+      </c>
+      <c r="G843" t="str">
+        <f t="shared" si="170"/>
+        <v>2024</v>
+      </c>
+      <c r="H843" t="str">
+        <f t="shared" si="171"/>
+        <v>09/05/2024</v>
+      </c>
+    </row>
+    <row r="844" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A844" t="s">
+        <v>1</v>
+      </c>
+      <c r="B844">
+        <v>20240516</v>
+      </c>
+      <c r="C844">
+        <v>73</v>
+      </c>
+      <c r="D844">
+        <v>75</v>
+      </c>
+      <c r="E844" t="str">
+        <f t="shared" ref="E844:E867" si="172">RIGHT(B844,2)</f>
+        <v>16</v>
+      </c>
+      <c r="F844" t="str">
+        <f t="shared" ref="F844:F867" si="173">MID(B844,5,2)</f>
+        <v>05</v>
+      </c>
+      <c r="G844" t="str">
+        <f t="shared" ref="G844:G867" si="174">LEFT(B844,4)</f>
+        <v>2024</v>
+      </c>
+      <c r="H844" t="str">
+        <f t="shared" ref="H844:H867" si="175">_xlfn.CONCAT(E844,"/",F844,"/",G844)</f>
+        <v>16/05/2024</v>
+      </c>
+    </row>
+    <row r="845" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A845" t="s">
+        <v>1</v>
+      </c>
+      <c r="B845">
+        <v>20240513</v>
+      </c>
+      <c r="C845">
+        <v>54</v>
+      </c>
+      <c r="D845">
+        <v>67</v>
+      </c>
+      <c r="E845" t="str">
+        <f t="shared" si="172"/>
+        <v>13</v>
+      </c>
+      <c r="F845" t="str">
+        <f t="shared" si="173"/>
+        <v>05</v>
+      </c>
+      <c r="G845" t="str">
+        <f t="shared" si="174"/>
+        <v>2024</v>
+      </c>
+      <c r="H845" t="str">
+        <f t="shared" si="175"/>
+        <v>13/05/2024</v>
+      </c>
+    </row>
+    <row r="846" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A846" t="s">
+        <v>1</v>
+      </c>
+      <c r="B846">
+        <v>20240514</v>
+      </c>
+      <c r="C846">
+        <v>43</v>
+      </c>
+      <c r="D846">
+        <v>45</v>
+      </c>
+      <c r="E846" t="str">
+        <f t="shared" si="172"/>
+        <v>14</v>
+      </c>
+      <c r="F846" t="str">
+        <f t="shared" si="173"/>
+        <v>05</v>
+      </c>
+      <c r="G846" t="str">
+        <f t="shared" si="174"/>
+        <v>2024</v>
+      </c>
+      <c r="H846" t="str">
+        <f t="shared" si="175"/>
+        <v>14/05/2024</v>
+      </c>
+    </row>
+    <row r="847" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A847" t="s">
+        <v>1</v>
+      </c>
+      <c r="B847">
+        <v>20240517</v>
+      </c>
+      <c r="C847">
+        <v>43</v>
+      </c>
+      <c r="D847">
+        <v>55</v>
+      </c>
+      <c r="E847" t="str">
+        <f t="shared" si="172"/>
+        <v>17</v>
+      </c>
+      <c r="F847" t="str">
+        <f t="shared" si="173"/>
+        <v>05</v>
+      </c>
+      <c r="G847" t="str">
+        <f t="shared" si="174"/>
+        <v>2024</v>
+      </c>
+      <c r="H847" t="str">
+        <f t="shared" si="175"/>
+        <v>17/05/2024</v>
+      </c>
+    </row>
+    <row r="848" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A848" t="s">
+        <v>1</v>
+      </c>
+      <c r="B848">
+        <v>20240519</v>
+      </c>
+      <c r="C848">
+        <v>39</v>
+      </c>
+      <c r="D848">
+        <v>43</v>
+      </c>
+      <c r="E848" t="str">
+        <f t="shared" si="172"/>
+        <v>19</v>
+      </c>
+      <c r="F848" t="str">
+        <f t="shared" si="173"/>
+        <v>05</v>
+      </c>
+      <c r="G848" t="str">
+        <f t="shared" si="174"/>
+        <v>2024</v>
+      </c>
+      <c r="H848" t="str">
+        <f t="shared" si="175"/>
+        <v>19/05/2024</v>
+      </c>
+    </row>
+    <row r="849" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A849" t="s">
+        <v>1</v>
+      </c>
+      <c r="B849">
+        <v>20240515</v>
+      </c>
+      <c r="C849">
+        <v>37</v>
+      </c>
+      <c r="D849">
+        <v>42</v>
+      </c>
+      <c r="E849" t="str">
+        <f t="shared" si="172"/>
+        <v>15</v>
+      </c>
+      <c r="F849" t="str">
+        <f t="shared" si="173"/>
+        <v>05</v>
+      </c>
+      <c r="G849" t="str">
+        <f t="shared" si="174"/>
+        <v>2024</v>
+      </c>
+      <c r="H849" t="str">
+        <f t="shared" si="175"/>
+        <v>15/05/2024</v>
+      </c>
+    </row>
+    <row r="850" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A850" t="s">
+        <v>1</v>
+      </c>
+      <c r="B850">
+        <v>20240518</v>
+      </c>
+      <c r="C850">
+        <v>37</v>
+      </c>
+      <c r="D850">
+        <v>39</v>
+      </c>
+      <c r="E850" t="str">
+        <f t="shared" si="172"/>
+        <v>18</v>
+      </c>
+      <c r="F850" t="str">
+        <f t="shared" si="173"/>
+        <v>05</v>
+      </c>
+      <c r="G850" t="str">
+        <f t="shared" si="174"/>
+        <v>2024</v>
+      </c>
+      <c r="H850" t="str">
+        <f t="shared" si="175"/>
+        <v>18/05/2024</v>
+      </c>
+    </row>
+    <row r="851" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A851" t="s">
+        <v>2</v>
+      </c>
+      <c r="B851">
+        <v>20240516</v>
+      </c>
+      <c r="C851">
+        <v>23</v>
+      </c>
+      <c r="D851">
+        <v>73</v>
+      </c>
+      <c r="E851" t="str">
+        <f t="shared" si="172"/>
+        <v>16</v>
+      </c>
+      <c r="F851" t="str">
+        <f t="shared" si="173"/>
+        <v>05</v>
+      </c>
+      <c r="G851" t="str">
+        <f t="shared" si="174"/>
+        <v>2024</v>
+      </c>
+      <c r="H851" t="str">
+        <f t="shared" si="175"/>
+        <v>16/05/2024</v>
+      </c>
+    </row>
+    <row r="852" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A852" t="s">
+        <v>2</v>
+      </c>
+      <c r="B852">
+        <v>20240514</v>
+      </c>
+      <c r="C852">
+        <v>14</v>
+      </c>
+      <c r="D852">
+        <v>55</v>
+      </c>
+      <c r="E852" t="str">
+        <f t="shared" si="172"/>
+        <v>14</v>
+      </c>
+      <c r="F852" t="str">
+        <f t="shared" si="173"/>
+        <v>05</v>
+      </c>
+      <c r="G852" t="str">
+        <f t="shared" si="174"/>
+        <v>2024</v>
+      </c>
+      <c r="H852" t="str">
+        <f t="shared" si="175"/>
+        <v>14/05/2024</v>
+      </c>
+    </row>
+    <row r="853" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A853" t="s">
+        <v>2</v>
+      </c>
+      <c r="B853">
+        <v>20240518</v>
+      </c>
+      <c r="C853">
+        <v>14</v>
+      </c>
+      <c r="D853">
+        <v>42</v>
+      </c>
+      <c r="E853" t="str">
+        <f t="shared" si="172"/>
+        <v>18</v>
+      </c>
+      <c r="F853" t="str">
+        <f t="shared" si="173"/>
+        <v>05</v>
+      </c>
+      <c r="G853" t="str">
+        <f t="shared" si="174"/>
+        <v>2024</v>
+      </c>
+      <c r="H853" t="str">
+        <f t="shared" si="175"/>
+        <v>18/05/2024</v>
+      </c>
+    </row>
+    <row r="854" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A854" t="s">
+        <v>2</v>
+      </c>
+      <c r="B854">
+        <v>20240513</v>
+      </c>
+      <c r="C854">
+        <v>12</v>
+      </c>
+      <c r="D854">
+        <v>60</v>
+      </c>
+      <c r="E854" t="str">
+        <f t="shared" si="172"/>
+        <v>13</v>
+      </c>
+      <c r="F854" t="str">
+        <f t="shared" si="173"/>
+        <v>05</v>
+      </c>
+      <c r="G854" t="str">
+        <f t="shared" si="174"/>
+        <v>2024</v>
+      </c>
+      <c r="H854" t="str">
+        <f t="shared" si="175"/>
+        <v>13/05/2024</v>
+      </c>
+    </row>
+    <row r="855" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A855" t="s">
+        <v>2</v>
+      </c>
+      <c r="B855">
+        <v>20240515</v>
+      </c>
+      <c r="C855">
+        <v>11</v>
+      </c>
+      <c r="D855">
+        <v>53</v>
+      </c>
+      <c r="E855" t="str">
+        <f t="shared" si="172"/>
+        <v>15</v>
+      </c>
+      <c r="F855" t="str">
+        <f t="shared" si="173"/>
+        <v>05</v>
+      </c>
+      <c r="G855" t="str">
+        <f t="shared" si="174"/>
+        <v>2024</v>
+      </c>
+      <c r="H855" t="str">
+        <f t="shared" si="175"/>
+        <v>15/05/2024</v>
+      </c>
+    </row>
+    <row r="856" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A856" t="s">
+        <v>2</v>
+      </c>
+      <c r="B856">
+        <v>20240517</v>
+      </c>
+      <c r="C856">
+        <v>11</v>
+      </c>
+      <c r="D856">
+        <v>54</v>
+      </c>
+      <c r="E856" t="str">
+        <f t="shared" si="172"/>
+        <v>17</v>
+      </c>
+      <c r="F856" t="str">
+        <f t="shared" si="173"/>
+        <v>05</v>
+      </c>
+      <c r="G856" t="str">
+        <f t="shared" si="174"/>
+        <v>2024</v>
+      </c>
+      <c r="H856" t="str">
+        <f t="shared" si="175"/>
+        <v>17/05/2024</v>
+      </c>
+    </row>
+    <row r="857" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A857" t="s">
+        <v>2</v>
+      </c>
+      <c r="B857">
+        <v>20240519</v>
+      </c>
+      <c r="C857">
+        <v>4</v>
+      </c>
+      <c r="D857">
+        <v>39</v>
+      </c>
+      <c r="E857" t="str">
+        <f t="shared" si="172"/>
+        <v>19</v>
+      </c>
+      <c r="F857" t="str">
+        <f t="shared" si="173"/>
+        <v>05</v>
+      </c>
+      <c r="G857" t="str">
+        <f t="shared" si="174"/>
+        <v>2024</v>
+      </c>
+      <c r="H857" t="str">
+        <f t="shared" si="175"/>
+        <v>19/05/2024</v>
+      </c>
+    </row>
+    <row r="858" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A858" t="s">
+        <v>4</v>
+      </c>
+      <c r="B858">
+        <v>20240514</v>
+      </c>
+      <c r="C858">
+        <v>2</v>
+      </c>
+      <c r="D858">
+        <v>5</v>
+      </c>
+      <c r="E858" t="str">
+        <f t="shared" si="172"/>
+        <v>14</v>
+      </c>
+      <c r="F858" t="str">
+        <f t="shared" si="173"/>
+        <v>05</v>
+      </c>
+      <c r="G858" t="str">
+        <f t="shared" si="174"/>
+        <v>2024</v>
+      </c>
+      <c r="H858" t="str">
+        <f t="shared" si="175"/>
+        <v>14/05/2024</v>
+      </c>
+    </row>
+    <row r="859" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A859" t="s">
+        <v>3</v>
+      </c>
+      <c r="B859">
+        <v>20240513</v>
+      </c>
+      <c r="C859">
+        <v>1</v>
+      </c>
+      <c r="D859">
+        <v>2</v>
+      </c>
+      <c r="E859" t="str">
+        <f t="shared" si="172"/>
+        <v>13</v>
+      </c>
+      <c r="F859" t="str">
+        <f t="shared" si="173"/>
+        <v>05</v>
+      </c>
+      <c r="G859" t="str">
+        <f t="shared" si="174"/>
+        <v>2024</v>
+      </c>
+      <c r="H859" t="str">
+        <f t="shared" si="175"/>
+        <v>13/05/2024</v>
+      </c>
+    </row>
+    <row r="860" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A860" t="s">
+        <v>3</v>
+      </c>
+      <c r="B860">
+        <v>20240515</v>
+      </c>
+      <c r="C860">
+        <v>1</v>
+      </c>
+      <c r="D860">
+        <v>0</v>
+      </c>
+      <c r="E860" t="str">
+        <f t="shared" si="172"/>
+        <v>15</v>
+      </c>
+      <c r="F860" t="str">
+        <f t="shared" si="173"/>
+        <v>05</v>
+      </c>
+      <c r="G860" t="str">
+        <f t="shared" si="174"/>
+        <v>2024</v>
+      </c>
+      <c r="H860" t="str">
+        <f t="shared" si="175"/>
+        <v>15/05/2024</v>
+      </c>
+    </row>
+    <row r="861" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A861" t="s">
+        <v>4</v>
+      </c>
+      <c r="B861">
+        <v>20240513</v>
+      </c>
+      <c r="C861">
+        <v>1</v>
+      </c>
+      <c r="D861">
+        <v>2</v>
+      </c>
+      <c r="E861" t="str">
+        <f t="shared" si="172"/>
+        <v>13</v>
+      </c>
+      <c r="F861" t="str">
+        <f t="shared" si="173"/>
+        <v>05</v>
+      </c>
+      <c r="G861" t="str">
+        <f t="shared" si="174"/>
+        <v>2024</v>
+      </c>
+      <c r="H861" t="str">
+        <f t="shared" si="175"/>
+        <v>13/05/2024</v>
+      </c>
+    </row>
+    <row r="862" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A862" t="s">
+        <v>4</v>
+      </c>
+      <c r="B862">
+        <v>20240515</v>
+      </c>
+      <c r="C862">
+        <v>1</v>
+      </c>
+      <c r="D862">
+        <v>5</v>
+      </c>
+      <c r="E862" t="str">
+        <f t="shared" si="172"/>
+        <v>15</v>
+      </c>
+      <c r="F862" t="str">
+        <f t="shared" si="173"/>
+        <v>05</v>
+      </c>
+      <c r="G862" t="str">
+        <f t="shared" si="174"/>
+        <v>2024</v>
+      </c>
+      <c r="H862" t="str">
+        <f t="shared" si="175"/>
+        <v>15/05/2024</v>
+      </c>
+    </row>
+    <row r="863" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A863" t="s">
+        <v>4</v>
+      </c>
+      <c r="B863">
+        <v>20240517</v>
+      </c>
+      <c r="C863">
+        <v>1</v>
+      </c>
+      <c r="D863">
+        <v>3</v>
+      </c>
+      <c r="E863" t="str">
+        <f t="shared" si="172"/>
+        <v>17</v>
+      </c>
+      <c r="F863" t="str">
+        <f t="shared" si="173"/>
+        <v>05</v>
+      </c>
+      <c r="G863" t="str">
+        <f t="shared" si="174"/>
+        <v>2024</v>
+      </c>
+      <c r="H863" t="str">
+        <f t="shared" si="175"/>
+        <v>17/05/2024</v>
+      </c>
+    </row>
+    <row r="864" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A864" t="s">
+        <v>3</v>
+      </c>
+      <c r="B864">
+        <v>20240517</v>
+      </c>
+      <c r="C864">
+        <v>0</v>
+      </c>
+      <c r="D864">
+        <v>2</v>
+      </c>
+      <c r="E864" t="str">
+        <f t="shared" si="172"/>
+        <v>17</v>
+      </c>
+      <c r="F864" t="str">
+        <f t="shared" si="173"/>
+        <v>05</v>
+      </c>
+      <c r="G864" t="str">
+        <f t="shared" si="174"/>
+        <v>2024</v>
+      </c>
+      <c r="H864" t="str">
+        <f t="shared" si="175"/>
+        <v>17/05/2024</v>
+      </c>
+    </row>
+    <row r="865" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A865" t="s">
+        <v>3</v>
+      </c>
+      <c r="B865">
+        <v>20240518</v>
+      </c>
+      <c r="C865">
+        <v>0</v>
+      </c>
+      <c r="D865">
+        <v>0</v>
+      </c>
+      <c r="E865" t="str">
+        <f t="shared" si="172"/>
+        <v>18</v>
+      </c>
+      <c r="F865" t="str">
+        <f t="shared" si="173"/>
+        <v>05</v>
+      </c>
+      <c r="G865" t="str">
+        <f t="shared" si="174"/>
+        <v>2024</v>
+      </c>
+      <c r="H865" t="str">
+        <f t="shared" si="175"/>
+        <v>18/05/2024</v>
+      </c>
+    </row>
+    <row r="866" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A866" t="s">
+        <v>4</v>
+      </c>
+      <c r="B866">
+        <v>20240516</v>
+      </c>
+      <c r="C866">
+        <v>0</v>
+      </c>
+      <c r="D866">
+        <v>1</v>
+      </c>
+      <c r="E866" t="str">
+        <f t="shared" si="172"/>
+        <v>16</v>
+      </c>
+      <c r="F866" t="str">
+        <f t="shared" si="173"/>
+        <v>05</v>
+      </c>
+      <c r="G866" t="str">
+        <f t="shared" si="174"/>
+        <v>2024</v>
+      </c>
+      <c r="H866" t="str">
+        <f t="shared" si="175"/>
+        <v>16/05/2024</v>
+      </c>
+    </row>
+    <row r="867" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A867" t="s">
+        <v>4</v>
+      </c>
+      <c r="B867">
+        <v>20240518</v>
+      </c>
+      <c r="C867">
+        <v>0</v>
+      </c>
+      <c r="D867">
+        <v>0</v>
+      </c>
+      <c r="E867" t="str">
+        <f t="shared" si="172"/>
+        <v>18</v>
+      </c>
+      <c r="F867" t="str">
+        <f t="shared" si="173"/>
+        <v>05</v>
+      </c>
+      <c r="G867" t="str">
+        <f t="shared" si="174"/>
+        <v>2024</v>
+      </c>
+      <c r="H867" t="str">
+        <f t="shared" si="175"/>
+        <v>18/05/2024</v>
+      </c>
+    </row>
+    <row r="868" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A868" t="s">
+        <v>1</v>
+      </c>
+      <c r="B868">
+        <v>20240522</v>
+      </c>
+      <c r="C868">
+        <v>49</v>
+      </c>
+      <c r="D868">
+        <v>61</v>
+      </c>
+      <c r="E868" t="str">
+        <f t="shared" ref="E868:E891" si="176">RIGHT(B868,2)</f>
+        <v>22</v>
+      </c>
+      <c r="F868" t="str">
+        <f t="shared" ref="F868:F891" si="177">MID(B868,5,2)</f>
+        <v>05</v>
+      </c>
+      <c r="G868" t="str">
+        <f t="shared" ref="G868:G891" si="178">LEFT(B868,4)</f>
+        <v>2024</v>
+      </c>
+      <c r="H868" t="str">
+        <f t="shared" ref="H868:H891" si="179">_xlfn.CONCAT(E868,"/",F868,"/",G868)</f>
+        <v>22/05/2024</v>
+      </c>
+    </row>
+    <row r="869" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A869" t="s">
+        <v>1</v>
+      </c>
+      <c r="B869">
+        <v>20240523</v>
+      </c>
+      <c r="C869">
+        <v>49</v>
+      </c>
+      <c r="D869">
+        <v>60</v>
+      </c>
+      <c r="E869" t="str">
+        <f t="shared" si="176"/>
+        <v>23</v>
+      </c>
+      <c r="F869" t="str">
+        <f t="shared" si="177"/>
+        <v>05</v>
+      </c>
+      <c r="G869" t="str">
+        <f t="shared" si="178"/>
+        <v>2024</v>
+      </c>
+      <c r="H869" t="str">
+        <f t="shared" si="179"/>
+        <v>23/05/2024</v>
+      </c>
+    </row>
+    <row r="870" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A870" t="s">
+        <v>1</v>
+      </c>
+      <c r="B870">
+        <v>20240520</v>
+      </c>
+      <c r="C870">
+        <v>42</v>
+      </c>
+      <c r="D870">
+        <v>52</v>
+      </c>
+      <c r="E870" t="str">
+        <f t="shared" si="176"/>
+        <v>20</v>
+      </c>
+      <c r="F870" t="str">
+        <f t="shared" si="177"/>
+        <v>05</v>
+      </c>
+      <c r="G870" t="str">
+        <f t="shared" si="178"/>
+        <v>2024</v>
+      </c>
+      <c r="H870" t="str">
+        <f t="shared" si="179"/>
+        <v>20/05/2024</v>
+      </c>
+    </row>
+    <row r="871" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A871" t="s">
+        <v>1</v>
+      </c>
+      <c r="B871">
+        <v>20240526</v>
+      </c>
+      <c r="C871">
+        <v>42</v>
+      </c>
+      <c r="D871">
+        <v>7</v>
+      </c>
+      <c r="E871" t="str">
+        <f t="shared" si="176"/>
+        <v>26</v>
+      </c>
+      <c r="F871" t="str">
+        <f t="shared" si="177"/>
+        <v>05</v>
+      </c>
+      <c r="G871" t="str">
+        <f t="shared" si="178"/>
+        <v>2024</v>
+      </c>
+      <c r="H871" t="str">
+        <f t="shared" si="179"/>
+        <v>26/05/2024</v>
+      </c>
+    </row>
+    <row r="872" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A872" t="s">
+        <v>1</v>
+      </c>
+      <c r="B872">
+        <v>20240524</v>
+      </c>
+      <c r="C872">
+        <v>41</v>
+      </c>
+      <c r="D872">
+        <v>50</v>
+      </c>
+      <c r="E872" t="str">
+        <f t="shared" si="176"/>
+        <v>24</v>
+      </c>
+      <c r="F872" t="str">
+        <f t="shared" si="177"/>
+        <v>05</v>
+      </c>
+      <c r="G872" t="str">
+        <f t="shared" si="178"/>
+        <v>2024</v>
+      </c>
+      <c r="H872" t="str">
+        <f t="shared" si="179"/>
+        <v>24/05/2024</v>
+      </c>
+    </row>
+    <row r="873" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A873" t="s">
+        <v>1</v>
+      </c>
+      <c r="B873">
+        <v>20240521</v>
+      </c>
+      <c r="C873">
+        <v>40</v>
+      </c>
+      <c r="D873">
+        <v>49</v>
+      </c>
+      <c r="E873" t="str">
+        <f t="shared" si="176"/>
+        <v>21</v>
+      </c>
+      <c r="F873" t="str">
+        <f t="shared" si="177"/>
+        <v>05</v>
+      </c>
+      <c r="G873" t="str">
+        <f t="shared" si="178"/>
+        <v>2024</v>
+      </c>
+      <c r="H873" t="str">
+        <f t="shared" si="179"/>
+        <v>21/05/2024</v>
+      </c>
+    </row>
+    <row r="874" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A874" t="s">
+        <v>2</v>
+      </c>
+      <c r="B874">
+        <v>20240522</v>
+      </c>
+      <c r="C874">
+        <v>23</v>
+      </c>
+      <c r="D874">
+        <v>74</v>
+      </c>
+      <c r="E874" t="str">
+        <f t="shared" si="176"/>
+        <v>22</v>
+      </c>
+      <c r="F874" t="str">
+        <f t="shared" si="177"/>
+        <v>05</v>
+      </c>
+      <c r="G874" t="str">
+        <f t="shared" si="178"/>
+        <v>2024</v>
+      </c>
+      <c r="H874" t="str">
+        <f t="shared" si="179"/>
+        <v>22/05/2024</v>
+      </c>
+    </row>
+    <row r="875" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A875" t="s">
+        <v>2</v>
+      </c>
+      <c r="B875">
+        <v>20240523</v>
+      </c>
+      <c r="C875">
+        <v>22</v>
+      </c>
+      <c r="D875">
+        <v>63</v>
+      </c>
+      <c r="E875" t="str">
+        <f t="shared" si="176"/>
+        <v>23</v>
+      </c>
+      <c r="F875" t="str">
+        <f t="shared" si="177"/>
+        <v>05</v>
+      </c>
+      <c r="G875" t="str">
+        <f t="shared" si="178"/>
+        <v>2024</v>
+      </c>
+      <c r="H875" t="str">
+        <f t="shared" si="179"/>
+        <v>23/05/2024</v>
+      </c>
+    </row>
+    <row r="876" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A876" t="s">
+        <v>2</v>
+      </c>
+      <c r="B876">
+        <v>20240524</v>
+      </c>
+      <c r="C876">
+        <v>22</v>
+      </c>
+      <c r="D876">
+        <v>58</v>
+      </c>
+      <c r="E876" t="str">
+        <f t="shared" si="176"/>
+        <v>24</v>
+      </c>
+      <c r="F876" t="str">
+        <f t="shared" si="177"/>
+        <v>05</v>
+      </c>
+      <c r="G876" t="str">
+        <f t="shared" si="178"/>
+        <v>2024</v>
+      </c>
+      <c r="H876" t="str">
+        <f t="shared" si="179"/>
+        <v>24/05/2024</v>
+      </c>
+    </row>
+    <row r="877" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A877" t="s">
+        <v>1</v>
+      </c>
+      <c r="B877">
+        <v>20240525</v>
+      </c>
+      <c r="C877">
+        <v>22</v>
+      </c>
+      <c r="D877">
+        <v>33</v>
+      </c>
+      <c r="E877" t="str">
+        <f t="shared" si="176"/>
+        <v>25</v>
+      </c>
+      <c r="F877" t="str">
+        <f t="shared" si="177"/>
+        <v>05</v>
+      </c>
+      <c r="G877" t="str">
+        <f t="shared" si="178"/>
+        <v>2024</v>
+      </c>
+      <c r="H877" t="str">
+        <f t="shared" si="179"/>
+        <v>25/05/2024</v>
+      </c>
+    </row>
+    <row r="878" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A878" t="s">
+        <v>2</v>
+      </c>
+      <c r="B878">
+        <v>20240520</v>
+      </c>
+      <c r="C878">
+        <v>20</v>
+      </c>
+      <c r="D878">
+        <v>44</v>
+      </c>
+      <c r="E878" t="str">
+        <f t="shared" si="176"/>
+        <v>20</v>
+      </c>
+      <c r="F878" t="str">
+        <f t="shared" si="177"/>
+        <v>05</v>
+      </c>
+      <c r="G878" t="str">
+        <f t="shared" si="178"/>
+        <v>2024</v>
+      </c>
+      <c r="H878" t="str">
+        <f t="shared" si="179"/>
+        <v>20/05/2024</v>
+      </c>
+    </row>
+    <row r="879" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A879" t="s">
+        <v>2</v>
+      </c>
+      <c r="B879">
+        <v>20240521</v>
+      </c>
+      <c r="C879">
+        <v>14</v>
+      </c>
+      <c r="D879">
+        <v>54</v>
+      </c>
+      <c r="E879" t="str">
+        <f t="shared" si="176"/>
+        <v>21</v>
+      </c>
+      <c r="F879" t="str">
+        <f t="shared" si="177"/>
+        <v>05</v>
+      </c>
+      <c r="G879" t="str">
+        <f t="shared" si="178"/>
+        <v>2024</v>
+      </c>
+      <c r="H879" t="str">
+        <f t="shared" si="179"/>
+        <v>21/05/2024</v>
+      </c>
+    </row>
+    <row r="880" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A880" t="s">
+        <v>2</v>
+      </c>
+      <c r="B880">
+        <v>20240526</v>
+      </c>
+      <c r="C880">
+        <v>12</v>
+      </c>
+      <c r="D880">
+        <v>7</v>
+      </c>
+      <c r="E880" t="str">
+        <f t="shared" si="176"/>
+        <v>26</v>
+      </c>
+      <c r="F880" t="str">
+        <f t="shared" si="177"/>
+        <v>05</v>
+      </c>
+      <c r="G880" t="str">
+        <f t="shared" si="178"/>
+        <v>2024</v>
+      </c>
+      <c r="H880" t="str">
+        <f t="shared" si="179"/>
+        <v>26/05/2024</v>
+      </c>
+    </row>
+    <row r="881" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A881" t="s">
+        <v>2</v>
+      </c>
+      <c r="B881">
+        <v>20240525</v>
+      </c>
+      <c r="C881">
+        <v>10</v>
+      </c>
+      <c r="D881">
+        <v>41</v>
+      </c>
+      <c r="E881" t="str">
+        <f t="shared" si="176"/>
+        <v>25</v>
+      </c>
+      <c r="F881" t="str">
+        <f t="shared" si="177"/>
+        <v>05</v>
+      </c>
+      <c r="G881" t="str">
+        <f t="shared" si="178"/>
+        <v>2024</v>
+      </c>
+      <c r="H881" t="str">
+        <f t="shared" si="179"/>
+        <v>25/05/2024</v>
+      </c>
+    </row>
+    <row r="882" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A882" t="s">
+        <v>3</v>
+      </c>
+      <c r="B882">
+        <v>20240521</v>
+      </c>
+      <c r="C882">
+        <v>2</v>
+      </c>
+      <c r="D882">
+        <v>1</v>
+      </c>
+      <c r="E882" t="str">
+        <f t="shared" si="176"/>
+        <v>21</v>
+      </c>
+      <c r="F882" t="str">
+        <f t="shared" si="177"/>
+        <v>05</v>
+      </c>
+      <c r="G882" t="str">
+        <f t="shared" si="178"/>
+        <v>2024</v>
+      </c>
+      <c r="H882" t="str">
+        <f t="shared" si="179"/>
+        <v>21/05/2024</v>
+      </c>
+    </row>
+    <row r="883" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A883" t="s">
+        <v>4</v>
+      </c>
+      <c r="B883">
+        <v>20240520</v>
+      </c>
+      <c r="C883">
+        <v>2</v>
+      </c>
+      <c r="D883">
+        <v>2</v>
+      </c>
+      <c r="E883" t="str">
+        <f t="shared" si="176"/>
+        <v>20</v>
+      </c>
+      <c r="F883" t="str">
+        <f t="shared" si="177"/>
+        <v>05</v>
+      </c>
+      <c r="G883" t="str">
+        <f t="shared" si="178"/>
+        <v>2024</v>
+      </c>
+      <c r="H883" t="str">
+        <f t="shared" si="179"/>
+        <v>20/05/2024</v>
+      </c>
+    </row>
+    <row r="884" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A884" t="s">
+        <v>4</v>
+      </c>
+      <c r="B884">
+        <v>20240522</v>
+      </c>
+      <c r="C884">
+        <v>2</v>
+      </c>
+      <c r="D884">
+        <v>5</v>
+      </c>
+      <c r="E884" t="str">
+        <f t="shared" si="176"/>
+        <v>22</v>
+      </c>
+      <c r="F884" t="str">
+        <f t="shared" si="177"/>
+        <v>05</v>
+      </c>
+      <c r="G884" t="str">
+        <f t="shared" si="178"/>
+        <v>2024</v>
+      </c>
+      <c r="H884" t="str">
+        <f t="shared" si="179"/>
+        <v>22/05/2024</v>
+      </c>
+    </row>
+    <row r="885" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A885" t="s">
+        <v>3</v>
+      </c>
+      <c r="B885">
+        <v>20240522</v>
+      </c>
+      <c r="C885">
+        <v>1</v>
+      </c>
+      <c r="D885">
+        <v>0</v>
+      </c>
+      <c r="E885" t="str">
+        <f t="shared" si="176"/>
+        <v>22</v>
+      </c>
+      <c r="F885" t="str">
+        <f t="shared" si="177"/>
+        <v>05</v>
+      </c>
+      <c r="G885" t="str">
+        <f t="shared" si="178"/>
+        <v>2024</v>
+      </c>
+      <c r="H885" t="str">
+        <f t="shared" si="179"/>
+        <v>22/05/2024</v>
+      </c>
+    </row>
+    <row r="886" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A886" t="s">
+        <v>3</v>
+      </c>
+      <c r="B886">
+        <v>20240524</v>
+      </c>
+      <c r="C886">
+        <v>1</v>
+      </c>
+      <c r="D886">
+        <v>2</v>
+      </c>
+      <c r="E886" t="str">
+        <f t="shared" si="176"/>
+        <v>24</v>
+      </c>
+      <c r="F886" t="str">
+        <f t="shared" si="177"/>
+        <v>05</v>
+      </c>
+      <c r="G886" t="str">
+        <f t="shared" si="178"/>
+        <v>2024</v>
+      </c>
+      <c r="H886" t="str">
+        <f t="shared" si="179"/>
+        <v>24/05/2024</v>
+      </c>
+    </row>
+    <row r="887" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A887" t="s">
+        <v>4</v>
+      </c>
+      <c r="B887">
+        <v>20240523</v>
+      </c>
+      <c r="C887">
+        <v>1</v>
+      </c>
+      <c r="D887">
+        <v>0</v>
+      </c>
+      <c r="E887" t="str">
+        <f t="shared" si="176"/>
+        <v>23</v>
+      </c>
+      <c r="F887" t="str">
+        <f t="shared" si="177"/>
+        <v>05</v>
+      </c>
+      <c r="G887" t="str">
+        <f t="shared" si="178"/>
+        <v>2024</v>
+      </c>
+      <c r="H887" t="str">
+        <f t="shared" si="179"/>
+        <v>23/05/2024</v>
+      </c>
+    </row>
+    <row r="888" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A888" t="s">
+        <v>4</v>
+      </c>
+      <c r="B888">
+        <v>20240525</v>
+      </c>
+      <c r="C888">
+        <v>1</v>
+      </c>
+      <c r="D888">
+        <v>0</v>
+      </c>
+      <c r="E888" t="str">
+        <f t="shared" si="176"/>
+        <v>25</v>
+      </c>
+      <c r="F888" t="str">
+        <f t="shared" si="177"/>
+        <v>05</v>
+      </c>
+      <c r="G888" t="str">
+        <f t="shared" si="178"/>
+        <v>2024</v>
+      </c>
+      <c r="H888" t="str">
+        <f t="shared" si="179"/>
+        <v>25/05/2024</v>
+      </c>
+    </row>
+    <row r="889" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A889" t="s">
+        <v>4</v>
+      </c>
+      <c r="B889">
+        <v>20240526</v>
+      </c>
+      <c r="C889">
+        <v>1</v>
+      </c>
+      <c r="D889">
+        <v>0</v>
+      </c>
+      <c r="E889" t="str">
+        <f t="shared" si="176"/>
+        <v>26</v>
+      </c>
+      <c r="F889" t="str">
+        <f t="shared" si="177"/>
+        <v>05</v>
+      </c>
+      <c r="G889" t="str">
+        <f t="shared" si="178"/>
+        <v>2024</v>
+      </c>
+      <c r="H889" t="str">
+        <f t="shared" si="179"/>
+        <v>26/05/2024</v>
+      </c>
+    </row>
+    <row r="890" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A890" t="s">
+        <v>12</v>
+      </c>
+      <c r="B890">
+        <v>20240526</v>
+      </c>
+      <c r="C890">
+        <v>1</v>
+      </c>
+      <c r="D890">
+        <v>0</v>
+      </c>
+      <c r="E890" t="str">
+        <f t="shared" si="176"/>
+        <v>26</v>
+      </c>
+      <c r="F890" t="str">
+        <f t="shared" si="177"/>
+        <v>05</v>
+      </c>
+      <c r="G890" t="str">
+        <f t="shared" si="178"/>
+        <v>2024</v>
+      </c>
+      <c r="H890" t="str">
+        <f t="shared" si="179"/>
+        <v>26/05/2024</v>
+      </c>
+    </row>
+    <row r="891" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A891" t="s">
+        <v>3</v>
+      </c>
+      <c r="B891">
+        <v>20240526</v>
+      </c>
+      <c r="C891">
+        <v>0</v>
+      </c>
+      <c r="D891">
+        <v>1</v>
+      </c>
+      <c r="E891" t="str">
+        <f t="shared" si="176"/>
+        <v>26</v>
+      </c>
+      <c r="F891" t="str">
+        <f t="shared" si="177"/>
+        <v>05</v>
+      </c>
+      <c r="G891" t="str">
+        <f t="shared" si="178"/>
+        <v>2024</v>
+      </c>
+      <c r="H891" t="str">
+        <f t="shared" si="179"/>
+        <v>26/05/2024</v>
+      </c>
+    </row>
+    <row r="892" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A892" t="s">
+        <v>1</v>
+      </c>
+      <c r="B892">
+        <v>20240529</v>
+      </c>
+      <c r="C892">
+        <v>63</v>
+      </c>
+      <c r="D892">
+        <v>55</v>
+      </c>
+      <c r="E892" t="str">
+        <f t="shared" ref="E892" si="180">RIGHT(B892,2)</f>
+        <v>29</v>
+      </c>
+      <c r="F892" t="str">
+        <f t="shared" ref="F892" si="181">MID(B892,5,2)</f>
+        <v>05</v>
+      </c>
+      <c r="G892" t="str">
+        <f t="shared" ref="G892" si="182">LEFT(B892,4)</f>
+        <v>2024</v>
+      </c>
+      <c r="H892" t="str">
+        <f t="shared" ref="H892" si="183">_xlfn.CONCAT(E892,"/",F892,"/",G892)</f>
+        <v>29/05/2024</v>
+      </c>
+    </row>
+    <row r="893" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A893" t="s">
+        <v>1</v>
+      </c>
+      <c r="B893">
+        <v>20240601</v>
+      </c>
+      <c r="C893">
+        <v>53</v>
+      </c>
+      <c r="D893">
+        <v>63</v>
+      </c>
+      <c r="E893" t="str">
+        <f t="shared" ref="E893:E910" si="184">RIGHT(B893,2)</f>
+        <v>01</v>
+      </c>
+      <c r="F893" t="str">
+        <f t="shared" ref="F893:F910" si="185">MID(B893,5,2)</f>
+        <v>06</v>
+      </c>
+      <c r="G893" t="str">
+        <f t="shared" ref="G893:G910" si="186">LEFT(B893,4)</f>
+        <v>2024</v>
+      </c>
+      <c r="H893" t="str">
+        <f t="shared" ref="H893:H910" si="187">_xlfn.CONCAT(E893,"/",F893,"/",G893)</f>
+        <v>01/06/2024</v>
+      </c>
+    </row>
+    <row r="894" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A894" t="s">
+        <v>1</v>
+      </c>
+      <c r="B894">
+        <v>20240602</v>
+      </c>
+      <c r="C894">
+        <v>53</v>
+      </c>
+      <c r="D894">
+        <v>60</v>
+      </c>
+      <c r="E894" t="str">
+        <f t="shared" si="184"/>
+        <v>02</v>
+      </c>
+      <c r="F894" t="str">
+        <f t="shared" si="185"/>
+        <v>06</v>
+      </c>
+      <c r="G894" t="str">
+        <f t="shared" si="186"/>
+        <v>2024</v>
+      </c>
+      <c r="H894" t="str">
+        <f t="shared" si="187"/>
+        <v>02/06/2024</v>
+      </c>
+    </row>
+    <row r="895" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A895" t="s">
+        <v>1</v>
+      </c>
+      <c r="B895">
+        <v>20240527</v>
+      </c>
+      <c r="C895">
+        <v>45</v>
+      </c>
+      <c r="D895">
+        <v>54</v>
+      </c>
+      <c r="E895" t="str">
+        <f t="shared" si="184"/>
+        <v>27</v>
+      </c>
+      <c r="F895" t="str">
+        <f t="shared" si="185"/>
+        <v>05</v>
+      </c>
+      <c r="G895" t="str">
+        <f t="shared" si="186"/>
+        <v>2024</v>
+      </c>
+      <c r="H895" t="str">
+        <f t="shared" si="187"/>
+        <v>27/05/2024</v>
+      </c>
+    </row>
+    <row r="896" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A896" t="s">
+        <v>1</v>
+      </c>
+      <c r="B896">
+        <v>20240530</v>
+      </c>
+      <c r="C896">
+        <v>42</v>
+      </c>
+      <c r="D896">
+        <v>51</v>
+      </c>
+      <c r="E896" t="str">
+        <f t="shared" si="184"/>
+        <v>30</v>
+      </c>
+      <c r="F896" t="str">
+        <f t="shared" si="185"/>
+        <v>05</v>
+      </c>
+      <c r="G896" t="str">
+        <f t="shared" si="186"/>
+        <v>2024</v>
+      </c>
+      <c r="H896" t="str">
+        <f t="shared" si="187"/>
+        <v>30/05/2024</v>
+      </c>
+    </row>
+    <row r="897" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A897" t="s">
+        <v>1</v>
+      </c>
+      <c r="B897">
+        <v>20240528</v>
+      </c>
+      <c r="C897">
+        <v>40</v>
+      </c>
+      <c r="D897">
+        <v>38</v>
+      </c>
+      <c r="E897" t="str">
+        <f t="shared" si="184"/>
+        <v>28</v>
+      </c>
+      <c r="F897" t="str">
+        <f t="shared" si="185"/>
+        <v>05</v>
+      </c>
+      <c r="G897" t="str">
+        <f t="shared" si="186"/>
+        <v>2024</v>
+      </c>
+      <c r="H897" t="str">
+        <f t="shared" si="187"/>
+        <v>28/05/2024</v>
+      </c>
+    </row>
+    <row r="898" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A898" t="s">
+        <v>1</v>
+      </c>
+      <c r="B898">
+        <v>20240531</v>
+      </c>
+      <c r="C898">
+        <v>37</v>
+      </c>
+      <c r="D898">
+        <v>61</v>
+      </c>
+      <c r="E898" t="str">
+        <f t="shared" si="184"/>
+        <v>31</v>
+      </c>
+      <c r="F898" t="str">
+        <f t="shared" si="185"/>
+        <v>05</v>
+      </c>
+      <c r="G898" t="str">
+        <f t="shared" si="186"/>
+        <v>2024</v>
+      </c>
+      <c r="H898" t="str">
+        <f t="shared" si="187"/>
+        <v>31/05/2024</v>
+      </c>
+    </row>
+    <row r="899" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A899" t="s">
+        <v>2</v>
+      </c>
+      <c r="B899">
+        <v>20240530</v>
+      </c>
+      <c r="C899">
+        <v>20</v>
+      </c>
+      <c r="D899">
+        <v>59</v>
+      </c>
+      <c r="E899" t="str">
+        <f t="shared" si="184"/>
+        <v>30</v>
+      </c>
+      <c r="F899" t="str">
+        <f t="shared" si="185"/>
+        <v>05</v>
+      </c>
+      <c r="G899" t="str">
+        <f t="shared" si="186"/>
+        <v>2024</v>
+      </c>
+      <c r="H899" t="str">
+        <f t="shared" si="187"/>
+        <v>30/05/2024</v>
+      </c>
+    </row>
+    <row r="900" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A900" t="s">
+        <v>2</v>
+      </c>
+      <c r="B900">
+        <v>20240527</v>
+      </c>
+      <c r="C900">
+        <v>16</v>
+      </c>
+      <c r="D900">
+        <v>53</v>
+      </c>
+      <c r="E900" t="str">
+        <f t="shared" si="184"/>
+        <v>27</v>
+      </c>
+      <c r="F900" t="str">
+        <f t="shared" si="185"/>
+        <v>05</v>
+      </c>
+      <c r="G900" t="str">
+        <f t="shared" si="186"/>
+        <v>2024</v>
+      </c>
+      <c r="H900" t="str">
+        <f t="shared" si="187"/>
+        <v>27/05/2024</v>
+      </c>
+    </row>
+    <row r="901" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A901" t="s">
+        <v>2</v>
+      </c>
+      <c r="B901">
+        <v>20240529</v>
+      </c>
+      <c r="C901">
+        <v>13</v>
+      </c>
+      <c r="D901">
+        <v>58</v>
+      </c>
+      <c r="E901" t="str">
+        <f t="shared" si="184"/>
+        <v>29</v>
+      </c>
+      <c r="F901" t="str">
+        <f t="shared" si="185"/>
+        <v>05</v>
+      </c>
+      <c r="G901" t="str">
+        <f t="shared" si="186"/>
+        <v>2024</v>
+      </c>
+      <c r="H901" t="str">
+        <f t="shared" si="187"/>
+        <v>29/05/2024</v>
+      </c>
+    </row>
+    <row r="902" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A902" t="s">
+        <v>2</v>
+      </c>
+      <c r="B902">
+        <v>20240528</v>
+      </c>
+      <c r="C902">
+        <v>11</v>
+      </c>
+      <c r="D902">
+        <v>62</v>
+      </c>
+      <c r="E902" t="str">
+        <f t="shared" si="184"/>
+        <v>28</v>
+      </c>
+      <c r="F902" t="str">
+        <f t="shared" si="185"/>
+        <v>05</v>
+      </c>
+      <c r="G902" t="str">
+        <f t="shared" si="186"/>
+        <v>2024</v>
+      </c>
+      <c r="H902" t="str">
+        <f t="shared" si="187"/>
+        <v>28/05/2024</v>
+      </c>
+    </row>
+    <row r="903" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A903" t="s">
+        <v>2</v>
+      </c>
+      <c r="B903">
+        <v>20240601</v>
+      </c>
+      <c r="C903">
+        <v>11</v>
+      </c>
+      <c r="D903">
+        <v>47</v>
+      </c>
+      <c r="E903" t="str">
+        <f t="shared" si="184"/>
+        <v>01</v>
+      </c>
+      <c r="F903" t="str">
+        <f t="shared" si="185"/>
+        <v>06</v>
+      </c>
+      <c r="G903" t="str">
+        <f t="shared" si="186"/>
+        <v>2024</v>
+      </c>
+      <c r="H903" t="str">
+        <f t="shared" si="187"/>
+        <v>01/06/2024</v>
+      </c>
+    </row>
+    <row r="904" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A904" t="s">
+        <v>2</v>
+      </c>
+      <c r="B904">
+        <v>20240531</v>
+      </c>
+      <c r="C904">
+        <v>8</v>
+      </c>
+      <c r="D904">
+        <v>52</v>
+      </c>
+      <c r="E904" t="str">
+        <f t="shared" si="184"/>
+        <v>31</v>
+      </c>
+      <c r="F904" t="str">
+        <f t="shared" si="185"/>
+        <v>05</v>
+      </c>
+      <c r="G904" t="str">
+        <f t="shared" si="186"/>
+        <v>2024</v>
+      </c>
+      <c r="H904" t="str">
+        <f t="shared" si="187"/>
+        <v>31/05/2024</v>
+      </c>
+    </row>
+    <row r="905" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A905" t="s">
+        <v>2</v>
+      </c>
+      <c r="B905">
+        <v>20240602</v>
+      </c>
+      <c r="C905">
+        <v>8</v>
+      </c>
+      <c r="D905">
+        <v>38</v>
+      </c>
+      <c r="E905" t="str">
+        <f t="shared" si="184"/>
+        <v>02</v>
+      </c>
+      <c r="F905" t="str">
+        <f t="shared" si="185"/>
+        <v>06</v>
+      </c>
+      <c r="G905" t="str">
+        <f t="shared" si="186"/>
+        <v>2024</v>
+      </c>
+      <c r="H905" t="str">
+        <f t="shared" si="187"/>
+        <v>02/06/2024</v>
+      </c>
+    </row>
+    <row r="906" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A906" t="s">
+        <v>4</v>
+      </c>
+      <c r="B906">
+        <v>20240529</v>
+      </c>
+      <c r="C906">
+        <v>2</v>
+      </c>
+      <c r="D906">
+        <v>2</v>
+      </c>
+      <c r="E906" t="str">
+        <f t="shared" si="184"/>
+        <v>29</v>
+      </c>
+      <c r="F906" t="str">
+        <f t="shared" si="185"/>
+        <v>05</v>
+      </c>
+      <c r="G906" t="str">
+        <f t="shared" si="186"/>
+        <v>2024</v>
+      </c>
+      <c r="H906" t="str">
+        <f t="shared" si="187"/>
+        <v>29/05/2024</v>
+      </c>
+    </row>
+    <row r="907" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A907" t="s">
+        <v>4</v>
+      </c>
+      <c r="B907">
+        <v>20240531</v>
+      </c>
+      <c r="C907">
+        <v>1</v>
+      </c>
+      <c r="D907">
+        <v>4</v>
+      </c>
+      <c r="E907" t="str">
+        <f t="shared" si="184"/>
+        <v>31</v>
+      </c>
+      <c r="F907" t="str">
+        <f t="shared" si="185"/>
+        <v>05</v>
+      </c>
+      <c r="G907" t="str">
+        <f t="shared" si="186"/>
+        <v>2024</v>
+      </c>
+      <c r="H907" t="str">
+        <f t="shared" si="187"/>
+        <v>31/05/2024</v>
+      </c>
+    </row>
+    <row r="908" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A908" t="s">
+        <v>4</v>
+      </c>
+      <c r="B908">
+        <v>20240602</v>
+      </c>
+      <c r="C908">
+        <v>1</v>
+      </c>
+      <c r="D908">
+        <v>1</v>
+      </c>
+      <c r="E908" t="str">
+        <f t="shared" si="184"/>
+        <v>02</v>
+      </c>
+      <c r="F908" t="str">
+        <f t="shared" si="185"/>
+        <v>06</v>
+      </c>
+      <c r="G908" t="str">
+        <f t="shared" si="186"/>
+        <v>2024</v>
+      </c>
+      <c r="H908" t="str">
+        <f t="shared" si="187"/>
+        <v>02/06/2024</v>
+      </c>
+    </row>
+    <row r="909" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A909" t="s">
+        <v>3</v>
+      </c>
+      <c r="B909">
+        <v>20240527</v>
+      </c>
+      <c r="C909">
+        <v>0</v>
+      </c>
+      <c r="D909">
+        <v>1</v>
+      </c>
+      <c r="E909" t="str">
+        <f t="shared" si="184"/>
+        <v>27</v>
+      </c>
+      <c r="F909" t="str">
+        <f t="shared" si="185"/>
+        <v>05</v>
+      </c>
+      <c r="G909" t="str">
+        <f t="shared" si="186"/>
+        <v>2024</v>
+      </c>
+      <c r="H909" t="str">
+        <f t="shared" si="187"/>
+        <v>27/05/2024</v>
+      </c>
+    </row>
+    <row r="910" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A910" t="s">
+        <v>4</v>
+      </c>
+      <c r="B910">
+        <v>20240527</v>
+      </c>
+      <c r="C910">
+        <v>0</v>
+      </c>
+      <c r="D910">
+        <v>1</v>
+      </c>
+      <c r="E910" t="str">
+        <f t="shared" si="184"/>
+        <v>27</v>
+      </c>
+      <c r="F910" t="str">
+        <f t="shared" si="185"/>
+        <v>05</v>
+      </c>
+      <c r="G910" t="str">
+        <f t="shared" si="186"/>
+        <v>2024</v>
+      </c>
+      <c r="H910" t="str">
+        <f t="shared" si="187"/>
+        <v>27/05/2024</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Arquivos/Como_acessa_data.xlsx
+++ b/Arquivos/Como_acessa_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b5dde4ea31a779cd/Documentos/Mestrado/Arquivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="13_ncr:40009_{83565463-BC6C-4944-A005-0E04596B1C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B84B1AF2-F2A9-4A22-8187-3225E4C926B7}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="13_ncr:40009_{83565463-BC6C-4944-A005-0E04596B1C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14E7207D-CE36-4A7E-A8A2-18657F2389C7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="13">
   <si>
     <t>Data</t>
   </si>
@@ -916,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H910"/>
+  <dimension ref="A1:H1109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A888" workbookViewId="0">
-      <selection activeCell="A892" sqref="A892:H910"/>
+    <sheetView tabSelected="1" topLeftCell="A1085" workbookViewId="0">
+      <selection activeCell="A1087" sqref="A1087:H1109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28194,6 +28194,5976 @@
         <v>27/05/2024</v>
       </c>
     </row>
+    <row r="911" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A911" t="s">
+        <v>1</v>
+      </c>
+      <c r="B911">
+        <v>20240603</v>
+      </c>
+      <c r="C911">
+        <v>44</v>
+      </c>
+      <c r="D911">
+        <v>45</v>
+      </c>
+      <c r="E911" t="str">
+        <f t="shared" ref="E911:E933" si="188">RIGHT(B911,2)</f>
+        <v>03</v>
+      </c>
+      <c r="F911" t="str">
+        <f t="shared" ref="F911:F933" si="189">MID(B911,5,2)</f>
+        <v>06</v>
+      </c>
+      <c r="G911" t="str">
+        <f t="shared" ref="G911:G933" si="190">LEFT(B911,4)</f>
+        <v>2024</v>
+      </c>
+      <c r="H911" t="str">
+        <f t="shared" ref="H911:H933" si="191">_xlfn.CONCAT(E911,"/",F911,"/",G911)</f>
+        <v>03/06/2024</v>
+      </c>
+    </row>
+    <row r="912" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A912" t="s">
+        <v>1</v>
+      </c>
+      <c r="B912">
+        <v>20240604</v>
+      </c>
+      <c r="C912">
+        <v>43</v>
+      </c>
+      <c r="D912">
+        <v>54</v>
+      </c>
+      <c r="E912" t="str">
+        <f t="shared" si="188"/>
+        <v>04</v>
+      </c>
+      <c r="F912" t="str">
+        <f t="shared" si="189"/>
+        <v>06</v>
+      </c>
+      <c r="G912" t="str">
+        <f t="shared" si="190"/>
+        <v>2024</v>
+      </c>
+      <c r="H912" t="str">
+        <f t="shared" si="191"/>
+        <v>04/06/2024</v>
+      </c>
+    </row>
+    <row r="913" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A913" t="s">
+        <v>1</v>
+      </c>
+      <c r="B913">
+        <v>20240608</v>
+      </c>
+      <c r="C913">
+        <v>41</v>
+      </c>
+      <c r="D913">
+        <v>47</v>
+      </c>
+      <c r="E913" t="str">
+        <f t="shared" si="188"/>
+        <v>08</v>
+      </c>
+      <c r="F913" t="str">
+        <f t="shared" si="189"/>
+        <v>06</v>
+      </c>
+      <c r="G913" t="str">
+        <f t="shared" si="190"/>
+        <v>2024</v>
+      </c>
+      <c r="H913" t="str">
+        <f t="shared" si="191"/>
+        <v>08/06/2024</v>
+      </c>
+    </row>
+    <row r="914" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A914" t="s">
+        <v>1</v>
+      </c>
+      <c r="B914">
+        <v>20240609</v>
+      </c>
+      <c r="C914">
+        <v>34</v>
+      </c>
+      <c r="D914">
+        <v>47</v>
+      </c>
+      <c r="E914" t="str">
+        <f t="shared" si="188"/>
+        <v>09</v>
+      </c>
+      <c r="F914" t="str">
+        <f t="shared" si="189"/>
+        <v>06</v>
+      </c>
+      <c r="G914" t="str">
+        <f t="shared" si="190"/>
+        <v>2024</v>
+      </c>
+      <c r="H914" t="str">
+        <f t="shared" si="191"/>
+        <v>09/06/2024</v>
+      </c>
+    </row>
+    <row r="915" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A915" t="s">
+        <v>1</v>
+      </c>
+      <c r="B915">
+        <v>20240607</v>
+      </c>
+      <c r="C915">
+        <v>33</v>
+      </c>
+      <c r="D915">
+        <v>40</v>
+      </c>
+      <c r="E915" t="str">
+        <f t="shared" si="188"/>
+        <v>07</v>
+      </c>
+      <c r="F915" t="str">
+        <f t="shared" si="189"/>
+        <v>06</v>
+      </c>
+      <c r="G915" t="str">
+        <f t="shared" si="190"/>
+        <v>2024</v>
+      </c>
+      <c r="H915" t="str">
+        <f t="shared" si="191"/>
+        <v>07/06/2024</v>
+      </c>
+    </row>
+    <row r="916" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A916" t="s">
+        <v>1</v>
+      </c>
+      <c r="B916">
+        <v>20240605</v>
+      </c>
+      <c r="C916">
+        <v>30</v>
+      </c>
+      <c r="D916">
+        <v>37</v>
+      </c>
+      <c r="E916" t="str">
+        <f t="shared" si="188"/>
+        <v>05</v>
+      </c>
+      <c r="F916" t="str">
+        <f t="shared" si="189"/>
+        <v>06</v>
+      </c>
+      <c r="G916" t="str">
+        <f t="shared" si="190"/>
+        <v>2024</v>
+      </c>
+      <c r="H916" t="str">
+        <f t="shared" si="191"/>
+        <v>05/06/2024</v>
+      </c>
+    </row>
+    <row r="917" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A917" t="s">
+        <v>1</v>
+      </c>
+      <c r="B917">
+        <v>20240606</v>
+      </c>
+      <c r="C917">
+        <v>27</v>
+      </c>
+      <c r="D917">
+        <v>43</v>
+      </c>
+      <c r="E917" t="str">
+        <f t="shared" si="188"/>
+        <v>06</v>
+      </c>
+      <c r="F917" t="str">
+        <f t="shared" si="189"/>
+        <v>06</v>
+      </c>
+      <c r="G917" t="str">
+        <f t="shared" si="190"/>
+        <v>2024</v>
+      </c>
+      <c r="H917" t="str">
+        <f t="shared" si="191"/>
+        <v>06/06/2024</v>
+      </c>
+    </row>
+    <row r="918" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A918" t="s">
+        <v>2</v>
+      </c>
+      <c r="B918">
+        <v>20240606</v>
+      </c>
+      <c r="C918">
+        <v>16</v>
+      </c>
+      <c r="D918">
+        <v>49</v>
+      </c>
+      <c r="E918" t="str">
+        <f t="shared" si="188"/>
+        <v>06</v>
+      </c>
+      <c r="F918" t="str">
+        <f t="shared" si="189"/>
+        <v>06</v>
+      </c>
+      <c r="G918" t="str">
+        <f t="shared" si="190"/>
+        <v>2024</v>
+      </c>
+      <c r="H918" t="str">
+        <f t="shared" si="191"/>
+        <v>06/06/2024</v>
+      </c>
+    </row>
+    <row r="919" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A919" t="s">
+        <v>2</v>
+      </c>
+      <c r="B919">
+        <v>20240603</v>
+      </c>
+      <c r="C919">
+        <v>14</v>
+      </c>
+      <c r="D919">
+        <v>48</v>
+      </c>
+      <c r="E919" t="str">
+        <f t="shared" si="188"/>
+        <v>03</v>
+      </c>
+      <c r="F919" t="str">
+        <f t="shared" si="189"/>
+        <v>06</v>
+      </c>
+      <c r="G919" t="str">
+        <f t="shared" si="190"/>
+        <v>2024</v>
+      </c>
+      <c r="H919" t="str">
+        <f t="shared" si="191"/>
+        <v>03/06/2024</v>
+      </c>
+    </row>
+    <row r="920" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A920" t="s">
+        <v>2</v>
+      </c>
+      <c r="B920">
+        <v>20240605</v>
+      </c>
+      <c r="C920">
+        <v>13</v>
+      </c>
+      <c r="D920">
+        <v>45</v>
+      </c>
+      <c r="E920" t="str">
+        <f t="shared" si="188"/>
+        <v>05</v>
+      </c>
+      <c r="F920" t="str">
+        <f t="shared" si="189"/>
+        <v>06</v>
+      </c>
+      <c r="G920" t="str">
+        <f t="shared" si="190"/>
+        <v>2024</v>
+      </c>
+      <c r="H920" t="str">
+        <f t="shared" si="191"/>
+        <v>05/06/2024</v>
+      </c>
+    </row>
+    <row r="921" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A921" t="s">
+        <v>2</v>
+      </c>
+      <c r="B921">
+        <v>20240607</v>
+      </c>
+      <c r="C921">
+        <v>13</v>
+      </c>
+      <c r="D921">
+        <v>51</v>
+      </c>
+      <c r="E921" t="str">
+        <f t="shared" si="188"/>
+        <v>07</v>
+      </c>
+      <c r="F921" t="str">
+        <f t="shared" si="189"/>
+        <v>06</v>
+      </c>
+      <c r="G921" t="str">
+        <f t="shared" si="190"/>
+        <v>2024</v>
+      </c>
+      <c r="H921" t="str">
+        <f t="shared" si="191"/>
+        <v>07/06/2024</v>
+      </c>
+    </row>
+    <row r="922" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A922" t="s">
+        <v>2</v>
+      </c>
+      <c r="B922">
+        <v>20240608</v>
+      </c>
+      <c r="C922">
+        <v>12</v>
+      </c>
+      <c r="D922">
+        <v>45</v>
+      </c>
+      <c r="E922" t="str">
+        <f t="shared" si="188"/>
+        <v>08</v>
+      </c>
+      <c r="F922" t="str">
+        <f t="shared" si="189"/>
+        <v>06</v>
+      </c>
+      <c r="G922" t="str">
+        <f t="shared" si="190"/>
+        <v>2024</v>
+      </c>
+      <c r="H922" t="str">
+        <f t="shared" si="191"/>
+        <v>08/06/2024</v>
+      </c>
+    </row>
+    <row r="923" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A923" t="s">
+        <v>2</v>
+      </c>
+      <c r="B923">
+        <v>20240604</v>
+      </c>
+      <c r="C923">
+        <v>11</v>
+      </c>
+      <c r="D923">
+        <v>33</v>
+      </c>
+      <c r="E923" t="str">
+        <f t="shared" si="188"/>
+        <v>04</v>
+      </c>
+      <c r="F923" t="str">
+        <f t="shared" si="189"/>
+        <v>06</v>
+      </c>
+      <c r="G923" t="str">
+        <f t="shared" si="190"/>
+        <v>2024</v>
+      </c>
+      <c r="H923" t="str">
+        <f t="shared" si="191"/>
+        <v>04/06/2024</v>
+      </c>
+    </row>
+    <row r="924" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A924" t="s">
+        <v>2</v>
+      </c>
+      <c r="B924">
+        <v>20240609</v>
+      </c>
+      <c r="C924">
+        <v>7</v>
+      </c>
+      <c r="D924">
+        <v>30</v>
+      </c>
+      <c r="E924" t="str">
+        <f t="shared" si="188"/>
+        <v>09</v>
+      </c>
+      <c r="F924" t="str">
+        <f t="shared" si="189"/>
+        <v>06</v>
+      </c>
+      <c r="G924" t="str">
+        <f t="shared" si="190"/>
+        <v>2024</v>
+      </c>
+      <c r="H924" t="str">
+        <f t="shared" si="191"/>
+        <v>09/06/2024</v>
+      </c>
+    </row>
+    <row r="925" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A925" t="s">
+        <v>4</v>
+      </c>
+      <c r="B925">
+        <v>20240604</v>
+      </c>
+      <c r="C925">
+        <v>2</v>
+      </c>
+      <c r="D925">
+        <v>1</v>
+      </c>
+      <c r="E925" t="str">
+        <f t="shared" si="188"/>
+        <v>04</v>
+      </c>
+      <c r="F925" t="str">
+        <f t="shared" si="189"/>
+        <v>06</v>
+      </c>
+      <c r="G925" t="str">
+        <f t="shared" si="190"/>
+        <v>2024</v>
+      </c>
+      <c r="H925" t="str">
+        <f t="shared" si="191"/>
+        <v>04/06/2024</v>
+      </c>
+    </row>
+    <row r="926" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A926" t="s">
+        <v>4</v>
+      </c>
+      <c r="B926">
+        <v>20240608</v>
+      </c>
+      <c r="C926">
+        <v>1</v>
+      </c>
+      <c r="D926">
+        <v>1</v>
+      </c>
+      <c r="E926" t="str">
+        <f t="shared" si="188"/>
+        <v>08</v>
+      </c>
+      <c r="F926" t="str">
+        <f t="shared" si="189"/>
+        <v>06</v>
+      </c>
+      <c r="G926" t="str">
+        <f t="shared" si="190"/>
+        <v>2024</v>
+      </c>
+      <c r="H926" t="str">
+        <f t="shared" si="191"/>
+        <v>08/06/2024</v>
+      </c>
+    </row>
+    <row r="927" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A927" t="s">
+        <v>4</v>
+      </c>
+      <c r="B927">
+        <v>20240609</v>
+      </c>
+      <c r="C927">
+        <v>1</v>
+      </c>
+      <c r="D927">
+        <v>0</v>
+      </c>
+      <c r="E927" t="str">
+        <f t="shared" si="188"/>
+        <v>09</v>
+      </c>
+      <c r="F927" t="str">
+        <f t="shared" si="189"/>
+        <v>06</v>
+      </c>
+      <c r="G927" t="str">
+        <f t="shared" si="190"/>
+        <v>2024</v>
+      </c>
+      <c r="H927" t="str">
+        <f t="shared" si="191"/>
+        <v>09/06/2024</v>
+      </c>
+    </row>
+    <row r="928" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A928" t="s">
+        <v>3</v>
+      </c>
+      <c r="B928">
+        <v>20240605</v>
+      </c>
+      <c r="C928">
+        <v>0</v>
+      </c>
+      <c r="D928">
+        <v>1</v>
+      </c>
+      <c r="E928" t="str">
+        <f t="shared" si="188"/>
+        <v>05</v>
+      </c>
+      <c r="F928" t="str">
+        <f t="shared" si="189"/>
+        <v>06</v>
+      </c>
+      <c r="G928" t="str">
+        <f t="shared" si="190"/>
+        <v>2024</v>
+      </c>
+      <c r="H928" t="str">
+        <f t="shared" si="191"/>
+        <v>05/06/2024</v>
+      </c>
+    </row>
+    <row r="929" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A929" t="s">
+        <v>3</v>
+      </c>
+      <c r="B929">
+        <v>20240606</v>
+      </c>
+      <c r="C929">
+        <v>0</v>
+      </c>
+      <c r="D929">
+        <v>1</v>
+      </c>
+      <c r="E929" t="str">
+        <f t="shared" si="188"/>
+        <v>06</v>
+      </c>
+      <c r="F929" t="str">
+        <f t="shared" si="189"/>
+        <v>06</v>
+      </c>
+      <c r="G929" t="str">
+        <f t="shared" si="190"/>
+        <v>2024</v>
+      </c>
+      <c r="H929" t="str">
+        <f t="shared" si="191"/>
+        <v>06/06/2024</v>
+      </c>
+    </row>
+    <row r="930" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A930" t="s">
+        <v>3</v>
+      </c>
+      <c r="B930">
+        <v>20240609</v>
+      </c>
+      <c r="C930">
+        <v>0</v>
+      </c>
+      <c r="D930">
+        <v>1</v>
+      </c>
+      <c r="E930" t="str">
+        <f t="shared" si="188"/>
+        <v>09</v>
+      </c>
+      <c r="F930" t="str">
+        <f t="shared" si="189"/>
+        <v>06</v>
+      </c>
+      <c r="G930" t="str">
+        <f t="shared" si="190"/>
+        <v>2024</v>
+      </c>
+      <c r="H930" t="str">
+        <f t="shared" si="191"/>
+        <v>09/06/2024</v>
+      </c>
+    </row>
+    <row r="931" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A931" t="s">
+        <v>4</v>
+      </c>
+      <c r="B931">
+        <v>20240603</v>
+      </c>
+      <c r="C931">
+        <v>0</v>
+      </c>
+      <c r="D931">
+        <v>1</v>
+      </c>
+      <c r="E931" t="str">
+        <f t="shared" si="188"/>
+        <v>03</v>
+      </c>
+      <c r="F931" t="str">
+        <f t="shared" si="189"/>
+        <v>06</v>
+      </c>
+      <c r="G931" t="str">
+        <f t="shared" si="190"/>
+        <v>2024</v>
+      </c>
+      <c r="H931" t="str">
+        <f t="shared" si="191"/>
+        <v>03/06/2024</v>
+      </c>
+    </row>
+    <row r="932" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A932" t="s">
+        <v>4</v>
+      </c>
+      <c r="B932">
+        <v>20240605</v>
+      </c>
+      <c r="C932">
+        <v>0</v>
+      </c>
+      <c r="D932">
+        <v>2</v>
+      </c>
+      <c r="E932" t="str">
+        <f t="shared" si="188"/>
+        <v>05</v>
+      </c>
+      <c r="F932" t="str">
+        <f t="shared" si="189"/>
+        <v>06</v>
+      </c>
+      <c r="G932" t="str">
+        <f t="shared" si="190"/>
+        <v>2024</v>
+      </c>
+      <c r="H932" t="str">
+        <f t="shared" si="191"/>
+        <v>05/06/2024</v>
+      </c>
+    </row>
+    <row r="933" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A933" t="s">
+        <v>4</v>
+      </c>
+      <c r="B933">
+        <v>20240607</v>
+      </c>
+      <c r="C933">
+        <v>0</v>
+      </c>
+      <c r="D933">
+        <v>0</v>
+      </c>
+      <c r="E933" t="str">
+        <f t="shared" si="188"/>
+        <v>07</v>
+      </c>
+      <c r="F933" t="str">
+        <f t="shared" si="189"/>
+        <v>06</v>
+      </c>
+      <c r="G933" t="str">
+        <f t="shared" si="190"/>
+        <v>2024</v>
+      </c>
+      <c r="H933" t="str">
+        <f t="shared" si="191"/>
+        <v>07/06/2024</v>
+      </c>
+    </row>
+    <row r="934" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A934" t="s">
+        <v>1</v>
+      </c>
+      <c r="B934">
+        <v>20240611</v>
+      </c>
+      <c r="C934">
+        <v>78</v>
+      </c>
+      <c r="D934">
+        <v>82</v>
+      </c>
+      <c r="E934" t="str">
+        <f t="shared" ref="E934" si="192">RIGHT(B934,2)</f>
+        <v>11</v>
+      </c>
+      <c r="F934" t="str">
+        <f t="shared" ref="F934" si="193">MID(B934,5,2)</f>
+        <v>06</v>
+      </c>
+      <c r="G934" t="str">
+        <f t="shared" ref="G934" si="194">LEFT(B934,4)</f>
+        <v>2024</v>
+      </c>
+      <c r="H934" t="str">
+        <f t="shared" ref="H934" si="195">_xlfn.CONCAT(E934,"/",F934,"/",G934)</f>
+        <v>11/06/2024</v>
+      </c>
+    </row>
+    <row r="935" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A935" t="s">
+        <v>1</v>
+      </c>
+      <c r="B935">
+        <v>20240615</v>
+      </c>
+      <c r="C935">
+        <v>65</v>
+      </c>
+      <c r="D935">
+        <v>63</v>
+      </c>
+      <c r="E935" t="str">
+        <f t="shared" ref="E935:E958" si="196">RIGHT(B935,2)</f>
+        <v>15</v>
+      </c>
+      <c r="F935" t="str">
+        <f t="shared" ref="F935:F958" si="197">MID(B935,5,2)</f>
+        <v>06</v>
+      </c>
+      <c r="G935" t="str">
+        <f t="shared" ref="G935:G958" si="198">LEFT(B935,4)</f>
+        <v>2024</v>
+      </c>
+      <c r="H935" t="str">
+        <f t="shared" ref="H935:H958" si="199">_xlfn.CONCAT(E935,"/",F935,"/",G935)</f>
+        <v>15/06/2024</v>
+      </c>
+    </row>
+    <row r="936" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A936" t="s">
+        <v>1</v>
+      </c>
+      <c r="B936">
+        <v>20240612</v>
+      </c>
+      <c r="C936">
+        <v>41</v>
+      </c>
+      <c r="D936">
+        <v>47</v>
+      </c>
+      <c r="E936" t="str">
+        <f t="shared" si="196"/>
+        <v>12</v>
+      </c>
+      <c r="F936" t="str">
+        <f t="shared" si="197"/>
+        <v>06</v>
+      </c>
+      <c r="G936" t="str">
+        <f t="shared" si="198"/>
+        <v>2024</v>
+      </c>
+      <c r="H936" t="str">
+        <f t="shared" si="199"/>
+        <v>12/06/2024</v>
+      </c>
+    </row>
+    <row r="937" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A937" t="s">
+        <v>1</v>
+      </c>
+      <c r="B937">
+        <v>20240610</v>
+      </c>
+      <c r="C937">
+        <v>36</v>
+      </c>
+      <c r="D937">
+        <v>43</v>
+      </c>
+      <c r="E937" t="str">
+        <f t="shared" si="196"/>
+        <v>10</v>
+      </c>
+      <c r="F937" t="str">
+        <f t="shared" si="197"/>
+        <v>06</v>
+      </c>
+      <c r="G937" t="str">
+        <f t="shared" si="198"/>
+        <v>2024</v>
+      </c>
+      <c r="H937" t="str">
+        <f t="shared" si="199"/>
+        <v>10/06/2024</v>
+      </c>
+    </row>
+    <row r="938" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A938" t="s">
+        <v>1</v>
+      </c>
+      <c r="B938">
+        <v>20240613</v>
+      </c>
+      <c r="C938">
+        <v>32</v>
+      </c>
+      <c r="D938">
+        <v>41</v>
+      </c>
+      <c r="E938" t="str">
+        <f t="shared" si="196"/>
+        <v>13</v>
+      </c>
+      <c r="F938" t="str">
+        <f t="shared" si="197"/>
+        <v>06</v>
+      </c>
+      <c r="G938" t="str">
+        <f t="shared" si="198"/>
+        <v>2024</v>
+      </c>
+      <c r="H938" t="str">
+        <f t="shared" si="199"/>
+        <v>13/06/2024</v>
+      </c>
+    </row>
+    <row r="939" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A939" t="s">
+        <v>1</v>
+      </c>
+      <c r="B939">
+        <v>20240614</v>
+      </c>
+      <c r="C939">
+        <v>32</v>
+      </c>
+      <c r="D939">
+        <v>35</v>
+      </c>
+      <c r="E939" t="str">
+        <f t="shared" si="196"/>
+        <v>14</v>
+      </c>
+      <c r="F939" t="str">
+        <f t="shared" si="197"/>
+        <v>06</v>
+      </c>
+      <c r="G939" t="str">
+        <f t="shared" si="198"/>
+        <v>2024</v>
+      </c>
+      <c r="H939" t="str">
+        <f t="shared" si="199"/>
+        <v>14/06/2024</v>
+      </c>
+    </row>
+    <row r="940" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A940" t="s">
+        <v>1</v>
+      </c>
+      <c r="B940">
+        <v>20240616</v>
+      </c>
+      <c r="C940">
+        <v>31</v>
+      </c>
+      <c r="D940">
+        <v>6</v>
+      </c>
+      <c r="E940" t="str">
+        <f t="shared" si="196"/>
+        <v>16</v>
+      </c>
+      <c r="F940" t="str">
+        <f t="shared" si="197"/>
+        <v>06</v>
+      </c>
+      <c r="G940" t="str">
+        <f t="shared" si="198"/>
+        <v>2024</v>
+      </c>
+      <c r="H940" t="str">
+        <f t="shared" si="199"/>
+        <v>16/06/2024</v>
+      </c>
+    </row>
+    <row r="941" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A941" t="s">
+        <v>2</v>
+      </c>
+      <c r="B941">
+        <v>20240611</v>
+      </c>
+      <c r="C941">
+        <v>22</v>
+      </c>
+      <c r="D941">
+        <v>65</v>
+      </c>
+      <c r="E941" t="str">
+        <f t="shared" si="196"/>
+        <v>11</v>
+      </c>
+      <c r="F941" t="str">
+        <f t="shared" si="197"/>
+        <v>06</v>
+      </c>
+      <c r="G941" t="str">
+        <f t="shared" si="198"/>
+        <v>2024</v>
+      </c>
+      <c r="H941" t="str">
+        <f t="shared" si="199"/>
+        <v>11/06/2024</v>
+      </c>
+    </row>
+    <row r="942" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A942" t="s">
+        <v>2</v>
+      </c>
+      <c r="B942">
+        <v>20240613</v>
+      </c>
+      <c r="C942">
+        <v>12</v>
+      </c>
+      <c r="D942">
+        <v>50</v>
+      </c>
+      <c r="E942" t="str">
+        <f t="shared" si="196"/>
+        <v>13</v>
+      </c>
+      <c r="F942" t="str">
+        <f t="shared" si="197"/>
+        <v>06</v>
+      </c>
+      <c r="G942" t="str">
+        <f t="shared" si="198"/>
+        <v>2024</v>
+      </c>
+      <c r="H942" t="str">
+        <f t="shared" si="199"/>
+        <v>13/06/2024</v>
+      </c>
+    </row>
+    <row r="943" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A943" t="s">
+        <v>2</v>
+      </c>
+      <c r="B943">
+        <v>20240612</v>
+      </c>
+      <c r="C943">
+        <v>9</v>
+      </c>
+      <c r="D943">
+        <v>33</v>
+      </c>
+      <c r="E943" t="str">
+        <f t="shared" si="196"/>
+        <v>12</v>
+      </c>
+      <c r="F943" t="str">
+        <f t="shared" si="197"/>
+        <v>06</v>
+      </c>
+      <c r="G943" t="str">
+        <f t="shared" si="198"/>
+        <v>2024</v>
+      </c>
+      <c r="H943" t="str">
+        <f t="shared" si="199"/>
+        <v>12/06/2024</v>
+      </c>
+    </row>
+    <row r="944" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A944" t="s">
+        <v>2</v>
+      </c>
+      <c r="B944">
+        <v>20240615</v>
+      </c>
+      <c r="C944">
+        <v>9</v>
+      </c>
+      <c r="D944">
+        <v>44</v>
+      </c>
+      <c r="E944" t="str">
+        <f t="shared" si="196"/>
+        <v>15</v>
+      </c>
+      <c r="F944" t="str">
+        <f t="shared" si="197"/>
+        <v>06</v>
+      </c>
+      <c r="G944" t="str">
+        <f t="shared" si="198"/>
+        <v>2024</v>
+      </c>
+      <c r="H944" t="str">
+        <f t="shared" si="199"/>
+        <v>15/06/2024</v>
+      </c>
+    </row>
+    <row r="945" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A945" t="s">
+        <v>2</v>
+      </c>
+      <c r="B945">
+        <v>20240610</v>
+      </c>
+      <c r="C945">
+        <v>8</v>
+      </c>
+      <c r="D945">
+        <v>38</v>
+      </c>
+      <c r="E945" t="str">
+        <f t="shared" si="196"/>
+        <v>10</v>
+      </c>
+      <c r="F945" t="str">
+        <f t="shared" si="197"/>
+        <v>06</v>
+      </c>
+      <c r="G945" t="str">
+        <f t="shared" si="198"/>
+        <v>2024</v>
+      </c>
+      <c r="H945" t="str">
+        <f t="shared" si="199"/>
+        <v>10/06/2024</v>
+      </c>
+    </row>
+    <row r="946" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A946" t="s">
+        <v>2</v>
+      </c>
+      <c r="B946">
+        <v>20240614</v>
+      </c>
+      <c r="C946">
+        <v>4</v>
+      </c>
+      <c r="D946">
+        <v>54</v>
+      </c>
+      <c r="E946" t="str">
+        <f t="shared" si="196"/>
+        <v>14</v>
+      </c>
+      <c r="F946" t="str">
+        <f t="shared" si="197"/>
+        <v>06</v>
+      </c>
+      <c r="G946" t="str">
+        <f t="shared" si="198"/>
+        <v>2024</v>
+      </c>
+      <c r="H946" t="str">
+        <f t="shared" si="199"/>
+        <v>14/06/2024</v>
+      </c>
+    </row>
+    <row r="947" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A947" t="s">
+        <v>2</v>
+      </c>
+      <c r="B947">
+        <v>20240616</v>
+      </c>
+      <c r="C947">
+        <v>4</v>
+      </c>
+      <c r="D947">
+        <v>9</v>
+      </c>
+      <c r="E947" t="str">
+        <f t="shared" si="196"/>
+        <v>16</v>
+      </c>
+      <c r="F947" t="str">
+        <f t="shared" si="197"/>
+        <v>06</v>
+      </c>
+      <c r="G947" t="str">
+        <f t="shared" si="198"/>
+        <v>2024</v>
+      </c>
+      <c r="H947" t="str">
+        <f t="shared" si="199"/>
+        <v>16/06/2024</v>
+      </c>
+    </row>
+    <row r="948" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A948" t="s">
+        <v>3</v>
+      </c>
+      <c r="B948">
+        <v>20240615</v>
+      </c>
+      <c r="C948">
+        <v>3</v>
+      </c>
+      <c r="D948">
+        <v>1</v>
+      </c>
+      <c r="E948" t="str">
+        <f t="shared" si="196"/>
+        <v>15</v>
+      </c>
+      <c r="F948" t="str">
+        <f t="shared" si="197"/>
+        <v>06</v>
+      </c>
+      <c r="G948" t="str">
+        <f t="shared" si="198"/>
+        <v>2024</v>
+      </c>
+      <c r="H948" t="str">
+        <f t="shared" si="199"/>
+        <v>15/06/2024</v>
+      </c>
+    </row>
+    <row r="949" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A949" t="s">
+        <v>3</v>
+      </c>
+      <c r="B949">
+        <v>20240613</v>
+      </c>
+      <c r="C949">
+        <v>1</v>
+      </c>
+      <c r="D949">
+        <v>5</v>
+      </c>
+      <c r="E949" t="str">
+        <f t="shared" si="196"/>
+        <v>13</v>
+      </c>
+      <c r="F949" t="str">
+        <f t="shared" si="197"/>
+        <v>06</v>
+      </c>
+      <c r="G949" t="str">
+        <f t="shared" si="198"/>
+        <v>2024</v>
+      </c>
+      <c r="H949" t="str">
+        <f t="shared" si="199"/>
+        <v>13/06/2024</v>
+      </c>
+    </row>
+    <row r="950" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A950" t="s">
+        <v>4</v>
+      </c>
+      <c r="B950">
+        <v>20240612</v>
+      </c>
+      <c r="C950">
+        <v>1</v>
+      </c>
+      <c r="D950">
+        <v>0</v>
+      </c>
+      <c r="E950" t="str">
+        <f t="shared" si="196"/>
+        <v>12</v>
+      </c>
+      <c r="F950" t="str">
+        <f t="shared" si="197"/>
+        <v>06</v>
+      </c>
+      <c r="G950" t="str">
+        <f t="shared" si="198"/>
+        <v>2024</v>
+      </c>
+      <c r="H950" t="str">
+        <f t="shared" si="199"/>
+        <v>12/06/2024</v>
+      </c>
+    </row>
+    <row r="951" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A951" t="s">
+        <v>4</v>
+      </c>
+      <c r="B951">
+        <v>20240613</v>
+      </c>
+      <c r="C951">
+        <v>1</v>
+      </c>
+      <c r="D951">
+        <v>0</v>
+      </c>
+      <c r="E951" t="str">
+        <f t="shared" si="196"/>
+        <v>13</v>
+      </c>
+      <c r="F951" t="str">
+        <f t="shared" si="197"/>
+        <v>06</v>
+      </c>
+      <c r="G951" t="str">
+        <f t="shared" si="198"/>
+        <v>2024</v>
+      </c>
+      <c r="H951" t="str">
+        <f t="shared" si="199"/>
+        <v>13/06/2024</v>
+      </c>
+    </row>
+    <row r="952" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A952" t="s">
+        <v>4</v>
+      </c>
+      <c r="B952">
+        <v>20240614</v>
+      </c>
+      <c r="C952">
+        <v>1</v>
+      </c>
+      <c r="D952">
+        <v>1</v>
+      </c>
+      <c r="E952" t="str">
+        <f t="shared" si="196"/>
+        <v>14</v>
+      </c>
+      <c r="F952" t="str">
+        <f t="shared" si="197"/>
+        <v>06</v>
+      </c>
+      <c r="G952" t="str">
+        <f t="shared" si="198"/>
+        <v>2024</v>
+      </c>
+      <c r="H952" t="str">
+        <f t="shared" si="199"/>
+        <v>14/06/2024</v>
+      </c>
+    </row>
+    <row r="953" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A953" t="s">
+        <v>3</v>
+      </c>
+      <c r="B953">
+        <v>20240612</v>
+      </c>
+      <c r="C953">
+        <v>0</v>
+      </c>
+      <c r="D953">
+        <v>3</v>
+      </c>
+      <c r="E953" t="str">
+        <f t="shared" si="196"/>
+        <v>12</v>
+      </c>
+      <c r="F953" t="str">
+        <f t="shared" si="197"/>
+        <v>06</v>
+      </c>
+      <c r="G953" t="str">
+        <f t="shared" si="198"/>
+        <v>2024</v>
+      </c>
+      <c r="H953" t="str">
+        <f t="shared" si="199"/>
+        <v>12/06/2024</v>
+      </c>
+    </row>
+    <row r="954" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A954" t="s">
+        <v>3</v>
+      </c>
+      <c r="B954">
+        <v>20240614</v>
+      </c>
+      <c r="C954">
+        <v>0</v>
+      </c>
+      <c r="D954">
+        <v>0</v>
+      </c>
+      <c r="E954" t="str">
+        <f t="shared" si="196"/>
+        <v>14</v>
+      </c>
+      <c r="F954" t="str">
+        <f t="shared" si="197"/>
+        <v>06</v>
+      </c>
+      <c r="G954" t="str">
+        <f t="shared" si="198"/>
+        <v>2024</v>
+      </c>
+      <c r="H954" t="str">
+        <f t="shared" si="199"/>
+        <v>14/06/2024</v>
+      </c>
+    </row>
+    <row r="955" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A955" t="s">
+        <v>4</v>
+      </c>
+      <c r="B955">
+        <v>20240610</v>
+      </c>
+      <c r="C955">
+        <v>0</v>
+      </c>
+      <c r="D955">
+        <v>0</v>
+      </c>
+      <c r="E955" t="str">
+        <f t="shared" si="196"/>
+        <v>10</v>
+      </c>
+      <c r="F955" t="str">
+        <f t="shared" si="197"/>
+        <v>06</v>
+      </c>
+      <c r="G955" t="str">
+        <f t="shared" si="198"/>
+        <v>2024</v>
+      </c>
+      <c r="H955" t="str">
+        <f t="shared" si="199"/>
+        <v>10/06/2024</v>
+      </c>
+    </row>
+    <row r="956" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A956" t="s">
+        <v>4</v>
+      </c>
+      <c r="B956">
+        <v>20240611</v>
+      </c>
+      <c r="C956">
+        <v>0</v>
+      </c>
+      <c r="D956">
+        <v>0</v>
+      </c>
+      <c r="E956" t="str">
+        <f t="shared" si="196"/>
+        <v>11</v>
+      </c>
+      <c r="F956" t="str">
+        <f t="shared" si="197"/>
+        <v>06</v>
+      </c>
+      <c r="G956" t="str">
+        <f t="shared" si="198"/>
+        <v>2024</v>
+      </c>
+      <c r="H956" t="str">
+        <f t="shared" si="199"/>
+        <v>11/06/2024</v>
+      </c>
+    </row>
+    <row r="957" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A957" t="s">
+        <v>4</v>
+      </c>
+      <c r="B957">
+        <v>20240615</v>
+      </c>
+      <c r="C957">
+        <v>0</v>
+      </c>
+      <c r="D957">
+        <v>1</v>
+      </c>
+      <c r="E957" t="str">
+        <f t="shared" si="196"/>
+        <v>15</v>
+      </c>
+      <c r="F957" t="str">
+        <f t="shared" si="197"/>
+        <v>06</v>
+      </c>
+      <c r="G957" t="str">
+        <f t="shared" si="198"/>
+        <v>2024</v>
+      </c>
+      <c r="H957" t="str">
+        <f t="shared" si="199"/>
+        <v>15/06/2024</v>
+      </c>
+    </row>
+    <row r="958" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A958" t="s">
+        <v>12</v>
+      </c>
+      <c r="B958">
+        <v>20240616</v>
+      </c>
+      <c r="C958">
+        <v>0</v>
+      </c>
+      <c r="D958">
+        <v>0</v>
+      </c>
+      <c r="E958" t="str">
+        <f t="shared" si="196"/>
+        <v>16</v>
+      </c>
+      <c r="F958" t="str">
+        <f t="shared" si="197"/>
+        <v>06</v>
+      </c>
+      <c r="G958" t="str">
+        <f t="shared" si="198"/>
+        <v>2024</v>
+      </c>
+      <c r="H958" t="str">
+        <f t="shared" si="199"/>
+        <v>16/06/2024</v>
+      </c>
+    </row>
+    <row r="959" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A959" t="s">
+        <v>2</v>
+      </c>
+      <c r="B959">
+        <v>20240620</v>
+      </c>
+      <c r="C959">
+        <v>44</v>
+      </c>
+      <c r="D959">
+        <v>48</v>
+      </c>
+      <c r="E959" t="str">
+        <f t="shared" ref="E959:E981" si="200">RIGHT(B959,2)</f>
+        <v>20</v>
+      </c>
+      <c r="F959" t="str">
+        <f t="shared" ref="F959:F981" si="201">MID(B959,5,2)</f>
+        <v>06</v>
+      </c>
+      <c r="G959" t="str">
+        <f t="shared" ref="G959:G981" si="202">LEFT(B959,4)</f>
+        <v>2024</v>
+      </c>
+      <c r="H959" t="str">
+        <f t="shared" ref="H959:H981" si="203">_xlfn.CONCAT(E959,"/",F959,"/",G959)</f>
+        <v>20/06/2024</v>
+      </c>
+    </row>
+    <row r="960" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A960" t="s">
+        <v>1</v>
+      </c>
+      <c r="B960">
+        <v>20240623</v>
+      </c>
+      <c r="C960">
+        <v>42</v>
+      </c>
+      <c r="D960">
+        <v>6</v>
+      </c>
+      <c r="E960" t="str">
+        <f t="shared" si="200"/>
+        <v>23</v>
+      </c>
+      <c r="F960" t="str">
+        <f t="shared" si="201"/>
+        <v>06</v>
+      </c>
+      <c r="G960" t="str">
+        <f t="shared" si="202"/>
+        <v>2024</v>
+      </c>
+      <c r="H960" t="str">
+        <f t="shared" si="203"/>
+        <v>23/06/2024</v>
+      </c>
+    </row>
+    <row r="961" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A961" t="s">
+        <v>1</v>
+      </c>
+      <c r="B961">
+        <v>20240619</v>
+      </c>
+      <c r="C961">
+        <v>35</v>
+      </c>
+      <c r="D961">
+        <v>38</v>
+      </c>
+      <c r="E961" t="str">
+        <f t="shared" si="200"/>
+        <v>19</v>
+      </c>
+      <c r="F961" t="str">
+        <f t="shared" si="201"/>
+        <v>06</v>
+      </c>
+      <c r="G961" t="str">
+        <f t="shared" si="202"/>
+        <v>2024</v>
+      </c>
+      <c r="H961" t="str">
+        <f t="shared" si="203"/>
+        <v>19/06/2024</v>
+      </c>
+    </row>
+    <row r="962" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A962" t="s">
+        <v>1</v>
+      </c>
+      <c r="B962">
+        <v>20240621</v>
+      </c>
+      <c r="C962">
+        <v>34</v>
+      </c>
+      <c r="D962">
+        <v>34</v>
+      </c>
+      <c r="E962" t="str">
+        <f t="shared" si="200"/>
+        <v>21</v>
+      </c>
+      <c r="F962" t="str">
+        <f t="shared" si="201"/>
+        <v>06</v>
+      </c>
+      <c r="G962" t="str">
+        <f t="shared" si="202"/>
+        <v>2024</v>
+      </c>
+      <c r="H962" t="str">
+        <f t="shared" si="203"/>
+        <v>21/06/2024</v>
+      </c>
+    </row>
+    <row r="963" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A963" t="s">
+        <v>1</v>
+      </c>
+      <c r="B963">
+        <v>20240618</v>
+      </c>
+      <c r="C963">
+        <v>32</v>
+      </c>
+      <c r="D963">
+        <v>48</v>
+      </c>
+      <c r="E963" t="str">
+        <f t="shared" si="200"/>
+        <v>18</v>
+      </c>
+      <c r="F963" t="str">
+        <f t="shared" si="201"/>
+        <v>06</v>
+      </c>
+      <c r="G963" t="str">
+        <f t="shared" si="202"/>
+        <v>2024</v>
+      </c>
+      <c r="H963" t="str">
+        <f t="shared" si="203"/>
+        <v>18/06/2024</v>
+      </c>
+    </row>
+    <row r="964" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A964" t="s">
+        <v>1</v>
+      </c>
+      <c r="B964">
+        <v>20240617</v>
+      </c>
+      <c r="C964">
+        <v>26</v>
+      </c>
+      <c r="D964">
+        <v>29</v>
+      </c>
+      <c r="E964" t="str">
+        <f t="shared" si="200"/>
+        <v>17</v>
+      </c>
+      <c r="F964" t="str">
+        <f t="shared" si="201"/>
+        <v>06</v>
+      </c>
+      <c r="G964" t="str">
+        <f t="shared" si="202"/>
+        <v>2024</v>
+      </c>
+      <c r="H964" t="str">
+        <f t="shared" si="203"/>
+        <v>17/06/2024</v>
+      </c>
+    </row>
+    <row r="965" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A965" t="s">
+        <v>1</v>
+      </c>
+      <c r="B965">
+        <v>20240622</v>
+      </c>
+      <c r="C965">
+        <v>26</v>
+      </c>
+      <c r="D965">
+        <v>32</v>
+      </c>
+      <c r="E965" t="str">
+        <f t="shared" si="200"/>
+        <v>22</v>
+      </c>
+      <c r="F965" t="str">
+        <f t="shared" si="201"/>
+        <v>06</v>
+      </c>
+      <c r="G965" t="str">
+        <f t="shared" si="202"/>
+        <v>2024</v>
+      </c>
+      <c r="H965" t="str">
+        <f t="shared" si="203"/>
+        <v>22/06/2024</v>
+      </c>
+    </row>
+    <row r="966" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A966" t="s">
+        <v>1</v>
+      </c>
+      <c r="B966">
+        <v>20240620</v>
+      </c>
+      <c r="C966">
+        <v>25</v>
+      </c>
+      <c r="D966">
+        <v>27</v>
+      </c>
+      <c r="E966" t="str">
+        <f t="shared" si="200"/>
+        <v>20</v>
+      </c>
+      <c r="F966" t="str">
+        <f t="shared" si="201"/>
+        <v>06</v>
+      </c>
+      <c r="G966" t="str">
+        <f t="shared" si="202"/>
+        <v>2024</v>
+      </c>
+      <c r="H966" t="str">
+        <f t="shared" si="203"/>
+        <v>20/06/2024</v>
+      </c>
+    </row>
+    <row r="967" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A967" t="s">
+        <v>2</v>
+      </c>
+      <c r="B967">
+        <v>20240623</v>
+      </c>
+      <c r="C967">
+        <v>13</v>
+      </c>
+      <c r="D967">
+        <v>6</v>
+      </c>
+      <c r="E967" t="str">
+        <f t="shared" si="200"/>
+        <v>23</v>
+      </c>
+      <c r="F967" t="str">
+        <f t="shared" si="201"/>
+        <v>06</v>
+      </c>
+      <c r="G967" t="str">
+        <f t="shared" si="202"/>
+        <v>2024</v>
+      </c>
+      <c r="H967" t="str">
+        <f t="shared" si="203"/>
+        <v>23/06/2024</v>
+      </c>
+    </row>
+    <row r="968" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A968" t="s">
+        <v>2</v>
+      </c>
+      <c r="B968">
+        <v>20240621</v>
+      </c>
+      <c r="C968">
+        <v>12</v>
+      </c>
+      <c r="D968">
+        <v>43</v>
+      </c>
+      <c r="E968" t="str">
+        <f t="shared" si="200"/>
+        <v>21</v>
+      </c>
+      <c r="F968" t="str">
+        <f t="shared" si="201"/>
+        <v>06</v>
+      </c>
+      <c r="G968" t="str">
+        <f t="shared" si="202"/>
+        <v>2024</v>
+      </c>
+      <c r="H968" t="str">
+        <f t="shared" si="203"/>
+        <v>21/06/2024</v>
+      </c>
+    </row>
+    <row r="969" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A969" t="s">
+        <v>2</v>
+      </c>
+      <c r="B969">
+        <v>20240619</v>
+      </c>
+      <c r="C969">
+        <v>11</v>
+      </c>
+      <c r="D969">
+        <v>51</v>
+      </c>
+      <c r="E969" t="str">
+        <f t="shared" si="200"/>
+        <v>19</v>
+      </c>
+      <c r="F969" t="str">
+        <f t="shared" si="201"/>
+        <v>06</v>
+      </c>
+      <c r="G969" t="str">
+        <f t="shared" si="202"/>
+        <v>2024</v>
+      </c>
+      <c r="H969" t="str">
+        <f t="shared" si="203"/>
+        <v>19/06/2024</v>
+      </c>
+    </row>
+    <row r="970" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A970" t="s">
+        <v>2</v>
+      </c>
+      <c r="B970">
+        <v>20240617</v>
+      </c>
+      <c r="C970">
+        <v>9</v>
+      </c>
+      <c r="D970">
+        <v>36</v>
+      </c>
+      <c r="E970" t="str">
+        <f t="shared" si="200"/>
+        <v>17</v>
+      </c>
+      <c r="F970" t="str">
+        <f t="shared" si="201"/>
+        <v>06</v>
+      </c>
+      <c r="G970" t="str">
+        <f t="shared" si="202"/>
+        <v>2024</v>
+      </c>
+      <c r="H970" t="str">
+        <f t="shared" si="203"/>
+        <v>17/06/2024</v>
+      </c>
+    </row>
+    <row r="971" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A971" t="s">
+        <v>2</v>
+      </c>
+      <c r="B971">
+        <v>20240618</v>
+      </c>
+      <c r="C971">
+        <v>6</v>
+      </c>
+      <c r="D971">
+        <v>37</v>
+      </c>
+      <c r="E971" t="str">
+        <f t="shared" si="200"/>
+        <v>18</v>
+      </c>
+      <c r="F971" t="str">
+        <f t="shared" si="201"/>
+        <v>06</v>
+      </c>
+      <c r="G971" t="str">
+        <f t="shared" si="202"/>
+        <v>2024</v>
+      </c>
+      <c r="H971" t="str">
+        <f t="shared" si="203"/>
+        <v>18/06/2024</v>
+      </c>
+    </row>
+    <row r="972" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A972" t="s">
+        <v>2</v>
+      </c>
+      <c r="B972">
+        <v>20240622</v>
+      </c>
+      <c r="C972">
+        <v>6</v>
+      </c>
+      <c r="D972">
+        <v>30</v>
+      </c>
+      <c r="E972" t="str">
+        <f t="shared" si="200"/>
+        <v>22</v>
+      </c>
+      <c r="F972" t="str">
+        <f t="shared" si="201"/>
+        <v>06</v>
+      </c>
+      <c r="G972" t="str">
+        <f t="shared" si="202"/>
+        <v>2024</v>
+      </c>
+      <c r="H972" t="str">
+        <f t="shared" si="203"/>
+        <v>22/06/2024</v>
+      </c>
+    </row>
+    <row r="973" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A973" t="s">
+        <v>3</v>
+      </c>
+      <c r="B973">
+        <v>20240619</v>
+      </c>
+      <c r="C973">
+        <v>1</v>
+      </c>
+      <c r="D973">
+        <v>0</v>
+      </c>
+      <c r="E973" t="str">
+        <f t="shared" si="200"/>
+        <v>19</v>
+      </c>
+      <c r="F973" t="str">
+        <f t="shared" si="201"/>
+        <v>06</v>
+      </c>
+      <c r="G973" t="str">
+        <f t="shared" si="202"/>
+        <v>2024</v>
+      </c>
+      <c r="H973" t="str">
+        <f t="shared" si="203"/>
+        <v>19/06/2024</v>
+      </c>
+    </row>
+    <row r="974" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A974" t="s">
+        <v>4</v>
+      </c>
+      <c r="B974">
+        <v>20240617</v>
+      </c>
+      <c r="C974">
+        <v>1</v>
+      </c>
+      <c r="D974">
+        <v>1</v>
+      </c>
+      <c r="E974" t="str">
+        <f t="shared" si="200"/>
+        <v>17</v>
+      </c>
+      <c r="F974" t="str">
+        <f t="shared" si="201"/>
+        <v>06</v>
+      </c>
+      <c r="G974" t="str">
+        <f t="shared" si="202"/>
+        <v>2024</v>
+      </c>
+      <c r="H974" t="str">
+        <f t="shared" si="203"/>
+        <v>17/06/2024</v>
+      </c>
+    </row>
+    <row r="975" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A975" t="s">
+        <v>4</v>
+      </c>
+      <c r="B975">
+        <v>20240620</v>
+      </c>
+      <c r="C975">
+        <v>1</v>
+      </c>
+      <c r="D975">
+        <v>1</v>
+      </c>
+      <c r="E975" t="str">
+        <f t="shared" si="200"/>
+        <v>20</v>
+      </c>
+      <c r="F975" t="str">
+        <f t="shared" si="201"/>
+        <v>06</v>
+      </c>
+      <c r="G975" t="str">
+        <f t="shared" si="202"/>
+        <v>2024</v>
+      </c>
+      <c r="H975" t="str">
+        <f t="shared" si="203"/>
+        <v>20/06/2024</v>
+      </c>
+    </row>
+    <row r="976" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A976" t="s">
+        <v>4</v>
+      </c>
+      <c r="B976">
+        <v>20240621</v>
+      </c>
+      <c r="C976">
+        <v>1</v>
+      </c>
+      <c r="D976">
+        <v>1</v>
+      </c>
+      <c r="E976" t="str">
+        <f t="shared" si="200"/>
+        <v>21</v>
+      </c>
+      <c r="F976" t="str">
+        <f t="shared" si="201"/>
+        <v>06</v>
+      </c>
+      <c r="G976" t="str">
+        <f t="shared" si="202"/>
+        <v>2024</v>
+      </c>
+      <c r="H976" t="str">
+        <f t="shared" si="203"/>
+        <v>21/06/2024</v>
+      </c>
+    </row>
+    <row r="977" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A977" t="s">
+        <v>4</v>
+      </c>
+      <c r="B977">
+        <v>20240622</v>
+      </c>
+      <c r="C977">
+        <v>1</v>
+      </c>
+      <c r="D977">
+        <v>1</v>
+      </c>
+      <c r="E977" t="str">
+        <f t="shared" si="200"/>
+        <v>22</v>
+      </c>
+      <c r="F977" t="str">
+        <f t="shared" si="201"/>
+        <v>06</v>
+      </c>
+      <c r="G977" t="str">
+        <f t="shared" si="202"/>
+        <v>2024</v>
+      </c>
+      <c r="H977" t="str">
+        <f t="shared" si="203"/>
+        <v>22/06/2024</v>
+      </c>
+    </row>
+    <row r="978" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A978" t="s">
+        <v>3</v>
+      </c>
+      <c r="B978">
+        <v>20240621</v>
+      </c>
+      <c r="C978">
+        <v>0</v>
+      </c>
+      <c r="D978">
+        <v>1</v>
+      </c>
+      <c r="E978" t="str">
+        <f t="shared" si="200"/>
+        <v>21</v>
+      </c>
+      <c r="F978" t="str">
+        <f t="shared" si="201"/>
+        <v>06</v>
+      </c>
+      <c r="G978" t="str">
+        <f t="shared" si="202"/>
+        <v>2024</v>
+      </c>
+      <c r="H978" t="str">
+        <f t="shared" si="203"/>
+        <v>21/06/2024</v>
+      </c>
+    </row>
+    <row r="979" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A979" t="s">
+        <v>3</v>
+      </c>
+      <c r="B979">
+        <v>20240622</v>
+      </c>
+      <c r="C979">
+        <v>0</v>
+      </c>
+      <c r="D979">
+        <v>3</v>
+      </c>
+      <c r="E979" t="str">
+        <f t="shared" si="200"/>
+        <v>22</v>
+      </c>
+      <c r="F979" t="str">
+        <f t="shared" si="201"/>
+        <v>06</v>
+      </c>
+      <c r="G979" t="str">
+        <f t="shared" si="202"/>
+        <v>2024</v>
+      </c>
+      <c r="H979" t="str">
+        <f t="shared" si="203"/>
+        <v>22/06/2024</v>
+      </c>
+    </row>
+    <row r="980" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A980" t="s">
+        <v>3</v>
+      </c>
+      <c r="B980">
+        <v>20240623</v>
+      </c>
+      <c r="C980">
+        <v>0</v>
+      </c>
+      <c r="D980">
+        <v>0</v>
+      </c>
+      <c r="E980" t="str">
+        <f t="shared" si="200"/>
+        <v>23</v>
+      </c>
+      <c r="F980" t="str">
+        <f t="shared" si="201"/>
+        <v>06</v>
+      </c>
+      <c r="G980" t="str">
+        <f t="shared" si="202"/>
+        <v>2024</v>
+      </c>
+      <c r="H980" t="str">
+        <f t="shared" si="203"/>
+        <v>23/06/2024</v>
+      </c>
+    </row>
+    <row r="981" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A981" t="s">
+        <v>12</v>
+      </c>
+      <c r="B981">
+        <v>20240623</v>
+      </c>
+      <c r="C981">
+        <v>0</v>
+      </c>
+      <c r="D981">
+        <v>0</v>
+      </c>
+      <c r="E981" t="str">
+        <f t="shared" si="200"/>
+        <v>23</v>
+      </c>
+      <c r="F981" t="str">
+        <f t="shared" si="201"/>
+        <v>06</v>
+      </c>
+      <c r="G981" t="str">
+        <f t="shared" si="202"/>
+        <v>2024</v>
+      </c>
+      <c r="H981" t="str">
+        <f t="shared" si="203"/>
+        <v>23/06/2024</v>
+      </c>
+    </row>
+    <row r="982" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A982" t="s">
+        <v>2</v>
+      </c>
+      <c r="B982">
+        <v>20240624</v>
+      </c>
+      <c r="C982">
+        <v>85</v>
+      </c>
+      <c r="D982">
+        <v>99</v>
+      </c>
+      <c r="E982" t="str">
+        <f t="shared" ref="E982:E1002" si="204">RIGHT(B982,2)</f>
+        <v>24</v>
+      </c>
+      <c r="F982" t="str">
+        <f t="shared" ref="F982:F1002" si="205">MID(B982,5,2)</f>
+        <v>06</v>
+      </c>
+      <c r="G982" t="str">
+        <f t="shared" ref="G982:G1002" si="206">LEFT(B982,4)</f>
+        <v>2024</v>
+      </c>
+      <c r="H982" t="str">
+        <f t="shared" ref="H982:H1002" si="207">_xlfn.CONCAT(E982,"/",F982,"/",G982)</f>
+        <v>24/06/2024</v>
+      </c>
+    </row>
+    <row r="983" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A983" t="s">
+        <v>1</v>
+      </c>
+      <c r="B983">
+        <v>20240627</v>
+      </c>
+      <c r="C983">
+        <v>65</v>
+      </c>
+      <c r="D983">
+        <v>69</v>
+      </c>
+      <c r="E983" t="str">
+        <f t="shared" si="204"/>
+        <v>27</v>
+      </c>
+      <c r="F983" t="str">
+        <f t="shared" si="205"/>
+        <v>06</v>
+      </c>
+      <c r="G983" t="str">
+        <f t="shared" si="206"/>
+        <v>2024</v>
+      </c>
+      <c r="H983" t="str">
+        <f t="shared" si="207"/>
+        <v>27/06/2024</v>
+      </c>
+    </row>
+    <row r="984" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A984" t="s">
+        <v>1</v>
+      </c>
+      <c r="B984">
+        <v>20240624</v>
+      </c>
+      <c r="C984">
+        <v>50</v>
+      </c>
+      <c r="D984">
+        <v>65</v>
+      </c>
+      <c r="E984" t="str">
+        <f t="shared" si="204"/>
+        <v>24</v>
+      </c>
+      <c r="F984" t="str">
+        <f t="shared" si="205"/>
+        <v>06</v>
+      </c>
+      <c r="G984" t="str">
+        <f t="shared" si="206"/>
+        <v>2024</v>
+      </c>
+      <c r="H984" t="str">
+        <f t="shared" si="207"/>
+        <v>24/06/2024</v>
+      </c>
+    </row>
+    <row r="985" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A985" t="s">
+        <v>1</v>
+      </c>
+      <c r="B985">
+        <v>20240630</v>
+      </c>
+      <c r="C985">
+        <v>41</v>
+      </c>
+      <c r="D985">
+        <v>41</v>
+      </c>
+      <c r="E985" t="str">
+        <f t="shared" si="204"/>
+        <v>30</v>
+      </c>
+      <c r="F985" t="str">
+        <f t="shared" si="205"/>
+        <v>06</v>
+      </c>
+      <c r="G985" t="str">
+        <f t="shared" si="206"/>
+        <v>2024</v>
+      </c>
+      <c r="H985" t="str">
+        <f t="shared" si="207"/>
+        <v>30/06/2024</v>
+      </c>
+    </row>
+    <row r="986" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A986" t="s">
+        <v>1</v>
+      </c>
+      <c r="B986">
+        <v>20240625</v>
+      </c>
+      <c r="C986">
+        <v>40</v>
+      </c>
+      <c r="D986">
+        <v>44</v>
+      </c>
+      <c r="E986" t="str">
+        <f t="shared" si="204"/>
+        <v>25</v>
+      </c>
+      <c r="F986" t="str">
+        <f t="shared" si="205"/>
+        <v>06</v>
+      </c>
+      <c r="G986" t="str">
+        <f t="shared" si="206"/>
+        <v>2024</v>
+      </c>
+      <c r="H986" t="str">
+        <f t="shared" si="207"/>
+        <v>25/06/2024</v>
+      </c>
+    </row>
+    <row r="987" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A987" t="s">
+        <v>1</v>
+      </c>
+      <c r="B987">
+        <v>20240629</v>
+      </c>
+      <c r="C987">
+        <v>37</v>
+      </c>
+      <c r="D987">
+        <v>40</v>
+      </c>
+      <c r="E987" t="str">
+        <f t="shared" si="204"/>
+        <v>29</v>
+      </c>
+      <c r="F987" t="str">
+        <f t="shared" si="205"/>
+        <v>06</v>
+      </c>
+      <c r="G987" t="str">
+        <f t="shared" si="206"/>
+        <v>2024</v>
+      </c>
+      <c r="H987" t="str">
+        <f t="shared" si="207"/>
+        <v>29/06/2024</v>
+      </c>
+    </row>
+    <row r="988" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A988" t="s">
+        <v>1</v>
+      </c>
+      <c r="B988">
+        <v>20240626</v>
+      </c>
+      <c r="C988">
+        <v>33</v>
+      </c>
+      <c r="D988">
+        <v>37</v>
+      </c>
+      <c r="E988" t="str">
+        <f t="shared" si="204"/>
+        <v>26</v>
+      </c>
+      <c r="F988" t="str">
+        <f t="shared" si="205"/>
+        <v>06</v>
+      </c>
+      <c r="G988" t="str">
+        <f t="shared" si="206"/>
+        <v>2024</v>
+      </c>
+      <c r="H988" t="str">
+        <f t="shared" si="207"/>
+        <v>26/06/2024</v>
+      </c>
+    </row>
+    <row r="989" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A989" t="s">
+        <v>1</v>
+      </c>
+      <c r="B989">
+        <v>20240628</v>
+      </c>
+      <c r="C989">
+        <v>28</v>
+      </c>
+      <c r="D989">
+        <v>34</v>
+      </c>
+      <c r="E989" t="str">
+        <f t="shared" si="204"/>
+        <v>28</v>
+      </c>
+      <c r="F989" t="str">
+        <f t="shared" si="205"/>
+        <v>06</v>
+      </c>
+      <c r="G989" t="str">
+        <f t="shared" si="206"/>
+        <v>2024</v>
+      </c>
+      <c r="H989" t="str">
+        <f t="shared" si="207"/>
+        <v>28/06/2024</v>
+      </c>
+    </row>
+    <row r="990" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A990" t="s">
+        <v>2</v>
+      </c>
+      <c r="B990">
+        <v>20240625</v>
+      </c>
+      <c r="C990">
+        <v>18</v>
+      </c>
+      <c r="D990">
+        <v>53</v>
+      </c>
+      <c r="E990" t="str">
+        <f t="shared" si="204"/>
+        <v>25</v>
+      </c>
+      <c r="F990" t="str">
+        <f t="shared" si="205"/>
+        <v>06</v>
+      </c>
+      <c r="G990" t="str">
+        <f t="shared" si="206"/>
+        <v>2024</v>
+      </c>
+      <c r="H990" t="str">
+        <f t="shared" si="207"/>
+        <v>25/06/2024</v>
+      </c>
+    </row>
+    <row r="991" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A991" t="s">
+        <v>2</v>
+      </c>
+      <c r="B991">
+        <v>20240626</v>
+      </c>
+      <c r="C991">
+        <v>14</v>
+      </c>
+      <c r="D991">
+        <v>35</v>
+      </c>
+      <c r="E991" t="str">
+        <f t="shared" si="204"/>
+        <v>26</v>
+      </c>
+      <c r="F991" t="str">
+        <f t="shared" si="205"/>
+        <v>06</v>
+      </c>
+      <c r="G991" t="str">
+        <f t="shared" si="206"/>
+        <v>2024</v>
+      </c>
+      <c r="H991" t="str">
+        <f t="shared" si="207"/>
+        <v>26/06/2024</v>
+      </c>
+    </row>
+    <row r="992" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A992" t="s">
+        <v>2</v>
+      </c>
+      <c r="B992">
+        <v>20240627</v>
+      </c>
+      <c r="C992">
+        <v>11</v>
+      </c>
+      <c r="D992">
+        <v>45</v>
+      </c>
+      <c r="E992" t="str">
+        <f t="shared" si="204"/>
+        <v>27</v>
+      </c>
+      <c r="F992" t="str">
+        <f t="shared" si="205"/>
+        <v>06</v>
+      </c>
+      <c r="G992" t="str">
+        <f t="shared" si="206"/>
+        <v>2024</v>
+      </c>
+      <c r="H992" t="str">
+        <f t="shared" si="207"/>
+        <v>27/06/2024</v>
+      </c>
+    </row>
+    <row r="993" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A993" t="s">
+        <v>2</v>
+      </c>
+      <c r="B993">
+        <v>20240628</v>
+      </c>
+      <c r="C993">
+        <v>11</v>
+      </c>
+      <c r="D993">
+        <v>32</v>
+      </c>
+      <c r="E993" t="str">
+        <f t="shared" si="204"/>
+        <v>28</v>
+      </c>
+      <c r="F993" t="str">
+        <f t="shared" si="205"/>
+        <v>06</v>
+      </c>
+      <c r="G993" t="str">
+        <f t="shared" si="206"/>
+        <v>2024</v>
+      </c>
+      <c r="H993" t="str">
+        <f t="shared" si="207"/>
+        <v>28/06/2024</v>
+      </c>
+    </row>
+    <row r="994" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A994" t="s">
+        <v>2</v>
+      </c>
+      <c r="B994">
+        <v>20240629</v>
+      </c>
+      <c r="C994">
+        <v>11</v>
+      </c>
+      <c r="D994">
+        <v>41</v>
+      </c>
+      <c r="E994" t="str">
+        <f t="shared" si="204"/>
+        <v>29</v>
+      </c>
+      <c r="F994" t="str">
+        <f t="shared" si="205"/>
+        <v>06</v>
+      </c>
+      <c r="G994" t="str">
+        <f t="shared" si="206"/>
+        <v>2024</v>
+      </c>
+      <c r="H994" t="str">
+        <f t="shared" si="207"/>
+        <v>29/06/2024</v>
+      </c>
+    </row>
+    <row r="995" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A995" t="s">
+        <v>2</v>
+      </c>
+      <c r="B995">
+        <v>20240630</v>
+      </c>
+      <c r="C995">
+        <v>11</v>
+      </c>
+      <c r="D995">
+        <v>41</v>
+      </c>
+      <c r="E995" t="str">
+        <f t="shared" si="204"/>
+        <v>30</v>
+      </c>
+      <c r="F995" t="str">
+        <f t="shared" si="205"/>
+        <v>06</v>
+      </c>
+      <c r="G995" t="str">
+        <f t="shared" si="206"/>
+        <v>2024</v>
+      </c>
+      <c r="H995" t="str">
+        <f t="shared" si="207"/>
+        <v>30/06/2024</v>
+      </c>
+    </row>
+    <row r="996" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A996" t="s">
+        <v>4</v>
+      </c>
+      <c r="B996">
+        <v>20240624</v>
+      </c>
+      <c r="C996">
+        <v>2</v>
+      </c>
+      <c r="D996">
+        <v>2</v>
+      </c>
+      <c r="E996" t="str">
+        <f t="shared" si="204"/>
+        <v>24</v>
+      </c>
+      <c r="F996" t="str">
+        <f t="shared" si="205"/>
+        <v>06</v>
+      </c>
+      <c r="G996" t="str">
+        <f t="shared" si="206"/>
+        <v>2024</v>
+      </c>
+      <c r="H996" t="str">
+        <f t="shared" si="207"/>
+        <v>24/06/2024</v>
+      </c>
+    </row>
+    <row r="997" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A997" t="s">
+        <v>4</v>
+      </c>
+      <c r="B997">
+        <v>20240630</v>
+      </c>
+      <c r="C997">
+        <v>2</v>
+      </c>
+      <c r="D997">
+        <v>2</v>
+      </c>
+      <c r="E997" t="str">
+        <f t="shared" si="204"/>
+        <v>30</v>
+      </c>
+      <c r="F997" t="str">
+        <f t="shared" si="205"/>
+        <v>06</v>
+      </c>
+      <c r="G997" t="str">
+        <f t="shared" si="206"/>
+        <v>2024</v>
+      </c>
+      <c r="H997" t="str">
+        <f t="shared" si="207"/>
+        <v>30/06/2024</v>
+      </c>
+    </row>
+    <row r="998" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A998" t="s">
+        <v>4</v>
+      </c>
+      <c r="B998">
+        <v>20240627</v>
+      </c>
+      <c r="C998">
+        <v>1</v>
+      </c>
+      <c r="D998">
+        <v>2</v>
+      </c>
+      <c r="E998" t="str">
+        <f t="shared" si="204"/>
+        <v>27</v>
+      </c>
+      <c r="F998" t="str">
+        <f t="shared" si="205"/>
+        <v>06</v>
+      </c>
+      <c r="G998" t="str">
+        <f t="shared" si="206"/>
+        <v>2024</v>
+      </c>
+      <c r="H998" t="str">
+        <f t="shared" si="207"/>
+        <v>27/06/2024</v>
+      </c>
+    </row>
+    <row r="999" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A999" t="s">
+        <v>3</v>
+      </c>
+      <c r="B999">
+        <v>20240624</v>
+      </c>
+      <c r="C999">
+        <v>0</v>
+      </c>
+      <c r="D999">
+        <v>3</v>
+      </c>
+      <c r="E999" t="str">
+        <f t="shared" si="204"/>
+        <v>24</v>
+      </c>
+      <c r="F999" t="str">
+        <f t="shared" si="205"/>
+        <v>06</v>
+      </c>
+      <c r="G999" t="str">
+        <f t="shared" si="206"/>
+        <v>2024</v>
+      </c>
+      <c r="H999" t="str">
+        <f t="shared" si="207"/>
+        <v>24/06/2024</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1000" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1000">
+        <v>20240625</v>
+      </c>
+      <c r="C1000">
+        <v>0</v>
+      </c>
+      <c r="D1000">
+        <v>3</v>
+      </c>
+      <c r="E1000" t="str">
+        <f t="shared" si="204"/>
+        <v>25</v>
+      </c>
+      <c r="F1000" t="str">
+        <f t="shared" si="205"/>
+        <v>06</v>
+      </c>
+      <c r="G1000" t="str">
+        <f t="shared" si="206"/>
+        <v>2024</v>
+      </c>
+      <c r="H1000" t="str">
+        <f t="shared" si="207"/>
+        <v>25/06/2024</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1001" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1001">
+        <v>20240626</v>
+      </c>
+      <c r="C1001">
+        <v>0</v>
+      </c>
+      <c r="D1001">
+        <v>0</v>
+      </c>
+      <c r="E1001" t="str">
+        <f t="shared" si="204"/>
+        <v>26</v>
+      </c>
+      <c r="F1001" t="str">
+        <f t="shared" si="205"/>
+        <v>06</v>
+      </c>
+      <c r="G1001" t="str">
+        <f t="shared" si="206"/>
+        <v>2024</v>
+      </c>
+      <c r="H1001" t="str">
+        <f t="shared" si="207"/>
+        <v>26/06/2024</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1002" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1002">
+        <v>20240630</v>
+      </c>
+      <c r="C1002">
+        <v>0</v>
+      </c>
+      <c r="D1002">
+        <v>4</v>
+      </c>
+      <c r="E1002" t="str">
+        <f t="shared" si="204"/>
+        <v>30</v>
+      </c>
+      <c r="F1002" t="str">
+        <f t="shared" si="205"/>
+        <v>06</v>
+      </c>
+      <c r="G1002" t="str">
+        <f t="shared" si="206"/>
+        <v>2024</v>
+      </c>
+      <c r="H1002" t="str">
+        <f t="shared" si="207"/>
+        <v>30/06/2024</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1003" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1003">
+        <v>20240704</v>
+      </c>
+      <c r="C1003">
+        <v>62</v>
+      </c>
+      <c r="D1003">
+        <v>41</v>
+      </c>
+      <c r="E1003" t="str">
+        <f t="shared" ref="E1003:E1024" si="208">RIGHT(B1003,2)</f>
+        <v>04</v>
+      </c>
+      <c r="F1003" t="str">
+        <f t="shared" ref="F1003:F1024" si="209">MID(B1003,5,2)</f>
+        <v>07</v>
+      </c>
+      <c r="G1003" t="str">
+        <f t="shared" ref="G1003:G1024" si="210">LEFT(B1003,4)</f>
+        <v>2024</v>
+      </c>
+      <c r="H1003" t="str">
+        <f t="shared" ref="H1003:H1024" si="211">_xlfn.CONCAT(E1003,"/",F1003,"/",G1003)</f>
+        <v>04/07/2024</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1004" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1004">
+        <v>20240702</v>
+      </c>
+      <c r="C1004">
+        <v>36</v>
+      </c>
+      <c r="D1004">
+        <v>35</v>
+      </c>
+      <c r="E1004" t="str">
+        <f t="shared" si="208"/>
+        <v>02</v>
+      </c>
+      <c r="F1004" t="str">
+        <f t="shared" si="209"/>
+        <v>07</v>
+      </c>
+      <c r="G1004" t="str">
+        <f t="shared" si="210"/>
+        <v>2024</v>
+      </c>
+      <c r="H1004" t="str">
+        <f t="shared" si="211"/>
+        <v>02/07/2024</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1005" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1005">
+        <v>20240707</v>
+      </c>
+      <c r="C1005">
+        <v>36</v>
+      </c>
+      <c r="D1005">
+        <v>29</v>
+      </c>
+      <c r="E1005" t="str">
+        <f t="shared" si="208"/>
+        <v>07</v>
+      </c>
+      <c r="F1005" t="str">
+        <f t="shared" si="209"/>
+        <v>07</v>
+      </c>
+      <c r="G1005" t="str">
+        <f t="shared" si="210"/>
+        <v>2024</v>
+      </c>
+      <c r="H1005" t="str">
+        <f t="shared" si="211"/>
+        <v>07/07/2024</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1006" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1006">
+        <v>20240701</v>
+      </c>
+      <c r="C1006">
+        <v>31</v>
+      </c>
+      <c r="D1006">
+        <v>39</v>
+      </c>
+      <c r="E1006" t="str">
+        <f t="shared" si="208"/>
+        <v>01</v>
+      </c>
+      <c r="F1006" t="str">
+        <f t="shared" si="209"/>
+        <v>07</v>
+      </c>
+      <c r="G1006" t="str">
+        <f t="shared" si="210"/>
+        <v>2024</v>
+      </c>
+      <c r="H1006" t="str">
+        <f t="shared" si="211"/>
+        <v>01/07/2024</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1007" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1007">
+        <v>20240703</v>
+      </c>
+      <c r="C1007">
+        <v>31</v>
+      </c>
+      <c r="D1007">
+        <v>30</v>
+      </c>
+      <c r="E1007" t="str">
+        <f t="shared" si="208"/>
+        <v>03</v>
+      </c>
+      <c r="F1007" t="str">
+        <f t="shared" si="209"/>
+        <v>07</v>
+      </c>
+      <c r="G1007" t="str">
+        <f t="shared" si="210"/>
+        <v>2024</v>
+      </c>
+      <c r="H1007" t="str">
+        <f t="shared" si="211"/>
+        <v>03/07/2024</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1008" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1008">
+        <v>20240706</v>
+      </c>
+      <c r="C1008">
+        <v>29</v>
+      </c>
+      <c r="D1008">
+        <v>32</v>
+      </c>
+      <c r="E1008" t="str">
+        <f t="shared" si="208"/>
+        <v>06</v>
+      </c>
+      <c r="F1008" t="str">
+        <f t="shared" si="209"/>
+        <v>07</v>
+      </c>
+      <c r="G1008" t="str">
+        <f t="shared" si="210"/>
+        <v>2024</v>
+      </c>
+      <c r="H1008" t="str">
+        <f t="shared" si="211"/>
+        <v>06/07/2024</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1009" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1009">
+        <v>20240705</v>
+      </c>
+      <c r="C1009">
+        <v>22</v>
+      </c>
+      <c r="D1009">
+        <v>24</v>
+      </c>
+      <c r="E1009" t="str">
+        <f t="shared" si="208"/>
+        <v>05</v>
+      </c>
+      <c r="F1009" t="str">
+        <f t="shared" si="209"/>
+        <v>07</v>
+      </c>
+      <c r="G1009" t="str">
+        <f t="shared" si="210"/>
+        <v>2024</v>
+      </c>
+      <c r="H1009" t="str">
+        <f t="shared" si="211"/>
+        <v>05/07/2024</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1010" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1010">
+        <v>20240701</v>
+      </c>
+      <c r="C1010">
+        <v>13</v>
+      </c>
+      <c r="D1010">
+        <v>34</v>
+      </c>
+      <c r="E1010" t="str">
+        <f t="shared" si="208"/>
+        <v>01</v>
+      </c>
+      <c r="F1010" t="str">
+        <f t="shared" si="209"/>
+        <v>07</v>
+      </c>
+      <c r="G1010" t="str">
+        <f t="shared" si="210"/>
+        <v>2024</v>
+      </c>
+      <c r="H1010" t="str">
+        <f t="shared" si="211"/>
+        <v>01/07/2024</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1011" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1011">
+        <v>20240703</v>
+      </c>
+      <c r="C1011">
+        <v>11</v>
+      </c>
+      <c r="D1011">
+        <v>34</v>
+      </c>
+      <c r="E1011" t="str">
+        <f t="shared" si="208"/>
+        <v>03</v>
+      </c>
+      <c r="F1011" t="str">
+        <f t="shared" si="209"/>
+        <v>07</v>
+      </c>
+      <c r="G1011" t="str">
+        <f t="shared" si="210"/>
+        <v>2024</v>
+      </c>
+      <c r="H1011" t="str">
+        <f t="shared" si="211"/>
+        <v>03/07/2024</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1012" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1012">
+        <v>20240702</v>
+      </c>
+      <c r="C1012">
+        <v>10</v>
+      </c>
+      <c r="D1012">
+        <v>33</v>
+      </c>
+      <c r="E1012" t="str">
+        <f t="shared" si="208"/>
+        <v>02</v>
+      </c>
+      <c r="F1012" t="str">
+        <f t="shared" si="209"/>
+        <v>07</v>
+      </c>
+      <c r="G1012" t="str">
+        <f t="shared" si="210"/>
+        <v>2024</v>
+      </c>
+      <c r="H1012" t="str">
+        <f t="shared" si="211"/>
+        <v>02/07/2024</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1013" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1013">
+        <v>20240704</v>
+      </c>
+      <c r="C1013">
+        <v>10</v>
+      </c>
+      <c r="D1013">
+        <v>52</v>
+      </c>
+      <c r="E1013" t="str">
+        <f t="shared" si="208"/>
+        <v>04</v>
+      </c>
+      <c r="F1013" t="str">
+        <f t="shared" si="209"/>
+        <v>07</v>
+      </c>
+      <c r="G1013" t="str">
+        <f t="shared" si="210"/>
+        <v>2024</v>
+      </c>
+      <c r="H1013" t="str">
+        <f t="shared" si="211"/>
+        <v>04/07/2024</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1014" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1014">
+        <v>20240705</v>
+      </c>
+      <c r="C1014">
+        <v>8</v>
+      </c>
+      <c r="D1014">
+        <v>49</v>
+      </c>
+      <c r="E1014" t="str">
+        <f t="shared" si="208"/>
+        <v>05</v>
+      </c>
+      <c r="F1014" t="str">
+        <f t="shared" si="209"/>
+        <v>07</v>
+      </c>
+      <c r="G1014" t="str">
+        <f t="shared" si="210"/>
+        <v>2024</v>
+      </c>
+      <c r="H1014" t="str">
+        <f t="shared" si="211"/>
+        <v>05/07/2024</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1015" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1015">
+        <v>20240706</v>
+      </c>
+      <c r="C1015">
+        <v>6</v>
+      </c>
+      <c r="D1015">
+        <v>33</v>
+      </c>
+      <c r="E1015" t="str">
+        <f t="shared" si="208"/>
+        <v>06</v>
+      </c>
+      <c r="F1015" t="str">
+        <f t="shared" si="209"/>
+        <v>07</v>
+      </c>
+      <c r="G1015" t="str">
+        <f t="shared" si="210"/>
+        <v>2024</v>
+      </c>
+      <c r="H1015" t="str">
+        <f t="shared" si="211"/>
+        <v>06/07/2024</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1016" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1016">
+        <v>20240707</v>
+      </c>
+      <c r="C1016">
+        <v>5</v>
+      </c>
+      <c r="D1016">
+        <v>32</v>
+      </c>
+      <c r="E1016" t="str">
+        <f t="shared" si="208"/>
+        <v>07</v>
+      </c>
+      <c r="F1016" t="str">
+        <f t="shared" si="209"/>
+        <v>07</v>
+      </c>
+      <c r="G1016" t="str">
+        <f t="shared" si="210"/>
+        <v>2024</v>
+      </c>
+      <c r="H1016" t="str">
+        <f t="shared" si="211"/>
+        <v>07/07/2024</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1017" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1017">
+        <v>20240703</v>
+      </c>
+      <c r="C1017">
+        <v>3</v>
+      </c>
+      <c r="D1017">
+        <v>1</v>
+      </c>
+      <c r="E1017" t="str">
+        <f t="shared" si="208"/>
+        <v>03</v>
+      </c>
+      <c r="F1017" t="str">
+        <f t="shared" si="209"/>
+        <v>07</v>
+      </c>
+      <c r="G1017" t="str">
+        <f t="shared" si="210"/>
+        <v>2024</v>
+      </c>
+      <c r="H1017" t="str">
+        <f t="shared" si="211"/>
+        <v>03/07/2024</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1018" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1018">
+        <v>20240707</v>
+      </c>
+      <c r="C1018">
+        <v>3</v>
+      </c>
+      <c r="D1018">
+        <v>2</v>
+      </c>
+      <c r="E1018" t="str">
+        <f t="shared" si="208"/>
+        <v>07</v>
+      </c>
+      <c r="F1018" t="str">
+        <f t="shared" si="209"/>
+        <v>07</v>
+      </c>
+      <c r="G1018" t="str">
+        <f t="shared" si="210"/>
+        <v>2024</v>
+      </c>
+      <c r="H1018" t="str">
+        <f t="shared" si="211"/>
+        <v>07/07/2024</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1019" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1019">
+        <v>20240704</v>
+      </c>
+      <c r="C1019">
+        <v>2</v>
+      </c>
+      <c r="D1019">
+        <v>3</v>
+      </c>
+      <c r="E1019" t="str">
+        <f t="shared" si="208"/>
+        <v>04</v>
+      </c>
+      <c r="F1019" t="str">
+        <f t="shared" si="209"/>
+        <v>07</v>
+      </c>
+      <c r="G1019" t="str">
+        <f t="shared" si="210"/>
+        <v>2024</v>
+      </c>
+      <c r="H1019" t="str">
+        <f t="shared" si="211"/>
+        <v>04/07/2024</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1020" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1020">
+        <v>20240703</v>
+      </c>
+      <c r="C1020">
+        <v>1</v>
+      </c>
+      <c r="D1020">
+        <v>1</v>
+      </c>
+      <c r="E1020" t="str">
+        <f t="shared" si="208"/>
+        <v>03</v>
+      </c>
+      <c r="F1020" t="str">
+        <f t="shared" si="209"/>
+        <v>07</v>
+      </c>
+      <c r="G1020" t="str">
+        <f t="shared" si="210"/>
+        <v>2024</v>
+      </c>
+      <c r="H1020" t="str">
+        <f t="shared" si="211"/>
+        <v>03/07/2024</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1021" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1021">
+        <v>20240704</v>
+      </c>
+      <c r="C1021">
+        <v>0</v>
+      </c>
+      <c r="D1021">
+        <v>0</v>
+      </c>
+      <c r="E1021" t="str">
+        <f t="shared" si="208"/>
+        <v>04</v>
+      </c>
+      <c r="F1021" t="str">
+        <f t="shared" si="209"/>
+        <v>07</v>
+      </c>
+      <c r="G1021" t="str">
+        <f t="shared" si="210"/>
+        <v>2024</v>
+      </c>
+      <c r="H1021" t="str">
+        <f t="shared" si="211"/>
+        <v>04/07/2024</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1022" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1022">
+        <v>20240705</v>
+      </c>
+      <c r="C1022">
+        <v>0</v>
+      </c>
+      <c r="D1022">
+        <v>1</v>
+      </c>
+      <c r="E1022" t="str">
+        <f t="shared" si="208"/>
+        <v>05</v>
+      </c>
+      <c r="F1022" t="str">
+        <f t="shared" si="209"/>
+        <v>07</v>
+      </c>
+      <c r="G1022" t="str">
+        <f t="shared" si="210"/>
+        <v>2024</v>
+      </c>
+      <c r="H1022" t="str">
+        <f t="shared" si="211"/>
+        <v>05/07/2024</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1023" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1023">
+        <v>20240706</v>
+      </c>
+      <c r="C1023">
+        <v>0</v>
+      </c>
+      <c r="D1023">
+        <v>1</v>
+      </c>
+      <c r="E1023" t="str">
+        <f t="shared" si="208"/>
+        <v>06</v>
+      </c>
+      <c r="F1023" t="str">
+        <f t="shared" si="209"/>
+        <v>07</v>
+      </c>
+      <c r="G1023" t="str">
+        <f t="shared" si="210"/>
+        <v>2024</v>
+      </c>
+      <c r="H1023" t="str">
+        <f t="shared" si="211"/>
+        <v>06/07/2024</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1024" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1024">
+        <v>20240713</v>
+      </c>
+      <c r="C1024">
+        <v>216</v>
+      </c>
+      <c r="D1024">
+        <v>24</v>
+      </c>
+      <c r="E1024" t="str">
+        <f t="shared" si="208"/>
+        <v>13</v>
+      </c>
+      <c r="F1024" t="str">
+        <f t="shared" si="209"/>
+        <v>07</v>
+      </c>
+      <c r="G1024" t="str">
+        <f t="shared" si="210"/>
+        <v>2024</v>
+      </c>
+      <c r="H1024" t="str">
+        <f t="shared" si="211"/>
+        <v>13/07/2024</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1025" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1025">
+        <v>20240711</v>
+      </c>
+      <c r="C1025">
+        <v>38</v>
+      </c>
+      <c r="D1025">
+        <v>39</v>
+      </c>
+      <c r="E1025" t="str">
+        <f t="shared" ref="E1025:E1043" si="212">RIGHT(B1025,2)</f>
+        <v>11</v>
+      </c>
+      <c r="F1025" t="str">
+        <f t="shared" ref="F1025:F1043" si="213">MID(B1025,5,2)</f>
+        <v>07</v>
+      </c>
+      <c r="G1025" t="str">
+        <f t="shared" ref="G1025:G1043" si="214">LEFT(B1025,4)</f>
+        <v>2024</v>
+      </c>
+      <c r="H1025" t="str">
+        <f t="shared" ref="H1025:H1043" si="215">_xlfn.CONCAT(E1025,"/",F1025,"/",G1025)</f>
+        <v>11/07/2024</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1026" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1026">
+        <v>20240709</v>
+      </c>
+      <c r="C1026">
+        <v>33</v>
+      </c>
+      <c r="D1026">
+        <v>32</v>
+      </c>
+      <c r="E1026" t="str">
+        <f t="shared" si="212"/>
+        <v>09</v>
+      </c>
+      <c r="F1026" t="str">
+        <f t="shared" si="213"/>
+        <v>07</v>
+      </c>
+      <c r="G1026" t="str">
+        <f t="shared" si="214"/>
+        <v>2024</v>
+      </c>
+      <c r="H1026" t="str">
+        <f t="shared" si="215"/>
+        <v>09/07/2024</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1027" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1027">
+        <v>20240708</v>
+      </c>
+      <c r="C1027">
+        <v>32</v>
+      </c>
+      <c r="D1027">
+        <v>37</v>
+      </c>
+      <c r="E1027" t="str">
+        <f t="shared" si="212"/>
+        <v>08</v>
+      </c>
+      <c r="F1027" t="str">
+        <f t="shared" si="213"/>
+        <v>07</v>
+      </c>
+      <c r="G1027" t="str">
+        <f t="shared" si="214"/>
+        <v>2024</v>
+      </c>
+      <c r="H1027" t="str">
+        <f t="shared" si="215"/>
+        <v>08/07/2024</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1028" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1028">
+        <v>20240714</v>
+      </c>
+      <c r="C1028">
+        <v>31</v>
+      </c>
+      <c r="D1028">
+        <v>25</v>
+      </c>
+      <c r="E1028" t="str">
+        <f t="shared" si="212"/>
+        <v>14</v>
+      </c>
+      <c r="F1028" t="str">
+        <f t="shared" si="213"/>
+        <v>07</v>
+      </c>
+      <c r="G1028" t="str">
+        <f t="shared" si="214"/>
+        <v>2024</v>
+      </c>
+      <c r="H1028" t="str">
+        <f t="shared" si="215"/>
+        <v>14/07/2024</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1029" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1029">
+        <v>20240712</v>
+      </c>
+      <c r="C1029">
+        <v>29</v>
+      </c>
+      <c r="D1029">
+        <v>36</v>
+      </c>
+      <c r="E1029" t="str">
+        <f t="shared" si="212"/>
+        <v>12</v>
+      </c>
+      <c r="F1029" t="str">
+        <f t="shared" si="213"/>
+        <v>07</v>
+      </c>
+      <c r="G1029" t="str">
+        <f t="shared" si="214"/>
+        <v>2024</v>
+      </c>
+      <c r="H1029" t="str">
+        <f t="shared" si="215"/>
+        <v>12/07/2024</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1030" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1030">
+        <v>20240714</v>
+      </c>
+      <c r="C1030">
+        <v>28</v>
+      </c>
+      <c r="D1030">
+        <v>23</v>
+      </c>
+      <c r="E1030" t="str">
+        <f t="shared" si="212"/>
+        <v>14</v>
+      </c>
+      <c r="F1030" t="str">
+        <f t="shared" si="213"/>
+        <v>07</v>
+      </c>
+      <c r="G1030" t="str">
+        <f t="shared" si="214"/>
+        <v>2024</v>
+      </c>
+      <c r="H1030" t="str">
+        <f t="shared" si="215"/>
+        <v>14/07/2024</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1031" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1031">
+        <v>20240713</v>
+      </c>
+      <c r="C1031">
+        <v>22</v>
+      </c>
+      <c r="D1031">
+        <v>20</v>
+      </c>
+      <c r="E1031" t="str">
+        <f t="shared" si="212"/>
+        <v>13</v>
+      </c>
+      <c r="F1031" t="str">
+        <f t="shared" si="213"/>
+        <v>07</v>
+      </c>
+      <c r="G1031" t="str">
+        <f t="shared" si="214"/>
+        <v>2024</v>
+      </c>
+      <c r="H1031" t="str">
+        <f t="shared" si="215"/>
+        <v>13/07/2024</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1032" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1032">
+        <v>20240710</v>
+      </c>
+      <c r="C1032">
+        <v>19</v>
+      </c>
+      <c r="D1032">
+        <v>22</v>
+      </c>
+      <c r="E1032" t="str">
+        <f t="shared" si="212"/>
+        <v>10</v>
+      </c>
+      <c r="F1032" t="str">
+        <f t="shared" si="213"/>
+        <v>07</v>
+      </c>
+      <c r="G1032" t="str">
+        <f t="shared" si="214"/>
+        <v>2024</v>
+      </c>
+      <c r="H1032" t="str">
+        <f t="shared" si="215"/>
+        <v>10/07/2024</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1033" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1033">
+        <v>20240709</v>
+      </c>
+      <c r="C1033">
+        <v>12</v>
+      </c>
+      <c r="D1033">
+        <v>48</v>
+      </c>
+      <c r="E1033" t="str">
+        <f t="shared" si="212"/>
+        <v>09</v>
+      </c>
+      <c r="F1033" t="str">
+        <f t="shared" si="213"/>
+        <v>07</v>
+      </c>
+      <c r="G1033" t="str">
+        <f t="shared" si="214"/>
+        <v>2024</v>
+      </c>
+      <c r="H1033" t="str">
+        <f t="shared" si="215"/>
+        <v>09/07/2024</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1034" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1034">
+        <v>20240712</v>
+      </c>
+      <c r="C1034">
+        <v>12</v>
+      </c>
+      <c r="D1034">
+        <v>51</v>
+      </c>
+      <c r="E1034" t="str">
+        <f t="shared" si="212"/>
+        <v>12</v>
+      </c>
+      <c r="F1034" t="str">
+        <f t="shared" si="213"/>
+        <v>07</v>
+      </c>
+      <c r="G1034" t="str">
+        <f t="shared" si="214"/>
+        <v>2024</v>
+      </c>
+      <c r="H1034" t="str">
+        <f t="shared" si="215"/>
+        <v>12/07/2024</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1035" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1035">
+        <v>20240708</v>
+      </c>
+      <c r="C1035">
+        <v>11</v>
+      </c>
+      <c r="D1035">
+        <v>39</v>
+      </c>
+      <c r="E1035" t="str">
+        <f t="shared" si="212"/>
+        <v>08</v>
+      </c>
+      <c r="F1035" t="str">
+        <f t="shared" si="213"/>
+        <v>07</v>
+      </c>
+      <c r="G1035" t="str">
+        <f t="shared" si="214"/>
+        <v>2024</v>
+      </c>
+      <c r="H1035" t="str">
+        <f t="shared" si="215"/>
+        <v>08/07/2024</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1036" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1036">
+        <v>20240711</v>
+      </c>
+      <c r="C1036">
+        <v>11</v>
+      </c>
+      <c r="D1036">
+        <v>60</v>
+      </c>
+      <c r="E1036" t="str">
+        <f t="shared" si="212"/>
+        <v>11</v>
+      </c>
+      <c r="F1036" t="str">
+        <f t="shared" si="213"/>
+        <v>07</v>
+      </c>
+      <c r="G1036" t="str">
+        <f t="shared" si="214"/>
+        <v>2024</v>
+      </c>
+      <c r="H1036" t="str">
+        <f t="shared" si="215"/>
+        <v>11/07/2024</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1037" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1037">
+        <v>20240710</v>
+      </c>
+      <c r="C1037">
+        <v>6</v>
+      </c>
+      <c r="D1037">
+        <v>42</v>
+      </c>
+      <c r="E1037" t="str">
+        <f t="shared" si="212"/>
+        <v>10</v>
+      </c>
+      <c r="F1037" t="str">
+        <f t="shared" si="213"/>
+        <v>07</v>
+      </c>
+      <c r="G1037" t="str">
+        <f t="shared" si="214"/>
+        <v>2024</v>
+      </c>
+      <c r="H1037" t="str">
+        <f t="shared" si="215"/>
+        <v>10/07/2024</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1038" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1038">
+        <v>20240708</v>
+      </c>
+      <c r="C1038">
+        <v>2</v>
+      </c>
+      <c r="D1038">
+        <v>0</v>
+      </c>
+      <c r="E1038" t="str">
+        <f t="shared" si="212"/>
+        <v>08</v>
+      </c>
+      <c r="F1038" t="str">
+        <f t="shared" si="213"/>
+        <v>07</v>
+      </c>
+      <c r="G1038" t="str">
+        <f t="shared" si="214"/>
+        <v>2024</v>
+      </c>
+      <c r="H1038" t="str">
+        <f t="shared" si="215"/>
+        <v>08/07/2024</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1039" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1039">
+        <v>20240710</v>
+      </c>
+      <c r="C1039">
+        <v>2</v>
+      </c>
+      <c r="D1039">
+        <v>1</v>
+      </c>
+      <c r="E1039" t="str">
+        <f t="shared" si="212"/>
+        <v>10</v>
+      </c>
+      <c r="F1039" t="str">
+        <f t="shared" si="213"/>
+        <v>07</v>
+      </c>
+      <c r="G1039" t="str">
+        <f t="shared" si="214"/>
+        <v>2024</v>
+      </c>
+      <c r="H1039" t="str">
+        <f t="shared" si="215"/>
+        <v>10/07/2024</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1040" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1040">
+        <v>20240709</v>
+      </c>
+      <c r="C1040">
+        <v>1</v>
+      </c>
+      <c r="D1040">
+        <v>0</v>
+      </c>
+      <c r="E1040" t="str">
+        <f t="shared" si="212"/>
+        <v>09</v>
+      </c>
+      <c r="F1040" t="str">
+        <f t="shared" si="213"/>
+        <v>07</v>
+      </c>
+      <c r="G1040" t="str">
+        <f t="shared" si="214"/>
+        <v>2024</v>
+      </c>
+      <c r="H1040" t="str">
+        <f t="shared" si="215"/>
+        <v>09/07/2024</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1041" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1041">
+        <v>20240711</v>
+      </c>
+      <c r="C1041">
+        <v>1</v>
+      </c>
+      <c r="D1041">
+        <v>1</v>
+      </c>
+      <c r="E1041" t="str">
+        <f t="shared" si="212"/>
+        <v>11</v>
+      </c>
+      <c r="F1041" t="str">
+        <f t="shared" si="213"/>
+        <v>07</v>
+      </c>
+      <c r="G1041" t="str">
+        <f t="shared" si="214"/>
+        <v>2024</v>
+      </c>
+      <c r="H1041" t="str">
+        <f t="shared" si="215"/>
+        <v>11/07/2024</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1042" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1042">
+        <v>20240709</v>
+      </c>
+      <c r="C1042">
+        <v>0</v>
+      </c>
+      <c r="D1042">
+        <v>1</v>
+      </c>
+      <c r="E1042" t="str">
+        <f t="shared" si="212"/>
+        <v>09</v>
+      </c>
+      <c r="F1042" t="str">
+        <f t="shared" si="213"/>
+        <v>07</v>
+      </c>
+      <c r="G1042" t="str">
+        <f t="shared" si="214"/>
+        <v>2024</v>
+      </c>
+      <c r="H1042" t="str">
+        <f t="shared" si="215"/>
+        <v>09/07/2024</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1043" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1043">
+        <v>20240712</v>
+      </c>
+      <c r="C1043">
+        <v>0</v>
+      </c>
+      <c r="D1043">
+        <v>3</v>
+      </c>
+      <c r="E1043" t="str">
+        <f t="shared" si="212"/>
+        <v>12</v>
+      </c>
+      <c r="F1043" t="str">
+        <f t="shared" si="213"/>
+        <v>07</v>
+      </c>
+      <c r="G1043" t="str">
+        <f t="shared" si="214"/>
+        <v>2024</v>
+      </c>
+      <c r="H1043" t="str">
+        <f t="shared" si="215"/>
+        <v>12/07/2024</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1044" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1044">
+        <v>20240716</v>
+      </c>
+      <c r="C1044">
+        <v>104</v>
+      </c>
+      <c r="D1044">
+        <v>30</v>
+      </c>
+      <c r="E1044" t="str">
+        <f t="shared" ref="E1044:E1064" si="216">RIGHT(B1044,2)</f>
+        <v>16</v>
+      </c>
+      <c r="F1044" t="str">
+        <f t="shared" ref="F1044:F1064" si="217">MID(B1044,5,2)</f>
+        <v>07</v>
+      </c>
+      <c r="G1044" t="str">
+        <f t="shared" ref="G1044:G1064" si="218">LEFT(B1044,4)</f>
+        <v>2024</v>
+      </c>
+      <c r="H1044" t="str">
+        <f t="shared" ref="H1044:H1064" si="219">_xlfn.CONCAT(E1044,"/",F1044,"/",G1044)</f>
+        <v>16/07/2024</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1045" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1045">
+        <v>20240715</v>
+      </c>
+      <c r="C1045">
+        <v>98</v>
+      </c>
+      <c r="D1045">
+        <v>26</v>
+      </c>
+      <c r="E1045" t="str">
+        <f t="shared" si="216"/>
+        <v>15</v>
+      </c>
+      <c r="F1045" t="str">
+        <f t="shared" si="217"/>
+        <v>07</v>
+      </c>
+      <c r="G1045" t="str">
+        <f t="shared" si="218"/>
+        <v>2024</v>
+      </c>
+      <c r="H1045" t="str">
+        <f t="shared" si="219"/>
+        <v>15/07/2024</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1046" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1046">
+        <v>20240721</v>
+      </c>
+      <c r="C1046">
+        <v>70</v>
+      </c>
+      <c r="D1046">
+        <v>66</v>
+      </c>
+      <c r="E1046" t="str">
+        <f t="shared" si="216"/>
+        <v>21</v>
+      </c>
+      <c r="F1046" t="str">
+        <f t="shared" si="217"/>
+        <v>07</v>
+      </c>
+      <c r="G1046" t="str">
+        <f t="shared" si="218"/>
+        <v>2024</v>
+      </c>
+      <c r="H1046" t="str">
+        <f t="shared" si="219"/>
+        <v>21/07/2024</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1047" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1047">
+        <v>20240721</v>
+      </c>
+      <c r="C1047">
+        <v>61</v>
+      </c>
+      <c r="D1047">
+        <v>61</v>
+      </c>
+      <c r="E1047" t="str">
+        <f t="shared" si="216"/>
+        <v>21</v>
+      </c>
+      <c r="F1047" t="str">
+        <f t="shared" si="217"/>
+        <v>07</v>
+      </c>
+      <c r="G1047" t="str">
+        <f t="shared" si="218"/>
+        <v>2024</v>
+      </c>
+      <c r="H1047" t="str">
+        <f t="shared" si="219"/>
+        <v>21/07/2024</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1048" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1048">
+        <v>20240720</v>
+      </c>
+      <c r="C1048">
+        <v>37</v>
+      </c>
+      <c r="D1048">
+        <v>23</v>
+      </c>
+      <c r="E1048" t="str">
+        <f t="shared" si="216"/>
+        <v>20</v>
+      </c>
+      <c r="F1048" t="str">
+        <f t="shared" si="217"/>
+        <v>07</v>
+      </c>
+      <c r="G1048" t="str">
+        <f t="shared" si="218"/>
+        <v>2024</v>
+      </c>
+      <c r="H1048" t="str">
+        <f t="shared" si="219"/>
+        <v>20/07/2024</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1049" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1049">
+        <v>20240717</v>
+      </c>
+      <c r="C1049">
+        <v>33</v>
+      </c>
+      <c r="D1049">
+        <v>34</v>
+      </c>
+      <c r="E1049" t="str">
+        <f t="shared" si="216"/>
+        <v>17</v>
+      </c>
+      <c r="F1049" t="str">
+        <f t="shared" si="217"/>
+        <v>07</v>
+      </c>
+      <c r="G1049" t="str">
+        <f t="shared" si="218"/>
+        <v>2024</v>
+      </c>
+      <c r="H1049" t="str">
+        <f t="shared" si="219"/>
+        <v>17/07/2024</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1050" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1050">
+        <v>20240718</v>
+      </c>
+      <c r="C1050">
+        <v>30</v>
+      </c>
+      <c r="D1050">
+        <v>56</v>
+      </c>
+      <c r="E1050" t="str">
+        <f t="shared" si="216"/>
+        <v>18</v>
+      </c>
+      <c r="F1050" t="str">
+        <f t="shared" si="217"/>
+        <v>07</v>
+      </c>
+      <c r="G1050" t="str">
+        <f t="shared" si="218"/>
+        <v>2024</v>
+      </c>
+      <c r="H1050" t="str">
+        <f t="shared" si="219"/>
+        <v>18/07/2024</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1051" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1051">
+        <v>20240718</v>
+      </c>
+      <c r="C1051">
+        <v>30</v>
+      </c>
+      <c r="D1051">
+        <v>43</v>
+      </c>
+      <c r="E1051" t="str">
+        <f t="shared" si="216"/>
+        <v>18</v>
+      </c>
+      <c r="F1051" t="str">
+        <f t="shared" si="217"/>
+        <v>07</v>
+      </c>
+      <c r="G1051" t="str">
+        <f t="shared" si="218"/>
+        <v>2024</v>
+      </c>
+      <c r="H1051" t="str">
+        <f t="shared" si="219"/>
+        <v>18/07/2024</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1052" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1052">
+        <v>20240719</v>
+      </c>
+      <c r="C1052">
+        <v>28</v>
+      </c>
+      <c r="D1052">
+        <v>40</v>
+      </c>
+      <c r="E1052" t="str">
+        <f t="shared" si="216"/>
+        <v>19</v>
+      </c>
+      <c r="F1052" t="str">
+        <f t="shared" si="217"/>
+        <v>07</v>
+      </c>
+      <c r="G1052" t="str">
+        <f t="shared" si="218"/>
+        <v>2024</v>
+      </c>
+      <c r="H1052" t="str">
+        <f t="shared" si="219"/>
+        <v>19/07/2024</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1053" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1053">
+        <v>20240720</v>
+      </c>
+      <c r="C1053">
+        <v>28</v>
+      </c>
+      <c r="D1053">
+        <v>31</v>
+      </c>
+      <c r="E1053" t="str">
+        <f t="shared" si="216"/>
+        <v>20</v>
+      </c>
+      <c r="F1053" t="str">
+        <f t="shared" si="217"/>
+        <v>07</v>
+      </c>
+      <c r="G1053" t="str">
+        <f t="shared" si="218"/>
+        <v>2024</v>
+      </c>
+      <c r="H1053" t="str">
+        <f t="shared" si="219"/>
+        <v>20/07/2024</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1054" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1054">
+        <v>20240716</v>
+      </c>
+      <c r="C1054">
+        <v>21</v>
+      </c>
+      <c r="D1054">
+        <v>17</v>
+      </c>
+      <c r="E1054" t="str">
+        <f t="shared" si="216"/>
+        <v>16</v>
+      </c>
+      <c r="F1054" t="str">
+        <f t="shared" si="217"/>
+        <v>07</v>
+      </c>
+      <c r="G1054" t="str">
+        <f t="shared" si="218"/>
+        <v>2024</v>
+      </c>
+      <c r="H1054" t="str">
+        <f t="shared" si="219"/>
+        <v>16/07/2024</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1055" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1055">
+        <v>20240715</v>
+      </c>
+      <c r="C1055">
+        <v>18</v>
+      </c>
+      <c r="D1055">
+        <v>25</v>
+      </c>
+      <c r="E1055" t="str">
+        <f t="shared" si="216"/>
+        <v>15</v>
+      </c>
+      <c r="F1055" t="str">
+        <f t="shared" si="217"/>
+        <v>07</v>
+      </c>
+      <c r="G1055" t="str">
+        <f t="shared" si="218"/>
+        <v>2024</v>
+      </c>
+      <c r="H1055" t="str">
+        <f t="shared" si="219"/>
+        <v>15/07/2024</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1056" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1056">
+        <v>20240717</v>
+      </c>
+      <c r="C1056">
+        <v>10</v>
+      </c>
+      <c r="D1056">
+        <v>27</v>
+      </c>
+      <c r="E1056" t="str">
+        <f t="shared" si="216"/>
+        <v>17</v>
+      </c>
+      <c r="F1056" t="str">
+        <f t="shared" si="217"/>
+        <v>07</v>
+      </c>
+      <c r="G1056" t="str">
+        <f t="shared" si="218"/>
+        <v>2024</v>
+      </c>
+      <c r="H1056" t="str">
+        <f t="shared" si="219"/>
+        <v>17/07/2024</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1057" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1057">
+        <v>20240719</v>
+      </c>
+      <c r="C1057">
+        <v>10</v>
+      </c>
+      <c r="D1057">
+        <v>24</v>
+      </c>
+      <c r="E1057" t="str">
+        <f t="shared" si="216"/>
+        <v>19</v>
+      </c>
+      <c r="F1057" t="str">
+        <f t="shared" si="217"/>
+        <v>07</v>
+      </c>
+      <c r="G1057" t="str">
+        <f t="shared" si="218"/>
+        <v>2024</v>
+      </c>
+      <c r="H1057" t="str">
+        <f t="shared" si="219"/>
+        <v>19/07/2024</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1058" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1058">
+        <v>20240718</v>
+      </c>
+      <c r="C1058">
+        <v>2</v>
+      </c>
+      <c r="D1058">
+        <v>1</v>
+      </c>
+      <c r="E1058" t="str">
+        <f t="shared" si="216"/>
+        <v>18</v>
+      </c>
+      <c r="F1058" t="str">
+        <f t="shared" si="217"/>
+        <v>07</v>
+      </c>
+      <c r="G1058" t="str">
+        <f t="shared" si="218"/>
+        <v>2024</v>
+      </c>
+      <c r="H1058" t="str">
+        <f t="shared" si="219"/>
+        <v>18/07/2024</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1059" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1059">
+        <v>20240721</v>
+      </c>
+      <c r="C1059">
+        <v>2</v>
+      </c>
+      <c r="D1059">
+        <v>2</v>
+      </c>
+      <c r="E1059" t="str">
+        <f t="shared" si="216"/>
+        <v>21</v>
+      </c>
+      <c r="F1059" t="str">
+        <f t="shared" si="217"/>
+        <v>07</v>
+      </c>
+      <c r="G1059" t="str">
+        <f t="shared" si="218"/>
+        <v>2024</v>
+      </c>
+      <c r="H1059" t="str">
+        <f t="shared" si="219"/>
+        <v>21/07/2024</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1060" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1060">
+        <v>20240716</v>
+      </c>
+      <c r="C1060">
+        <v>1</v>
+      </c>
+      <c r="D1060">
+        <v>0</v>
+      </c>
+      <c r="E1060" t="str">
+        <f t="shared" si="216"/>
+        <v>16</v>
+      </c>
+      <c r="F1060" t="str">
+        <f t="shared" si="217"/>
+        <v>07</v>
+      </c>
+      <c r="G1060" t="str">
+        <f t="shared" si="218"/>
+        <v>2024</v>
+      </c>
+      <c r="H1060" t="str">
+        <f t="shared" si="219"/>
+        <v>16/07/2024</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1061" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1061">
+        <v>20240717</v>
+      </c>
+      <c r="C1061">
+        <v>1</v>
+      </c>
+      <c r="D1061">
+        <v>0</v>
+      </c>
+      <c r="E1061" t="str">
+        <f t="shared" si="216"/>
+        <v>17</v>
+      </c>
+      <c r="F1061" t="str">
+        <f t="shared" si="217"/>
+        <v>07</v>
+      </c>
+      <c r="G1061" t="str">
+        <f t="shared" si="218"/>
+        <v>2024</v>
+      </c>
+      <c r="H1061" t="str">
+        <f t="shared" si="219"/>
+        <v>17/07/2024</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1062" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1062">
+        <v>20240720</v>
+      </c>
+      <c r="C1062">
+        <v>0</v>
+      </c>
+      <c r="D1062">
+        <v>1</v>
+      </c>
+      <c r="E1062" t="str">
+        <f t="shared" si="216"/>
+        <v>20</v>
+      </c>
+      <c r="F1062" t="str">
+        <f t="shared" si="217"/>
+        <v>07</v>
+      </c>
+      <c r="G1062" t="str">
+        <f t="shared" si="218"/>
+        <v>2024</v>
+      </c>
+      <c r="H1062" t="str">
+        <f t="shared" si="219"/>
+        <v>20/07/2024</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1063" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1063">
+        <v>20240721</v>
+      </c>
+      <c r="C1063">
+        <v>0</v>
+      </c>
+      <c r="D1063">
+        <v>1</v>
+      </c>
+      <c r="E1063" t="str">
+        <f t="shared" si="216"/>
+        <v>21</v>
+      </c>
+      <c r="F1063" t="str">
+        <f t="shared" si="217"/>
+        <v>07</v>
+      </c>
+      <c r="G1063" t="str">
+        <f t="shared" si="218"/>
+        <v>2024</v>
+      </c>
+      <c r="H1063" t="str">
+        <f t="shared" si="219"/>
+        <v>21/07/2024</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1064" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1064">
+        <v>20240718</v>
+      </c>
+      <c r="C1064">
+        <v>0</v>
+      </c>
+      <c r="D1064">
+        <v>2</v>
+      </c>
+      <c r="E1064" t="str">
+        <f t="shared" si="216"/>
+        <v>18</v>
+      </c>
+      <c r="F1064" t="str">
+        <f t="shared" si="217"/>
+        <v>07</v>
+      </c>
+      <c r="G1064" t="str">
+        <f t="shared" si="218"/>
+        <v>2024</v>
+      </c>
+      <c r="H1064" t="str">
+        <f t="shared" si="219"/>
+        <v>18/07/2024</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1065" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1065">
+        <v>20240725</v>
+      </c>
+      <c r="C1065">
+        <v>58</v>
+      </c>
+      <c r="D1065">
+        <v>71</v>
+      </c>
+      <c r="E1065" t="str">
+        <f t="shared" ref="E1065:E1087" si="220">RIGHT(B1065,2)</f>
+        <v>25</v>
+      </c>
+      <c r="F1065" t="str">
+        <f t="shared" ref="F1065:F1087" si="221">MID(B1065,5,2)</f>
+        <v>07</v>
+      </c>
+      <c r="G1065" t="str">
+        <f t="shared" ref="G1065:G1087" si="222">LEFT(B1065,4)</f>
+        <v>2024</v>
+      </c>
+      <c r="H1065" t="str">
+        <f t="shared" ref="H1065:H1087" si="223">_xlfn.CONCAT(E1065,"/",F1065,"/",G1065)</f>
+        <v>25/07/2024</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1066" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1066">
+        <v>20240728</v>
+      </c>
+      <c r="C1066">
+        <v>46</v>
+      </c>
+      <c r="D1066">
+        <v>42</v>
+      </c>
+      <c r="E1066" t="str">
+        <f t="shared" si="220"/>
+        <v>28</v>
+      </c>
+      <c r="F1066" t="str">
+        <f t="shared" si="221"/>
+        <v>07</v>
+      </c>
+      <c r="G1066" t="str">
+        <f t="shared" si="222"/>
+        <v>2024</v>
+      </c>
+      <c r="H1066" t="str">
+        <f t="shared" si="223"/>
+        <v>28/07/2024</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1067" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1067">
+        <v>20240724</v>
+      </c>
+      <c r="C1067">
+        <v>42</v>
+      </c>
+      <c r="D1067">
+        <v>48</v>
+      </c>
+      <c r="E1067" t="str">
+        <f t="shared" si="220"/>
+        <v>24</v>
+      </c>
+      <c r="F1067" t="str">
+        <f t="shared" si="221"/>
+        <v>07</v>
+      </c>
+      <c r="G1067" t="str">
+        <f t="shared" si="222"/>
+        <v>2024</v>
+      </c>
+      <c r="H1067" t="str">
+        <f t="shared" si="223"/>
+        <v>24/07/2024</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1068" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1068">
+        <v>20240726</v>
+      </c>
+      <c r="C1068">
+        <v>39</v>
+      </c>
+      <c r="D1068">
+        <v>38</v>
+      </c>
+      <c r="E1068" t="str">
+        <f t="shared" si="220"/>
+        <v>26</v>
+      </c>
+      <c r="F1068" t="str">
+        <f t="shared" si="221"/>
+        <v>07</v>
+      </c>
+      <c r="G1068" t="str">
+        <f t="shared" si="222"/>
+        <v>2024</v>
+      </c>
+      <c r="H1068" t="str">
+        <f t="shared" si="223"/>
+        <v>26/07/2024</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1069" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1069">
+        <v>20240727</v>
+      </c>
+      <c r="C1069">
+        <v>34</v>
+      </c>
+      <c r="D1069">
+        <v>32</v>
+      </c>
+      <c r="E1069" t="str">
+        <f t="shared" si="220"/>
+        <v>27</v>
+      </c>
+      <c r="F1069" t="str">
+        <f t="shared" si="221"/>
+        <v>07</v>
+      </c>
+      <c r="G1069" t="str">
+        <f t="shared" si="222"/>
+        <v>2024</v>
+      </c>
+      <c r="H1069" t="str">
+        <f t="shared" si="223"/>
+        <v>27/07/2024</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1070" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1070">
+        <v>20240722</v>
+      </c>
+      <c r="C1070">
+        <v>32</v>
+      </c>
+      <c r="D1070">
+        <v>40</v>
+      </c>
+      <c r="E1070" t="str">
+        <f t="shared" si="220"/>
+        <v>22</v>
+      </c>
+      <c r="F1070" t="str">
+        <f t="shared" si="221"/>
+        <v>07</v>
+      </c>
+      <c r="G1070" t="str">
+        <f t="shared" si="222"/>
+        <v>2024</v>
+      </c>
+      <c r="H1070" t="str">
+        <f t="shared" si="223"/>
+        <v>22/07/2024</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1071" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1071">
+        <v>20240723</v>
+      </c>
+      <c r="C1071">
+        <v>31</v>
+      </c>
+      <c r="D1071">
+        <v>29</v>
+      </c>
+      <c r="E1071" t="str">
+        <f t="shared" si="220"/>
+        <v>23</v>
+      </c>
+      <c r="F1071" t="str">
+        <f t="shared" si="221"/>
+        <v>07</v>
+      </c>
+      <c r="G1071" t="str">
+        <f t="shared" si="222"/>
+        <v>2024</v>
+      </c>
+      <c r="H1071" t="str">
+        <f t="shared" si="223"/>
+        <v>23/07/2024</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1072" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1072">
+        <v>20240724</v>
+      </c>
+      <c r="C1072">
+        <v>25</v>
+      </c>
+      <c r="D1072">
+        <v>72</v>
+      </c>
+      <c r="E1072" t="str">
+        <f t="shared" si="220"/>
+        <v>24</v>
+      </c>
+      <c r="F1072" t="str">
+        <f t="shared" si="221"/>
+        <v>07</v>
+      </c>
+      <c r="G1072" t="str">
+        <f t="shared" si="222"/>
+        <v>2024</v>
+      </c>
+      <c r="H1072" t="str">
+        <f t="shared" si="223"/>
+        <v>24/07/2024</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1073" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1073">
+        <v>20240725</v>
+      </c>
+      <c r="C1073">
+        <v>21</v>
+      </c>
+      <c r="D1073">
+        <v>81</v>
+      </c>
+      <c r="E1073" t="str">
+        <f t="shared" si="220"/>
+        <v>25</v>
+      </c>
+      <c r="F1073" t="str">
+        <f t="shared" si="221"/>
+        <v>07</v>
+      </c>
+      <c r="G1073" t="str">
+        <f t="shared" si="222"/>
+        <v>2024</v>
+      </c>
+      <c r="H1073" t="str">
+        <f t="shared" si="223"/>
+        <v>25/07/2024</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1074" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1074">
+        <v>20240723</v>
+      </c>
+      <c r="C1074">
+        <v>16</v>
+      </c>
+      <c r="D1074">
+        <v>61</v>
+      </c>
+      <c r="E1074" t="str">
+        <f t="shared" si="220"/>
+        <v>23</v>
+      </c>
+      <c r="F1074" t="str">
+        <f t="shared" si="221"/>
+        <v>07</v>
+      </c>
+      <c r="G1074" t="str">
+        <f t="shared" si="222"/>
+        <v>2024</v>
+      </c>
+      <c r="H1074" t="str">
+        <f t="shared" si="223"/>
+        <v>23/07/2024</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1075" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1075">
+        <v>20240722</v>
+      </c>
+      <c r="C1075">
+        <v>13</v>
+      </c>
+      <c r="D1075">
+        <v>61</v>
+      </c>
+      <c r="E1075" t="str">
+        <f t="shared" si="220"/>
+        <v>22</v>
+      </c>
+      <c r="F1075" t="str">
+        <f t="shared" si="221"/>
+        <v>07</v>
+      </c>
+      <c r="G1075" t="str">
+        <f t="shared" si="222"/>
+        <v>2024</v>
+      </c>
+      <c r="H1075" t="str">
+        <f t="shared" si="223"/>
+        <v>22/07/2024</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1076" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1076">
+        <v>20240728</v>
+      </c>
+      <c r="C1076">
+        <v>13</v>
+      </c>
+      <c r="D1076">
+        <v>65</v>
+      </c>
+      <c r="E1076" t="str">
+        <f t="shared" si="220"/>
+        <v>28</v>
+      </c>
+      <c r="F1076" t="str">
+        <f t="shared" si="221"/>
+        <v>07</v>
+      </c>
+      <c r="G1076" t="str">
+        <f t="shared" si="222"/>
+        <v>2024</v>
+      </c>
+      <c r="H1076" t="str">
+        <f t="shared" si="223"/>
+        <v>28/07/2024</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1077" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1077">
+        <v>20240727</v>
+      </c>
+      <c r="C1077">
+        <v>9</v>
+      </c>
+      <c r="D1077">
+        <v>42</v>
+      </c>
+      <c r="E1077" t="str">
+        <f t="shared" si="220"/>
+        <v>27</v>
+      </c>
+      <c r="F1077" t="str">
+        <f t="shared" si="221"/>
+        <v>07</v>
+      </c>
+      <c r="G1077" t="str">
+        <f t="shared" si="222"/>
+        <v>2024</v>
+      </c>
+      <c r="H1077" t="str">
+        <f t="shared" si="223"/>
+        <v>27/07/2024</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1078" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1078">
+        <v>20240724</v>
+      </c>
+      <c r="C1078">
+        <v>9</v>
+      </c>
+      <c r="D1078">
+        <v>2</v>
+      </c>
+      <c r="E1078" t="str">
+        <f t="shared" si="220"/>
+        <v>24</v>
+      </c>
+      <c r="F1078" t="str">
+        <f t="shared" si="221"/>
+        <v>07</v>
+      </c>
+      <c r="G1078" t="str">
+        <f t="shared" si="222"/>
+        <v>2024</v>
+      </c>
+      <c r="H1078" t="str">
+        <f t="shared" si="223"/>
+        <v>24/07/2024</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1079" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1079">
+        <v>20240726</v>
+      </c>
+      <c r="C1079">
+        <v>7</v>
+      </c>
+      <c r="D1079">
+        <v>39</v>
+      </c>
+      <c r="E1079" t="str">
+        <f t="shared" si="220"/>
+        <v>26</v>
+      </c>
+      <c r="F1079" t="str">
+        <f t="shared" si="221"/>
+        <v>07</v>
+      </c>
+      <c r="G1079" t="str">
+        <f t="shared" si="222"/>
+        <v>2024</v>
+      </c>
+      <c r="H1079" t="str">
+        <f t="shared" si="223"/>
+        <v>26/07/2024</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1080" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1080">
+        <v>20240722</v>
+      </c>
+      <c r="C1080">
+        <v>3</v>
+      </c>
+      <c r="D1080">
+        <v>2</v>
+      </c>
+      <c r="E1080" t="str">
+        <f t="shared" si="220"/>
+        <v>22</v>
+      </c>
+      <c r="F1080" t="str">
+        <f t="shared" si="221"/>
+        <v>07</v>
+      </c>
+      <c r="G1080" t="str">
+        <f t="shared" si="222"/>
+        <v>2024</v>
+      </c>
+      <c r="H1080" t="str">
+        <f t="shared" si="223"/>
+        <v>22/07/2024</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1081" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1081">
+        <v>20240725</v>
+      </c>
+      <c r="C1081">
+        <v>2</v>
+      </c>
+      <c r="D1081">
+        <v>2</v>
+      </c>
+      <c r="E1081" t="str">
+        <f t="shared" si="220"/>
+        <v>25</v>
+      </c>
+      <c r="F1081" t="str">
+        <f t="shared" si="221"/>
+        <v>07</v>
+      </c>
+      <c r="G1081" t="str">
+        <f t="shared" si="222"/>
+        <v>2024</v>
+      </c>
+      <c r="H1081" t="str">
+        <f t="shared" si="223"/>
+        <v>25/07/2024</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1082" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1082">
+        <v>20240725</v>
+      </c>
+      <c r="C1082">
+        <v>1</v>
+      </c>
+      <c r="D1082">
+        <v>0</v>
+      </c>
+      <c r="E1082" t="str">
+        <f t="shared" si="220"/>
+        <v>25</v>
+      </c>
+      <c r="F1082" t="str">
+        <f t="shared" si="221"/>
+        <v>07</v>
+      </c>
+      <c r="G1082" t="str">
+        <f t="shared" si="222"/>
+        <v>2024</v>
+      </c>
+      <c r="H1082" t="str">
+        <f t="shared" si="223"/>
+        <v>25/07/2024</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1083" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1083">
+        <v>20240723</v>
+      </c>
+      <c r="C1083">
+        <v>1</v>
+      </c>
+      <c r="D1083">
+        <v>2</v>
+      </c>
+      <c r="E1083" t="str">
+        <f t="shared" si="220"/>
+        <v>23</v>
+      </c>
+      <c r="F1083" t="str">
+        <f t="shared" si="221"/>
+        <v>07</v>
+      </c>
+      <c r="G1083" t="str">
+        <f t="shared" si="222"/>
+        <v>2024</v>
+      </c>
+      <c r="H1083" t="str">
+        <f t="shared" si="223"/>
+        <v>23/07/2024</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1084" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1084">
+        <v>20240727</v>
+      </c>
+      <c r="C1084">
+        <v>1</v>
+      </c>
+      <c r="D1084">
+        <v>1</v>
+      </c>
+      <c r="E1084" t="str">
+        <f t="shared" si="220"/>
+        <v>27</v>
+      </c>
+      <c r="F1084" t="str">
+        <f t="shared" si="221"/>
+        <v>07</v>
+      </c>
+      <c r="G1084" t="str">
+        <f t="shared" si="222"/>
+        <v>2024</v>
+      </c>
+      <c r="H1084" t="str">
+        <f t="shared" si="223"/>
+        <v>27/07/2024</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1085" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1085">
+        <v>20240728</v>
+      </c>
+      <c r="C1085">
+        <v>1</v>
+      </c>
+      <c r="D1085">
+        <v>0</v>
+      </c>
+      <c r="E1085" t="str">
+        <f t="shared" si="220"/>
+        <v>28</v>
+      </c>
+      <c r="F1085" t="str">
+        <f t="shared" si="221"/>
+        <v>07</v>
+      </c>
+      <c r="G1085" t="str">
+        <f t="shared" si="222"/>
+        <v>2024</v>
+      </c>
+      <c r="H1085" t="str">
+        <f t="shared" si="223"/>
+        <v>28/07/2024</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1086" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1086">
+        <v>20240727</v>
+      </c>
+      <c r="C1086">
+        <v>0</v>
+      </c>
+      <c r="D1086">
+        <v>1</v>
+      </c>
+      <c r="E1086" t="str">
+        <f t="shared" si="220"/>
+        <v>27</v>
+      </c>
+      <c r="F1086" t="str">
+        <f t="shared" si="221"/>
+        <v>07</v>
+      </c>
+      <c r="G1086" t="str">
+        <f t="shared" si="222"/>
+        <v>2024</v>
+      </c>
+      <c r="H1086" t="str">
+        <f t="shared" si="223"/>
+        <v>27/07/2024</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1087" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1087">
+        <v>20240724</v>
+      </c>
+      <c r="C1087">
+        <v>0</v>
+      </c>
+      <c r="D1087">
+        <v>2</v>
+      </c>
+      <c r="E1087" t="str">
+        <f t="shared" si="220"/>
+        <v>24</v>
+      </c>
+      <c r="F1087" t="str">
+        <f t="shared" si="221"/>
+        <v>07</v>
+      </c>
+      <c r="G1087" t="str">
+        <f t="shared" si="222"/>
+        <v>2024</v>
+      </c>
+      <c r="H1087" t="str">
+        <f t="shared" si="223"/>
+        <v>24/07/2024</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1088" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1088">
+        <v>20240801</v>
+      </c>
+      <c r="C1088">
+        <v>75</v>
+      </c>
+      <c r="D1088">
+        <v>62</v>
+      </c>
+      <c r="E1088" t="str">
+        <f t="shared" ref="E1088:E1109" si="224">RIGHT(B1088,2)</f>
+        <v>01</v>
+      </c>
+      <c r="F1088" t="str">
+        <f t="shared" ref="F1088:F1109" si="225">MID(B1088,5,2)</f>
+        <v>08</v>
+      </c>
+      <c r="G1088" t="str">
+        <f t="shared" ref="G1088:G1109" si="226">LEFT(B1088,4)</f>
+        <v>2024</v>
+      </c>
+      <c r="H1088" t="str">
+        <f t="shared" ref="H1088:H1109" si="227">_xlfn.CONCAT(E1088,"/",F1088,"/",G1088)</f>
+        <v>01/08/2024</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1089" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1089">
+        <v>20240804</v>
+      </c>
+      <c r="C1089">
+        <v>44</v>
+      </c>
+      <c r="D1089">
+        <v>44</v>
+      </c>
+      <c r="E1089" t="str">
+        <f t="shared" si="224"/>
+        <v>04</v>
+      </c>
+      <c r="F1089" t="str">
+        <f t="shared" si="225"/>
+        <v>08</v>
+      </c>
+      <c r="G1089" t="str">
+        <f t="shared" si="226"/>
+        <v>2024</v>
+      </c>
+      <c r="H1089" t="str">
+        <f t="shared" si="227"/>
+        <v>04/08/2024</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1090" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1090">
+        <v>20240731</v>
+      </c>
+      <c r="C1090">
+        <v>34</v>
+      </c>
+      <c r="D1090">
+        <v>39</v>
+      </c>
+      <c r="E1090" t="str">
+        <f t="shared" si="224"/>
+        <v>31</v>
+      </c>
+      <c r="F1090" t="str">
+        <f t="shared" si="225"/>
+        <v>07</v>
+      </c>
+      <c r="G1090" t="str">
+        <f t="shared" si="226"/>
+        <v>2024</v>
+      </c>
+      <c r="H1090" t="str">
+        <f t="shared" si="227"/>
+        <v>31/07/2024</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1091" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1091">
+        <v>20240730</v>
+      </c>
+      <c r="C1091">
+        <v>29</v>
+      </c>
+      <c r="D1091">
+        <v>40</v>
+      </c>
+      <c r="E1091" t="str">
+        <f t="shared" si="224"/>
+        <v>30</v>
+      </c>
+      <c r="F1091" t="str">
+        <f t="shared" si="225"/>
+        <v>07</v>
+      </c>
+      <c r="G1091" t="str">
+        <f t="shared" si="226"/>
+        <v>2024</v>
+      </c>
+      <c r="H1091" t="str">
+        <f t="shared" si="227"/>
+        <v>30/07/2024</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1092" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1092">
+        <v>20240803</v>
+      </c>
+      <c r="C1092">
+        <v>27</v>
+      </c>
+      <c r="D1092">
+        <v>27</v>
+      </c>
+      <c r="E1092" t="str">
+        <f t="shared" si="224"/>
+        <v>03</v>
+      </c>
+      <c r="F1092" t="str">
+        <f t="shared" si="225"/>
+        <v>08</v>
+      </c>
+      <c r="G1092" t="str">
+        <f t="shared" si="226"/>
+        <v>2024</v>
+      </c>
+      <c r="H1092" t="str">
+        <f t="shared" si="227"/>
+        <v>03/08/2024</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1093" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1093">
+        <v>20240802</v>
+      </c>
+      <c r="C1093">
+        <v>26</v>
+      </c>
+      <c r="D1093">
+        <v>39</v>
+      </c>
+      <c r="E1093" t="str">
+        <f t="shared" si="224"/>
+        <v>02</v>
+      </c>
+      <c r="F1093" t="str">
+        <f t="shared" si="225"/>
+        <v>08</v>
+      </c>
+      <c r="G1093" t="str">
+        <f t="shared" si="226"/>
+        <v>2024</v>
+      </c>
+      <c r="H1093" t="str">
+        <f t="shared" si="227"/>
+        <v>02/08/2024</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1094" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1094">
+        <v>20240729</v>
+      </c>
+      <c r="C1094">
+        <v>24</v>
+      </c>
+      <c r="D1094">
+        <v>32</v>
+      </c>
+      <c r="E1094" t="str">
+        <f t="shared" si="224"/>
+        <v>29</v>
+      </c>
+      <c r="F1094" t="str">
+        <f t="shared" si="225"/>
+        <v>07</v>
+      </c>
+      <c r="G1094" t="str">
+        <f t="shared" si="226"/>
+        <v>2024</v>
+      </c>
+      <c r="H1094" t="str">
+        <f t="shared" si="227"/>
+        <v>29/07/2024</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1095" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1095">
+        <v>20240801</v>
+      </c>
+      <c r="C1095">
+        <v>17</v>
+      </c>
+      <c r="D1095">
+        <v>65</v>
+      </c>
+      <c r="E1095" t="str">
+        <f t="shared" si="224"/>
+        <v>01</v>
+      </c>
+      <c r="F1095" t="str">
+        <f t="shared" si="225"/>
+        <v>08</v>
+      </c>
+      <c r="G1095" t="str">
+        <f t="shared" si="226"/>
+        <v>2024</v>
+      </c>
+      <c r="H1095" t="str">
+        <f t="shared" si="227"/>
+        <v>01/08/2024</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1096" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1096">
+        <v>20240731</v>
+      </c>
+      <c r="C1096">
+        <v>15</v>
+      </c>
+      <c r="D1096">
+        <v>42</v>
+      </c>
+      <c r="E1096" t="str">
+        <f t="shared" si="224"/>
+        <v>31</v>
+      </c>
+      <c r="F1096" t="str">
+        <f t="shared" si="225"/>
+        <v>07</v>
+      </c>
+      <c r="G1096" t="str">
+        <f t="shared" si="226"/>
+        <v>2024</v>
+      </c>
+      <c r="H1096" t="str">
+        <f t="shared" si="227"/>
+        <v>31/07/2024</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1097" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1097">
+        <v>20240802</v>
+      </c>
+      <c r="C1097">
+        <v>13</v>
+      </c>
+      <c r="D1097">
+        <v>46</v>
+      </c>
+      <c r="E1097" t="str">
+        <f t="shared" si="224"/>
+        <v>02</v>
+      </c>
+      <c r="F1097" t="str">
+        <f t="shared" si="225"/>
+        <v>08</v>
+      </c>
+      <c r="G1097" t="str">
+        <f t="shared" si="226"/>
+        <v>2024</v>
+      </c>
+      <c r="H1097" t="str">
+        <f t="shared" si="227"/>
+        <v>02/08/2024</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1098" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1098">
+        <v>20240729</v>
+      </c>
+      <c r="C1098">
+        <v>11</v>
+      </c>
+      <c r="D1098">
+        <v>46</v>
+      </c>
+      <c r="E1098" t="str">
+        <f t="shared" si="224"/>
+        <v>29</v>
+      </c>
+      <c r="F1098" t="str">
+        <f t="shared" si="225"/>
+        <v>07</v>
+      </c>
+      <c r="G1098" t="str">
+        <f t="shared" si="226"/>
+        <v>2024</v>
+      </c>
+      <c r="H1098" t="str">
+        <f t="shared" si="227"/>
+        <v>29/07/2024</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1099" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1099">
+        <v>20240804</v>
+      </c>
+      <c r="C1099">
+        <v>11</v>
+      </c>
+      <c r="D1099">
+        <v>61</v>
+      </c>
+      <c r="E1099" t="str">
+        <f t="shared" si="224"/>
+        <v>04</v>
+      </c>
+      <c r="F1099" t="str">
+        <f t="shared" si="225"/>
+        <v>08</v>
+      </c>
+      <c r="G1099" t="str">
+        <f t="shared" si="226"/>
+        <v>2024</v>
+      </c>
+      <c r="H1099" t="str">
+        <f t="shared" si="227"/>
+        <v>04/08/2024</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1100" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1100">
+        <v>20240803</v>
+      </c>
+      <c r="C1100">
+        <v>10</v>
+      </c>
+      <c r="D1100">
+        <v>33</v>
+      </c>
+      <c r="E1100" t="str">
+        <f t="shared" si="224"/>
+        <v>03</v>
+      </c>
+      <c r="F1100" t="str">
+        <f t="shared" si="225"/>
+        <v>08</v>
+      </c>
+      <c r="G1100" t="str">
+        <f t="shared" si="226"/>
+        <v>2024</v>
+      </c>
+      <c r="H1100" t="str">
+        <f t="shared" si="227"/>
+        <v>03/08/2024</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1101" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1101">
+        <v>20240730</v>
+      </c>
+      <c r="C1101">
+        <v>7</v>
+      </c>
+      <c r="D1101">
+        <v>39</v>
+      </c>
+      <c r="E1101" t="str">
+        <f t="shared" si="224"/>
+        <v>30</v>
+      </c>
+      <c r="F1101" t="str">
+        <f t="shared" si="225"/>
+        <v>07</v>
+      </c>
+      <c r="G1101" t="str">
+        <f t="shared" si="226"/>
+        <v>2024</v>
+      </c>
+      <c r="H1101" t="str">
+        <f t="shared" si="227"/>
+        <v>30/07/2024</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1102" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1102">
+        <v>20240729</v>
+      </c>
+      <c r="C1102">
+        <v>2</v>
+      </c>
+      <c r="D1102">
+        <v>1</v>
+      </c>
+      <c r="E1102" t="str">
+        <f t="shared" si="224"/>
+        <v>29</v>
+      </c>
+      <c r="F1102" t="str">
+        <f t="shared" si="225"/>
+        <v>07</v>
+      </c>
+      <c r="G1102" t="str">
+        <f t="shared" si="226"/>
+        <v>2024</v>
+      </c>
+      <c r="H1102" t="str">
+        <f t="shared" si="227"/>
+        <v>29/07/2024</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1103" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1103">
+        <v>20240802</v>
+      </c>
+      <c r="C1103">
+        <v>1</v>
+      </c>
+      <c r="D1103">
+        <v>1</v>
+      </c>
+      <c r="E1103" t="str">
+        <f t="shared" si="224"/>
+        <v>02</v>
+      </c>
+      <c r="F1103" t="str">
+        <f t="shared" si="225"/>
+        <v>08</v>
+      </c>
+      <c r="G1103" t="str">
+        <f t="shared" si="226"/>
+        <v>2024</v>
+      </c>
+      <c r="H1103" t="str">
+        <f t="shared" si="227"/>
+        <v>02/08/2024</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1104" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1104">
+        <v>20240801</v>
+      </c>
+      <c r="C1104">
+        <v>1</v>
+      </c>
+      <c r="D1104">
+        <v>1</v>
+      </c>
+      <c r="E1104" t="str">
+        <f t="shared" si="224"/>
+        <v>01</v>
+      </c>
+      <c r="F1104" t="str">
+        <f t="shared" si="225"/>
+        <v>08</v>
+      </c>
+      <c r="G1104" t="str">
+        <f t="shared" si="226"/>
+        <v>2024</v>
+      </c>
+      <c r="H1104" t="str">
+        <f t="shared" si="227"/>
+        <v>01/08/2024</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1105" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1105">
+        <v>20240804</v>
+      </c>
+      <c r="C1105">
+        <v>1</v>
+      </c>
+      <c r="D1105">
+        <v>2</v>
+      </c>
+      <c r="E1105" t="str">
+        <f t="shared" si="224"/>
+        <v>04</v>
+      </c>
+      <c r="F1105" t="str">
+        <f t="shared" si="225"/>
+        <v>08</v>
+      </c>
+      <c r="G1105" t="str">
+        <f t="shared" si="226"/>
+        <v>2024</v>
+      </c>
+      <c r="H1105" t="str">
+        <f t="shared" si="227"/>
+        <v>04/08/2024</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1106" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1106">
+        <v>20240729</v>
+      </c>
+      <c r="C1106">
+        <v>0</v>
+      </c>
+      <c r="D1106">
+        <v>2</v>
+      </c>
+      <c r="E1106" t="str">
+        <f t="shared" si="224"/>
+        <v>29</v>
+      </c>
+      <c r="F1106" t="str">
+        <f t="shared" si="225"/>
+        <v>07</v>
+      </c>
+      <c r="G1106" t="str">
+        <f t="shared" si="226"/>
+        <v>2024</v>
+      </c>
+      <c r="H1106" t="str">
+        <f t="shared" si="227"/>
+        <v>29/07/2024</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1107" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1107">
+        <v>20240730</v>
+      </c>
+      <c r="C1107">
+        <v>0</v>
+      </c>
+      <c r="D1107">
+        <v>2</v>
+      </c>
+      <c r="E1107" t="str">
+        <f t="shared" si="224"/>
+        <v>30</v>
+      </c>
+      <c r="F1107" t="str">
+        <f t="shared" si="225"/>
+        <v>07</v>
+      </c>
+      <c r="G1107" t="str">
+        <f t="shared" si="226"/>
+        <v>2024</v>
+      </c>
+      <c r="H1107" t="str">
+        <f t="shared" si="227"/>
+        <v>30/07/2024</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1108" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1108">
+        <v>20240802</v>
+      </c>
+      <c r="C1108">
+        <v>0</v>
+      </c>
+      <c r="D1108">
+        <v>0</v>
+      </c>
+      <c r="E1108" t="str">
+        <f t="shared" si="224"/>
+        <v>02</v>
+      </c>
+      <c r="F1108" t="str">
+        <f t="shared" si="225"/>
+        <v>08</v>
+      </c>
+      <c r="G1108" t="str">
+        <f t="shared" si="226"/>
+        <v>2024</v>
+      </c>
+      <c r="H1108" t="str">
+        <f t="shared" si="227"/>
+        <v>02/08/2024</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1109">
+        <v>20240803</v>
+      </c>
+      <c r="C1109">
+        <v>0</v>
+      </c>
+      <c r="D1109">
+        <v>1</v>
+      </c>
+      <c r="E1109" t="str">
+        <f t="shared" si="224"/>
+        <v>03</v>
+      </c>
+      <c r="F1109" t="str">
+        <f t="shared" si="225"/>
+        <v>08</v>
+      </c>
+      <c r="G1109" t="str">
+        <f t="shared" si="226"/>
+        <v>2024</v>
+      </c>
+      <c r="H1109" t="str">
+        <f t="shared" si="227"/>
+        <v>03/08/2024</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
